--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="zohKWzkgVT4q5g2FOJaeOxtAim+ZKadkbEG0iY96bqY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="0PgKqJ9rnX2Q0YZoSEh562J/mg2ANdKiszx1EK2Itlo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="72">
   <si>
     <t>N</t>
   </si>
@@ -52,9 +52,6 @@
     <t>LevelMaster</t>
   </si>
   <si>
-    <t>PhysicsMaster</t>
-  </si>
-  <si>
     <t>GraphicsMaster</t>
   </si>
   <si>
@@ -64,7 +61,7 @@
     <t>PlayerMaster</t>
   </si>
   <si>
-    <t>EnemyMaster</t>
+    <t>NPCMaster</t>
   </si>
   <si>
     <t>ItemMaster</t>
@@ -73,9 +70,6 @@
     <t>GameEventMaster</t>
   </si>
   <si>
-    <t>BossMaster</t>
-  </si>
-  <si>
     <t>GAME_OPTIONS</t>
   </si>
   <si>
@@ -97,15 +91,6 @@
     <t>W</t>
   </si>
   <si>
-    <t>POWERS</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>ELAPSED_TIME_MS</t>
   </si>
   <si>
@@ -124,48 +109,12 @@
     <t>Room.NONE</t>
   </si>
   <si>
-    <t>LIFE_TOTAL</t>
-  </si>
-  <si>
-    <t>byte</t>
-  </si>
-  <si>
-    <t>LIFE_ACTUAL</t>
-  </si>
-  <si>
     <t>ITEMS_COLLECTED</t>
   </si>
   <si>
     <t>EVENTS_OCCURRED</t>
   </si>
   <si>
-    <t>SELECTED_CHARMS</t>
-  </si>
-  <si>
-    <t>OTHER_WORLD</t>
-  </si>
-  <si>
-    <t>OTHER_WORLD_TRANSITION_ACTIVE</t>
-  </si>
-  <si>
-    <t>OTHER_WORLD_TRANSITION_PROGRESS</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>0f</t>
-  </si>
-  <si>
-    <t>OTHER_WORLD_MODE</t>
-  </si>
-  <si>
-    <t>OtherWorldMode</t>
-  </si>
-  <si>
-    <t>OtherWorldMode.OTHER_WORLD_OBSERVE</t>
-  </si>
-  <si>
     <t>GAMESTATUS</t>
   </si>
   <si>
@@ -202,12 +151,6 @@
     <t>Vector3Struct_Default</t>
   </si>
   <si>
-    <t>BOSS_STEP</t>
-  </si>
-  <si>
-    <t>W E</t>
-  </si>
-  <si>
     <t>SERVICE_ID</t>
   </si>
   <si>
@@ -229,15 +172,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>LOAD_OBF</t>
-  </si>
-  <si>
-    <t>LOAD_OBF_DELEGATE</t>
-  </si>
-  <si>
-    <t>GameMasterClass.LoadOneBossFightService</t>
-  </si>
-  <si>
     <t>LOAD_ROOM</t>
   </si>
   <si>
@@ -265,15 +199,6 @@
     <t>GameMasterClass.LoadingCompletedService</t>
   </si>
   <si>
-    <t>CHANGE_OTHER_WORLD</t>
-  </si>
-  <si>
-    <t>CHANGE_OTHER_WORLD_DELEGATE</t>
-  </si>
-  <si>
-    <t>LevelMasterClass.ChangeOtherWorldService</t>
-  </si>
-  <si>
     <t>FREEZE_PLAY</t>
   </si>
   <si>
@@ -283,13 +208,13 @@
     <t>GameMasterClass.FreezePlayService</t>
   </si>
   <si>
-    <t>ENEMY_REGISTER</t>
-  </si>
-  <si>
-    <t>ENEMY_REGISTER_SERVICE</t>
-  </si>
-  <si>
-    <t>LevelMasterClass.EnemyRegisterService</t>
+    <t>NPC_REGISTER</t>
+  </si>
+  <si>
+    <t>NPC_REGISTER_SERVICE</t>
+  </si>
+  <si>
+    <t>LevelMasterClass.NPCRegisterService</t>
   </si>
   <si>
     <t>MONO_REGISTER</t>
@@ -299,18 +224,31 @@
   </si>
   <si>
     <t>LevelMasterClass.MonoRegisterService</t>
+  </si>
+  <si>
+    <t>MOVE_PLAYER</t>
+  </si>
+  <si>
+    <t>MOVE_PLAYER_SERVICE</t>
+  </si>
+  <si>
+    <t>PlayerMasterClass.MovePlayerService</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
@@ -332,14 +270,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -571,9 +510,9 @@
     <col customWidth="1" min="7" max="7" width="5.43"/>
     <col customWidth="1" min="8" max="8" width="3.71"/>
     <col customWidth="1" min="9" max="11" width="12.29"/>
-    <col customWidth="1" min="12" max="13" width="10.71"/>
-    <col customWidth="1" min="14" max="15" width="14.71"/>
-    <col customWidth="1" min="16" max="26" width="10.71"/>
+    <col customWidth="1" min="12" max="12" width="10.71"/>
+    <col customWidth="1" min="13" max="14" width="14.71"/>
+    <col customWidth="1" min="15" max="24" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -619,7 +558,7 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -627,12 +566,6 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -640,10 +573,10 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>2.0</v>
@@ -652,31 +585,31 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>7</v>
@@ -684,73 +617,68 @@
       <c r="P2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
         <v>2.0</v>
       </c>
       <c r="E3" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>2.0</v>
@@ -759,31 +687,31 @@
         <v>0.0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>7</v>
@@ -791,89 +719,82 @@
       <c r="P4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
         <v>2.0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="Q5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>2.0</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>7</v>
@@ -885,126 +806,120 @@
         <v>7</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E7" s="1">
         <v>0.0</v>
       </c>
-      <c r="F7" s="1">
-        <v>3.0</v>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>7</v>
@@ -1012,593 +927,119 @@
       <c r="P8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7.0</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E9" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="K9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="L9" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>8.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E10" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="1">
         <v>0.0</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="L10" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="O10" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -2570,15 +2011,6 @@
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -2598,24 +2030,24 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="22.86"/>
+    <col customWidth="1" min="1" max="2" width="22.86"/>
     <col customWidth="1" min="3" max="3" width="32.57"/>
     <col customWidth="1" min="4" max="4" width="39.14"/>
     <col customWidth="1" min="5" max="5" width="4.86"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -2638,7 +2070,7 @@
       <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -2647,31 +2079,25 @@
       <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -2683,79 +2109,89 @@
         <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>7</v>
@@ -2764,36 +2200,33 @@
         <v>7</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
@@ -2802,42 +2235,39 @@
         <v>7</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>7</v>
@@ -2852,24 +2282,21 @@
         <v>7</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5.0</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>84</v>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -2881,7 +2308,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>7</v>
@@ -2893,130 +2320,56 @@
         <v>7</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>7.0</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>69</v>
+      <c r="C9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="0PgKqJ9rnX2Q0YZoSEh562J/mg2ANdKiszx1EK2Itlo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="A4IXCiYJIjW8BBdIXp/5Ur/q0ejgCDmXLTfyD1YJk2w="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="80">
   <si>
     <t>N</t>
   </si>
@@ -151,6 +151,12 @@
     <t>Vector3Struct_Default</t>
   </si>
   <si>
+    <t>PLAYER_ID_SELECTED</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
     <t>SERVICE_ID</t>
   </si>
   <si>
@@ -211,7 +217,7 @@
     <t>NPC_REGISTER</t>
   </si>
   <si>
-    <t>NPC_REGISTER_SERVICE</t>
+    <t>NPC_REGISTER_DELEGATE</t>
   </si>
   <si>
     <t>LevelMasterClass.NPCRegisterService</t>
@@ -220,19 +226,37 @@
     <t>MONO_REGISTER</t>
   </si>
   <si>
-    <t>MONO_REGISTER_SERVICE</t>
+    <t>MONO_REGISTER_DELEGATE</t>
   </si>
   <si>
     <t>LevelMasterClass.MonoRegisterService</t>
   </si>
   <si>
+    <t>WP_REGISTER</t>
+  </si>
+  <si>
+    <t>WP_REGISTER_DELEGATE</t>
+  </si>
+  <si>
+    <t>LevelMasterClass.WPRegisterService</t>
+  </si>
+  <si>
     <t>MOVE_PLAYER</t>
   </si>
   <si>
-    <t>MOVE_PLAYER_SERVICE</t>
+    <t>MOVE_PLAYER_DELEGATE</t>
   </si>
   <si>
     <t>PlayerMasterClass.MovePlayerService</t>
+  </si>
+  <si>
+    <t>GET_PLAYER_LIST</t>
+  </si>
+  <si>
+    <t>GET_PLAYER_LIST_DELEGATE</t>
+  </si>
+  <si>
+    <t>LevelMasterClass.GetPlayerListService</t>
   </si>
 </sst>
 </file>
@@ -967,12 +991,8 @@
       <c r="M9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1029,6 +1049,35 @@
       </c>
       <c r="Q10" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -2041,13 +2090,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -2085,13 +2134,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -2109,7 +2158,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>7</v>
@@ -2126,13 +2175,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -2144,7 +2193,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
@@ -2167,13 +2216,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -2191,7 +2240,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>7</v>
@@ -2208,13 +2257,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -2226,7 +2275,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
@@ -2249,13 +2298,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -2267,7 +2316,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>7</v>
@@ -2290,13 +2339,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -2320,7 +2369,7 @@
         <v>7</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>7</v>
@@ -2331,25 +2380,25 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -2357,19 +2406,57 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="81">
   <si>
     <t>N</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>ELAPSED_TIME_MS</t>
@@ -531,7 +534,7 @@
     <col customWidth="1" min="3" max="3" width="18.0"/>
     <col customWidth="1" min="4" max="5" width="10.71"/>
     <col customWidth="1" min="6" max="6" width="35.57"/>
-    <col customWidth="1" min="7" max="7" width="5.43"/>
+    <col customWidth="1" min="7" max="7" width="8.29"/>
     <col customWidth="1" min="8" max="8" width="3.71"/>
     <col customWidth="1" min="9" max="11" width="12.29"/>
     <col customWidth="1" min="12" max="12" width="10.71"/>
@@ -632,26 +635,28 @@
       <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="1"/>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1">
         <v>2.0</v>
@@ -660,7 +665,7 @@
         <v>0.0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -683,26 +688,28 @@
       <c r="M3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="1"/>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1">
         <v>2.0</v>
@@ -711,7 +718,7 @@
         <v>0.0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
@@ -722,8 +729,8 @@
       <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>7</v>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>21</v>
@@ -731,29 +738,31 @@
       <c r="L4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="1"/>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1">
         <v>2.0</v>
@@ -762,7 +771,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>20</v>
@@ -770,32 +779,32 @@
       <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>7</v>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>7</v>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>7</v>
+      <c r="Q5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -803,10 +812,10 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1">
         <v>2.0</v>
@@ -815,7 +824,7 @@
         <v>2.0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>20</v>
@@ -823,20 +832,20 @@
       <c r="H6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>7</v>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>21</v>
@@ -844,8 +853,8 @@
       <c r="O6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>7</v>
+      <c r="P6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>23</v>
@@ -856,10 +865,10 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1">
         <v>0.0</v>
@@ -868,7 +877,7 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>0</v>
@@ -879,8 +888,8 @@
       <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>7</v>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>22</v>
@@ -897,20 +906,22 @@
       <c r="O7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="1"/>
+      <c r="P7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1">
         <v>0.0</v>
@@ -919,7 +930,7 @@
         <v>0.0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -933,11 +944,11 @@
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>7</v>
+      <c r="K8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>21</v>
@@ -945,23 +956,25 @@
       <c r="N8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="1"/>
+      <c r="O8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>7.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1">
         <v>0.0</v>
@@ -970,7 +983,7 @@
         <v>0.0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>0</v>
@@ -978,7 +991,9 @@
       <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
@@ -991,22 +1006,28 @@
       <c r="M9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" s="1"/>
+      <c r="N9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1">
         <v>0.0</v>
@@ -1015,7 +1036,7 @@
         <v>0.0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -1023,29 +1044,29 @@
       <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>7</v>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>7</v>
+      <c r="M10" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>7</v>
+      <c r="O10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>21</v>
@@ -1056,10 +1077,10 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3">
         <v>0.0</v>
@@ -1073,11 +1094,32 @@
       <c r="G11" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="K11" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="L11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="N11" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -1089,7 +1131,9 @@
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="I21" s="3"/>
+    </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -2061,6 +2105,17 @@
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D11">
+      <formula1>"0,1,2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G11">
+      <formula1>"N,Y"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:Q11">
+      <formula1>"R,R E,W,-"</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
@@ -2090,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -2134,13 +2189,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -2148,26 +2203,29 @@
       <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -2175,13 +2233,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -2189,26 +2247,29 @@
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -2216,13 +2277,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -2230,26 +2291,29 @@
       <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>7</v>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -2257,13 +2321,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -2271,26 +2335,29 @@
       <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -2298,13 +2365,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -2312,26 +2379,29 @@
       <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -2339,40 +2409,43 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>7</v>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -2380,25 +2453,40 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="I8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -2406,37 +2494,81 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3">
         <v>8.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -2444,22 +2576,48 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="I11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N11">
+      <formula1>"W,X,-"</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="84">
   <si>
     <t>N</t>
   </si>
@@ -260,6 +260,15 @@
   </si>
   <si>
     <t>LevelMasterClass.GetPlayerListService</t>
+  </si>
+  <si>
+    <t>GET_NEAREST_WP</t>
+  </si>
+  <si>
+    <t>GET_NEAREST_WP_DELEGATE</t>
+  </si>
+  <si>
+    <t>LevelMasterClass.GetNearestWPService</t>
   </si>
 </sst>
 </file>
@@ -2612,9 +2621,50 @@
         <v>24</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N12">
       <formula1>"W,X,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="A4IXCiYJIjW8BBdIXp/5Ur/q0ejgCDmXLTfyD1YJk2w="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="jH0BDaV1B/CD90N+/3bJ7/uWdI8695kth0L8Cw8+0k8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="109">
   <si>
     <t>N</t>
   </si>
@@ -115,6 +115,12 @@
     <t>ITEMS_COLLECTED</t>
   </si>
   <si>
+    <t>MultiBitFieldStruct</t>
+  </si>
+  <si>
+    <t>default(MultiBitFieldStruct)</t>
+  </si>
+  <si>
     <t>EVENTS_OCCURRED</t>
   </si>
   <si>
@@ -226,6 +232,15 @@
     <t>LevelMasterClass.NPCRegisterService</t>
   </si>
   <si>
+    <t>ITEM_REGISTER</t>
+  </si>
+  <si>
+    <t>ITEM_REGISTER_DELEGATE</t>
+  </si>
+  <si>
+    <t>LevelMasterClass.ItemRegisterService</t>
+  </si>
+  <si>
     <t>MONO_REGISTER</t>
   </si>
   <si>
@@ -269,6 +284,66 @@
   </si>
   <si>
     <t>LevelMasterClass.GetNearestWPService</t>
+  </si>
+  <si>
+    <t>IS_EVENT_OCCURRED</t>
+  </si>
+  <si>
+    <t>IS_EVENT_OCCURRED_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameEventMasterClass.IsEventOccurredService</t>
+  </si>
+  <si>
+    <t>COMMIT_EVENT</t>
+  </si>
+  <si>
+    <t>COMMIT_EVENT_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameEventMasterClass.CommitEventService</t>
+  </si>
+  <si>
+    <t>TAKE_ITEM_EVENT</t>
+  </si>
+  <si>
+    <t>TAKE_ITEM_EVENT_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameEventMasterClass.TakeItemEventService</t>
+  </si>
+  <si>
+    <t>RETAKE_ITEM_EVENT</t>
+  </si>
+  <si>
+    <t>RETAKE_ITEM_EVENT_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameEventMasterClass.ReTakeItemEventService</t>
+  </si>
+  <si>
+    <t>IS_ITEM_TAKEN_FIRST</t>
+  </si>
+  <si>
+    <t>IS_ITEM_TAKEN_FIRST_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameEventMasterClass.IsItemTakenFirstService</t>
+  </si>
+  <si>
+    <t>IS_ITEM_TAKEN</t>
+  </si>
+  <si>
+    <t>IS_ITEM_TAKEN_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameEventMasterClass.IsItemTakenService</t>
+  </si>
+  <si>
+    <t>INTERACT_ITEM_PLAYER</t>
+  </si>
+  <si>
+    <t>PlayerMasterClass.InteractItemPlayerService</t>
   </si>
 </sst>
 </file>
@@ -540,7 +615,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="10.71"/>
     <col customWidth="1" min="2" max="2" width="34.29"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
+    <col customWidth="1" min="3" max="3" width="20.86"/>
     <col customWidth="1" min="4" max="5" width="10.71"/>
     <col customWidth="1" min="6" max="6" width="35.57"/>
     <col customWidth="1" min="7" max="7" width="8.29"/>
@@ -770,17 +845,17 @@
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2">
         <v>2.0</v>
       </c>
       <c r="E5" s="1">
         <v>2.0</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>20</v>
@@ -794,8 +869,8 @@
       <c r="J5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
+      <c r="K5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
@@ -821,10 +896,10 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D6" s="1">
         <v>2.0</v>
@@ -832,8 +907,8 @@
       <c r="E6" s="1">
         <v>2.0</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>20</v>
@@ -847,8 +922,8 @@
       <c r="J6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>21</v>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>24</v>
@@ -856,11 +931,11 @@
       <c r="M6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>21</v>
+      <c r="N6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>24</v>
@@ -874,10 +949,10 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1">
         <v>0.0</v>
@@ -886,7 +961,7 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>0</v>
@@ -927,10 +1002,10 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1">
         <v>0.0</v>
@@ -939,7 +1014,7 @@
         <v>0.0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -980,10 +1055,10 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1">
         <v>0.0</v>
@@ -992,7 +1067,7 @@
         <v>0.0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>0</v>
@@ -1033,10 +1108,10 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1">
         <v>0.0</v>
@@ -1045,7 +1120,7 @@
         <v>0.0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -1086,10 +1161,10 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3">
         <v>0.0</v>
@@ -2145,7 +2220,7 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="22.86"/>
     <col customWidth="1" min="3" max="3" width="32.57"/>
-    <col customWidth="1" min="4" max="4" width="39.14"/>
+    <col customWidth="1" min="4" max="4" width="42.43"/>
     <col customWidth="1" min="5" max="5" width="4.86"/>
   </cols>
   <sheetData>
@@ -2154,13 +2229,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -2198,13 +2273,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -2222,7 +2297,7 @@
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>24</v>
@@ -2242,13 +2317,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -2260,7 +2335,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
@@ -2286,13 +2361,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -2310,7 +2385,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>24</v>
@@ -2330,13 +2405,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -2348,7 +2423,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
@@ -2374,13 +2449,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -2392,7 +2467,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>24</v>
@@ -2418,13 +2493,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -2447,8 +2522,8 @@
       <c r="K7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>53</v>
+      <c r="L7" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>24</v>
@@ -2461,63 +2536,63 @@
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>69</v>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="3" t="s">
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7.0</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -2526,13 +2601,13 @@
       <c r="J9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="3" t="s">
+      <c r="K9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N9" s="3" t="s">
@@ -2540,17 +2615,17 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>8.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>24</v>
@@ -2559,7 +2634,7 @@
         <v>24</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>24</v>
@@ -2568,49 +2643,49 @@
         <v>24</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="L11" s="3" t="s">
         <v>24</v>
       </c>
@@ -2622,17 +2697,17 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>10.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>24</v>
@@ -2650,7 +2725,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>24</v>
@@ -2659,12 +2734,340 @@
         <v>24</v>
       </c>
       <c r="N12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N20">
       <formula1>"W,X,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="122">
   <si>
     <t>N</t>
   </si>
@@ -166,6 +166,15 @@
     <t>byte</t>
   </si>
   <si>
+    <t>ITEM_MENU_ACTIVE</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>SERVICE_ID</t>
   </si>
   <si>
@@ -343,7 +352,37 @@
     <t>INTERACT_ITEM_PLAYER</t>
   </si>
   <si>
+    <t>INTERACT_ITEM_PLAYER_DELEGATE</t>
+  </si>
+  <si>
     <t>PlayerMasterClass.InteractItemPlayerService</t>
+  </si>
+  <si>
+    <t>GET_ITEM_INTERACTION</t>
+  </si>
+  <si>
+    <t>GET_ITEM_INTERACTION_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameEventMasterClass.GetItemInteractionService</t>
+  </si>
+  <si>
+    <t>TAKE_ITEM_OBJECT</t>
+  </si>
+  <si>
+    <t>TAKE_ITEM_OBJECT_DELEGATE</t>
+  </si>
+  <si>
+    <t>ItemMasterClass.TakeItemObjectService</t>
+  </si>
+  <si>
+    <t>GET_ITEM_LIST</t>
+  </si>
+  <si>
+    <t>GET_ITEM_LIST_DELEGATE</t>
+  </si>
+  <si>
+    <t>LevelMasterClass.GetItemListService</t>
   </si>
 </sst>
 </file>
@@ -381,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -390,6 +429,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -991,7 +1033,7 @@
         <v>22</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>24</v>
@@ -1076,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
@@ -1206,7 +1248,56 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -2190,13 +2281,13 @@
     <row r="991" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D12">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G12">
       <formula1>"N,Y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:Q11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:Q12">
       <formula1>"R,R E,W,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2220,7 +2311,7 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="22.86"/>
     <col customWidth="1" min="3" max="3" width="32.57"/>
-    <col customWidth="1" min="4" max="4" width="42.43"/>
+    <col customWidth="1" min="4" max="4" width="44.0"/>
     <col customWidth="1" min="5" max="5" width="4.86"/>
   </cols>
   <sheetData>
@@ -2229,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -2273,13 +2364,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -2297,7 +2388,7 @@
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>24</v>
@@ -2317,13 +2408,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -2335,7 +2426,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
@@ -2361,13 +2452,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -2385,7 +2476,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>24</v>
@@ -2405,13 +2496,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -2423,7 +2514,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
@@ -2449,13 +2540,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -2467,7 +2558,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>24</v>
@@ -2493,13 +2584,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -2523,7 +2614,7 @@
         <v>24</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>24</v>
@@ -2537,13 +2628,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>24</v>
@@ -2567,7 +2658,7 @@
         <v>24</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>24</v>
@@ -2578,13 +2669,13 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>24</v>
@@ -2602,7 +2693,7 @@
         <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>24</v>
@@ -2619,13 +2710,13 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>24</v>
@@ -2660,13 +2751,13 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>24</v>
@@ -2675,7 +2766,7 @@
         <v>24</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>24</v>
@@ -2701,13 +2792,13 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>24</v>
@@ -2725,7 +2816,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>24</v>
@@ -2742,13 +2833,13 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>24</v>
@@ -2766,13 +2857,13 @@
         <v>24</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>24</v>
@@ -2783,13 +2874,13 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>24</v>
@@ -2798,7 +2889,7 @@
         <v>24</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>24</v>
@@ -2807,13 +2898,13 @@
         <v>24</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>23</v>
@@ -2824,13 +2915,13 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>24</v>
@@ -2839,7 +2930,7 @@
         <v>24</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>24</v>
@@ -2848,13 +2939,13 @@
         <v>24</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>23</v>
@@ -2865,13 +2956,13 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>24</v>
@@ -2895,7 +2986,7 @@
         <v>24</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>23</v>
@@ -2906,13 +2997,13 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>24</v>
@@ -2936,7 +3027,7 @@
         <v>24</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>23</v>
@@ -2947,13 +3038,13 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>24</v>
@@ -2962,7 +3053,7 @@
         <v>24</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>24</v>
@@ -2977,7 +3068,7 @@
         <v>24</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>23</v>
@@ -2988,13 +3079,13 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>24</v>
@@ -3018,7 +3109,7 @@
         <v>24</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>23</v>
@@ -3029,13 +3120,13 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>24</v>
@@ -3044,7 +3135,7 @@
         <v>24</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>24</v>
@@ -3065,9 +3156,132 @@
         <v>24</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N20">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N23">
       <formula1>"W,X,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="128">
   <si>
     <t>N</t>
   </si>
@@ -175,6 +175,15 @@
     <t>false</t>
   </si>
   <si>
+    <t>PICKABLE_ITEM_CHOSEN</t>
+  </si>
+  <si>
+    <t>GamePickableItem</t>
+  </si>
+  <si>
+    <t>GamePickableItem.ITEM_PICK_NONE</t>
+  </si>
+  <si>
     <t>SERVICE_ID</t>
   </si>
   <si>
@@ -376,13 +385,22 @@
     <t>ItemMasterClass.TakeItemObjectService</t>
   </si>
   <si>
-    <t>GET_ITEM_LIST</t>
-  </si>
-  <si>
-    <t>GET_ITEM_LIST_DELEGATE</t>
-  </si>
-  <si>
-    <t>LevelMasterClass.GetItemListService</t>
+    <t>GET_SCENARIO_ITEM_LIST</t>
+  </si>
+  <si>
+    <t>GET_SCENARIO_ITEM_LIST_DELEGATE</t>
+  </si>
+  <si>
+    <t>LevelMasterClass.GetScenarioItemListService</t>
+  </si>
+  <si>
+    <t>GET_PICKED_ITEM_LIST</t>
+  </si>
+  <si>
+    <t>GET_PICKED_ITEM_LIST_DELEGATE</t>
+  </si>
+  <si>
+    <t>ItemMasterClass.GetPickedItemListService</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1316,56 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1"/>
@@ -2281,13 +2348,13 @@
     <row r="991" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D13">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G13">
       <formula1>"N,Y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:Q12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:Q13">
       <formula1>"R,R E,W,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2309,8 +2376,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="22.86"/>
-    <col customWidth="1" min="3" max="3" width="32.57"/>
+    <col customWidth="1" min="1" max="1" width="22.86"/>
+    <col customWidth="1" min="2" max="2" width="24.14"/>
+    <col customWidth="1" min="3" max="3" width="33.71"/>
     <col customWidth="1" min="4" max="4" width="44.0"/>
     <col customWidth="1" min="5" max="5" width="4.86"/>
   </cols>
@@ -2320,13 +2388,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -2364,13 +2432,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -2388,7 +2456,7 @@
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>24</v>
@@ -2408,13 +2476,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -2426,7 +2494,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
@@ -2452,13 +2520,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -2476,7 +2544,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>24</v>
@@ -2496,13 +2564,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -2514,7 +2582,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
@@ -2540,13 +2608,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -2558,7 +2626,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>24</v>
@@ -2584,13 +2652,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -2614,7 +2682,7 @@
         <v>24</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>24</v>
@@ -2628,13 +2696,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>24</v>
@@ -2658,7 +2726,7 @@
         <v>24</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>24</v>
@@ -2669,13 +2737,13 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>24</v>
@@ -2693,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>24</v>
@@ -2710,13 +2778,13 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>24</v>
@@ -2751,13 +2819,13 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>24</v>
@@ -2766,7 +2834,7 @@
         <v>24</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>24</v>
@@ -2792,13 +2860,13 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>24</v>
@@ -2816,7 +2884,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>24</v>
@@ -2833,13 +2901,13 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>24</v>
@@ -2857,13 +2925,13 @@
         <v>24</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>24</v>
@@ -2874,13 +2942,13 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>24</v>
@@ -2889,7 +2957,7 @@
         <v>24</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>24</v>
@@ -2898,13 +2966,13 @@
         <v>24</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>23</v>
@@ -2915,13 +2983,13 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>24</v>
@@ -2930,7 +2998,7 @@
         <v>24</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>24</v>
@@ -2939,13 +3007,13 @@
         <v>24</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>23</v>
@@ -2956,13 +3024,13 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>24</v>
@@ -2986,7 +3054,7 @@
         <v>24</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>23</v>
@@ -2997,13 +3065,13 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>24</v>
@@ -3027,7 +3095,7 @@
         <v>24</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>23</v>
@@ -3038,13 +3106,13 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>24</v>
@@ -3053,7 +3121,7 @@
         <v>24</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>24</v>
@@ -3068,7 +3136,7 @@
         <v>24</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>23</v>
@@ -3079,13 +3147,13 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>24</v>
@@ -3109,7 +3177,7 @@
         <v>24</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>23</v>
@@ -3120,13 +3188,13 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>24</v>
@@ -3135,7 +3203,7 @@
         <v>24</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>24</v>
@@ -3161,13 +3229,13 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>24</v>
@@ -3185,7 +3253,7 @@
         <v>24</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>24</v>
@@ -3202,13 +3270,13 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>24</v>
@@ -3217,7 +3285,7 @@
         <v>24</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>24</v>
@@ -3226,7 +3294,7 @@
         <v>24</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>24</v>
@@ -3243,13 +3311,13 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>24</v>
@@ -3273,15 +3341,56 @@
         <v>24</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N23">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N24">
       <formula1>"W,X,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="jH0BDaV1B/CD90N+/3bJ7/uWdI8695kth0L8Cw8+0k8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="A4IXCiYJIjW8BBdIXp/5Ur/q0ejgCDmXLTfyD1YJk2w="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="132">
   <si>
     <t>N</t>
   </si>
@@ -112,7 +112,7 @@
     <t>Room.NONE</t>
   </si>
   <si>
-    <t>ITEMS_COLLECTED</t>
+    <t>EVENTS_OCCURRED</t>
   </si>
   <si>
     <t>MultiBitFieldStruct</t>
@@ -121,7 +121,7 @@
     <t>default(MultiBitFieldStruct)</t>
   </si>
   <si>
-    <t>EVENTS_OCCURRED</t>
+    <t>PICKABLE_ITEM_OWNER</t>
   </si>
   <si>
     <t>GAMESTATUS</t>
@@ -160,10 +160,13 @@
     <t>Vector3Struct_Default</t>
   </si>
   <si>
-    <t>PLAYER_ID_SELECTED</t>
-  </si>
-  <si>
-    <t>byte</t>
+    <t>PLAYER_SELECTED</t>
+  </si>
+  <si>
+    <t>CharacterType</t>
+  </si>
+  <si>
+    <t>CharacterType.CHARACTER_NONE</t>
   </si>
   <si>
     <t>ITEM_MENU_ACTIVE</t>
@@ -322,40 +325,40 @@
     <t>GameEventMasterClass.CommitEventService</t>
   </si>
   <si>
-    <t>TAKE_ITEM_EVENT</t>
-  </si>
-  <si>
-    <t>TAKE_ITEM_EVENT_DELEGATE</t>
-  </si>
-  <si>
-    <t>GameEventMasterClass.TakeItemEventService</t>
-  </si>
-  <si>
-    <t>RETAKE_ITEM_EVENT</t>
-  </si>
-  <si>
-    <t>RETAKE_ITEM_EVENT_DELEGATE</t>
-  </si>
-  <si>
-    <t>GameEventMasterClass.ReTakeItemEventService</t>
-  </si>
-  <si>
-    <t>IS_ITEM_TAKEN_FIRST</t>
-  </si>
-  <si>
-    <t>IS_ITEM_TAKEN_FIRST_DELEGATE</t>
-  </si>
-  <si>
-    <t>GameEventMasterClass.IsItemTakenFirstService</t>
-  </si>
-  <si>
-    <t>IS_ITEM_TAKEN</t>
-  </si>
-  <si>
-    <t>IS_ITEM_TAKEN_DELEGATE</t>
-  </si>
-  <si>
-    <t>GameEventMasterClass.IsItemTakenService</t>
+    <t>TAKE_ITEM_FROM_SCENE_EVENT</t>
+  </si>
+  <si>
+    <t>TAKE_ITEM_FROM_SCENE_EVENT_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameEventMasterClass.TakeItemFromSceneEventService</t>
+  </si>
+  <si>
+    <t>TAKE_ITEM</t>
+  </si>
+  <si>
+    <t>TAKE_ITEM_DELEGATE</t>
+  </si>
+  <si>
+    <t>ItemMasterClass.TakeItemService</t>
+  </si>
+  <si>
+    <t>IS_ITEM_TAKEN_FROM_SCENE</t>
+  </si>
+  <si>
+    <t>IS_ITEM_TAKEN_FROM_SCENE_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameEventMasterClass.IsItemTakenFromSceneService</t>
+  </si>
+  <si>
+    <t>IS_ITEM_OWNED</t>
+  </si>
+  <si>
+    <t>IS_ITEM_OWNED_DELEGATE</t>
+  </si>
+  <si>
+    <t>ItemMasterClass.IsItemOwnedService</t>
   </si>
   <si>
     <t>INTERACT_ITEM_PLAYER</t>
@@ -376,15 +379,6 @@
     <t>GameEventMasterClass.GetItemInteractionService</t>
   </si>
   <si>
-    <t>TAKE_ITEM_OBJECT</t>
-  </si>
-  <si>
-    <t>TAKE_ITEM_OBJECT_DELEGATE</t>
-  </si>
-  <si>
-    <t>ItemMasterClass.TakeItemObjectService</t>
-  </si>
-  <si>
     <t>GET_SCENARIO_ITEM_LIST</t>
   </si>
   <si>
@@ -401,6 +395,24 @@
   </si>
   <si>
     <t>ItemMasterClass.GetPickedItemListService</t>
+  </si>
+  <si>
+    <t>SELECT_PICKABLE_ITEM</t>
+  </si>
+  <si>
+    <t>SELECT_PICKABLE_ITEM_DELEGATE</t>
+  </si>
+  <si>
+    <t>ItemMasterClass.SelectPickableItemService</t>
+  </si>
+  <si>
+    <t>CANCEL_PICKABLE_ITEM</t>
+  </si>
+  <si>
+    <t>CANCEL_PICKABLE_ITEM_DELEGATE</t>
+  </si>
+  <si>
+    <t>ItemMasterClass.CancelPickableItemService</t>
   </si>
 </sst>
 </file>
@@ -879,11 +891,11 @@
       <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>24</v>
@@ -899,8 +911,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>3.0</v>
+      <c r="A5" s="2">
+        <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
@@ -908,7 +920,7 @@
       <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>2.0</v>
       </c>
       <c r="E5" s="1">
@@ -944,38 +956,36 @@
       <c r="O5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>24</v>
+      <c r="P5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>2.0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>2.0</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="2" t="s">
         <v>24</v>
       </c>
@@ -998,15 +1008,15 @@
         <v>24</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>35</v>
@@ -1058,8 +1068,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>6.0</v>
+      <c r="A8" s="2">
+        <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
@@ -1112,7 +1122,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>41</v>
@@ -1165,7 +1175,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>44</v>
@@ -1217,8 +1227,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
-        <v>9.0</v>
+      <c r="A11" s="2">
+        <v>10.0</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>47</v>
@@ -1232,8 +1242,8 @@
       <c r="E11" s="3">
         <v>0.0</v>
       </c>
-      <c r="F11" s="3">
-        <v>0.0</v>
+      <c r="F11" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>0</v>
@@ -1251,7 +1261,7 @@
         <v>24</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>22</v>
@@ -1267,14 +1277,14 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="3">
-        <v>10.0</v>
+      <c r="A12" s="2">
+        <v>11.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3">
         <v>0.0</v>
@@ -1283,7 +1293,7 @@
         <v>0.0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>0</v>
@@ -1317,14 +1327,14 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="3">
-        <v>11.0</v>
+      <c r="A13" s="2">
+        <v>12.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="3">
         <v>1.0</v>
@@ -1333,7 +1343,7 @@
         <v>0.0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>0</v>
@@ -1348,10 +1358,10 @@
         <v>21</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>21</v>
@@ -1360,7 +1370,7 @@
         <v>21</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>24</v>
@@ -2377,9 +2387,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="22.86"/>
-    <col customWidth="1" min="2" max="2" width="24.14"/>
-    <col customWidth="1" min="3" max="3" width="33.71"/>
-    <col customWidth="1" min="4" max="4" width="44.0"/>
+    <col customWidth="1" min="2" max="2" width="30.14"/>
+    <col customWidth="1" min="3" max="3" width="39.86"/>
+    <col customWidth="1" min="4" max="4" width="49.57"/>
     <col customWidth="1" min="5" max="5" width="4.86"/>
   </cols>
   <sheetData>
@@ -2388,13 +2398,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -2432,13 +2442,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -2456,7 +2466,7 @@
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>24</v>
@@ -2476,13 +2486,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -2494,7 +2504,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
@@ -2520,13 +2530,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -2544,7 +2554,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>24</v>
@@ -2564,13 +2574,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -2582,7 +2592,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
@@ -2608,13 +2618,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -2626,7 +2636,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>24</v>
@@ -2652,13 +2662,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -2682,7 +2692,7 @@
         <v>24</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>24</v>
@@ -2696,13 +2706,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>24</v>
@@ -2726,7 +2736,7 @@
         <v>24</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>24</v>
@@ -2737,13 +2747,13 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>24</v>
@@ -2761,7 +2771,7 @@
         <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>24</v>
@@ -2778,13 +2788,13 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>24</v>
@@ -2819,13 +2829,13 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>24</v>
@@ -2834,7 +2844,7 @@
         <v>24</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>24</v>
@@ -2860,13 +2870,13 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>24</v>
@@ -2884,7 +2894,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>24</v>
@@ -2901,13 +2911,13 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>24</v>
@@ -2925,30 +2935,30 @@
         <v>24</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>12.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>24</v>
@@ -2957,7 +2967,7 @@
         <v>24</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>24</v>
@@ -2966,30 +2976,30 @@
         <v>24</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>13.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>24</v>
@@ -2998,7 +3008,7 @@
         <v>24</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>24</v>
@@ -3007,30 +3017,30 @@
         <v>24</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>14.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>24</v>
@@ -3054,24 +3064,24 @@
         <v>24</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>15.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>24</v>
@@ -3080,7 +3090,7 @@
         <v>24</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>24</v>
@@ -3089,30 +3099,30 @@
         <v>24</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>16.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>24</v>
@@ -3121,7 +3131,7 @@
         <v>24</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>24</v>
@@ -3136,24 +3146,24 @@
         <v>24</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>17.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>24</v>
@@ -3177,24 +3187,24 @@
         <v>24</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>18.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>24</v>
@@ -3203,7 +3213,7 @@
         <v>24</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>24</v>
@@ -3225,17 +3235,17 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>19.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>24</v>
@@ -3253,7 +3263,7 @@
         <v>24</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>24</v>
@@ -3266,17 +3276,17 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>20.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>24</v>
@@ -3285,7 +3295,7 @@
         <v>24</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>24</v>
@@ -3294,30 +3304,30 @@
         <v>24</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>21.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>24</v>
@@ -3326,13 +3336,13 @@
         <v>24</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>24</v>
@@ -3341,24 +3351,24 @@
         <v>24</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>22.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>24</v>
@@ -3373,7 +3383,7 @@
         <v>24</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>24</v>
@@ -3385,12 +3395,53 @@
         <v>23</v>
       </c>
       <c r="N24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N24">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N25">
       <formula1>"W,X,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="134">
   <si>
     <t>N</t>
   </si>
@@ -124,6 +124,12 @@
     <t>PICKABLE_ITEM_OWNER</t>
   </si>
   <si>
+    <t>CharacterType</t>
+  </si>
+  <si>
+    <t>CharacterType.CHARACTER_NONE</t>
+  </si>
+  <si>
     <t>GAMESTATUS</t>
   </si>
   <si>
@@ -163,10 +169,7 @@
     <t>PLAYER_SELECTED</t>
   </si>
   <si>
-    <t>CharacterType</t>
-  </si>
-  <si>
-    <t>CharacterType.CHARACTER_NONE</t>
+    <t>W E</t>
   </si>
   <si>
     <t>ITEM_MENU_ACTIVE</t>
@@ -289,6 +292,15 @@
     <t>PlayerMasterClass.MovePlayerService</t>
   </si>
   <si>
+    <t>SELECT_PLAYER</t>
+  </si>
+  <si>
+    <t>SELECT_PLAYER_DELEGATE</t>
+  </si>
+  <si>
+    <t>PlayerMasterClass.SelectPlayerService</t>
+  </si>
+  <si>
     <t>GET_PLAYER_LIST</t>
   </si>
   <si>
@@ -352,22 +364,13 @@
     <t>GameEventMasterClass.IsItemTakenFromSceneService</t>
   </si>
   <si>
-    <t>IS_ITEM_OWNED</t>
-  </si>
-  <si>
-    <t>IS_ITEM_OWNED_DELEGATE</t>
-  </si>
-  <si>
-    <t>ItemMasterClass.IsItemOwnedService</t>
-  </si>
-  <si>
-    <t>INTERACT_ITEM_PLAYER</t>
-  </si>
-  <si>
-    <t>INTERACT_ITEM_PLAYER_DELEGATE</t>
-  </si>
-  <si>
-    <t>PlayerMasterClass.InteractItemPlayerService</t>
+    <t>INTERACT_PLAYER_ITEM</t>
+  </si>
+  <si>
+    <t>INTERACT_PLAYER_ITEM_DELEGATE</t>
+  </si>
+  <si>
+    <t>PlayerMasterClass.InteractPlayerItemService</t>
   </si>
   <si>
     <t>GET_ITEM_INTERACTION</t>
@@ -388,15 +391,6 @@
     <t>LevelMasterClass.GetScenarioItemListService</t>
   </si>
   <si>
-    <t>GET_PICKED_ITEM_LIST</t>
-  </si>
-  <si>
-    <t>GET_PICKED_ITEM_LIST_DELEGATE</t>
-  </si>
-  <si>
-    <t>ItemMasterClass.GetPickedItemListService</t>
-  </si>
-  <si>
     <t>SELECT_PICKABLE_ITEM</t>
   </si>
   <si>
@@ -413,6 +407,18 @@
   </si>
   <si>
     <t>ItemMasterClass.CancelPickableItemService</t>
+  </si>
+  <si>
+    <t>USE_ITEM</t>
+  </si>
+  <si>
+    <t>USE_ITEM_DELEGATE</t>
+  </si>
+  <si>
+    <t>ItemMasterClass.UseItemService</t>
+  </si>
+  <si>
+    <t>LAST_SERVICE</t>
   </si>
 </sst>
 </file>
@@ -971,7 +977,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
         <v>2.0</v>
@@ -979,8 +985,8 @@
       <c r="E6" s="2">
         <v>2.0</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>20</v>
@@ -993,16 +999,16 @@
         <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>24</v>
@@ -1019,10 +1025,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1">
         <v>0.0</v>
@@ -1031,7 +1037,7 @@
         <v>0.0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>0</v>
@@ -1072,10 +1078,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1">
         <v>0.0</v>
@@ -1084,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -1125,10 +1131,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1">
         <v>0.0</v>
@@ -1137,7 +1143,7 @@
         <v>0.0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>0</v>
@@ -1178,10 +1184,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1">
         <v>0.0</v>
@@ -1190,7 +1196,7 @@
         <v>0.0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -1231,10 +1237,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3">
         <v>0.0</v>
@@ -1243,7 +1249,7 @@
         <v>0.0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>0</v>
@@ -1255,7 +1261,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>24</v>
@@ -1264,13 +1270,13 @@
         <v>21</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>24</v>
@@ -1281,10 +1287,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3">
         <v>0.0</v>
@@ -1293,7 +1299,7 @@
         <v>0.0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>0</v>
@@ -1331,10 +1337,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3">
         <v>1.0</v>
@@ -1343,7 +1349,7 @@
         <v>0.0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>0</v>
@@ -2365,7 +2371,7 @@
       <formula1>"N,Y"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:Q13">
-      <formula1>"R,R E,W,-"</formula1>
+      <formula1>"R,R E,W,W E,-"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -2398,13 +2404,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -2442,13 +2448,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -2466,7 +2472,7 @@
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>24</v>
@@ -2486,13 +2492,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -2504,7 +2510,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
@@ -2530,13 +2536,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -2554,7 +2560,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>24</v>
@@ -2574,13 +2580,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -2592,7 +2598,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
@@ -2618,13 +2624,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -2636,7 +2642,7 @@
         <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>24</v>
@@ -2662,13 +2668,13 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -2692,7 +2698,7 @@
         <v>24</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>24</v>
@@ -2706,13 +2712,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>24</v>
@@ -2736,7 +2742,7 @@
         <v>24</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>24</v>
@@ -2747,13 +2753,13 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>24</v>
@@ -2771,7 +2777,7 @@
         <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>24</v>
@@ -2788,13 +2794,13 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>24</v>
@@ -2829,13 +2835,13 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>24</v>
@@ -2844,7 +2850,7 @@
         <v>24</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>24</v>
@@ -2870,13 +2876,13 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>24</v>
@@ -2885,7 +2891,7 @@
         <v>24</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>24</v>
@@ -2894,7 +2900,7 @@
         <v>24</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>24</v>
@@ -2911,13 +2917,13 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>24</v>
@@ -2935,13 +2941,13 @@
         <v>24</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>24</v>
@@ -2952,13 +2958,13 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>24</v>
@@ -2967,7 +2973,7 @@
         <v>24</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>24</v>
@@ -2976,16 +2982,16 @@
         <v>24</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -2993,13 +2999,13 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>24</v>
@@ -3008,7 +3014,7 @@
         <v>24</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>24</v>
@@ -3017,13 +3023,13 @@
         <v>24</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>23</v>
@@ -3034,13 +3040,13 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>24</v>
@@ -3049,7 +3055,7 @@
         <v>24</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>24</v>
@@ -3058,13 +3064,13 @@
         <v>24</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>23</v>
@@ -3075,13 +3081,13 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>24</v>
@@ -3090,7 +3096,7 @@
         <v>24</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>24</v>
@@ -3099,16 +3105,16 @@
         <v>24</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -3116,13 +3122,13 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>24</v>
@@ -3131,7 +3137,7 @@
         <v>24</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>24</v>
@@ -3140,16 +3146,16 @@
         <v>24</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -3157,13 +3163,13 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>24</v>
@@ -3172,7 +3178,7 @@
         <v>24</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>24</v>
@@ -3187,10 +3193,10 @@
         <v>24</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -3198,13 +3204,13 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>24</v>
@@ -3213,7 +3219,7 @@
         <v>24</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>24</v>
@@ -3239,13 +3245,13 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>24</v>
@@ -3263,16 +3269,16 @@
         <v>24</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -3280,13 +3286,13 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>24</v>
@@ -3310,7 +3316,7 @@
         <v>24</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>24</v>
@@ -3321,13 +3327,13 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>24</v>
@@ -3342,7 +3348,7 @@
         <v>24</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>24</v>
@@ -3362,13 +3368,13 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>24</v>
@@ -3377,16 +3383,16 @@
         <v>24</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>24</v>
@@ -3403,14 +3409,14 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="F25" s="3" t="s">
         <v>24</v>
       </c>
@@ -3418,16 +3424,16 @@
         <v>24</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>24</v>
@@ -3436,12 +3442,53 @@
         <v>23</v>
       </c>
       <c r="N25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N25">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N26">
       <formula1>"W,X,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="A4IXCiYJIjW8BBdIXp/5Ur/q0ejgCDmXLTfyD1YJk2w="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="HG1rVsdSrIWZrSsHm7ZEAfLmsQLt9s4FHbTeOCBADTY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="143">
   <si>
     <t>N</t>
   </si>
@@ -184,10 +184,10 @@
     <t>PICKABLE_ITEM_CHOSEN</t>
   </si>
   <si>
-    <t>GamePickableItem</t>
-  </si>
-  <si>
-    <t>GamePickableItem.ITEM_PICK_NONE</t>
+    <t>GameItem</t>
+  </si>
+  <si>
+    <t>GameItem.ITEM_NONE</t>
   </si>
   <si>
     <t>SERVICE_ID</t>
@@ -211,6 +211,24 @@
     <t>X</t>
   </si>
   <si>
+    <t>SAVE_GAME</t>
+  </si>
+  <si>
+    <t>SAVE_GAME_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameMasterClass.SaveGameService</t>
+  </si>
+  <si>
+    <t>LOAD_GAME</t>
+  </si>
+  <si>
+    <t>LOAD_GAME_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameMasterClass.LoadGameService</t>
+  </si>
+  <si>
     <t>LOAD_ROOM</t>
   </si>
   <si>
@@ -229,6 +247,15 @@
     <t>GameMasterClass.ExitGameService</t>
   </si>
   <si>
+    <t>LATE_START_SUBSCRIPTION</t>
+  </si>
+  <si>
+    <t>LATE_START_SUBSCRIPTION_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameMasterClass.LateStartSubrsciptionService</t>
+  </si>
+  <si>
     <t>LOADING_COMPLETED</t>
   </si>
   <si>
@@ -265,6 +292,15 @@
     <t>LevelMasterClass.ItemRegisterService</t>
   </si>
   <si>
+    <t>ITEM_REMOVE_FROM_SCENE</t>
+  </si>
+  <si>
+    <t>ITEM_REMOVE_FROM_SCENE_DELEGATE</t>
+  </si>
+  <si>
+    <t>LevelMasterClass.ItemRemoveFromSceneService</t>
+  </si>
+  <si>
     <t>MONO_REGISTER</t>
   </si>
   <si>
@@ -346,13 +382,13 @@
     <t>GameEventMasterClass.TakeItemFromSceneEventService</t>
   </si>
   <si>
-    <t>TAKE_ITEM</t>
-  </si>
-  <si>
-    <t>TAKE_ITEM_DELEGATE</t>
-  </si>
-  <si>
-    <t>ItemMasterClass.TakeItemService</t>
+    <t>USE_ITEM</t>
+  </si>
+  <si>
+    <t>USE_ITEM_DELEGATE</t>
+  </si>
+  <si>
+    <t>ItemMasterClass.UseItemService</t>
   </si>
   <si>
     <t>IS_ITEM_TAKEN_FROM_SCENE</t>
@@ -373,15 +409,6 @@
     <t>PlayerMasterClass.InteractPlayerItemService</t>
   </si>
   <si>
-    <t>GET_ITEM_INTERACTION</t>
-  </si>
-  <si>
-    <t>GET_ITEM_INTERACTION_DELEGATE</t>
-  </si>
-  <si>
-    <t>GameEventMasterClass.GetItemInteractionService</t>
-  </si>
-  <si>
     <t>GET_SCENARIO_ITEM_LIST</t>
   </si>
   <si>
@@ -409,13 +436,13 @@
     <t>ItemMasterClass.CancelPickableItemService</t>
   </si>
   <si>
-    <t>USE_ITEM</t>
-  </si>
-  <si>
-    <t>USE_ITEM_DELEGATE</t>
-  </si>
-  <si>
-    <t>ItemMasterClass.UseItemService</t>
+    <t>SET_PLAYER_ANIMATION</t>
+  </si>
+  <si>
+    <t>SET_PLAYER_ANIMATION_DELEGATE</t>
+  </si>
+  <si>
+    <t>PlayerMasterClass.SetPlayerAnimation</t>
   </si>
   <si>
     <t>LAST_SERVICE</t>
@@ -425,7 +452,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -440,6 +467,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -456,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -469,6 +501,15 @@
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,7 +1046,7 @@
         <v>24</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>21</v>
@@ -2491,32 +2532,30 @@
       <c r="A3" s="2">
         <v>1.0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>24</v>
@@ -2527,7 +2566,7 @@
       <c r="M3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2535,19 +2574,17 @@
       <c r="A4" s="2">
         <v>2.0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2559,7 +2596,7 @@
       <c r="I4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>63</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -2571,7 +2608,7 @@
       <c r="M4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2641,14 +2678,14 @@
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>63</v>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>24</v>
+      <c r="J6" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>24</v>
@@ -2676,58 +2713,59 @@
       <c r="D7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>63</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>63</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>6.0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>23</v>
+      <c r="H8" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>24</v>
@@ -2742,9 +2780,9 @@
         <v>24</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2755,29 +2793,32 @@
       <c r="B9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>63</v>
+        <v>63</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>24</v>
@@ -2793,37 +2834,40 @@
       <c r="A10" s="2">
         <v>8.0</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="3" t="s">
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N10" s="3" t="s">
@@ -2834,40 +2878,40 @@
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="3" t="s">
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2875,40 +2919,40 @@
       <c r="A12" s="2">
         <v>10.0</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="3" t="s">
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2916,13 +2960,13 @@
       <c r="A13" s="2">
         <v>11.0</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -2931,7 +2975,7 @@
       <c r="G13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -2940,13 +2984,13 @@
       <c r="J13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="3" t="s">
+      <c r="K13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="3" t="s">
@@ -2982,13 +3026,13 @@
         <v>24</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>24</v>
@@ -3023,16 +3067,16 @@
         <v>24</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -3064,16 +3108,16 @@
         <v>24</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -3096,7 +3140,7 @@
         <v>24</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>24</v>
@@ -3105,16 +3149,16 @@
         <v>24</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -3137,7 +3181,7 @@
         <v>24</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>24</v>
@@ -3149,10 +3193,10 @@
         <v>63</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>24</v>
@@ -3187,10 +3231,10 @@
         <v>24</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>63</v>
@@ -3228,16 +3272,16 @@
         <v>24</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -3269,58 +3313,69 @@
         <v>24</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
         <v>20.0</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
     </row>
     <row r="23">
       <c r="A23" s="2">
@@ -3342,13 +3397,13 @@
         <v>24</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>24</v>
@@ -3357,10 +3412,10 @@
         <v>24</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -3389,16 +3444,16 @@
         <v>24</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>24</v>
@@ -3411,10 +3466,10 @@
       <c r="B25" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>132</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -3424,7 +3479,7 @@
         <v>24</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>24</v>
@@ -3439,7 +3494,7 @@
         <v>24</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>24</v>
@@ -3452,14 +3507,14 @@
       <c r="B26" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>69</v>
+      <c r="C26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>24</v>
@@ -3471,7 +3526,7 @@
         <v>24</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>24</v>
@@ -3480,15 +3535,138 @@
         <v>24</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N26" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N26">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N29">
       <formula1>"W,X,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="HG1rVsdSrIWZrSsHm7ZEAfLmsQLt9s4FHbTeOCBADTY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="hrzlfH6GuVAYg673Ibe8ahndhyLscwQu2UAaI7bNjlo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="145">
   <si>
     <t>N</t>
   </si>
@@ -130,6 +130,12 @@
     <t>CharacterType.CHARACTER_NONE</t>
   </si>
   <si>
+    <t>PLAYER_ACTUAL_WAYPOINT</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>GAMESTATUS</t>
   </si>
   <si>
@@ -157,15 +163,6 @@
     <t>MouseProperties_Default</t>
   </si>
   <si>
-    <t>PLAYER_POSITION</t>
-  </si>
-  <si>
-    <t>Vector3Struct</t>
-  </si>
-  <si>
-    <t>Vector3Struct_Default</t>
-  </si>
-  <si>
     <t>PLAYER_SELECTED</t>
   </si>
   <si>
@@ -443,6 +440,15 @@
   </si>
   <si>
     <t>PlayerMasterClass.SetPlayerAnimation</t>
+  </si>
+  <si>
+    <t>EVENT_SUBSCRIPTION</t>
+  </si>
+  <si>
+    <t>EVENT_SUBSCRIPTION_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameEventMasterClass.EventSubscriptionService</t>
   </si>
   <si>
     <t>LAST_SERVICE</t>
@@ -959,7 +965,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
@@ -1012,7 +1018,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -1063,52 +1069,50 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>23</v>
+      <c r="D7" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>22</v>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>24</v>
@@ -1116,13 +1120,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="1">
         <v>0.0</v>
@@ -1131,7 +1135,7 @@
         <v>0.0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>0</v>
@@ -1140,28 +1144,28 @@
         <v>7</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>24</v>
@@ -1169,13 +1173,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="1">
         <v>0.0</v>
@@ -1184,7 +1188,7 @@
         <v>0.0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>0</v>
@@ -1192,23 +1196,23 @@
       <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>24</v>
+      <c r="N9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>24</v>
@@ -1222,13 +1226,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D10" s="1">
         <v>0.0</v>
@@ -1237,7 +1241,7 @@
         <v>0.0</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>0</v>
@@ -1246,22 +1250,22 @@
         <v>7</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>23</v>
+      <c r="M10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>24</v>
@@ -1269,16 +1273,16 @@
       <c r="P10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>21</v>
+      <c r="Q10" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
@@ -1311,7 +1315,7 @@
         <v>21</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>24</v>
@@ -1325,13 +1329,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="3">
         <v>0.0</v>
@@ -1340,7 +1344,7 @@
         <v>0.0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>0</v>
@@ -1375,13 +1379,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D13" s="3">
         <v>1.0</v>
@@ -1390,7 +1394,7 @@
         <v>0.0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>0</v>
@@ -2445,13 +2449,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -2489,13 +2493,13 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -2513,7 +2517,7 @@
         <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>24</v>
@@ -2533,13 +2537,13 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="2" t="s">
@@ -2549,13 +2553,13 @@
         <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>24</v>
@@ -2575,13 +2579,13 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2" t="s">
@@ -2597,7 +2601,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>24</v>
@@ -2617,13 +2621,13 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -2635,7 +2639,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
@@ -2661,13 +2665,13 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -2685,7 +2689,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>24</v>
@@ -2705,41 +2709,41 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -2747,13 +2751,13 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -2765,7 +2769,7 @@
         <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>24</v>
@@ -2791,13 +2795,13 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -2809,7 +2813,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>24</v>
@@ -2835,13 +2839,13 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -2865,7 +2869,7 @@
         <v>24</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>24</v>
@@ -2879,14 +2883,14 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2909,7 +2913,7 @@
         <v>24</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>24</v>
@@ -2920,14 +2924,14 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>24</v>
       </c>
@@ -2950,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>24</v>
@@ -2961,14 +2965,14 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="F13" s="3" t="s">
         <v>24</v>
       </c>
@@ -2985,7 +2989,7 @@
         <v>24</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>24</v>
@@ -3002,13 +3006,13 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>24</v>
@@ -3043,14 +3047,14 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="F15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3058,7 +3062,7 @@
         <v>24</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>24</v>
@@ -3084,14 +3088,14 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="F16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>24</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>24</v>
@@ -3125,14 +3129,14 @@
         <v>15.0</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="F17" s="3" t="s">
         <v>24</v>
       </c>
@@ -3143,13 +3147,13 @@
         <v>23</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>24</v>
@@ -3166,14 +3170,14 @@
         <v>16.0</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>24</v>
       </c>
@@ -3190,13 +3194,13 @@
         <v>24</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>24</v>
@@ -3207,14 +3211,14 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="F19" s="3" t="s">
         <v>24</v>
       </c>
@@ -3222,7 +3226,7 @@
         <v>24</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>24</v>
@@ -3231,13 +3235,13 @@
         <v>24</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>23</v>
@@ -3248,14 +3252,14 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>24</v>
       </c>
@@ -3263,7 +3267,7 @@
         <v>24</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>24</v>
@@ -3272,13 +3276,13 @@
         <v>24</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>23</v>
@@ -3289,14 +3293,14 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>24</v>
       </c>
@@ -3319,7 +3323,7 @@
         <v>24</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>23</v>
@@ -3330,13 +3334,13 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="5" t="s">
@@ -3355,7 +3359,7 @@
         <v>24</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>24</v>
@@ -3382,14 +3386,14 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="F23" s="3" t="s">
         <v>24</v>
       </c>
@@ -3397,7 +3401,7 @@
         <v>24</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>24</v>
@@ -3412,7 +3416,7 @@
         <v>24</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>23</v>
@@ -3423,14 +3427,14 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>24</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>24</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>24</v>
@@ -3464,14 +3468,14 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="F25" s="3" t="s">
         <v>24</v>
       </c>
@@ -3494,7 +3498,7 @@
         <v>24</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>24</v>
@@ -3505,14 +3509,14 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>24</v>
       </c>
@@ -3526,7 +3530,7 @@
         <v>24</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>24</v>
@@ -3546,14 +3550,14 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="F27" s="3" t="s">
         <v>24</v>
       </c>
@@ -3561,16 +3565,16 @@
         <v>24</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>24</v>
@@ -3587,14 +3591,14 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F28" s="3" t="s">
         <v>24</v>
       </c>
@@ -3602,7 +3606,7 @@
         <v>24</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>24</v>
@@ -3617,7 +3621,7 @@
         <v>24</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>24</v>
@@ -3628,45 +3632,86 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="F30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N30">
       <formula1>"W,X,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -14,7 +14,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="pys1ZFKMdqV2P+/TUyBltpRCWTBWFC4aC7I6IERgBAE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="zUxspj3X3zpemYfQ3XD6LlXCv5sLtVszcU2xktVXE7U="/>
     </ext>
   </extLst>
 </workbook>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="194">
   <si>
     <t>N</t>
   </si>
@@ -201,6 +201,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>MAP_EXCHANGE_DOOR</t>
+  </si>
+  <si>
     <t>GAMESTATUS</t>
   </si>
   <si>
@@ -252,6 +255,9 @@
     <t>GameItem.ITEM_NONE</t>
   </si>
   <si>
+    <t>LAST_VARMAP_VAL</t>
+  </si>
+  <si>
     <t>SERVICE_ID</t>
   </si>
   <si>
@@ -381,6 +387,15 @@
     <t>LevelMasterClass.WPRegisterService</t>
   </si>
   <si>
+    <t>DOOR_REGISTER</t>
+  </si>
+  <si>
+    <t>DOOR_REGISTER_DELEGATE</t>
+  </si>
+  <si>
+    <t>LevelMasterClass.DoorRegisterService</t>
+  </si>
+  <si>
     <t>MOVE_PLAYER</t>
   </si>
   <si>
@@ -390,6 +405,15 @@
     <t>PlayerMasterClass.MovePlayerService</t>
   </si>
   <si>
+    <t>PLAYER_WAYPOINT_UPDATE</t>
+  </si>
+  <si>
+    <t>PLAYER_WAYPOINT_UPDATE_DELEGATE</t>
+  </si>
+  <si>
+    <t>LevelMasterClass.PlayerWaypointUpdateService</t>
+  </si>
+  <si>
     <t>SELECT_PLAYER</t>
   </si>
   <si>
@@ -505,6 +529,15 @@
   </si>
   <si>
     <t>GameEventMasterClass.EventSubscriptionService</t>
+  </si>
+  <si>
+    <t>CROSS_DOOR</t>
+  </si>
+  <si>
+    <t>CROSS_DOOR_DELEGATE</t>
+  </si>
+  <si>
+    <t>LevelMasterClass.CrossDoorService</t>
   </si>
   <si>
     <t>LAST_SERVICE</t>
@@ -1423,7 +1456,7 @@
     <col customWidth="1" min="7" max="7" width="8.29"/>
     <col customWidth="1" min="8" max="8" width="3.71"/>
     <col customWidth="1" min="9" max="11" width="12.29"/>
-    <col customWidth="1" min="12" max="12" width="10.71"/>
+    <col customWidth="1" min="12" max="12" width="14.57"/>
     <col customWidth="1" min="13" max="14" width="14.71"/>
     <col customWidth="1" min="15" max="24" width="10.71"/>
   </cols>
@@ -1483,7 +1516,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <f t="shared" ref="A2:A13" si="1">ROW()-ROW($A$2)</f>
+        <f t="shared" ref="A2:A15" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1781,7 +1814,7 @@
         <v>39</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>39</v>
@@ -1790,7 +1823,7 @@
         <v>39</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>39</v>
@@ -1807,53 +1840,50 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="1">
         <v>0.0</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="1">
         <v>0.0</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>37</v>
+      <c r="L8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -1862,10 +1892,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="3">
         <v>0.0</v>
@@ -1874,7 +1904,7 @@
         <v>0.0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>0</v>
@@ -1883,31 +1913,31 @@
         <v>22</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>39</v>
+      <c r="J9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1916,10 +1946,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="3">
         <v>0.0</v>
@@ -1928,7 +1958,7 @@
         <v>0.0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>0</v>
@@ -1936,23 +1966,23 @@
       <c r="H10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>39</v>
+      <c r="N10" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>39</v>
@@ -1969,62 +1999,65 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="G11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D12" s="1">
         <v>0.0</v>
@@ -2032,8 +2065,8 @@
       <c r="E12" s="1">
         <v>0.0</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>67</v>
+      <c r="F12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -2044,23 +2077,23 @@
       <c r="J12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>38</v>
+      <c r="K12" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>39</v>
+      <c r="N12" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>39</v>
@@ -2072,19 +2105,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" s="1">
         <v>0.0</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>70</v>
+      <c r="F13" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -2096,38 +2129,138 @@
         <v>39</v>
       </c>
       <c r="K13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="N13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="L14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="N14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
+      <c r="Q14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="I22" s="1"/>
+    </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -3097,15 +3230,16 @@
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D15">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G15">
       <formula1>"N,Y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:Q13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:Q15">
       <formula1>"R,R E,W,W E,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3140,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>22</v>
@@ -3181,17 +3315,17 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <f t="shared" ref="A2:A29" si="1">ROW()-ROW($A$2)</f>
+        <f t="shared" ref="A2:A32" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -3209,7 +3343,7 @@
         <v>39</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>39</v>
@@ -3230,13 +3364,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
@@ -3246,13 +3380,13 @@
         <v>39</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>39</v>
@@ -3273,13 +3407,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4" t="s">
@@ -3295,7 +3429,7 @@
         <v>39</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>39</v>
@@ -3316,13 +3450,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -3334,7 +3468,7 @@
         <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>39</v>
@@ -3361,13 +3495,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
@@ -3385,7 +3519,7 @@
         <v>39</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>39</v>
@@ -3406,41 +3540,41 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -3449,13 +3583,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -3467,7 +3601,7 @@
         <v>39</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>39</v>
@@ -3494,13 +3628,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -3512,7 +3646,7 @@
         <v>39</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>39</v>
@@ -3539,13 +3673,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -3569,7 +3703,7 @@
         <v>39</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>39</v>
@@ -3584,13 +3718,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>39</v>
@@ -3614,7 +3748,7 @@
         <v>39</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>39</v>
@@ -3626,13 +3760,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>39</v>
@@ -3656,7 +3790,7 @@
         <v>39</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>39</v>
@@ -3668,13 +3802,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>39</v>
@@ -3692,7 +3826,7 @@
         <v>39</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>39</v>
@@ -3710,13 +3844,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>39</v>
@@ -3752,13 +3886,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>39</v>
@@ -3767,7 +3901,7 @@
         <v>39</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>39</v>
@@ -3776,7 +3910,7 @@
         <v>39</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>39</v>
@@ -3794,13 +3928,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>39</v>
@@ -3809,7 +3943,7 @@
         <v>39</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>39</v>
@@ -3836,13 +3970,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>39</v>
@@ -3854,13 +3988,13 @@
         <v>38</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>39</v>
@@ -3878,13 +4012,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>39</v>
@@ -3893,22 +4027,22 @@
         <v>39</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L18" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>39</v>
@@ -3920,13 +4054,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>39</v>
@@ -3935,25 +4069,25 @@
         <v>39</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
@@ -3962,13 +4096,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>39</v>
@@ -3977,7 +4111,7 @@
         <v>39</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>39</v>
@@ -3986,16 +4120,16 @@
         <v>39</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
@@ -4004,13 +4138,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>39</v>
@@ -4019,7 +4153,7 @@
         <v>39</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>39</v>
@@ -4028,13 +4162,13 @@
         <v>39</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>38</v>
@@ -4045,53 +4179,42 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="7" t="s">
+      <c r="C22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
     </row>
     <row r="23">
       <c r="A23" s="1">
@@ -4099,13 +4222,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>39</v>
@@ -4114,7 +4237,7 @@
         <v>39</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>39</v>
@@ -4129,7 +4252,7 @@
         <v>39</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>38</v>
@@ -4140,42 +4263,53 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B24" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="C24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="N24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
     </row>
     <row r="25">
       <c r="A25" s="1">
@@ -4183,13 +4317,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>39</v>
@@ -4198,25 +4332,25 @@
         <v>39</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -4225,13 +4359,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>39</v>
@@ -4240,22 +4374,22 @@
         <v>39</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>39</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>39</v>
@@ -4267,13 +4401,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>39</v>
@@ -4282,22 +4416,22 @@
         <v>39</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>39</v>
@@ -4309,14 +4443,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="C28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="F28" s="1" t="s">
         <v>39</v>
       </c>
@@ -4324,25 +4458,25 @@
         <v>39</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -4351,45 +4485,171 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>89</v>
+        <v>158</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="N29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N32">
       <formula1>"W,X,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4443,40 +4703,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="P1" s="11" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(P1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(P1)-COLUMN($P1),3),0))</f>
@@ -4562,82 +4822,82 @@
         <v>1.0</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="U2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="X2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="AA2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="AD2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
@@ -4646,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C3" s="10">
         <v>1.0</v>
@@ -4655,82 +4915,82 @@
         <v>1.0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="U3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="X3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="AA3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="AC3" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="AD3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AE3" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="AF3" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
@@ -4748,82 +5008,82 @@
         <v>0.0</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="R4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="U4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="X4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="Y4" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="AA4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="AD4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AE4" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="AF4" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
@@ -4832,7 +5092,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C5" s="10">
         <v>0.0</v>
@@ -4841,82 +5101,82 @@
         <v>0.0</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="U5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="X5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="AA5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="AC5" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="AD5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AE5" s="10" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4954,48 +5214,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -14,7 +14,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="zUxspj3X3zpemYfQ3XD6LlXCv5sLtVszcU2xktVXE7U="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="WiPYe5nRpAud4gPJlUTZeQbfEbV4jtnb5YWzgQx2CkU="/>
     </ext>
   </extLst>
 </workbook>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="193">
   <si>
     <t>N</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Room</t>
   </si>
   <si>
-    <t>Room.NONE</t>
+    <t>Room.ROOM_NONE</t>
   </si>
   <si>
     <t>EVENTS_OCCURRED</t>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>MAP_EXCHANGE_DOOR</t>
   </si>
   <si>
     <t>GAMESTATUS</t>
@@ -1516,7 +1513,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <f t="shared" ref="A2:A15" si="1">ROW()-ROW($A$2)</f>
+        <f t="shared" ref="A2:A14" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1639,7 +1636,7 @@
       <c r="E4" s="3">
         <v>0.0</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -1840,50 +1837,53 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="3">
         <v>0.0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="E8" s="3">
         <v>0.0</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>39</v>
+      <c r="H8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>39</v>
+      <c r="K8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -1892,10 +1892,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3">
         <v>0.0</v>
@@ -1904,7 +1904,7 @@
         <v>0.0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>0</v>
@@ -1913,31 +1913,31 @@
         <v>22</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>37</v>
+      <c r="K9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -1946,10 +1946,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3">
         <v>0.0</v>
@@ -1958,7 +1958,7 @@
         <v>0.0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>0</v>
@@ -1966,23 +1966,23 @@
       <c r="H10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>36</v>
+      <c r="N10" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>39</v>
@@ -1999,65 +1999,62 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.0</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>0.0</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="I11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="N11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="Q11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1">
         <v>0.0</v>
@@ -2065,8 +2062,8 @@
       <c r="E12" s="1">
         <v>0.0</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>51</v>
+      <c r="F12" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>0</v>
@@ -2077,23 +2074,23 @@
       <c r="J12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>65</v>
+      <c r="N12" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>39</v>
@@ -2105,19 +2102,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E13" s="1">
         <v>0.0</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>68</v>
+      <c r="F13" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>0</v>
@@ -2129,22 +2126,22 @@
         <v>39</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>39</v>
@@ -2156,111 +2153,61 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E14" s="1">
         <v>0.0</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>71</v>
+      <c r="F14" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
+    <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="I22" s="1"/>
-    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -3230,16 +3177,15 @@
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D14">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G14">
       <formula1>"N,Y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:Q15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:Q14">
       <formula1>"R,R E,W,W E,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3274,13 +3220,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>22</v>
@@ -3319,13 +3265,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -3343,7 +3289,7 @@
         <v>39</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>39</v>
@@ -3364,13 +3310,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
@@ -3380,13 +3326,13 @@
         <v>39</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>39</v>
@@ -3407,13 +3353,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4" t="s">
@@ -3429,7 +3375,7 @@
         <v>39</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>39</v>
@@ -3450,13 +3396,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
@@ -3468,7 +3414,7 @@
         <v>39</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>39</v>
@@ -3495,13 +3441,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
@@ -3519,7 +3465,7 @@
         <v>39</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>39</v>
@@ -3540,41 +3486,41 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -3583,13 +3529,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>22</v>
@@ -3601,7 +3547,7 @@
         <v>39</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>39</v>
@@ -3628,13 +3574,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>22</v>
@@ -3646,7 +3592,7 @@
         <v>39</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>39</v>
@@ -3673,13 +3619,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>22</v>
@@ -3703,7 +3649,7 @@
         <v>39</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>39</v>
@@ -3718,13 +3664,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>39</v>
@@ -3748,7 +3694,7 @@
         <v>39</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>39</v>
@@ -3760,13 +3706,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>39</v>
@@ -3790,7 +3736,7 @@
         <v>39</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>39</v>
@@ -3802,13 +3748,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>39</v>
@@ -3826,7 +3772,7 @@
         <v>39</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>39</v>
@@ -3844,13 +3790,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>39</v>
@@ -3886,13 +3832,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>39</v>
@@ -3928,14 +3874,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="F16" s="1" t="s">
         <v>39</v>
       </c>
@@ -3943,7 +3889,7 @@
         <v>39</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>39</v>
@@ -3970,13 +3916,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>39</v>
@@ -3994,7 +3940,7 @@
         <v>39</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>39</v>
@@ -4012,14 +3958,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="F18" s="1" t="s">
         <v>39</v>
       </c>
@@ -4027,7 +3973,7 @@
         <v>39</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>39</v>
@@ -4054,13 +4000,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>39</v>
@@ -4072,13 +4018,13 @@
         <v>38</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>39</v>
@@ -4096,13 +4042,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>39</v>
@@ -4120,13 +4066,13 @@
         <v>39</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>39</v>
@@ -4138,14 +4084,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="F21" s="1" t="s">
         <v>39</v>
       </c>
@@ -4153,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>39</v>
@@ -4162,13 +4108,13 @@
         <v>39</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>38</v>
@@ -4180,14 +4126,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="F22" s="1" t="s">
         <v>39</v>
       </c>
@@ -4195,7 +4141,7 @@
         <v>39</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>39</v>
@@ -4204,13 +4150,13 @@
         <v>39</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>38</v>
@@ -4222,14 +4168,14 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F23" s="1" t="s">
         <v>39</v>
       </c>
@@ -4252,7 +4198,7 @@
         <v>39</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>38</v>
@@ -4264,13 +4210,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="s">
@@ -4289,7 +4235,7 @@
         <v>39</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>39</v>
@@ -4317,14 +4263,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F25" s="1" t="s">
         <v>39</v>
       </c>
@@ -4332,7 +4278,7 @@
         <v>39</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>39</v>
@@ -4347,7 +4293,7 @@
         <v>39</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>38</v>
@@ -4359,14 +4305,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="F26" s="1" t="s">
         <v>39</v>
       </c>
@@ -4374,7 +4320,7 @@
         <v>39</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>39</v>
@@ -4401,13 +4347,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>39</v>
@@ -4431,7 +4377,7 @@
         <v>39</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>39</v>
@@ -4443,14 +4389,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="F28" s="1" t="s">
         <v>39</v>
       </c>
@@ -4464,7 +4410,7 @@
         <v>39</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>39</v>
@@ -4485,14 +4431,14 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="F29" s="1" t="s">
         <v>39</v>
       </c>
@@ -4500,16 +4446,16 @@
         <v>39</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>39</v>
@@ -4527,14 +4473,14 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="F30" s="1" t="s">
         <v>39</v>
       </c>
@@ -4542,7 +4488,7 @@
         <v>39</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>39</v>
@@ -4551,13 +4497,13 @@
         <v>39</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>38</v>
@@ -4569,13 +4515,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>39</v>
@@ -4593,7 +4539,7 @@
         <v>39</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>39</v>
@@ -4611,13 +4557,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>38</v>
@@ -4703,40 +4649,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>179</v>
       </c>
       <c r="P1" s="11" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(P1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(P1)-COLUMN($P1),3),0))</f>
@@ -4822,82 +4768,82 @@
         <v>1.0</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>181</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="S2" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="U2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V2" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="W2" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>185</v>
       </c>
       <c r="X2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="Y2" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z2" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="AA2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AB2" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC2" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="AD2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AE2" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF2" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3">
@@ -4906,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C3" s="10">
         <v>1.0</v>
@@ -4915,82 +4861,82 @@
         <v>1.0</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>181</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="S3" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="U3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V3" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="W3" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="X3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="Y3" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z3" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="AA3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AB3" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC3" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="AD3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AE3" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF3" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="AF3" s="10" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4">
@@ -5008,82 +4954,82 @@
         <v>0.0</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="R4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="S4" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="U4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V4" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="W4" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="X4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="Y4" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z4" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="AA4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AB4" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC4" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="AD4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AE4" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF4" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="AF4" s="10" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="5">
@@ -5092,7 +5038,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" s="10">
         <v>0.0</v>
@@ -5101,82 +5047,82 @@
         <v>0.0</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="L5" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="P5" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="S5" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="T5" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="U5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V5" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="W5" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="X5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="Y5" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z5" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="Z5" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="AA5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AB5" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC5" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="AD5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AE5" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF5" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5214,48 +5160,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -9,12 +9,13 @@
     <sheet state="visible" name="SERVICES" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="ITEMS" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="_REF" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="_TODO" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="WiPYe5nRpAud4gPJlUTZeQbfEbV4jtnb5YWzgQx2CkU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="Su4/pITLzZu7AvNXDsCcP1uwZ86qxv+o6aOfiFShYIo="/>
     </ext>
   </extLst>
 </workbook>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="199">
   <si>
     <t>N</t>
   </si>
@@ -616,6 +617,24 @@
   </si>
   <si>
     <t>INTERACTION_TAKE_AND_RECEIVE</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Prio</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Talk with characters</t>
+  </si>
+  <si>
+    <t>Bug with menu of items (not selecting)</t>
+  </si>
+  <si>
+    <t>Last</t>
   </si>
 </sst>
 </file>
@@ -719,7 +738,20 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -744,6 +776,10 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -5207,4 +5243,86 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF783F04"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="34.0"/>
+    <col customWidth="1" min="2" max="2" width="4.57"/>
+    <col customWidth="1" min="3" max="3" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="3"/>
+        <cfvo type="formula" val="5"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A4">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$C2=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -8,14 +8,15 @@
     <sheet state="visible" name="VARMAP" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="SERVICES" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="ITEMS" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="_REF" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="_TODO" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="NPCs" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="_REF" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="_TODO" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataChecksum="Su4/pITLzZu7AvNXDsCcP1uwZ86qxv+o6aOfiFShYIo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="/oiLA4/njSRxtTiuIPiq1w4IpK5Lh5MgklcDArEVD4g="/>
     </ext>
   </extLst>
 </workbook>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="214">
   <si>
     <t>N</t>
   </si>
@@ -430,6 +431,15 @@
     <t>LevelMasterClass.GetPlayerListService</t>
   </si>
   <si>
+    <t>GET_NPC_LIST</t>
+  </si>
+  <si>
+    <t>GET_NPC_LIST_DELEGATE</t>
+  </si>
+  <si>
+    <t>LevelMasterClass.GetNPCListService</t>
+  </si>
+  <si>
     <t>GET_NEAREST_WP</t>
   </si>
   <si>
@@ -538,6 +548,15 @@
     <t>LevelMasterClass.CrossDoorService</t>
   </si>
   <si>
+    <t>INTERACT_PLAYER_NPC</t>
+  </si>
+  <si>
+    <t>INTERACT_PLAYER_NPC_DELEGATE</t>
+  </si>
+  <si>
+    <t>NPCMasterClass.InteractPlayerNPCService</t>
+  </si>
+  <si>
     <t>LAST_SERVICE</t>
   </si>
   <si>
@@ -601,6 +620,15 @@
     <t>ITEM_LAST</t>
   </si>
   <si>
+    <t>NPC_ID</t>
+  </si>
+  <si>
+    <t>NPC_FIRST</t>
+  </si>
+  <si>
+    <t>NPC_LAST</t>
+  </si>
+  <si>
     <t>_USE</t>
   </si>
   <si>
@@ -619,19 +647,37 @@
     <t>INTERACTION_TAKE_AND_RECEIVE</t>
   </si>
   <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Prio</t>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>PRIO</t>
   </si>
   <si>
     <t>DONE</t>
   </si>
   <si>
+    <t>ONGOING</t>
+  </si>
+  <si>
     <t>Talk with characters</t>
   </si>
   <si>
+    <t>Plot (1st part)</t>
+  </si>
+  <si>
+    <t>Improve Waypoint Tool (naming)</t>
+  </si>
+  <si>
+    <t>Language files</t>
+  </si>
+  <si>
+    <t>Background objects layers</t>
+  </si>
+  <si>
     <t>Bug with menu of items (not selecting)</t>
+  </si>
+  <si>
+    <t>Loading screen between rooms</t>
   </si>
   <si>
     <t>Last</t>
@@ -780,6 +826,10 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3297,7 +3347,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <f t="shared" ref="A2:A32" si="1">ROW()-ROW($A$2)</f>
+        <f t="shared" ref="A2:A19" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4074,8 +4124,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>130</v>
@@ -4102,13 +4151,13 @@
         <v>39</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>78</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>39</v>
@@ -4116,7 +4165,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A21:A34" si="2">ROW()-ROW($A$2)</f>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -4135,7 +4184,7 @@
         <v>39</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>39</v>
@@ -4153,12 +4202,12 @@
         <v>78</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -4200,7 +4249,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -4219,7 +4268,7 @@
         <v>39</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>39</v>
@@ -4228,10 +4277,10 @@
         <v>39</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>78</v>
@@ -4242,102 +4291,102 @@
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="9" t="s">
+      <c r="F24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="7" t="s">
+      <c r="N24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N25" s="1" t="s">
+      <c r="L25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="N25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -4365,21 +4414,21 @@
         <v>39</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -4398,22 +4447,22 @@
         <v>39</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="L27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>39</v>
@@ -4421,7 +4470,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -4440,22 +4489,22 @@
         <v>39</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>39</v>
@@ -4463,7 +4512,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -4482,7 +4531,7 @@
         <v>39</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>39</v>
@@ -4491,7 +4540,7 @@
         <v>78</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>39</v>
@@ -4505,16 +4554,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -4530,24 +4579,24 @@
         <v>39</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>78</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -4566,7 +4615,7 @@
         <v>39</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>39</v>
@@ -4578,60 +4627,144 @@
         <v>78</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N32" s="1" t="s">
+      <c r="G34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N32">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N34">
       <formula1>"W,X,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4685,40 +4818,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P1" s="11" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(P1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(P1)-COLUMN($P1),3),0))</f>
@@ -4804,82 +4937,82 @@
         <v>1.0</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="U2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="X2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AA2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AD2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3">
@@ -4888,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C3" s="10">
         <v>1.0</v>
@@ -4897,82 +5030,82 @@
         <v>1.0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="U3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="X3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AA3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AC3" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AD3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AE3" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AF3" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4">
@@ -4990,82 +5123,82 @@
         <v>0.0</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="R4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="U4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="X4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="Y4" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AA4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AD4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AE4" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AF4" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5">
@@ -5074,7 +5207,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C5" s="10">
         <v>0.0</v>
@@ -5083,82 +5216,82 @@
         <v>0.0</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="U5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="X5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AA5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AC5" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AD5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AE5" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -5183,6 +5316,48 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FF6AA84F"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10">
+        <f t="shared" ref="A2:A3" si="1">ROW()-ROW($A$2)</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -5196,48 +5371,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5245,7 +5420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FF783F04"/>
@@ -5257,24 +5432,27 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="34.0"/>
-    <col customWidth="1" min="2" max="2" width="4.57"/>
+    <col customWidth="1" min="2" max="2" width="5.29"/>
     <col customWidth="1" min="3" max="3" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
@@ -5282,31 +5460,110 @@
       <c r="C2" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B3" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B4" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C4" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="D4" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B4">
+  <conditionalFormatting sqref="B2:B9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="formula" val="1"/>
@@ -5318,7 +5575,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A4">
+  <conditionalFormatting sqref="A2:A9">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>$C2=TRUE</formula>
     </cfRule>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -16,7 +16,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="/oiLA4/njSRxtTiuIPiq1w4IpK5Lh5MgklcDArEVD4g="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="YuwGJ/xnf0TwDH/8VMhaZAvsN68002g6692b9FjB8z0="/>
     </ext>
   </extLst>
 </workbook>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="249">
   <si>
     <t>N</t>
   </si>
@@ -266,6 +266,12 @@
     <t>SERVICE_ROUTE</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Separator</t>
+  </si>
+  <si>
     <t>START_GAME</t>
   </si>
   <si>
@@ -275,6 +281,9 @@
     <t>GameMasterClass.StartGameService</t>
   </si>
   <si>
+    <t>Starts game from main menu</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -287,6 +296,9 @@
     <t>GameMasterClass.SaveGameService</t>
   </si>
   <si>
+    <t>Saves game at any moment</t>
+  </si>
+  <si>
     <t>LOAD_GAME</t>
   </si>
   <si>
@@ -296,6 +308,9 @@
     <t>GameMasterClass.LoadGameService</t>
   </si>
   <si>
+    <t>Loads game from any moment</t>
+  </si>
+  <si>
     <t>LOAD_ROOM</t>
   </si>
   <si>
@@ -305,6 +320,9 @@
     <t>GameMasterClass.LoadRoomService</t>
   </si>
   <si>
+    <t>Loads a room (for example when crossing a door)</t>
+  </si>
+  <si>
     <t>EXIT_GAME</t>
   </si>
   <si>
@@ -314,6 +332,9 @@
     <t>GameMasterClass.ExitGameService</t>
   </si>
   <si>
+    <t>Exits games to OS</t>
+  </si>
+  <si>
     <t>LATE_START_SUBSCRIPTION</t>
   </si>
   <si>
@@ -323,6 +344,9 @@
     <t>GameMasterClass.LateStartSubrsciptionService</t>
   </si>
   <si>
+    <t>This service subscribes for late start. This happens at some moment after Start event. when everything has been setup</t>
+  </si>
+  <si>
     <t>LOADING_COMPLETED</t>
   </si>
   <si>
@@ -332,6 +356,9 @@
     <t>GameMasterClass.LoadingCompletedService</t>
   </si>
   <si>
+    <t>This service is called when whole room has been loaded</t>
+  </si>
+  <si>
     <t>FREEZE_PLAY</t>
   </si>
   <si>
@@ -341,6 +368,9 @@
     <t>GameMasterClass.FreezePlayService</t>
   </si>
   <si>
+    <t>This service is called to pause game or enter cinematic</t>
+  </si>
+  <si>
     <t>NPC_REGISTER</t>
   </si>
   <si>
@@ -350,6 +380,9 @@
     <t>LevelMasterClass.NPCRegisterService</t>
   </si>
   <si>
+    <t>Registers an NPC in system</t>
+  </si>
+  <si>
     <t>ITEM_REGISTER</t>
   </si>
   <si>
@@ -359,13 +392,31 @@
     <t>LevelMasterClass.ItemRegisterService</t>
   </si>
   <si>
-    <t>ITEM_REMOVE_FROM_SCENE</t>
-  </si>
-  <si>
-    <t>ITEM_REMOVE_FROM_SCENE_DELEGATE</t>
-  </si>
-  <si>
-    <t>LevelMasterClass.ItemRemoveFromSceneService</t>
+    <t>Registers an item in system</t>
+  </si>
+  <si>
+    <t>ITEM_OBTAIN_PICKABLE</t>
+  </si>
+  <si>
+    <t>ITEM_OBTAIN_PICKABLE_DELEGATE</t>
+  </si>
+  <si>
+    <t>LevelMasterClass.ItemObtainPickableService</t>
+  </si>
+  <si>
+    <t>Removes an item from level</t>
+  </si>
+  <si>
+    <t>ITEM_OBTAIN_PICKABLE_EVENT</t>
+  </si>
+  <si>
+    <t>ITEM_OBTAIN_PICKABLE_EVENT_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameEventMasterClass.ItemObtainPickableEventService</t>
+  </si>
+  <si>
+    <t>Takes an item from scene (triggering event)</t>
   </si>
   <si>
     <t>MONO_REGISTER</t>
@@ -377,6 +428,9 @@
     <t>LevelMasterClass.MonoRegisterService</t>
   </si>
   <si>
+    <t>Registers a player in scene</t>
+  </si>
+  <si>
     <t>WP_REGISTER</t>
   </si>
   <si>
@@ -386,6 +440,9 @@
     <t>LevelMasterClass.WPRegisterService</t>
   </si>
   <si>
+    <t>Registers a Waypoint in level</t>
+  </si>
+  <si>
     <t>DOOR_REGISTER</t>
   </si>
   <si>
@@ -395,13 +452,7 @@
     <t>LevelMasterClass.DoorRegisterService</t>
   </si>
   <si>
-    <t>MOVE_PLAYER</t>
-  </si>
-  <si>
-    <t>MOVE_PLAYER_DELEGATE</t>
-  </si>
-  <si>
-    <t>PlayerMasterClass.MovePlayerService</t>
+    <t>Registers a door in level</t>
   </si>
   <si>
     <t>PLAYER_WAYPOINT_UPDATE</t>
@@ -413,6 +464,9 @@
     <t>LevelMasterClass.PlayerWaypointUpdateService</t>
   </si>
   <si>
+    <t>Updates actual player waypoint when crossing or stopping on it</t>
+  </si>
+  <si>
     <t>SELECT_PLAYER</t>
   </si>
   <si>
@@ -422,6 +476,9 @@
     <t>PlayerMasterClass.SelectPlayerService</t>
   </si>
   <si>
+    <t>Selects player</t>
+  </si>
+  <si>
     <t>GET_PLAYER_LIST</t>
   </si>
   <si>
@@ -431,6 +488,9 @@
     <t>LevelMasterClass.GetPlayerListService</t>
   </si>
   <si>
+    <t>Gets a list of actual players</t>
+  </si>
+  <si>
     <t>GET_NPC_LIST</t>
   </si>
   <si>
@@ -440,6 +500,9 @@
     <t>LevelMasterClass.GetNPCListService</t>
   </si>
   <si>
+    <t xml:space="preserve">Gets a list of actual NPCs </t>
+  </si>
+  <si>
     <t>GET_NEAREST_WP</t>
   </si>
   <si>
@@ -449,6 +512,9 @@
     <t>LevelMasterClass.GetNearestWPService</t>
   </si>
   <si>
+    <t>Gets nearest WP from a given coordinates of level</t>
+  </si>
+  <si>
     <t>IS_EVENT_OCCURRED</t>
   </si>
   <si>
@@ -458,6 +524,9 @@
     <t>GameEventMasterClass.IsEventOccurredService</t>
   </si>
   <si>
+    <t>Tells if an event is occurred</t>
+  </si>
+  <si>
     <t>COMMIT_EVENT</t>
   </si>
   <si>
@@ -467,13 +536,7 @@
     <t>GameEventMasterClass.CommitEventService</t>
   </si>
   <si>
-    <t>TAKE_ITEM_FROM_SCENE_EVENT</t>
-  </si>
-  <si>
-    <t>TAKE_ITEM_FROM_SCENE_EVENT_DELEGATE</t>
-  </si>
-  <si>
-    <t>GameEventMasterClass.TakeItemFromSceneEventService</t>
+    <t>Activates/Deactivates an event</t>
   </si>
   <si>
     <t>USE_ITEM</t>
@@ -485,6 +548,9 @@
     <t>ItemMasterClass.UseItemService</t>
   </si>
   <si>
+    <t>Uses an item with something</t>
+  </si>
+  <si>
     <t>IS_ITEM_TAKEN_FROM_SCENE</t>
   </si>
   <si>
@@ -494,13 +560,19 @@
     <t>GameEventMasterClass.IsItemTakenFromSceneService</t>
   </si>
   <si>
-    <t>INTERACT_PLAYER_ITEM</t>
-  </si>
-  <si>
-    <t>INTERACT_PLAYER_ITEM_DELEGATE</t>
-  </si>
-  <si>
-    <t>PlayerMasterClass.InteractPlayerItemService</t>
+    <t>Tells if item is taken from scene</t>
+  </si>
+  <si>
+    <t>INTERACT_PLAYER</t>
+  </si>
+  <si>
+    <t>INTERACT_PLAYER_DELEGATE</t>
+  </si>
+  <si>
+    <t>PlayerMasterClass.InteractPlayerService</t>
+  </si>
+  <si>
+    <t>Interacts player with an item</t>
   </si>
   <si>
     <t>GET_SCENARIO_ITEM_LIST</t>
@@ -512,6 +584,9 @@
     <t>LevelMasterClass.GetScenarioItemListService</t>
   </si>
   <si>
+    <t>Gets scenario item list</t>
+  </si>
+  <si>
     <t>SELECT_PICKABLE_ITEM</t>
   </si>
   <si>
@@ -521,6 +596,9 @@
     <t>ItemMasterClass.SelectPickableItemService</t>
   </si>
   <si>
+    <t>Selects some pickable from inventory</t>
+  </si>
+  <si>
     <t>CANCEL_PICKABLE_ITEM</t>
   </si>
   <si>
@@ -530,6 +608,9 @@
     <t>ItemMasterClass.CancelPickableItemService</t>
   </si>
   <si>
+    <t>Cancels selected item</t>
+  </si>
+  <si>
     <t>EVENT_SUBSCRIPTION</t>
   </si>
   <si>
@@ -539,6 +620,9 @@
     <t>GameEventMasterClass.EventSubscriptionService</t>
   </si>
   <si>
+    <t>Subscribe to an event. Invoke when event changes</t>
+  </si>
+  <si>
     <t>CROSS_DOOR</t>
   </si>
   <si>
@@ -548,6 +632,9 @@
     <t>LevelMasterClass.CrossDoorService</t>
   </si>
   <si>
+    <t>Trigger actions when crossing a door</t>
+  </si>
+  <si>
     <t>INTERACT_PLAYER_NPC</t>
   </si>
   <si>
@@ -557,7 +644,25 @@
     <t>NPCMasterClass.InteractPlayerNPCService</t>
   </si>
   <si>
+    <t>Interacts player with NPC</t>
+  </si>
+  <si>
+    <t>LOCK_PLAYER</t>
+  </si>
+  <si>
+    <t>LOCK_PLAYER_DELEGATE</t>
+  </si>
+  <si>
+    <t>PlayerMasterClass.LockPlayerService</t>
+  </si>
+  <si>
+    <t>Locks player so it cannot act until an action over it has been done (or removes lock)</t>
+  </si>
+  <si>
     <t>LAST_SERVICE</t>
+  </si>
+  <si>
+    <t>Last service</t>
   </si>
   <si>
     <t>ITEM_ID</t>
@@ -729,8 +834,176 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF356854"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF356854"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF356854"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF356854"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -749,7 +1022,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -767,24 +1040,154 @@
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -798,6 +1201,13 @@
       <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="1">
+    <tableStyle count="3" pivot="0" name="SERVICES-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -831,6 +1241,29 @@
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O34" displayName="Table_Services" name="Table_Services" id="1">
+  <tableColumns count="15">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="SERVICE_ID" id="2"/>
+    <tableColumn name="SPECIAL_DELEGATE" id="3"/>
+    <tableColumn name="SERVICE_ROUTE" id="4"/>
+    <tableColumn name="Description" id="5"/>
+    <tableColumn name="Separator" id="6"/>
+    <tableColumn name="GameMaster" id="7"/>
+    <tableColumn name="InputMaster" id="8"/>
+    <tableColumn name="LevelMaster" id="9"/>
+    <tableColumn name="GraphicsMaster" id="10"/>
+    <tableColumn name="GameMenu" id="11"/>
+    <tableColumn name="PlayerMaster" id="12"/>
+    <tableColumn name="NPCMaster" id="13"/>
+    <tableColumn name="ItemMaster" id="14"/>
+    <tableColumn name="GameEventMaster" id="15"/>
+  </tableColumns>
+  <tableStyleInfo name="SERVICES-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3290,1485 +3723,1607 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.86"/>
+    <col customWidth="1" min="1" max="1" width="11.29"/>
     <col customWidth="1" min="2" max="2" width="30.14"/>
-    <col customWidth="1" min="3" max="3" width="39.86"/>
+    <col customWidth="1" min="3" max="3" width="41.0"/>
     <col customWidth="1" min="4" max="4" width="49.57"/>
-    <col customWidth="1" min="5" max="5" width="4.86"/>
+    <col customWidth="1" min="5" max="5" width="8.86"/>
+    <col customWidth="1" min="6" max="6" width="5.29"/>
+    <col customWidth="1" min="7" max="7" width="21.14"/>
+    <col customWidth="1" min="8" max="8" width="20.57"/>
+    <col customWidth="1" min="9" max="9" width="20.43"/>
+    <col customWidth="1" min="10" max="10" width="23.43"/>
+    <col customWidth="1" min="11" max="11" width="20.14"/>
+    <col customWidth="1" min="12" max="12" width="21.29"/>
+    <col customWidth="1" min="13" max="13" width="19.57"/>
+    <col customWidth="1" min="14" max="14" width="20.0"/>
+    <col customWidth="1" min="15" max="15" width="25.86"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11">
+        <f t="shared" ref="A2:A34" si="1">ROW()-ROW($A$2)</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="17">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="17">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="17">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="17">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="17">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O23" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="11">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="O24" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="17">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B25" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="11">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B26" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="17">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="B27" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="11">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="B28" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="17">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="B29" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N29" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="B30" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="N30" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="17">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="B31" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="11">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="B32" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="M32" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="17">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <f t="shared" ref="A2:A19" si="1">ROW()-ROW($A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="B33" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="M33" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="O33" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="36">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <f t="shared" ref="A21:A34" si="2">ROW()-ROW($A$2)</f>
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" s="1" t="s">
+      <c r="H34" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="O34" s="40" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:N34">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A34">
+      <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:O34">
       <formula1>"W,X,-"</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4814,484 +5369,484 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="P1" s="11" t="str">
+      <c r="B1" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="P1" s="42" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(P1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(P1)-COLUMN($P1),3),0))</f>
         <v>ITEM_POTION_USE</v>
       </c>
-      <c r="Q1" s="11" t="str">
+      <c r="Q1" s="42" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(Q1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(Q1)-COLUMN($P1),3),0))</f>
         <v>ITEM_POTION_ANIM</v>
       </c>
-      <c r="R1" s="11" t="str">
+      <c r="R1" s="42" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(R1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(R1)-COLUMN($P1),3),0))</f>
         <v>ITEM_POTION_EVENT</v>
       </c>
-      <c r="S1" s="11" t="str">
+      <c r="S1" s="42" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(S1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(S1)-COLUMN($P1),3),0))</f>
         <v>ITEM_POTION_BLUE_USE</v>
       </c>
-      <c r="T1" s="11" t="str">
+      <c r="T1" s="42" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(T1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(T1)-COLUMN($P1),3),0))</f>
         <v>ITEM_POTION_BLUE_ANIM</v>
       </c>
-      <c r="U1" s="11" t="str">
+      <c r="U1" s="42" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(U1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(U1)-COLUMN($P1),3),0))</f>
         <v>ITEM_POTION_BLUE_EVENT</v>
       </c>
-      <c r="V1" s="11" t="str">
+      <c r="V1" s="42" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(V1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(V1)-COLUMN($P1),3),0))</f>
         <v>ITEM_FOUNTAIN_USE</v>
       </c>
-      <c r="W1" s="11" t="str">
+      <c r="W1" s="42" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(W1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(W1)-COLUMN($P1),3),0))</f>
         <v>ITEM_FOUNTAIN_ANIM</v>
       </c>
-      <c r="X1" s="11" t="str">
+      <c r="X1" s="42" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(X1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(X1)-COLUMN($P1),3),0))</f>
         <v>ITEM_FOUNTAIN_EVENT</v>
       </c>
-      <c r="Y1" s="11" t="str">
+      <c r="Y1" s="42" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(Y1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(Y1)-COLUMN($P1),3),0))</f>
         <v>ITEM_LAST_USE</v>
       </c>
-      <c r="Z1" s="11" t="str">
+      <c r="Z1" s="42" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(Z1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(Z1)-COLUMN($P1),3),0))</f>
         <v>ITEM_LAST_ANIM</v>
       </c>
-      <c r="AA1" s="11" t="str">
+      <c r="AA1" s="42" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(AA1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(AA1)-COLUMN($P1),3),0))</f>
         <v>ITEM_LAST_EVENT</v>
       </c>
-      <c r="AB1" s="11" t="str">
+      <c r="AB1" s="42" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(AB1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(AB1)-COLUMN($P1),3),0))</f>
         <v>_USE</v>
       </c>
-      <c r="AC1" s="11" t="str">
+      <c r="AC1" s="42" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(AC1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(AC1)-COLUMN($P1),3),0))</f>
         <v>_ANIM</v>
       </c>
-      <c r="AD1" s="11" t="str">
+      <c r="AD1" s="42" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(AD1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(AD1)-COLUMN($P1),3),0))</f>
         <v>_EVENT</v>
       </c>
-      <c r="AE1" s="11" t="str">
+      <c r="AE1" s="42" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(AE1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(AE1)-COLUMN($P1),3),0))</f>
         <v>_USE</v>
       </c>
-      <c r="AF1" s="11" t="str">
+      <c r="AF1" s="42" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(AF1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(AF1)-COLUMN($P1),3),0))</f>
         <v>_ANIM</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10">
+      <c r="A2" s="41">
         <f t="shared" ref="A2:A5" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="41">
         <v>1.0</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="41">
         <v>1.0</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="I2" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="K2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="N2" s="10" t="s">
+      <c r="L2" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="N2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="R2" s="10" t="s">
+      <c r="P2" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="R2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="U2" s="10" t="s">
+      <c r="S2" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="U2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="X2" s="10" t="s">
+      <c r="V2" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="W2" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="X2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA2" s="10" t="s">
+      <c r="Y2" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z2" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AB2" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC2" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>188</v>
+      <c r="AE2" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF2" s="41" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10">
+      <c r="A3" s="41">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="41">
         <v>1.0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="41">
         <v>1.0</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="F3" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="I3" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="L3" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="N3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="R3" s="10" t="s">
+      <c r="P3" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="R3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="U3" s="10" t="s">
+      <c r="S3" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="T3" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="U3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="X3" s="10" t="s">
+      <c r="V3" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="W3" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="X3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA3" s="10" t="s">
+      <c r="Y3" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z3" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AB3" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC3" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF3" s="10" t="s">
-        <v>188</v>
+      <c r="AE3" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF3" s="41" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10">
+      <c r="A4" s="41">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="41">
         <v>0.0</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="41">
         <v>0.0</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="F4" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="K4" s="10" t="s">
+      <c r="I4" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="K4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="N4" s="10" t="s">
+      <c r="L4" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="N4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="R4" s="10" t="s">
+      <c r="P4" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="R4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="U4" s="10" t="s">
+      <c r="S4" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="T4" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="U4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="X4" s="10" t="s">
+      <c r="V4" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="W4" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="X4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA4" s="10" t="s">
+      <c r="Y4" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z4" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AB4" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC4" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF4" s="10" t="s">
-        <v>188</v>
+      <c r="AE4" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF4" s="41" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10">
+      <c r="A5" s="41">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="41">
         <v>0.0</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="41">
         <v>0.0</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="F5" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="K5" s="10" t="s">
+      <c r="I5" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="K5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="N5" s="10" t="s">
+      <c r="L5" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="N5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="R5" s="10" t="s">
+      <c r="P5" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q5" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="R5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="U5" s="10" t="s">
+      <c r="S5" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="T5" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="U5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="X5" s="10" t="s">
+      <c r="V5" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="W5" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="X5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="Y5" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z5" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA5" s="10" t="s">
+      <c r="Y5" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z5" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AB5" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC5" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AE5" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>188</v>
+      <c r="AE5" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF5" s="41" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5325,29 +5880,29 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>193</v>
+      <c r="B1" s="41" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10">
+      <c r="A2" s="41">
         <f t="shared" ref="A2:A3" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>194</v>
+      <c r="B2" s="41" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10">
+      <c r="A3" s="41">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>195</v>
+      <c r="B3" s="41" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5371,48 +5926,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5438,21 +5993,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
@@ -5466,7 +6021,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
@@ -5480,7 +6035,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="B4" s="1">
         <v>3.0</v>
@@ -5494,7 +6049,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -5508,7 +6063,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="B6" s="1">
         <v>3.0</v>
@@ -5522,7 +6077,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="B7" s="1">
         <v>3.0</v>
@@ -5536,7 +6091,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="B8" s="1">
         <v>4.0</v>
@@ -5550,7 +6105,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="B9" s="1">
         <v>5.0</v>
@@ -5576,7 +6131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A9">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$C2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -10,13 +10,14 @@
     <sheet state="visible" name="ITEMS" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="NPCs" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="_REF" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="_TODO" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="CONSTANTS" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="_TODO" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="YuwGJ/xnf0TwDH/8VMhaZAvsN68002g6692b9FjB8z0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="Z1IEkT8JhVElhILlhClM5ss42yLRKS+tU4O5GmGCAhY="/>
     </ext>
   </extLst>
 </workbook>
@@ -34,12 +35,24 @@
 ======</t>
       </text>
     </comment>
+    <comment authorId="0" ref="E7">
+      <text>
+        <t xml:space="preserve">Calculated
+======</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E14">
+      <text>
+        <t xml:space="preserve">Calculated
+======</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="255">
   <si>
     <t>N</t>
   </si>
@@ -107,48 +120,51 @@
     <t>SAVE</t>
   </si>
   <si>
+    <t>Separator</t>
+  </si>
+  <si>
+    <t>GameMaster</t>
+  </si>
+  <si>
+    <t>InputMaster</t>
+  </si>
+  <si>
+    <t>LevelMaster</t>
+  </si>
+  <si>
+    <t>GraphicsMaster</t>
+  </si>
+  <si>
+    <t>GameMenu</t>
+  </si>
+  <si>
+    <t>PlayerMaster</t>
+  </si>
+  <si>
+    <t>NPCMaster</t>
+  </si>
+  <si>
+    <t>ItemMaster</t>
+  </si>
+  <si>
+    <t>GameEventMaster</t>
+  </si>
+  <si>
+    <t>GAME_OPTIONS</t>
+  </si>
+  <si>
+    <t>GameOptionsStruct</t>
+  </si>
+  <si>
+    <t>GameOptionsStruct_Default</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>GameMaster</t>
-  </si>
-  <si>
-    <t>InputMaster</t>
-  </si>
-  <si>
-    <t>LevelMaster</t>
-  </si>
-  <si>
-    <t>GraphicsMaster</t>
-  </si>
-  <si>
-    <t>GameMenu</t>
-  </si>
-  <si>
-    <t>PlayerMaster</t>
-  </si>
-  <si>
-    <t>NPCMaster</t>
-  </si>
-  <si>
-    <t>ItemMaster</t>
-  </si>
-  <si>
-    <t>GameEventMaster</t>
-  </si>
-  <si>
-    <t>GAME_OPTIONS</t>
-  </si>
-  <si>
-    <t>GameOptionsStruct</t>
-  </si>
-  <si>
-    <t>GameOptionsStruct_Default</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -254,6 +270,9 @@
     <t>GameItem.ITEM_NONE</t>
   </si>
   <si>
+    <t>PLAYER_TRANSACTION</t>
+  </si>
+  <si>
     <t>LAST_VARMAP_VAL</t>
   </si>
   <si>
@@ -269,9 +288,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Separator</t>
-  </si>
-  <si>
     <t>START_GAME</t>
   </si>
   <si>
@@ -752,6 +768,9 @@
     <t>INTERACTION_TAKE_AND_RECEIVE</t>
   </si>
   <si>
+    <t>NUM_PLAYERS</t>
+  </si>
+  <si>
     <t>TASK</t>
   </si>
   <si>
@@ -783,6 +802,18 @@
   </si>
   <si>
     <t>Loading screen between rooms</t>
+  </si>
+  <si>
+    <t>Main event list (Tomba style)</t>
+  </si>
+  <si>
+    <t>Trophies</t>
+  </si>
+  <si>
+    <t>Observe items, NPCs, trigger events</t>
+  </si>
+  <si>
+    <t>Seealso in services. Add owner in descr</t>
   </si>
   <si>
     <t>Last</t>
@@ -792,7 +823,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -806,6 +837,11 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -834,7 +870,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="24">
     <border/>
     <border>
       <left style="thin">
@@ -964,6 +1000,62 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFC9DAF8"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC9DAF8"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC9DAF8"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC9DAF8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
@@ -1018,11 +1110,95 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF284E3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFF00"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFF00"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFABDD45"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFABDD45"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFABDD45"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFABDD45"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF57BB8A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF57BB8A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF57BB8A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1030,16 +1206,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1052,58 +1218,82 @@
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1124,28 +1314,85 @@
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="17" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1201,8 +1448,23 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="1">
+  <tableStyles count="4">
+    <tableStyle count="3" pivot="0" name="VARMAP-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
     <tableStyle count="3" pivot="0" name="SERVICES-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="CONSTANTS-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="_TODO-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -1243,8 +1505,37 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O34" displayName="Table_Services" name="Table_Services" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Q15" displayName="Table_Varmap" name="Table_Varmap" id="1">
+  <tableColumns count="17">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="ENUM_ID" id="2"/>
+    <tableColumn name="TYPE" id="3"/>
+    <tableColumn name="SAFE" id="4"/>
+    <tableColumn name="ARRAY" id="5"/>
+    <tableColumn name="DEFVALUE" id="6"/>
+    <tableColumn name="SAVE" id="7"/>
+    <tableColumn name="Separator" id="8"/>
+    <tableColumn name="GameMaster" id="9"/>
+    <tableColumn name="InputMaster" id="10"/>
+    <tableColumn name="LevelMaster" id="11"/>
+    <tableColumn name="GraphicsMaster" id="12"/>
+    <tableColumn name="GameMenu" id="13"/>
+    <tableColumn name="PlayerMaster" id="14"/>
+    <tableColumn name="NPCMaster" id="15"/>
+    <tableColumn name="ItemMaster" id="16"/>
+    <tableColumn name="GameEventMaster" id="17"/>
+  </tableColumns>
+  <tableStyleInfo name="VARMAP-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O34" displayName="Table_Services" name="Table_Services" id="2">
   <tableColumns count="15">
     <tableColumn name="N" id="1"/>
     <tableColumn name="SERVICE_ID" id="2"/>
@@ -1263,6 +1554,27 @@
     <tableColumn name="GameEventMaster" id="15"/>
   </tableColumns>
   <tableStyleInfo name="SERVICES-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A2" displayName="Table_Constants" name="Table_Constants" id="3">
+  <tableColumns count="1">
+    <tableColumn name="NUM_PLAYERS" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="CONSTANTS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D13" displayName="Table_TODO" name="Table_TODO" id="4">
+  <tableColumns count="4">
+    <tableColumn name="TASK" id="1"/>
+    <tableColumn name="PRIO" id="2"/>
+    <tableColumn name="DONE" id="3"/>
+    <tableColumn name="ONGOING" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="_TODO-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1960,773 +2272,840 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="10.71"/>
     <col customWidth="1" min="2" max="2" width="34.29"/>
-    <col customWidth="1" min="3" max="3" width="20.86"/>
-    <col customWidth="1" min="4" max="5" width="10.71"/>
-    <col customWidth="1" min="6" max="6" width="35.57"/>
-    <col customWidth="1" min="7" max="7" width="8.29"/>
-    <col customWidth="1" min="8" max="8" width="3.71"/>
-    <col customWidth="1" min="9" max="11" width="12.29"/>
-    <col customWidth="1" min="12" max="12" width="14.57"/>
-    <col customWidth="1" min="13" max="14" width="14.71"/>
-    <col customWidth="1" min="15" max="24" width="10.71"/>
+    <col customWidth="1" min="3" max="3" width="22.29"/>
+    <col customWidth="1" min="4" max="4" width="14.14"/>
+    <col customWidth="1" min="5" max="5" width="11.86"/>
+    <col customWidth="1" min="6" max="6" width="35.71"/>
+    <col customWidth="1" min="7" max="7" width="14.29"/>
+    <col customWidth="1" min="8" max="8" width="4.29"/>
+    <col customWidth="1" min="9" max="9" width="21.14"/>
+    <col customWidth="1" min="10" max="10" width="20.57"/>
+    <col customWidth="1" min="11" max="11" width="20.43"/>
+    <col customWidth="1" min="12" max="12" width="23.43"/>
+    <col customWidth="1" min="13" max="13" width="20.14"/>
+    <col customWidth="1" min="14" max="14" width="21.29"/>
+    <col customWidth="1" min="15" max="15" width="19.57"/>
+    <col customWidth="1" min="16" max="16" width="20.0"/>
+    <col customWidth="1" min="17" max="17" width="25.86"/>
+    <col customWidth="1" min="18" max="24" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <f t="shared" ref="A2:A14" si="1">ROW()-ROW($A$2)</f>
+      <c r="A2" s="7">
+        <f t="shared" ref="A2:A15" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="9">
         <v>2.0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="8">
         <v>0.0</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="I3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="I4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="3">
+    </row>
+    <row r="6">
+      <c r="A6" s="7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="10">
         <v>2.0</v>
       </c>
-      <c r="E3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="E6" s="20">
         <f>COUNT(ITEMS!A:A)-COUNT(ITEMS!A1)</f>
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="20">
+        <f>Table_Constants[NUM_PLAYERS]</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="18">
+        <v>-1.0</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4" t="s">
+      <c r="D11" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="L12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="Q13" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="20">
+        <f>Table_Constants[NUM_PLAYERS]</f>
+        <v>3</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="O14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="24">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>-1.0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1"/>
+      <c r="J15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="I22" s="1"/>
+    </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -3696,15 +4075,16 @@
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D14">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G15">
+      <formula1>"N,Y"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D15">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G14">
-      <formula1>"N,Y"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:Q14">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:Q15">
       <formula1>"R,R E,W,W E,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3713,6 +4093,9 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3748,1567 +4131,1590 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="E1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11">
+      <c r="A2" s="31">
         <f t="shared" ref="A2:A34" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="31">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="32">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="31">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="32">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="31">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="32">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="31">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="32">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="31">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="32">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="31">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="32">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="31">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="32">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="31">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="32">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="31">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="32">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="31">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="32">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="31">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="B24" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="O24" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="32">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O25" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="15" t="s">
+    </row>
+    <row r="26">
+      <c r="A26" s="31">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="15" t="s">
+      <c r="M26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="32">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="J27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="31">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O28" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="32">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O29" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="31">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O30" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B3" s="18" t="s">
+    <row r="31">
+      <c r="A31" s="32">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="M31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="31">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="20" t="s">
+      <c r="N32" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="32">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="20" t="s">
+      <c r="M33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="40">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="17">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="17">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="17">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="17">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="17">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="O13" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="17">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="17">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="17">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="N20" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="17">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="O21" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="M22" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="N22" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="17">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="N23" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="O23" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="M24" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="O24" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="17">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="O25" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="M26" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="17">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="O27" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="L28" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="M28" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="17">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N29" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="J30" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L30" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="M30" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="N30" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="17">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="O31" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="L32" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="M32" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="N32" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="17">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="J33" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="L33" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="M33" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N33" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="O33" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="36">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="L34" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="M34" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="O34" s="40" t="s">
-        <v>39</v>
+      <c r="H34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="M34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" s="45" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5369,484 +5775,484 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="D1" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="G1" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="I1" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="K1" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="L1" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="M1" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="P1" s="42" t="str">
+      <c r="N1" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="P1" s="47" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(P1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(P1)-COLUMN($P1),3),0))</f>
         <v>ITEM_POTION_USE</v>
       </c>
-      <c r="Q1" s="42" t="str">
+      <c r="Q1" s="47" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(Q1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(Q1)-COLUMN($P1),3),0))</f>
         <v>ITEM_POTION_ANIM</v>
       </c>
-      <c r="R1" s="42" t="str">
+      <c r="R1" s="47" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(R1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(R1)-COLUMN($P1),3),0))</f>
         <v>ITEM_POTION_EVENT</v>
       </c>
-      <c r="S1" s="42" t="str">
+      <c r="S1" s="47" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(S1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(S1)-COLUMN($P1),3),0))</f>
         <v>ITEM_POTION_BLUE_USE</v>
       </c>
-      <c r="T1" s="42" t="str">
+      <c r="T1" s="47" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(T1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(T1)-COLUMN($P1),3),0))</f>
         <v>ITEM_POTION_BLUE_ANIM</v>
       </c>
-      <c r="U1" s="42" t="str">
+      <c r="U1" s="47" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(U1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(U1)-COLUMN($P1),3),0))</f>
         <v>ITEM_POTION_BLUE_EVENT</v>
       </c>
-      <c r="V1" s="42" t="str">
+      <c r="V1" s="47" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(V1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(V1)-COLUMN($P1),3),0))</f>
         <v>ITEM_FOUNTAIN_USE</v>
       </c>
-      <c r="W1" s="42" t="str">
+      <c r="W1" s="47" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(W1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(W1)-COLUMN($P1),3),0))</f>
         <v>ITEM_FOUNTAIN_ANIM</v>
       </c>
-      <c r="X1" s="42" t="str">
+      <c r="X1" s="47" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(X1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(X1)-COLUMN($P1),3),0))</f>
         <v>ITEM_FOUNTAIN_EVENT</v>
       </c>
-      <c r="Y1" s="42" t="str">
+      <c r="Y1" s="47" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(Y1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(Y1)-COLUMN($P1),3),0))</f>
         <v>ITEM_LAST_USE</v>
       </c>
-      <c r="Z1" s="42" t="str">
+      <c r="Z1" s="47" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(Z1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(Z1)-COLUMN($P1),3),0))</f>
         <v>ITEM_LAST_ANIM</v>
       </c>
-      <c r="AA1" s="42" t="str">
+      <c r="AA1" s="47" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(AA1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(AA1)-COLUMN($P1),3),0))</f>
         <v>ITEM_LAST_EVENT</v>
       </c>
-      <c r="AB1" s="42" t="str">
+      <c r="AB1" s="47" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(AB1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(AB1)-COLUMN($P1),3),0))</f>
         <v>_USE</v>
       </c>
-      <c r="AC1" s="42" t="str">
+      <c r="AC1" s="47" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(AC1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(AC1)-COLUMN($P1),3),0))</f>
         <v>_ANIM</v>
       </c>
-      <c r="AD1" s="42" t="str">
+      <c r="AD1" s="47" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(AD1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(AD1)-COLUMN($P1),3),0))</f>
         <v>_EVENT</v>
       </c>
-      <c r="AE1" s="42" t="str">
+      <c r="AE1" s="47" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(AE1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(AE1)-COLUMN($P1),3),0))</f>
         <v>_USE</v>
       </c>
-      <c r="AF1" s="42" t="str">
+      <c r="AF1" s="47" t="str">
         <f>CONCAT(OFFSET($B$2,_xlfn.FLOOR.MATH((COLUMN(AF1)-COLUMN($P1))/3,1),0),OFFSET('_REF'!$A$1,MOD(COLUMN(AF1)-COLUMN($P1),3),0))</f>
         <v>_ANIM</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="41">
+      <c r="A2" s="46">
         <f t="shared" ref="A2:A5" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="46">
         <v>1.0</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="46">
         <v>1.0</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="G2" s="41" t="s">
+      <c r="F2" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="G2" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q2" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="R2" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="T2" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="U2" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="W2" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="X2" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z2" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA2" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC2" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD2" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE2" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF2" s="46" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="K3" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="M3" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="N3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="M2" s="41" t="s">
+      <c r="P3" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="Q3" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="R3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q2" s="41" t="s">
+      <c r="S3" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="T3" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="U3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="T2" s="41" t="s">
+      <c r="V3" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="W3" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="X3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="Y3" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z3" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="W2" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="X2" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z2" s="41" t="s">
+      <c r="AA3" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AC3" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AE3" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="AD2" s="41" t="s">
+      <c r="AF3" s="46" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="46">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF2" s="41" t="s">
+      <c r="I4" s="46" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="41">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="41">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="J4" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="M4" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="N4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="K3" s="41" t="s">
+      <c r="P4" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="R4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="M3" s="41" t="s">
+      <c r="S4" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="T4" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="U4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q3" s="41" t="s">
+      <c r="V4" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="W4" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="X4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="T3" s="41" t="s">
+      <c r="Y4" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="U3" s="41" t="s">
+      <c r="Z4" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="W3" s="41" t="s">
+      <c r="AB4" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="X3" s="41" t="s">
+      <c r="AC4" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z3" s="41" t="s">
+      <c r="AE4" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="AA3" s="41" t="s">
+      <c r="AF4" s="46" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="46">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC3" s="41" t="s">
+      <c r="I5" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="AD3" s="41" t="s">
+      <c r="J5" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="K5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF3" s="41" t="s">
+      <c r="L5" s="46" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="41">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="41" t="s">
+      <c r="M5" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="Q5" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="R5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="J4" s="41" t="s">
+      <c r="S5" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="T5" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="U5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="M4" s="41" t="s">
+      <c r="V5" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="W5" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="X5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q4" s="41" t="s">
+      <c r="Y5" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="R4" s="41" t="s">
+      <c r="Z5" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="T4" s="41" t="s">
+      <c r="AB5" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="U4" s="41" t="s">
+      <c r="AC5" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="W4" s="41" t="s">
+      <c r="AE5" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="X4" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y4" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z4" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA4" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB4" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC4" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD4" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE4" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF4" s="41" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="41">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="M5" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q5" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="R5" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="S5" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="T5" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="U5" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="W5" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="X5" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z5" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA5" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB5" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC5" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD5" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE5" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF5" s="41" t="s">
-        <v>223</v>
+      <c r="AF5" s="46" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5880,29 +6286,29 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>228</v>
+      <c r="B1" s="46" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="41">
+      <c r="A2" s="46">
         <f t="shared" ref="A2:A3" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>229</v>
+      <c r="B2" s="46" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="41">
+      <c r="A3" s="46">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>230</v>
+      <c r="B3" s="46" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5926,48 +6332,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -5978,147 +6384,242 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFB45F06"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="20.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="48" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="49">
+        <v>3.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <tabColor rgb="FF783F04"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.0"/>
+    <col customWidth="1" min="1" max="1" width="38.57"/>
     <col customWidth="1" min="2" max="2" width="5.29"/>
-    <col customWidth="1" min="3" max="3" width="8.71"/>
+    <col customWidth="1" min="3" max="3" width="11.71"/>
+    <col customWidth="1" min="4" max="4" width="15.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="51" t="s">
         <v>240</v>
       </c>
+      <c r="C1" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="54">
         <v>1.0</v>
       </c>
-      <c r="C2" s="1" t="b">
+      <c r="C2" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="b">
+      <c r="D2" s="56" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="54">
         <v>1.0</v>
       </c>
-      <c r="C3" s="1" t="b">
+      <c r="C3" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="b">
+      <c r="D3" s="59" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="60">
         <v>3.0</v>
       </c>
-      <c r="C4" s="1" t="b">
+      <c r="C4" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="b">
+      <c r="D4" s="56" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="54">
         <v>1.0</v>
       </c>
-      <c r="C5" s="1" t="b">
+      <c r="C5" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="b">
+      <c r="D5" s="59" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="60">
         <v>3.0</v>
       </c>
-      <c r="C6" s="1" t="b">
+      <c r="C6" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="b">
+      <c r="D6" s="56" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="60">
         <v>3.0</v>
       </c>
-      <c r="C7" s="1" t="b">
+      <c r="C7" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="b">
+      <c r="D7" s="59" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="61">
         <v>4.0</v>
       </c>
-      <c r="C8" s="1" t="b">
+      <c r="C8" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="1" t="b">
+      <c r="D8" s="56" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="61">
+        <v>4.0</v>
+      </c>
+      <c r="C9" s="58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="61">
+        <v>4.0</v>
+      </c>
+      <c r="C10" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="54">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="61">
+        <v>4.0</v>
+      </c>
+      <c r="C12" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="63">
         <v>5.0</v>
       </c>
-      <c r="C9" s="1" t="b">
+      <c r="C13" s="64" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="b">
+      <c r="D13" s="65" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B9">
+  <conditionalFormatting sqref="B2:B13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="formula" val="1"/>
@@ -6130,11 +6631,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A9">
+  <conditionalFormatting sqref="A2:A13">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>$C2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B2:B13">
+      <formula1>AND(ISNUMBER(B2),(NOT(OR(NOT(ISERROR(DATEVALUE(B2))), AND(ISNUMBER(B2), LEFT(CELL("format", B2))="D")))))</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -6622,23 +6622,23 @@
     </row>
   </sheetData>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="I2:I6 O2:O6">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="J2:J6 P2:P6">
+      <formula1>#REF!</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:H6">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="P2:P6">
-      <formula1>Table_Item_Conditions[ITEM_COND_ID]</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="O2:O6">
-      <formula1>Table_Items[ITEM_ID]</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="K2:K6 Q2:Q6">
+      <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M2:M6">
       <formula1>Table_Characters[Type]</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N2:N6">
       <formula1>'_REF'!$B$2:$B$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I2:K6 Q2:Q6">
-      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -20,7 +20,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataChecksum="y36D/GbfhgY+X7cfY1itUoQRr3DIByplvZef/Qhatf8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataChecksum="zXWrutDY46wAzOxsLNDNzItt4A5Qr5fb78IlINitF5k="/>
     </ext>
   </extLst>
 </workbook>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="282">
   <si>
     <t>N</t>
   </si>
@@ -895,6 +895,9 @@
   </si>
   <si>
     <t>Seealso in services. Add owner in descr</t>
+  </si>
+  <si>
+    <t>Avoid services modifying VARMAP</t>
   </si>
   <si>
     <t>Last</t>
@@ -945,7 +948,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border/>
     <border>
       <left style="thin">
@@ -1299,6 +1302,20 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB7E1CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB7E1CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB7E1CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF57BB8A"/>
       </left>
       <right style="thin">
@@ -1367,9 +1384,6 @@
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="10" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1579,6 +1593,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1779,7 +1796,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D13" displayName="Table_TODO" name="Table_TODO" id="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D14" displayName="Table_TODO" name="Table_TODO" id="11">
   <tableColumns count="4">
     <tableColumn name="TASK" id="1"/>
     <tableColumn name="PRIO" id="2"/>
@@ -2401,7 +2418,7 @@
       <c r="P5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2419,9 +2436,9 @@
       <c r="D6" s="8">
         <v>2.0</v>
       </c>
-      <c r="E6" s="18">
-        <f>COUNT(ITEMS!A:A)-COUNT(ITEMS!A1)</f>
-        <v>5</v>
+      <c r="E6" s="17">
+        <f>COUNT(Table_Items[N])-2</f>
+        <v>3</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>37</v>
@@ -2472,388 +2489,388 @@
       <c r="D7" s="13">
         <v>2.0</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
+        <f>COUNT(Table_Characters[N])</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="16">
+        <v>-1.0</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="17">
         <f>Table_Constants[NUM_PLAYERS]</f>
         <v>3</v>
       </c>
-      <c r="F7" s="16">
-        <v>-1.0</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="10">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="5">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="10">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="5">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="18">
-        <f>Table_Constants[NUM_PLAYERS]</f>
-        <v>3</v>
-      </c>
       <c r="F14" s="15" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="21"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="8" t="s">
         <v>25</v>
       </c>
@@ -2883,54 +2900,54 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="23">
         <v>0.0</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>0.0</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="24" t="s">
+      <c r="H15" s="25"/>
+      <c r="I15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="27" t="s">
+      <c r="J15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="26" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2941,7 +2958,7 @@
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="I22" s="28"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -3954,55 +3971,55 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>259</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="80" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="80" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="80" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="81" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="82" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4030,364 +4047,364 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="28">
+      <c r="A2" s="27">
         <f t="shared" ref="A2:A32" si="1">ROW()-ROW($G$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="84" t="str">
+      <c r="B2" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A2,0)</f>
         <v>ITEM_POTION</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="28">
+      <c r="A3" s="27">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="str">
+      <c r="B3" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A3,0)</f>
         <v>ITEM_POTION_BLUE</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="28">
+      <c r="A4" s="27">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="84" t="str">
+      <c r="B4" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A4,0)</f>
         <v>ITEM_FOUNTAIN</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="84" t="str">
+      <c r="B5" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A5,0)</f>
         <v>ITEM_LAST</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="28">
+      <c r="A6" s="27">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="84" t="str">
+      <c r="B6" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A6,0)</f>
         <v/>
       </c>
-      <c r="C6" s="84"/>
+      <c r="C6" s="83"/>
     </row>
     <row r="7">
-      <c r="A7" s="28">
+      <c r="A7" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="84" t="str">
+      <c r="B7" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A7,0)</f>
         <v/>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="83"/>
     </row>
     <row r="8">
-      <c r="A8" s="28">
+      <c r="A8" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="84" t="str">
+      <c r="B8" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A8,0)</f>
         <v/>
       </c>
-      <c r="C8" s="84"/>
+      <c r="C8" s="83"/>
     </row>
     <row r="9">
-      <c r="A9" s="28">
+      <c r="A9" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="84" t="str">
+      <c r="B9" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A9,0)</f>
         <v/>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="83"/>
     </row>
     <row r="10">
-      <c r="A10" s="28">
+      <c r="A10" s="27">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="84" t="str">
+      <c r="B10" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A10,0)</f>
         <v/>
       </c>
-      <c r="C10" s="84"/>
+      <c r="C10" s="83"/>
     </row>
     <row r="11">
-      <c r="A11" s="28">
+      <c r="A11" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="84" t="str">
+      <c r="B11" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A11,0)</f>
         <v/>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="83"/>
     </row>
     <row r="12">
-      <c r="A12" s="28">
+      <c r="A12" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="84" t="str">
+      <c r="B12" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A12,0)</f>
         <v/>
       </c>
-      <c r="C12" s="84"/>
+      <c r="C12" s="83"/>
     </row>
     <row r="13">
-      <c r="A13" s="28">
+      <c r="A13" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="84" t="str">
+      <c r="B13" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A13,0)</f>
         <v/>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="83"/>
     </row>
     <row r="14">
-      <c r="A14" s="28">
+      <c r="A14" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="84" t="str">
+      <c r="B14" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A14,0)</f>
         <v/>
       </c>
-      <c r="C14" s="84"/>
+      <c r="C14" s="83"/>
     </row>
     <row r="15">
-      <c r="A15" s="28">
+      <c r="A15" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="84" t="str">
+      <c r="B15" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A15,0)</f>
         <v/>
       </c>
-      <c r="C15" s="84"/>
+      <c r="C15" s="83"/>
     </row>
     <row r="16">
-      <c r="A16" s="28">
+      <c r="A16" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="84" t="str">
+      <c r="B16" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A16,0)</f>
         <v/>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="83"/>
     </row>
     <row r="17">
-      <c r="A17" s="28">
+      <c r="A17" s="27">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="84" t="str">
+      <c r="B17" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A17,0)</f>
         <v/>
       </c>
-      <c r="C17" s="84"/>
+      <c r="C17" s="83"/>
     </row>
     <row r="18">
-      <c r="A18" s="28">
+      <c r="A18" s="27">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="84" t="str">
+      <c r="B18" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A18,0)</f>
         <v/>
       </c>
-      <c r="C18" s="84"/>
+      <c r="C18" s="83"/>
     </row>
     <row r="19">
-      <c r="A19" s="28">
+      <c r="A19" s="27">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="84" t="str">
+      <c r="B19" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A19,0)</f>
         <v/>
       </c>
-      <c r="C19" s="84"/>
+      <c r="C19" s="83"/>
     </row>
     <row r="20">
-      <c r="A20" s="28">
+      <c r="A20" s="27">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="84" t="str">
+      <c r="B20" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A20,0)</f>
         <v/>
       </c>
-      <c r="C20" s="84"/>
+      <c r="C20" s="83"/>
     </row>
     <row r="21">
-      <c r="A21" s="28">
+      <c r="A21" s="27">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="84" t="str">
+      <c r="B21" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A21,0)</f>
         <v/>
       </c>
-      <c r="C21" s="84"/>
+      <c r="C21" s="83"/>
     </row>
     <row r="22">
-      <c r="A22" s="28">
+      <c r="A22" s="27">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="84" t="str">
+      <c r="B22" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A22,0)</f>
         <v/>
       </c>
-      <c r="C22" s="84"/>
+      <c r="C22" s="83"/>
     </row>
     <row r="23">
-      <c r="A23" s="28">
+      <c r="A23" s="27">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="84" t="str">
+      <c r="B23" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A23,0)</f>
         <v/>
       </c>
-      <c r="C23" s="84"/>
+      <c r="C23" s="83"/>
     </row>
     <row r="24">
-      <c r="A24" s="28">
+      <c r="A24" s="27">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="84" t="str">
+      <c r="B24" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A24,0)</f>
         <v/>
       </c>
-      <c r="C24" s="84"/>
+      <c r="C24" s="83"/>
     </row>
     <row r="25">
-      <c r="A25" s="28">
+      <c r="A25" s="27">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="84" t="str">
+      <c r="B25" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A25,0)</f>
         <v/>
       </c>
-      <c r="C25" s="84"/>
+      <c r="C25" s="83"/>
     </row>
     <row r="26">
-      <c r="A26" s="28">
+      <c r="A26" s="27">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="84" t="str">
+      <c r="B26" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A26,0)</f>
         <v/>
       </c>
-      <c r="C26" s="84"/>
+      <c r="C26" s="83"/>
     </row>
     <row r="27">
-      <c r="A27" s="28">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="84" t="str">
+      <c r="A27" s="27">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A27,0)</f>
         <v/>
       </c>
-      <c r="C27" s="84"/>
+      <c r="C27" s="83"/>
     </row>
     <row r="28">
-      <c r="A28" s="28">
+      <c r="A28" s="27">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="84" t="str">
+      <c r="B28" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A28,0)</f>
         <v/>
       </c>
-      <c r="C28" s="84"/>
+      <c r="C28" s="83"/>
     </row>
     <row r="29">
-      <c r="A29" s="28">
+      <c r="A29" s="27">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="84" t="str">
+      <c r="B29" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A29,0)</f>
         <v/>
       </c>
-      <c r="C29" s="84"/>
+      <c r="C29" s="83"/>
     </row>
     <row r="30">
-      <c r="A30" s="28">
+      <c r="A30" s="27">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="84" t="str">
+      <c r="B30" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A30,0)</f>
         <v/>
       </c>
-      <c r="C30" s="84"/>
+      <c r="C30" s="83"/>
     </row>
     <row r="31">
-      <c r="A31" s="28">
+      <c r="A31" s="27">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="84" t="str">
+      <c r="B31" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A31,0)</f>
         <v/>
       </c>
-      <c r="C31" s="84"/>
+      <c r="C31" s="83"/>
     </row>
     <row r="32">
-      <c r="A32" s="28">
+      <c r="A32" s="27">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="84" t="str">
+      <c r="B32" s="83" t="str">
         <f>OFFSET(ITEMS!$B$3,A32,0)</f>
         <v/>
       </c>
-      <c r="C32" s="84"/>
+      <c r="C32" s="83"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4413,195 +4430,209 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="38.57"/>
-    <col customWidth="1" min="2" max="2" width="5.29"/>
+    <col customWidth="1" min="2" max="2" width="9.43"/>
     <col customWidth="1" min="3" max="3" width="11.71"/>
     <col customWidth="1" min="4" max="4" width="15.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="85">
+      <c r="B2" s="84">
         <v>1.0</v>
       </c>
-      <c r="C2" s="55" t="b">
+      <c r="C2" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="66" t="b">
+      <c r="D2" s="65" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="B3" s="85">
+      <c r="B3" s="84">
         <v>1.0</v>
       </c>
-      <c r="C3" s="59" t="b">
+      <c r="C3" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="69" t="b">
+      <c r="D3" s="68" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="86">
+      <c r="B4" s="85">
         <v>3.0</v>
       </c>
-      <c r="C4" s="55" t="b">
+      <c r="C4" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="66" t="b">
+      <c r="D4" s="65" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="85">
+      <c r="B5" s="84">
         <v>1.0</v>
       </c>
-      <c r="C5" s="59" t="b">
+      <c r="C5" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="69" t="b">
+      <c r="D5" s="68" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="B6" s="86">
+      <c r="B6" s="85">
         <v>3.0</v>
       </c>
-      <c r="C6" s="55" t="b">
+      <c r="C6" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="66" t="b">
+      <c r="D6" s="65" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="85">
         <v>3.0</v>
       </c>
-      <c r="C7" s="59" t="b">
+      <c r="C7" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="69" t="b">
+      <c r="D7" s="68" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="B8" s="87">
+      <c r="B8" s="86">
         <v>4.0</v>
       </c>
-      <c r="C8" s="55" t="b">
+      <c r="C8" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="66" t="b">
+      <c r="D8" s="65" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="B9" s="87">
+      <c r="B9" s="86">
         <v>4.0</v>
       </c>
-      <c r="C9" s="59" t="b">
+      <c r="C9" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="69" t="b">
+      <c r="D9" s="68" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="87">
+      <c r="B10" s="86">
         <v>4.0</v>
       </c>
-      <c r="C10" s="55" t="b">
+      <c r="C10" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="66" t="b">
+      <c r="D10" s="65" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="B11" s="85">
+      <c r="B11" s="84">
         <v>1.0</v>
       </c>
-      <c r="C11" s="59" t="b">
+      <c r="C11" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="69" t="b">
+      <c r="D11" s="68" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="B12" s="87">
+      <c r="B12" s="86">
         <v>4.0</v>
       </c>
-      <c r="C12" s="55" t="b">
+      <c r="C12" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" s="84">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="66" t="b">
+      <c r="D13" s="68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="69" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="88">
+        <v>5.0</v>
+      </c>
+      <c r="C14" s="75" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="62" t="s">
-        <v>280</v>
-      </c>
-      <c r="B13" s="88">
-        <v>5.0</v>
-      </c>
-      <c r="C13" s="63" t="b">
+      <c r="D14" s="70" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="67" t="b">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B13">
+  <conditionalFormatting sqref="B2:B14">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="formula" val="1"/>
@@ -4613,13 +4644,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A13">
+  <conditionalFormatting sqref="A2:A14">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>$C2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B2:B13">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B2:B14">
       <formula1>AND(ISNUMBER(B2),(NOT(OR(NOT(ISERROR(DATEVALUE(B2))), AND(ISNUMBER(B2), LEFT(CELL("format", B2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -4662,7 +4693,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4709,7 +4740,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="30">
+      <c r="A2" s="29">
         <f t="shared" ref="A2:A34" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
@@ -4757,7 +4788,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="31">
+      <c r="A3" s="30">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4803,7 +4834,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="30">
+      <c r="A4" s="29">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4849,7 +4880,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="31">
+      <c r="A5" s="30">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -4897,7 +4928,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="30">
+      <c r="A6" s="29">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -4945,7 +4976,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="31">
+      <c r="A7" s="30">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -4991,7 +5022,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="30">
+      <c r="A8" s="29">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -5039,7 +5070,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="31">
+      <c r="A9" s="30">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -5087,7 +5118,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="30">
+      <c r="A10" s="29">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -5135,7 +5166,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="31">
+      <c r="A11" s="30">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -5151,7 +5182,7 @@
       <c r="E11" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="13" t="s">
         <v>25</v>
       </c>
@@ -5181,7 +5212,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="30">
+      <c r="A12" s="29">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -5197,7 +5228,7 @@
       <c r="E12" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="8" t="s">
         <v>25</v>
       </c>
@@ -5227,7 +5258,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="31">
+      <c r="A13" s="30">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -5243,7 +5274,7 @@
       <c r="E13" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="13" t="s">
         <v>25</v>
       </c>
@@ -5273,7 +5304,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="30">
+      <c r="A14" s="29">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -5289,7 +5320,7 @@
       <c r="E14" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="8" t="s">
         <v>25</v>
       </c>
@@ -5319,7 +5350,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="31">
+      <c r="A15" s="30">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -5335,7 +5366,7 @@
       <c r="E15" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="13" t="s">
         <v>25</v>
       </c>
@@ -5365,7 +5396,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="30">
+      <c r="A16" s="29">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -5381,7 +5412,7 @@
       <c r="E16" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="8" t="s">
         <v>25</v>
       </c>
@@ -5411,7 +5442,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -5427,7 +5458,7 @@
       <c r="E17" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="13" t="s">
         <v>25</v>
       </c>
@@ -5457,7 +5488,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="30">
+      <c r="A18" s="29">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -5473,7 +5504,7 @@
       <c r="E18" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="8" t="s">
         <v>25</v>
       </c>
@@ -5503,7 +5534,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -5519,7 +5550,7 @@
       <c r="E19" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="13" t="s">
         <v>25</v>
       </c>
@@ -5549,7 +5580,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="30">
+      <c r="A20" s="29">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -5565,7 +5596,7 @@
       <c r="E20" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="8" t="s">
         <v>25</v>
       </c>
@@ -5595,7 +5626,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="31">
+      <c r="A21" s="30">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -5611,7 +5642,7 @@
       <c r="E21" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="13" t="s">
         <v>25</v>
       </c>
@@ -5641,7 +5672,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="30">
+      <c r="A22" s="29">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -5657,7 +5688,7 @@
       <c r="E22" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="8" t="s">
         <v>25</v>
       </c>
@@ -5687,7 +5718,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="31">
+      <c r="A23" s="30">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -5703,7 +5734,7 @@
       <c r="E23" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="13" t="s">
         <v>25</v>
       </c>
@@ -5733,63 +5764,63 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="30">
+      <c r="A24" s="29">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="36" t="s">
+      <c r="F24" s="33"/>
+      <c r="G24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="M24" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="35" t="s">
+      <c r="M24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="O24" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="38"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
+      <c r="O24" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
     </row>
     <row r="25">
-      <c r="A25" s="31">
+      <c r="A25" s="30">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
@@ -5805,7 +5836,7 @@
       <c r="E25" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="13" t="s">
         <v>25</v>
       </c>
@@ -5835,7 +5866,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="30">
+      <c r="A26" s="29">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -5851,7 +5882,7 @@
       <c r="E26" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="8" t="s">
         <v>25</v>
       </c>
@@ -5881,7 +5912,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="31">
+      <c r="A27" s="30">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -5897,7 +5928,7 @@
       <c r="E27" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="13" t="s">
         <v>25</v>
       </c>
@@ -5927,7 +5958,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="30">
+      <c r="A28" s="29">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -5943,7 +5974,7 @@
       <c r="E28" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="8" t="s">
         <v>25</v>
       </c>
@@ -5973,7 +6004,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="31">
+      <c r="A29" s="30">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
@@ -5989,7 +6020,7 @@
       <c r="E29" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="13" t="s">
         <v>25</v>
       </c>
@@ -6019,7 +6050,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="30">
+      <c r="A30" s="29">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -6035,7 +6066,7 @@
       <c r="E30" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="8" t="s">
         <v>25</v>
       </c>
@@ -6065,7 +6096,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="31">
+      <c r="A31" s="30">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -6081,7 +6112,7 @@
       <c r="E31" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="F31" s="19"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="13" t="s">
         <v>25</v>
       </c>
@@ -6111,7 +6142,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="30">
+      <c r="A32" s="29">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -6127,7 +6158,7 @@
       <c r="E32" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="F32" s="21"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="8" t="s">
         <v>25</v>
       </c>
@@ -6157,7 +6188,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="31">
+      <c r="A33" s="30">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
@@ -6173,7 +6204,7 @@
       <c r="E33" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="F33" s="19"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="13" t="s">
         <v>25</v>
       </c>
@@ -6203,48 +6234,48 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="39">
+      <c r="A34" s="38">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43" t="s">
+      <c r="F34" s="41"/>
+      <c r="G34" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="44" t="s">
+      <c r="H34" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6298,325 +6329,325 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="Q1" s="47" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49">
+      <c r="A2" s="48">
         <v>0.0</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="50" t="b">
+      <c r="C2" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="50" t="b">
+      <c r="D2" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="50">
         <f t="shared" ref="E2:E6" si="1">COUNTIF($F2:$AC2,"=TRUE")</f>
         <v>0</v>
       </c>
-      <c r="F2" s="50" t="b">
+      <c r="F2" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="L2" s="49" t="b">
+      <c r="L2" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="51" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="49">
+      <c r="A3" s="48">
         <v>1.0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="50" t="b">
+      <c r="C3" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="50" t="b">
+      <c r="D3" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="50">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F3" s="50" t="b">
+      <c r="F3" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="L3" s="49" t="b">
+      <c r="L3" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="M3" s="52" t="s">
+      <c r="M3" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O3" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="51" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49">
+      <c r="A4" s="48">
         <v>2.0</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="50" t="b">
+      <c r="C4" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="50" t="b">
+      <c r="D4" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="50">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F4" s="50" t="b">
+      <c r="F4" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="K4" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="L4" s="49" t="b">
+      <c r="L4" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="M4" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="O4" s="52" t="s">
+      <c r="O4" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="P4" s="52" t="s">
+      <c r="P4" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="Q4" s="51" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="49">
+      <c r="A5" s="48">
         <v>3.0</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="50" t="b">
+      <c r="C5" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="50" t="b">
+      <c r="D5" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="50">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F5" s="50" t="b">
+      <c r="F5" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="L5" s="49" t="b">
+      <c r="L5" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="N5" s="52" t="s">
+      <c r="N5" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="52" t="s">
+      <c r="O5" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="P5" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="Q5" s="52" t="s">
+      <c r="Q5" s="51" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="49">
+      <c r="A6" s="48">
         <v>4.0</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="50" t="b">
+      <c r="C6" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="50" t="b">
+      <c r="D6" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F6" s="50" t="b">
+      <c r="F6" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="L6" s="49" t="b">
+      <c r="L6" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M6" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="N6" s="52" t="s">
+      <c r="N6" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="O6" s="52" t="s">
+      <c r="O6" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="P6" s="52" t="s">
+      <c r="P6" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="Q6" s="52" t="s">
+      <c r="Q6" s="51" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6671,123 +6702,129 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="52" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="54">
+      <c r="A2" s="53">
         <v>0.0</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="56" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="58">
+      <c r="A3" s="57">
         <v>1.0</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="60" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="54">
+      <c r="A4" s="53">
         <v>2.0</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="56" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="62">
+      <c r="A5" s="61">
         <v>3.0</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="64" t="s">
         <v>233</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:G5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:E5">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C2:C5">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F2:G5">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -6817,41 +6854,41 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="54">
+      <c r="A2" s="53">
         <v>0.0</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="D2" s="66">
+      <c r="D2" s="65">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="62">
+      <c r="A3" s="61">
         <v>1.0</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="66">
         <v>0.0</v>
       </c>
     </row>
@@ -6875,28 +6912,28 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="68">
+      <c r="A2" s="67">
         <f t="shared" ref="A2:A3" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="67" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="68">
+      <c r="A3" s="67">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6923,34 +6960,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="54">
+      <c r="A2" s="53">
         <v>0.0</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="58">
+      <c r="A3" s="57">
         <v>1.0</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="70">
+      <c r="A4" s="69">
         <v>2.0</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="70" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6980,12 +7017,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="73">
+      <c r="A2" s="72">
         <v>3.0</v>
       </c>
     </row>
@@ -7022,75 +7059,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="52" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="54">
+      <c r="A2" s="53">
         <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="G2" s="75"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3">
-      <c r="A3" s="58">
+      <c r="A3" s="57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="61" t="s">
+      <c r="F3" s="58"/>
+      <c r="G3" s="60" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="70">
+      <c r="A4" s="69">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="G4" s="78"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="G4" s="77"/>
     </row>
   </sheetData>
   <dataValidations>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -12,15 +12,14 @@
     <sheet state="visible" name="CHARACTERS" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="CONSTANTS" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="EVENTS" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="_REF" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="_ITEM_AVAIL" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="_TODO" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="_ITEM_AVAIL" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="_TODO" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataChecksum="zXWrutDY46wAzOxsLNDNzItt4A5Qr5fb78IlINitF5k="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="i4XDMNVZBdM1RBA7RxuzpUb691zyqDO4P6SPPOEJgLk="/>
     </ext>
   </extLst>
 </workbook>
@@ -54,8 +53,24 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="E2">
+      <text>
+        <t xml:space="preserve">Calculated
+======</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="285">
   <si>
     <t>N</t>
   </si>
@@ -669,6 +684,9 @@
     <t>Action1_UnchainEvent</t>
   </si>
   <si>
+    <t>Action1_Consume</t>
+  </si>
+  <si>
     <t>Action2</t>
   </si>
   <si>
@@ -687,6 +705,9 @@
     <t>Action2_UnchainEvent</t>
   </si>
   <si>
+    <t>Action2_Consume</t>
+  </si>
+  <si>
     <t>ITEM_NONE</t>
   </si>
   <si>
@@ -795,9 +816,30 @@
     <t>Type</t>
   </si>
   <si>
+    <t>CHARACTER_NONE</t>
+  </si>
+  <si>
     <t>CHARACTER_SNAKE</t>
   </si>
   <si>
+    <t>ANIMATION_ID</t>
+  </si>
+  <si>
+    <t>ITEM_USE_ANIMATION_NONE</t>
+  </si>
+  <si>
+    <t>ITEM_USE_ANIMATION_NORMAL</t>
+  </si>
+  <si>
+    <t>INTERACTION_ID</t>
+  </si>
+  <si>
+    <t>INTERACTION_RECEIVE</t>
+  </si>
+  <si>
+    <t>INTERACTION_TAKE_AND_RECEIVE</t>
+  </si>
+  <si>
     <t>NUM_PLAYERS</t>
   </si>
   <si>
@@ -823,24 +865,6 @@
   </si>
   <si>
     <t>EVENT_LAST</t>
-  </si>
-  <si>
-    <t>ANIMATION_ID</t>
-  </si>
-  <si>
-    <t>INTERACTION_ID</t>
-  </si>
-  <si>
-    <t>ITEM_USE_ANIMATION_NONE</t>
-  </si>
-  <si>
-    <t>ITEM_USE_ANIMATION_NORMAL</t>
-  </si>
-  <si>
-    <t>INTERACTION_RECEIVE</t>
-  </si>
-  <si>
-    <t>INTERACTION_TAKE_AND_RECEIVE</t>
   </si>
   <si>
     <t>ITEM_ID (Ref)</t>
@@ -948,7 +972,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border/>
     <border>
       <left style="thin">
@@ -1218,48 +1242,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFFF0000"/>
       </left>
       <right style="thin">
@@ -1284,6 +1266,20 @@
       </top>
       <bottom style="thin">
         <color rgb="FFFFFF00"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF57BB8A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF57BB8A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF57BB8A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF57BB8A"/>
       </bottom>
     </border>
     <border>
@@ -1332,7 +1328,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1483,7 +1479,7 @@
     <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1567,22 +1563,16 @@
     <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1590,12 +1580,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1684,22 +1668,22 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
+    <tableStyle count="3" pivot="0" name="CHARACTERS-style 2">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="CHARACTERS-style 3">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
     <tableStyle count="3" pivot="0" name="CONSTANTS-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="EVENTS-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="_REF-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="_REF-style 2">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -1722,10 +1706,6 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1787,11 +1767,17 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:B6" displayName="Table_Interaction" name="Table_Interaction" id="10">
-  <tableColumns count="1">
-    <tableColumn name="INTERACTION_ID" id="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Events" name="Table_Events" id="10">
+  <tableColumns count="7">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="EVENT_ID" id="2"/>
+    <tableColumn name="TRIGGERING_ACTION" id="3"/>
+    <tableColumn name="TRIGGERING_ITEM1" id="4"/>
+    <tableColumn name="TRIGGERING_ITEM2" id="5"/>
+    <tableColumn name="TRIGGERING_NPC" id="6"/>
+    <tableColumn name="TRIGGERED_EVENT (CONSEQUENCE)" id="7"/>
   </tableColumns>
-  <tableStyleInfo name="_REF-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="EVENTS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1831,8 +1817,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Q6" displayName="Table_Items" name="Table_Items" id="3">
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:S6" displayName="Table_Items" name="Table_Items" id="3">
+  <tableColumns count="19">
     <tableColumn name="N" id="1"/>
     <tableColumn name="ITEM_ID" id="2"/>
     <tableColumn name="PICKABLE" id="3"/>
@@ -1844,12 +1830,14 @@
     <tableColumn name="Action1_ItemSrc" id="9"/>
     <tableColumn name="Action1_Condition" id="10"/>
     <tableColumn name="Action1_UnchainEvent" id="11"/>
-    <tableColumn name="Action2" id="12"/>
-    <tableColumn name="Action2_SourceChar" id="13"/>
-    <tableColumn name="Action2_Action" id="14"/>
-    <tableColumn name="Action2_ItemSrc" id="15"/>
-    <tableColumn name="Action2_Condition" id="16"/>
-    <tableColumn name="Action2_UnchainEvent" id="17"/>
+    <tableColumn name="Action1_Consume" id="12"/>
+    <tableColumn name="Action2" id="13"/>
+    <tableColumn name="Action2_SourceChar" id="14"/>
+    <tableColumn name="Action2_Action" id="15"/>
+    <tableColumn name="Action2_ItemSrc" id="16"/>
+    <tableColumn name="Action2_Condition" id="17"/>
+    <tableColumn name="Action2_UnchainEvent" id="18"/>
+    <tableColumn name="Action2_Consume" id="19"/>
   </tableColumns>
   <tableStyleInfo name="ITEMS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -1883,7 +1871,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B4" displayName="Table_Characters" name="Table_Characters" id="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B5" displayName="Table_Characters" name="Table_Characters" id="6">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="Type" id="2"/>
@@ -1893,35 +1881,31 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A2" displayName="Table_Constants" name="Table_Constants" id="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:B13" displayName="Table_ItemUse_Animation" name="Table_ItemUse_Animation" id="7">
+  <tableColumns count="2">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="ANIMATION_ID" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="CHARACTERS-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A15:B20" displayName="Table_Interaction" name="Table_Interaction" id="8">
+  <tableColumns count="2">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="INTERACTION_ID" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="CHARACTERS-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A2" displayName="Table_Constants" name="Table_Constants" id="9">
   <tableColumns count="1">
     <tableColumn name="NUM_PLAYERS" id="1"/>
   </tableColumns>
   <tableStyleInfo name="CONSTANTS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Events" name="Table_Events" id="8">
-  <tableColumns count="7">
-    <tableColumn name="N" id="1"/>
-    <tableColumn name="EVENT_ID" id="2"/>
-    <tableColumn name="TRIGGERING_ACTION" id="3"/>
-    <tableColumn name="TRIGGERING_ITEM1" id="4"/>
-    <tableColumn name="TRIGGERING_ITEM2" id="5"/>
-    <tableColumn name="TRIGGERING_NPC" id="6"/>
-    <tableColumn name="TRIGGERED_EVENT (CONSEQUENCE)" id="7"/>
-  </tableColumns>
-  <tableStyleInfo name="EVENTS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A7" displayName="Table_ItemUse_Animation" name="Table_ItemUse_Animation" id="9">
-  <tableColumns count="1">
-    <tableColumn name="ANIMATION_ID" id="1"/>
-  </tableColumns>
-  <tableStyleInfo name="_REF-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -2490,7 +2474,7 @@
         <v>2.0</v>
       </c>
       <c r="E7" s="17">
-        <f>COUNT(Table_Characters[N])</f>
+        <f>COUNT(Table_Characters[N])-1</f>
         <v>3</v>
       </c>
       <c r="F7" s="16">
@@ -2861,7 +2845,7 @@
         <v>0.0</v>
       </c>
       <c r="E14" s="17">
-        <f>Table_Constants[NUM_PLAYERS]</f>
+        <f>COUNT(Table_Characters[N])-1</f>
         <v>3</v>
       </c>
       <c r="F14" s="15" t="s">
@@ -3959,85 +3943,6 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="44.71"/>
-    <col customWidth="1" min="2" max="2" width="36.0"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="78" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="79" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="80" t="s">
-        <v>259</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="79" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="79" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="80" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="79" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="82" t="s">
-        <v>234</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
@@ -4051,10 +3956,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
@@ -4062,12 +3967,12 @@
         <f t="shared" ref="A2:A32" si="1">ROW()-ROW($G$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="83" t="str">
+      <c r="B2" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A2,0)</f>
         <v>ITEM_POTION</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
@@ -4075,12 +3980,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="83" t="str">
+      <c r="B3" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A3,0)</f>
         <v>ITEM_POTION_BLUE</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
@@ -4088,12 +3993,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="83" t="str">
+      <c r="B4" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A4,0)</f>
         <v>ITEM_FOUNTAIN</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5">
@@ -4101,12 +4006,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="83" t="str">
+      <c r="B5" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A5,0)</f>
         <v>ITEM_LAST</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6">
@@ -4114,297 +4019,297 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="83" t="str">
+      <c r="B6" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A6,0)</f>
         <v/>
       </c>
-      <c r="C6" s="83"/>
+      <c r="C6" s="78"/>
     </row>
     <row r="7">
       <c r="A7" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="83" t="str">
+      <c r="B7" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A7,0)</f>
         <v/>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="78"/>
     </row>
     <row r="8">
       <c r="A8" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="83" t="str">
+      <c r="B8" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A8,0)</f>
         <v/>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="78"/>
     </row>
     <row r="9">
       <c r="A9" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="83" t="str">
+      <c r="B9" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A9,0)</f>
         <v/>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="78"/>
     </row>
     <row r="10">
       <c r="A10" s="27">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="83" t="str">
+      <c r="B10" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A10,0)</f>
         <v/>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="78"/>
     </row>
     <row r="11">
       <c r="A11" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="83" t="str">
+      <c r="B11" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A11,0)</f>
         <v/>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="78"/>
     </row>
     <row r="12">
       <c r="A12" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="83" t="str">
+      <c r="B12" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A12,0)</f>
         <v/>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="78"/>
     </row>
     <row r="13">
       <c r="A13" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="83" t="str">
+      <c r="B13" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A13,0)</f>
         <v/>
       </c>
-      <c r="C13" s="83"/>
+      <c r="C13" s="78"/>
     </row>
     <row r="14">
       <c r="A14" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="83" t="str">
+      <c r="B14" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A14,0)</f>
         <v/>
       </c>
-      <c r="C14" s="83"/>
+      <c r="C14" s="78"/>
     </row>
     <row r="15">
       <c r="A15" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="83" t="str">
+      <c r="B15" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A15,0)</f>
         <v/>
       </c>
-      <c r="C15" s="83"/>
+      <c r="C15" s="78"/>
     </row>
     <row r="16">
       <c r="A16" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="83" t="str">
+      <c r="B16" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A16,0)</f>
         <v/>
       </c>
-      <c r="C16" s="83"/>
+      <c r="C16" s="78"/>
     </row>
     <row r="17">
       <c r="A17" s="27">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="83" t="str">
+      <c r="B17" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A17,0)</f>
         <v/>
       </c>
-      <c r="C17" s="83"/>
+      <c r="C17" s="78"/>
     </row>
     <row r="18">
       <c r="A18" s="27">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="83" t="str">
+      <c r="B18" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A18,0)</f>
         <v/>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="78"/>
     </row>
     <row r="19">
       <c r="A19" s="27">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="83" t="str">
+      <c r="B19" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A19,0)</f>
         <v/>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="78"/>
     </row>
     <row r="20">
       <c r="A20" s="27">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="83" t="str">
+      <c r="B20" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A20,0)</f>
         <v/>
       </c>
-      <c r="C20" s="83"/>
+      <c r="C20" s="78"/>
     </row>
     <row r="21">
       <c r="A21" s="27">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="83" t="str">
+      <c r="B21" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A21,0)</f>
         <v/>
       </c>
-      <c r="C21" s="83"/>
+      <c r="C21" s="78"/>
     </row>
     <row r="22">
       <c r="A22" s="27">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="83" t="str">
+      <c r="B22" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A22,0)</f>
         <v/>
       </c>
-      <c r="C22" s="83"/>
+      <c r="C22" s="78"/>
     </row>
     <row r="23">
       <c r="A23" s="27">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="83" t="str">
+      <c r="B23" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A23,0)</f>
         <v/>
       </c>
-      <c r="C23" s="83"/>
+      <c r="C23" s="78"/>
     </row>
     <row r="24">
       <c r="A24" s="27">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="83" t="str">
+      <c r="B24" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A24,0)</f>
         <v/>
       </c>
-      <c r="C24" s="83"/>
+      <c r="C24" s="78"/>
     </row>
     <row r="25">
       <c r="A25" s="27">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="83" t="str">
+      <c r="B25" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A25,0)</f>
         <v/>
       </c>
-      <c r="C25" s="83"/>
+      <c r="C25" s="78"/>
     </row>
     <row r="26">
       <c r="A26" s="27">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="83" t="str">
+      <c r="B26" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A26,0)</f>
         <v/>
       </c>
-      <c r="C26" s="83"/>
+      <c r="C26" s="78"/>
     </row>
     <row r="27">
       <c r="A27" s="27">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="83" t="str">
+      <c r="B27" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A27,0)</f>
         <v/>
       </c>
-      <c r="C27" s="83"/>
+      <c r="C27" s="78"/>
     </row>
     <row r="28">
       <c r="A28" s="27">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="83" t="str">
+      <c r="B28" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A28,0)</f>
         <v/>
       </c>
-      <c r="C28" s="83"/>
+      <c r="C28" s="78"/>
     </row>
     <row r="29">
       <c r="A29" s="27">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="83" t="str">
+      <c r="B29" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A29,0)</f>
         <v/>
       </c>
-      <c r="C29" s="83"/>
+      <c r="C29" s="78"/>
     </row>
     <row r="30">
       <c r="A30" s="27">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="83" t="str">
+      <c r="B30" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A30,0)</f>
         <v/>
       </c>
-      <c r="C30" s="83"/>
+      <c r="C30" s="78"/>
     </row>
     <row r="31">
       <c r="A31" s="27">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="83" t="str">
+      <c r="B31" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A31,0)</f>
         <v/>
       </c>
-      <c r="C31" s="83"/>
+      <c r="C31" s="78"/>
     </row>
     <row r="32">
       <c r="A32" s="27">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="83" t="str">
+      <c r="B32" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A32,0)</f>
         <v/>
       </c>
-      <c r="C32" s="83"/>
+      <c r="C32" s="78"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4416,7 +4321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4437,23 +4342,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="84">
+        <v>272</v>
+      </c>
+      <c r="B2" s="79">
         <v>1.0</v>
       </c>
       <c r="C2" s="54" t="b">
@@ -4465,9 +4370,9 @@
     </row>
     <row r="3">
       <c r="A3" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="B3" s="84">
+        <v>273</v>
+      </c>
+      <c r="B3" s="79">
         <v>1.0</v>
       </c>
       <c r="C3" s="58" t="b">
@@ -4479,9 +4384,9 @@
     </row>
     <row r="4">
       <c r="A4" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="B4" s="85">
+        <v>274</v>
+      </c>
+      <c r="B4" s="80">
         <v>3.0</v>
       </c>
       <c r="C4" s="54" t="b">
@@ -4493,9 +4398,9 @@
     </row>
     <row r="5">
       <c r="A5" s="57" t="s">
-        <v>272</v>
-      </c>
-      <c r="B5" s="84">
+        <v>275</v>
+      </c>
+      <c r="B5" s="79">
         <v>1.0</v>
       </c>
       <c r="C5" s="58" t="b">
@@ -4507,9 +4412,9 @@
     </row>
     <row r="6">
       <c r="A6" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="B6" s="85">
+        <v>276</v>
+      </c>
+      <c r="B6" s="80">
         <v>3.0</v>
       </c>
       <c r="C6" s="54" t="b">
@@ -4521,9 +4426,9 @@
     </row>
     <row r="7">
       <c r="A7" s="57" t="s">
-        <v>274</v>
-      </c>
-      <c r="B7" s="85">
+        <v>277</v>
+      </c>
+      <c r="B7" s="80">
         <v>3.0</v>
       </c>
       <c r="C7" s="58" t="b">
@@ -4535,10 +4440,10 @@
     </row>
     <row r="8">
       <c r="A8" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="B8" s="86">
-        <v>4.0</v>
+        <v>278</v>
+      </c>
+      <c r="B8" s="81">
+        <v>5.0</v>
       </c>
       <c r="C8" s="54" t="b">
         <v>0</v>
@@ -4549,9 +4454,9 @@
     </row>
     <row r="9">
       <c r="A9" s="57" t="s">
-        <v>276</v>
-      </c>
-      <c r="B9" s="86">
+        <v>279</v>
+      </c>
+      <c r="B9" s="82">
         <v>4.0</v>
       </c>
       <c r="C9" s="58" t="b">
@@ -4563,9 +4468,9 @@
     </row>
     <row r="10">
       <c r="A10" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="B10" s="86">
+        <v>280</v>
+      </c>
+      <c r="B10" s="82">
         <v>4.0</v>
       </c>
       <c r="C10" s="54" t="b">
@@ -4577,9 +4482,9 @@
     </row>
     <row r="11">
       <c r="A11" s="57" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" s="84">
+        <v>281</v>
+      </c>
+      <c r="B11" s="79">
         <v>1.0</v>
       </c>
       <c r="C11" s="58" t="b">
@@ -4590,10 +4495,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="87" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" s="86">
+      <c r="A12" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="82">
         <v>4.0</v>
       </c>
       <c r="C12" s="54" t="b">
@@ -4604,14 +4509,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="57" t="s">
-        <v>280</v>
-      </c>
-      <c r="B13" s="84">
+      <c r="A13" s="83" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="79">
         <v>1.0</v>
       </c>
       <c r="C13" s="58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="68" t="b">
         <v>1</v>
@@ -4619,9 +4524,9 @@
     </row>
     <row r="14">
       <c r="A14" s="69" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14" s="88">
+        <v>284</v>
+      </c>
+      <c r="B14" s="84">
         <v>5.0</v>
       </c>
       <c r="C14" s="75" t="b">
@@ -6319,13 +6224,15 @@
     <col customWidth="1" min="8" max="8" width="26.57"/>
     <col customWidth="1" min="9" max="10" width="23.57"/>
     <col customWidth="1" min="11" max="11" width="30.0"/>
-    <col customWidth="1" min="12" max="12" width="12.0"/>
-    <col customWidth="1" min="13" max="13" width="27.57"/>
-    <col customWidth="1" min="14" max="14" width="26.57"/>
-    <col customWidth="1" min="15" max="15" width="26.0"/>
-    <col customWidth="1" min="16" max="16" width="24.71"/>
-    <col customWidth="1" min="17" max="17" width="30.0"/>
-    <col customWidth="1" min="18" max="29" width="12.43"/>
+    <col customWidth="1" min="12" max="12" width="21.86"/>
+    <col customWidth="1" min="13" max="13" width="12.0"/>
+    <col customWidth="1" min="14" max="14" width="27.57"/>
+    <col customWidth="1" min="15" max="15" width="26.57"/>
+    <col customWidth="1" min="16" max="16" width="26.0"/>
+    <col customWidth="1" min="17" max="17" width="24.71"/>
+    <col customWidth="1" min="18" max="18" width="30.0"/>
+    <col customWidth="1" min="19" max="19" width="21.86"/>
+    <col customWidth="1" min="20" max="30" width="12.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6362,7 +6269,7 @@
       <c r="K1" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="46" t="s">
         <v>204</v>
       </c>
       <c r="M1" s="45" t="s">
@@ -6371,14 +6278,20 @@
       <c r="N1" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="45" t="s">
         <v>209</v>
+      </c>
+      <c r="R1" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="S1" s="47" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="2">
@@ -6386,53 +6299,59 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C2" s="49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="49" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="50">
-        <f t="shared" ref="E2:E6" si="1">COUNTIF($F2:$AC2,"=TRUE")</f>
+        <f t="shared" ref="E2:E6" si="1">COUNTIF(F2,"=TRUE")+COUNTIF(M2,"=TRUE")</f>
         <v>0</v>
       </c>
       <c r="F2" s="49" t="b">
         <v>0</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H2" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="I2" s="51" t="s">
-        <v>210</v>
-      </c>
       <c r="J2" s="51" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L2" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="M2" s="51" t="s">
-        <v>211</v>
+      <c r="M2" s="48" t="b">
+        <v>0</v>
       </c>
       <c r="N2" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="O2" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="P2" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="O2" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="P2" s="51" t="s">
-        <v>213</v>
-      </c>
       <c r="Q2" s="51" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="R2" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="S2" s="48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6440,7 +6359,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C3" s="49" t="b">
         <v>1</v>
@@ -6456,37 +6375,43 @@
         <v>1</v>
       </c>
       <c r="G3" s="51" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H3" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="K3" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="I3" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="J3" s="51" t="s">
+      <c r="L3" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="O3" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="L3" s="48" t="b">
+      <c r="P3" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q3" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="S3" s="48" t="b">
         <v>0</v>
-      </c>
-      <c r="M3" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="O3" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="P3" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q3" s="51" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="4">
@@ -6494,7 +6419,7 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C4" s="49" t="b">
         <v>1</v>
@@ -6510,37 +6435,43 @@
         <v>1</v>
       </c>
       <c r="G4" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="I4" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="I4" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="J4" s="51" t="s">
+      <c r="L4" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="O4" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="L4" s="48" t="b">
+      <c r="P4" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q4" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="R4" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="S4" s="48" t="b">
         <v>0</v>
-      </c>
-      <c r="M4" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="O4" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="P4" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q4" s="51" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="5">
@@ -6548,7 +6479,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C5" s="49" t="b">
         <v>0</v>
@@ -6564,37 +6495,43 @@
         <v>1</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H5" s="51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J5" s="51" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K5" s="51" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L5" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="M5" s="51" t="s">
-        <v>218</v>
+      <c r="M5" s="48" t="b">
+        <v>1</v>
       </c>
       <c r="N5" s="51" t="s">
         <v>220</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P5" s="51" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q5" s="51" t="s">
-        <v>214</v>
+        <v>225</v>
+      </c>
+      <c r="R5" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="S5" s="48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6602,7 +6539,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C6" s="49" t="b">
         <v>0</v>
@@ -6618,63 +6555,70 @@
         <v>0</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H6" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="I6" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="I6" s="51" t="s">
-        <v>210</v>
-      </c>
       <c r="J6" s="51" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K6" s="51" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L6" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="51" t="s">
-        <v>211</v>
+      <c r="M6" s="48" t="b">
+        <v>0</v>
       </c>
       <c r="N6" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="O6" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="P6" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="O6" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="P6" s="51" t="s">
-        <v>213</v>
-      </c>
       <c r="Q6" s="51" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="S6" s="48" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I6 O2:O6">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I6 P2:P6">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J6 P2:P6">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J6 Q2:Q6">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:H6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G6">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="K2:K6 Q2:Q6">
+    <dataValidation type="list" allowBlank="1" sqref="K2:K6 R2:R6">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M2:M6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N2:N6">
       <formula1>Table_Characters[Type]</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N2:N6">
-      <formula1>'_REF'!$B$2:$B$6</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="H2:H6 O2:O6">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6706,22 +6650,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2">
@@ -6729,22 +6673,22 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
@@ -6752,22 +6696,22 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D3" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>232</v>
-      </c>
       <c r="F3" s="59" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
@@ -6775,22 +6719,22 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D4" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="56" t="s">
         <v>235</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5">
@@ -6798,33 +6742,33 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:E5">
-      <formula1>#REF!</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C2:C5">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="F2:G5">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D2:E5">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -6858,13 +6802,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2">
@@ -6872,7 +6816,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D2" s="65">
         <v>0.0</v>
@@ -6883,10 +6827,10 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D3" s="66">
         <v>0.0</v>
@@ -6916,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2">
@@ -6925,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
@@ -6934,7 +6878,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -6956,7 +6900,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="23.29"/>
+    <col customWidth="1" min="2" max="3" width="38.86"/>
+    <col customWidth="1" min="4" max="4" width="23.29"/>
+    <col customWidth="1" min="6" max="6" width="38.86"/>
+    <col customWidth="1" min="8" max="8" width="34.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6964,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
@@ -6972,7 +6919,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3">
@@ -6980,21 +6927,135 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="53">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="57">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="53">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="57">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="53">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="61">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="57">
+        <v>1.0</v>
+      </c>
+      <c r="B17" s="68" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="69">
+    <row r="18">
+      <c r="A18" s="53">
         <v>2.0</v>
       </c>
-      <c r="B4" s="70" t="s">
-        <v>246</v>
+      <c r="B18" s="65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="57">
+        <v>3.0</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="69">
+        <v>4.0</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7018,7 +7079,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="71" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2">
@@ -7063,22 +7124,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2">
@@ -7087,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="73"/>
@@ -7100,20 +7161,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F3" s="58"/>
       <c r="G3" s="60" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
@@ -7122,7 +7183,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -19,7 +19,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="i4XDMNVZBdM1RBA7RxuzpUb691zyqDO4P6SPPOEJgLk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="yWvJgkSV7a65VtGwoNU7vekdXM7sHn1smO4WgMYwNto="/>
     </ext>
   </extLst>
 </workbook>
@@ -59,7 +59,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E2">
+    <comment authorId="0" ref="D2">
       <text>
         <t xml:space="preserve">Calculated
 ======</t>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="288">
   <si>
     <t>N</t>
   </si>
@@ -648,6 +648,18 @@
     <t>Locks player so it cannot act until an action over it has been done (or removes lock)</t>
   </si>
   <si>
+    <t>START_DIALOGUE</t>
+  </si>
+  <si>
+    <t>START_DIALOGUE_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameMasterClass.StartDialogueService</t>
+  </si>
+  <si>
+    <t>Starts a dialogue with given text and sound</t>
+  </si>
+  <si>
     <t>LAST_SERVICE</t>
   </si>
   <si>
@@ -658,9 +670,6 @@
   </si>
   <si>
     <t>PICKABLE</t>
-  </si>
-  <si>
-    <t>DISPOSABLE</t>
   </si>
   <si>
     <t>ActionCount</t>
@@ -1158,21 +1167,21 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
@@ -1200,20 +1209,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
@@ -1232,6 +1227,20 @@
       </left>
       <right style="thin">
         <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
@@ -1328,7 +1337,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="81">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1443,23 +1452,11 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1473,16 +1470,16 @@
     <xf borderId="3" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1530,34 +1527,34 @@
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1794,7 +1791,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O34" displayName="Table_Services" name="Table_Services" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O35" displayName="Table_Services" name="Table_Services" id="2">
   <tableColumns count="15">
     <tableColumn name="N" id="1"/>
     <tableColumn name="SERVICE_ID" id="2"/>
@@ -1817,27 +1814,26 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:S6" displayName="Table_Items" name="Table_Items" id="3">
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:R6" displayName="Table_Items" name="Table_Items" id="3">
+  <tableColumns count="18">
     <tableColumn name="N" id="1"/>
     <tableColumn name="ITEM_ID" id="2"/>
     <tableColumn name="PICKABLE" id="3"/>
-    <tableColumn name="DISPOSABLE" id="4"/>
-    <tableColumn name="ActionCount" id="5"/>
-    <tableColumn name="Action1" id="6"/>
-    <tableColumn name="Action1_SourceChar" id="7"/>
-    <tableColumn name="Action1_Action" id="8"/>
-    <tableColumn name="Action1_ItemSrc" id="9"/>
-    <tableColumn name="Action1_Condition" id="10"/>
-    <tableColumn name="Action1_UnchainEvent" id="11"/>
-    <tableColumn name="Action1_Consume" id="12"/>
-    <tableColumn name="Action2" id="13"/>
-    <tableColumn name="Action2_SourceChar" id="14"/>
-    <tableColumn name="Action2_Action" id="15"/>
-    <tableColumn name="Action2_ItemSrc" id="16"/>
-    <tableColumn name="Action2_Condition" id="17"/>
-    <tableColumn name="Action2_UnchainEvent" id="18"/>
-    <tableColumn name="Action2_Consume" id="19"/>
+    <tableColumn name="ActionCount" id="4"/>
+    <tableColumn name="Action1" id="5"/>
+    <tableColumn name="Action1_SourceChar" id="6"/>
+    <tableColumn name="Action1_Action" id="7"/>
+    <tableColumn name="Action1_ItemSrc" id="8"/>
+    <tableColumn name="Action1_Condition" id="9"/>
+    <tableColumn name="Action1_UnchainEvent" id="10"/>
+    <tableColumn name="Action1_Consume" id="11"/>
+    <tableColumn name="Action2" id="12"/>
+    <tableColumn name="Action2_SourceChar" id="13"/>
+    <tableColumn name="Action2_Action" id="14"/>
+    <tableColumn name="Action2_ItemSrc" id="15"/>
+    <tableColumn name="Action2_Condition" id="16"/>
+    <tableColumn name="Action2_UnchainEvent" id="17"/>
+    <tableColumn name="Action2_Consume" id="18"/>
   </tableColumns>
   <tableStyleInfo name="ITEMS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -3956,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
@@ -3967,12 +3963,12 @@
         <f t="shared" ref="A2:A32" si="1">ROW()-ROW($G$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="78" t="str">
+      <c r="B2" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A2,0)</f>
         <v>ITEM_POTION</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
@@ -3980,12 +3976,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="78" t="str">
+      <c r="B3" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A3,0)</f>
         <v>ITEM_POTION_BLUE</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
@@ -3993,12 +3989,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="78" t="str">
+      <c r="B4" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A4,0)</f>
         <v>ITEM_FOUNTAIN</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
@@ -4006,12 +4002,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="78" t="str">
+      <c r="B5" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A5,0)</f>
         <v>ITEM_LAST</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6">
@@ -4019,297 +4015,297 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="78" t="str">
+      <c r="B6" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A6,0)</f>
         <v/>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="74"/>
     </row>
     <row r="7">
       <c r="A7" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="78" t="str">
+      <c r="B7" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A7,0)</f>
         <v/>
       </c>
-      <c r="C7" s="78"/>
+      <c r="C7" s="74"/>
     </row>
     <row r="8">
       <c r="A8" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="78" t="str">
+      <c r="B8" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A8,0)</f>
         <v/>
       </c>
-      <c r="C8" s="78"/>
+      <c r="C8" s="74"/>
     </row>
     <row r="9">
       <c r="A9" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="78" t="str">
+      <c r="B9" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A9,0)</f>
         <v/>
       </c>
-      <c r="C9" s="78"/>
+      <c r="C9" s="74"/>
     </row>
     <row r="10">
       <c r="A10" s="27">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="78" t="str">
+      <c r="B10" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A10,0)</f>
         <v/>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="74"/>
     </row>
     <row r="11">
       <c r="A11" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="78" t="str">
+      <c r="B11" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A11,0)</f>
         <v/>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12">
       <c r="A12" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="78" t="str">
+      <c r="B12" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A12,0)</f>
         <v/>
       </c>
-      <c r="C12" s="78"/>
+      <c r="C12" s="74"/>
     </row>
     <row r="13">
       <c r="A13" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="78" t="str">
+      <c r="B13" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A13,0)</f>
         <v/>
       </c>
-      <c r="C13" s="78"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14">
       <c r="A14" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="78" t="str">
+      <c r="B14" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A14,0)</f>
         <v/>
       </c>
-      <c r="C14" s="78"/>
+      <c r="C14" s="74"/>
     </row>
     <row r="15">
       <c r="A15" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="78" t="str">
+      <c r="B15" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A15,0)</f>
         <v/>
       </c>
-      <c r="C15" s="78"/>
+      <c r="C15" s="74"/>
     </row>
     <row r="16">
       <c r="A16" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="78" t="str">
+      <c r="B16" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A16,0)</f>
         <v/>
       </c>
-      <c r="C16" s="78"/>
+      <c r="C16" s="74"/>
     </row>
     <row r="17">
       <c r="A17" s="27">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="78" t="str">
+      <c r="B17" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A17,0)</f>
         <v/>
       </c>
-      <c r="C17" s="78"/>
+      <c r="C17" s="74"/>
     </row>
     <row r="18">
       <c r="A18" s="27">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="78" t="str">
+      <c r="B18" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A18,0)</f>
         <v/>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="74"/>
     </row>
     <row r="19">
       <c r="A19" s="27">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="78" t="str">
+      <c r="B19" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A19,0)</f>
         <v/>
       </c>
-      <c r="C19" s="78"/>
+      <c r="C19" s="74"/>
     </row>
     <row r="20">
       <c r="A20" s="27">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="78" t="str">
+      <c r="B20" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A20,0)</f>
         <v/>
       </c>
-      <c r="C20" s="78"/>
+      <c r="C20" s="74"/>
     </row>
     <row r="21">
       <c r="A21" s="27">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="78" t="str">
+      <c r="B21" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A21,0)</f>
         <v/>
       </c>
-      <c r="C21" s="78"/>
+      <c r="C21" s="74"/>
     </row>
     <row r="22">
       <c r="A22" s="27">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="78" t="str">
+      <c r="B22" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A22,0)</f>
         <v/>
       </c>
-      <c r="C22" s="78"/>
+      <c r="C22" s="74"/>
     </row>
     <row r="23">
       <c r="A23" s="27">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="78" t="str">
+      <c r="B23" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A23,0)</f>
         <v/>
       </c>
-      <c r="C23" s="78"/>
+      <c r="C23" s="74"/>
     </row>
     <row r="24">
       <c r="A24" s="27">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="78" t="str">
+      <c r="B24" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A24,0)</f>
         <v/>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="74"/>
     </row>
     <row r="25">
       <c r="A25" s="27">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="78" t="str">
+      <c r="B25" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A25,0)</f>
         <v/>
       </c>
-      <c r="C25" s="78"/>
+      <c r="C25" s="74"/>
     </row>
     <row r="26">
       <c r="A26" s="27">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="78" t="str">
+      <c r="B26" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A26,0)</f>
         <v/>
       </c>
-      <c r="C26" s="78"/>
+      <c r="C26" s="74"/>
     </row>
     <row r="27">
       <c r="A27" s="27">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="78" t="str">
+      <c r="B27" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A27,0)</f>
         <v/>
       </c>
-      <c r="C27" s="78"/>
+      <c r="C27" s="74"/>
     </row>
     <row r="28">
       <c r="A28" s="27">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="78" t="str">
+      <c r="B28" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A28,0)</f>
         <v/>
       </c>
-      <c r="C28" s="78"/>
+      <c r="C28" s="74"/>
     </row>
     <row r="29">
       <c r="A29" s="27">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="78" t="str">
+      <c r="B29" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A29,0)</f>
         <v/>
       </c>
-      <c r="C29" s="78"/>
+      <c r="C29" s="74"/>
     </row>
     <row r="30">
       <c r="A30" s="27">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="78" t="str">
+      <c r="B30" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A30,0)</f>
         <v/>
       </c>
-      <c r="C30" s="78"/>
+      <c r="C30" s="74"/>
     </row>
     <row r="31">
       <c r="A31" s="27">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="78" t="str">
+      <c r="B31" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A31,0)</f>
         <v/>
       </c>
-      <c r="C31" s="78"/>
+      <c r="C31" s="74"/>
     </row>
     <row r="32">
       <c r="A32" s="27">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="78" t="str">
+      <c r="B32" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A32,0)</f>
         <v/>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="74"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4341,198 +4337,198 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="52" t="s">
+      <c r="A1" s="40" t="s">
         <v>271</v>
       </c>
+      <c r="B1" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="79">
+      <c r="A2" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="75">
         <v>1.0</v>
       </c>
-      <c r="C2" s="54" t="b">
+      <c r="C2" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="65" t="b">
+      <c r="D2" s="61" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" s="79">
+      <c r="A3" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="75">
         <v>1.0</v>
       </c>
-      <c r="C3" s="58" t="b">
+      <c r="C3" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="68" t="b">
+      <c r="D3" s="64" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="53" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" s="80">
+      <c r="A4" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="76">
         <v>3.0</v>
       </c>
-      <c r="C4" s="54" t="b">
+      <c r="C4" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="65" t="b">
+      <c r="D4" s="61" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="57" t="s">
-        <v>275</v>
-      </c>
-      <c r="B5" s="79">
+      <c r="A5" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="75">
         <v>1.0</v>
       </c>
-      <c r="C5" s="58" t="b">
+      <c r="C5" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="68" t="b">
+      <c r="D5" s="64" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" s="80">
+      <c r="A6" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="76">
         <v>3.0</v>
       </c>
-      <c r="C6" s="54" t="b">
+      <c r="C6" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="65" t="b">
+      <c r="D6" s="61" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="57" t="s">
-        <v>277</v>
-      </c>
-      <c r="B7" s="80">
+      <c r="A7" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="76">
         <v>3.0</v>
       </c>
-      <c r="C7" s="58" t="b">
+      <c r="C7" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="68" t="b">
+      <c r="D7" s="64" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="B8" s="81">
+      <c r="A8" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="77">
         <v>5.0</v>
       </c>
-      <c r="C8" s="54" t="b">
+      <c r="C8" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="65" t="b">
+      <c r="D8" s="61" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" s="82">
+      <c r="A9" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="78">
         <v>4.0</v>
       </c>
-      <c r="C9" s="58" t="b">
+      <c r="C9" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="68" t="b">
+      <c r="D9" s="64" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="B10" s="82">
+      <c r="A10" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="78">
         <v>4.0</v>
       </c>
-      <c r="C10" s="54" t="b">
+      <c r="C10" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="65" t="b">
+      <c r="D10" s="61" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="B11" s="79">
+      <c r="A11" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="75">
         <v>1.0</v>
       </c>
-      <c r="C11" s="58" t="b">
+      <c r="C11" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="68" t="b">
+      <c r="D11" s="64" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="B12" s="82">
+      <c r="A12" s="79" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="78">
         <v>4.0</v>
       </c>
-      <c r="C12" s="54" t="b">
+      <c r="C12" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D12" s="65" t="b">
+      <c r="D12" s="61" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="83" t="s">
-        <v>283</v>
-      </c>
-      <c r="B13" s="79">
+      <c r="A13" s="79" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="75">
         <v>1.0</v>
       </c>
-      <c r="C13" s="58" t="b">
+      <c r="C13" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="D13" s="68" t="b">
+      <c r="D13" s="64" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="69" t="s">
-        <v>284</v>
-      </c>
-      <c r="B14" s="84">
+      <c r="A14" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="80">
         <v>5.0</v>
       </c>
-      <c r="C14" s="75" t="b">
+      <c r="C14" s="71" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="70" t="b">
+      <c r="D14" s="66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4646,7 +4642,7 @@
     </row>
     <row r="2">
       <c r="A2" s="29">
-        <f t="shared" ref="A2:A34" si="1">ROW()-ROW($A$2)</f>
+        <f t="shared" ref="A2:A35" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -6139,57 +6135,103 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="38">
+      <c r="A34" s="29">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="38">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D35" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42" t="s">
+      <c r="E35" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="25"/>
+      <c r="G35" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="43" t="s">
+      <c r="H35" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="26" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A34">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A35">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:O34">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:O35">
       <formula1>"W,X,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6217,401 +6259,387 @@
     <col customWidth="1" min="1" max="1" width="7.71"/>
     <col customWidth="1" min="2" max="2" width="21.71"/>
     <col customWidth="1" min="3" max="3" width="14.43"/>
-    <col customWidth="1" min="4" max="4" width="17.0"/>
-    <col customWidth="1" min="5" max="5" width="16.43"/>
-    <col customWidth="1" min="6" max="6" width="13.43"/>
-    <col customWidth="1" min="7" max="7" width="29.0"/>
-    <col customWidth="1" min="8" max="8" width="26.57"/>
-    <col customWidth="1" min="9" max="10" width="23.57"/>
-    <col customWidth="1" min="11" max="11" width="30.0"/>
-    <col customWidth="1" min="12" max="12" width="21.86"/>
-    <col customWidth="1" min="13" max="13" width="12.0"/>
-    <col customWidth="1" min="14" max="14" width="27.57"/>
-    <col customWidth="1" min="15" max="15" width="26.57"/>
-    <col customWidth="1" min="16" max="16" width="26.0"/>
-    <col customWidth="1" min="17" max="17" width="24.71"/>
-    <col customWidth="1" min="18" max="18" width="30.0"/>
-    <col customWidth="1" min="19" max="19" width="21.86"/>
-    <col customWidth="1" min="20" max="30" width="12.43"/>
+    <col customWidth="1" min="4" max="4" width="16.43"/>
+    <col customWidth="1" min="5" max="5" width="13.43"/>
+    <col customWidth="1" min="6" max="6" width="29.0"/>
+    <col customWidth="1" min="7" max="7" width="26.57"/>
+    <col customWidth="1" min="8" max="9" width="23.57"/>
+    <col customWidth="1" min="10" max="10" width="30.0"/>
+    <col customWidth="1" min="11" max="11" width="21.86"/>
+    <col customWidth="1" min="12" max="12" width="12.0"/>
+    <col customWidth="1" min="13" max="13" width="27.57"/>
+    <col customWidth="1" min="14" max="14" width="26.57"/>
+    <col customWidth="1" min="15" max="15" width="26.0"/>
+    <col customWidth="1" min="16" max="16" width="24.71"/>
+    <col customWidth="1" min="17" max="17" width="30.0"/>
+    <col customWidth="1" min="18" max="18" width="21.86"/>
+    <col customWidth="1" min="19" max="29" width="12.43"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="C1" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="D1" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="E1" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="F1" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="G1" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="H1" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="I1" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="J1" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="K1" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="L1" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="M1" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="N1" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="O1" s="42" t="s">
         <v>211</v>
       </c>
+      <c r="P1" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="R1" s="43" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="49" t="b">
+      <c r="A2" s="44">
+        <f t="shared" ref="A2:A6" si="1">ROW()-ROW($A$2)</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="49" t="b">
+      <c r="D2" s="46">
+        <f t="shared" ref="D2:D6" si="2">COUNTIF(E2,"=TRUE")+COUNTIF(L2,"=TRUE")</f>
         <v>0</v>
       </c>
-      <c r="E2" s="50">
-        <f t="shared" ref="E2:E6" si="1">COUNTIF(F2,"=TRUE")+COUNTIF(M2,"=TRUE")</f>
+      <c r="E2" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="49" t="b">
+      <c r="F2" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="J2" s="51" t="s">
+      <c r="L2" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="O2" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="P2" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="R2" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E3" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="L2" s="48" t="b">
+      <c r="G3" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="M2" s="48" t="b">
+      <c r="M3" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="R3" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="N2" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="O2" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="P2" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q2" s="51" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="44">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="H4" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="I4" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="K4" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="S2" s="48" t="b">
+      <c r="N4" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="O4" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="P4" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="R4" s="44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="48">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="48" t="s">
+    <row r="5">
+      <c r="A5" s="44">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="46">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="P5" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q5" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="R5" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="44">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="50">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F3" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" s="51" t="s">
+      <c r="H6" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="I6" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="J3" s="51" t="s">
+      <c r="J6" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="K6" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="O6" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="K3" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="L3" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="O3" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="P3" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q3" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="R3" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="S3" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="48">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="48" t="s">
+      <c r="P6" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q6" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="50">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F4" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="K4" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="L4" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="O4" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="P4" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q4" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="R4" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="S4" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="48">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="50">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F5" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="J5" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="L5" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="O5" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="P5" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q5" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="R5" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="S5" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="48">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="J6" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="K6" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="L6" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="O6" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="P6" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q6" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="R6" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="S6" s="48" t="b">
+      <c r="R6" s="44" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="H2:H6 O2:O6">
+      <formula1>#REF!</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="I2:I6 P2:P6">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F6">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="J2:J6 Q2:Q6">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G6">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="K2:K6 R2:R6">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N2:N6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M2:M6">
       <formula1>Table_Characters[Type]</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H2:H6 O2:O6">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G6 N2:N6">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -6646,118 +6674,118 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="53">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="49">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>230</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="57">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="59" t="s">
+      <c r="C4" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="57">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="53">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="55" t="s">
+      <c r="E5" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="F4" s="55" t="s">
+      <c r="F5" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="G4" s="56" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="61">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>235</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>235</v>
+      <c r="G5" s="60" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -6798,41 +6826,41 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="61">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="57">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" s="65">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="61">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="66">
+      <c r="C3" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="62">
         <v>0.0</v>
       </c>
     </row>
@@ -6856,29 +6884,29 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>244</v>
+      <c r="B1" s="63" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="67">
+      <c r="A2" s="63">
         <f t="shared" ref="A2:A3" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="67" t="s">
-        <v>245</v>
+      <c r="B2" s="63" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="67">
+      <c r="A3" s="63">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="s">
-        <v>246</v>
+      <c r="B3" s="63" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -6907,147 +6935,147 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>247</v>
+      <c r="B1" s="48" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="53">
+      <c r="A2" s="49">
         <v>0.0</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>248</v>
+      <c r="B2" s="61" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="57">
+      <c r="A3" s="53">
         <v>1.0</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>213</v>
+      <c r="B3" s="64" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="53">
+      <c r="A4" s="49">
         <v>2.0</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>220</v>
+      <c r="B4" s="61" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="61">
+      <c r="A5" s="57">
         <v>3.0</v>
       </c>
-      <c r="B5" s="66" t="s">
-        <v>249</v>
+      <c r="B5" s="62" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>250</v>
+      <c r="B7" s="48" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="53">
+      <c r="A8" s="49">
         <v>0.0</v>
       </c>
-      <c r="B8" s="65" t="s">
-        <v>251</v>
+      <c r="B8" s="61" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="57">
+      <c r="A9" s="53">
         <v>1.0</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>252</v>
+      <c r="B9" s="64" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="53">
+      <c r="A10" s="49">
         <v>2.0</v>
       </c>
-      <c r="B10" s="65" t="s">
-        <v>233</v>
+      <c r="B10" s="61" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="57">
+      <c r="A11" s="53">
         <v>3.0</v>
       </c>
-      <c r="B11" s="68" t="s">
-        <v>234</v>
+      <c r="B11" s="64" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="53">
+      <c r="A12" s="49">
         <v>4.0</v>
       </c>
-      <c r="B12" s="65" t="s">
-        <v>237</v>
+      <c r="B12" s="61" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="61">
+      <c r="A13" s="57">
         <v>5.0</v>
       </c>
-      <c r="B13" s="66" t="s">
-        <v>236</v>
+      <c r="B13" s="62" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="52" t="s">
-        <v>253</v>
+      <c r="B15" s="48" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="53">
+      <c r="A16" s="49">
         <v>0.0</v>
       </c>
-      <c r="B16" s="65" t="s">
-        <v>214</v>
+      <c r="B16" s="61" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="57">
+      <c r="A17" s="53">
         <v>1.0</v>
       </c>
-      <c r="B17" s="68" t="s">
-        <v>218</v>
+      <c r="B17" s="64" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="53">
+      <c r="A18" s="49">
         <v>2.0</v>
       </c>
-      <c r="B18" s="65" t="s">
-        <v>222</v>
+      <c r="B18" s="61" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="57">
+      <c r="A19" s="53">
         <v>3.0</v>
       </c>
-      <c r="B19" s="68" t="s">
-        <v>254</v>
+      <c r="B19" s="64" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="69">
+      <c r="A20" s="65">
         <v>4.0</v>
       </c>
-      <c r="B20" s="70" t="s">
-        <v>255</v>
+      <c r="B20" s="66" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -7078,12 +7106,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="71" t="s">
-        <v>256</v>
+      <c r="A1" s="67" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="72">
+      <c r="A2" s="68">
         <v>3.0</v>
       </c>
     </row>
@@ -7120,75 +7148,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="C1" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="D1" s="41" t="s">
         <v>262</v>
       </c>
+      <c r="E1" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="53">
+      <c r="A2" s="49">
         <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="B2" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3">
-      <c r="A3" s="57">
+      <c r="A3" s="53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="60" t="s">
-        <v>224</v>
+      <c r="F3" s="54"/>
+      <c r="G3" s="56" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="69">
+      <c r="A4" s="65">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="B4" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="G4" s="73"/>
     </row>
   </sheetData>
   <dataValidations>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -8,18 +8,19 @@
     <sheet state="visible" name="ITEMS" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="ITEMS_CONDS" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="DIALOGS" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="NPCs" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="CHARACTERS" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="CONSTANTS" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="ROOMS" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="NPCs" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="CHARACTERS" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="EVENTS" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="_ITEM_AVAIL" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="_TODO" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="CONSTANTS" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="_ITEM_AVAIL" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="_TODO" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataChecksum="yWvJgkSV7a65VtGwoNU7vekdXM7sHn1smO4WgMYwNto="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataChecksum="s4Gx29HYjtFA4VIdk44SgsA8ZMcTp6N/brQlDNGJdGY="/>
     </ext>
   </extLst>
 </workbook>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="300">
   <si>
     <t>N</t>
   </si>
@@ -174,7 +175,7 @@
     <t>MultiBitFieldStruct</t>
   </si>
   <si>
-    <t>default(MultiBitFieldStruct)</t>
+    <t>default</t>
   </si>
   <si>
     <t>PICKABLE_ITEM_OWNER</t>
@@ -336,7 +337,7 @@
     <t>This service subscribes for late start. This happens at some moment after Start event. when everything has been setup</t>
   </si>
   <si>
-    <t>LOADING_COMPLETED</t>
+    <t>MODULE_LOADING_COMPLETED</t>
   </si>
   <si>
     <t>LODING_COMPLETED_DELEGATE</t>
@@ -348,6 +349,18 @@
     <t>This service is called when whole room has been loaded</t>
   </si>
   <si>
+    <t>IS_MODULE_LOADED</t>
+  </si>
+  <si>
+    <t>IS_MODULE_LOADED_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameMasterClass.IsModuleLoadedService</t>
+  </si>
+  <si>
+    <t>This service returns a bool which tells if given module has been loaded in Room Loading Process</t>
+  </si>
+  <si>
     <t>FREEZE_PLAY</t>
   </si>
   <si>
@@ -804,15 +817,39 @@
     <t>DIALOG_ID</t>
   </si>
   <si>
+    <t>Room_used</t>
+  </si>
+  <si>
+    <t>Room_Code</t>
+  </si>
+  <si>
     <t>Text_English</t>
   </si>
   <si>
+    <t>Text_Spanish</t>
+  </si>
+  <si>
     <t>Sound</t>
   </si>
   <si>
+    <t>ROOM_NONE</t>
+  </si>
+  <si>
     <t>That has no sense!</t>
   </si>
   <si>
+    <t>¡Eso no tiene sentido!</t>
+  </si>
+  <si>
+    <t>ROOM_ID</t>
+  </si>
+  <si>
+    <t>ROOM_FIRST</t>
+  </si>
+  <si>
+    <t>ROOM_LAST</t>
+  </si>
+  <si>
     <t>NPC_ID</t>
   </si>
   <si>
@@ -849,31 +886,31 @@
     <t>INTERACTION_TAKE_AND_RECEIVE</t>
   </si>
   <si>
+    <t>EVENT_ID</t>
+  </si>
+  <si>
+    <t>TRIGGERING_ACTION</t>
+  </si>
+  <si>
+    <t>TRIGGERING_ITEM1</t>
+  </si>
+  <si>
+    <t>TRIGGERING_ITEM2</t>
+  </si>
+  <si>
+    <t>TRIGGERING_NPC</t>
+  </si>
+  <si>
+    <t>TRIGGERED_EVENT (CONSEQUENCE)</t>
+  </si>
+  <si>
+    <t>ITEM_USE</t>
+  </si>
+  <si>
+    <t>EVENT_LAST</t>
+  </si>
+  <si>
     <t>NUM_PLAYERS</t>
-  </si>
-  <si>
-    <t>EVENT_ID</t>
-  </si>
-  <si>
-    <t>TRIGGERING_ACTION</t>
-  </si>
-  <si>
-    <t>TRIGGERING_ITEM1</t>
-  </si>
-  <si>
-    <t>TRIGGERING_ITEM2</t>
-  </si>
-  <si>
-    <t>TRIGGERING_NPC</t>
-  </si>
-  <si>
-    <t>TRIGGERED_EVENT (CONSEQUENCE)</t>
-  </si>
-  <si>
-    <t>ITEM_USE</t>
-  </si>
-  <si>
-    <t>EVENT_LAST</t>
   </si>
   <si>
     <t>ITEM_ID (Ref)</t>
@@ -1167,21 +1204,21 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF284E3F"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
@@ -1209,6 +1246,20 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
@@ -1227,20 +1278,6 @@
       </left>
       <right style="thin">
         <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
@@ -1337,7 +1374,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1431,32 +1468,44 @@
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1470,95 +1519,95 @@
     <xf borderId="3" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1634,7 +1683,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="11">
+  <tableStyles count="13">
     <tableStyle count="3" pivot="0" name="VARMAP-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -1660,6 +1709,16 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
+    <tableStyle count="3" pivot="0" name="ROOMS-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="NPCs-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
     <tableStyle count="3" pivot="0" name="CHARACTERS-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -1675,12 +1734,12 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="CONSTANTS-style">
+    <tableStyle count="3" pivot="0" name="EVENTS-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="EVENTS-style">
+    <tableStyle count="3" pivot="0" name="CONSTANTS-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -1703,6 +1762,10 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1764,7 +1827,17 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Events" name="Table_Events" id="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A15:B20" displayName="Table_Interaction" name="Table_Interaction" id="10">
+  <tableColumns count="2">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="INTERACTION_ID" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="CHARACTERS-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Events" name="Table_Events" id="11">
   <tableColumns count="7">
     <tableColumn name="N" id="1"/>
     <tableColumn name="EVENT_ID" id="2"/>
@@ -1778,8 +1851,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D14" displayName="Table_TODO" name="Table_TODO" id="11">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A2" displayName="Table_Constants" name="Table_Constants" id="12">
+  <tableColumns count="1">
+    <tableColumn name="NUM_PLAYERS" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="CONSTANTS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D14" displayName="Table_TODO" name="Table_TODO" id="13">
   <tableColumns count="4">
     <tableColumn name="TASK" id="1"/>
     <tableColumn name="PRIO" id="2"/>
@@ -1791,7 +1873,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O35" displayName="Table_Services" name="Table_Services" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O36" displayName="Table_Services" name="Table_Services" id="2">
   <tableColumns count="15">
     <tableColumn name="N" id="1"/>
     <tableColumn name="SERVICE_ID" id="2"/>
@@ -1855,19 +1937,42 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D3" displayName="Table_Dialogs" name="Table_Dialogs" id="5">
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G3" displayName="Table_Dialogs" name="Table_Dialogs" id="5">
+  <tableColumns count="7">
     <tableColumn name="N" id="1"/>
     <tableColumn name="DIALOG_ID" id="2"/>
-    <tableColumn name="Text_English" id="3"/>
-    <tableColumn name="Sound" id="4"/>
+    <tableColumn name="Room_used" id="3"/>
+    <tableColumn name="Room_Code" id="4"/>
+    <tableColumn name="Text_English" id="5"/>
+    <tableColumn name="Text_Spanish" id="6"/>
+    <tableColumn name="Sound" id="7"/>
   </tableColumns>
   <tableStyleInfo name="DIALOGS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B5" displayName="Table_Characters" name="Table_Characters" id="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B4" displayName="Table_Rooms" name="Table_Rooms" id="6">
+  <tableColumns count="2">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="ROOM_ID" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="ROOMS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B3" displayName="Table_NPCs" name="Table_NPCs" id="7">
+  <tableColumns count="2">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="NPC_ID" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="NPCs-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B5" displayName="Table_Characters" name="Table_Characters" id="8">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="Type" id="2"/>
@@ -1876,32 +1981,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:B13" displayName="Table_ItemUse_Animation" name="Table_ItemUse_Animation" id="7">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:B13" displayName="Table_ItemUse_Animation" name="Table_ItemUse_Animation" id="9">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="ANIMATION_ID" id="2"/>
   </tableColumns>
   <tableStyleInfo name="CHARACTERS-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A15:B20" displayName="Table_Interaction" name="Table_Interaction" id="8">
-  <tableColumns count="2">
-    <tableColumn name="N" id="1"/>
-    <tableColumn name="INTERACTION_ID" id="2"/>
-  </tableColumns>
-  <tableStyleInfo name="CHARACTERS-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A2" displayName="Table_Constants" name="Table_Constants" id="9">
-  <tableColumns count="1">
-    <tableColumn name="NUM_PLAYERS" id="1"/>
-  </tableColumns>
-  <tableStyleInfo name="CONSTANTS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -3936,6 +4022,41 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFB45F06"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="20.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="76" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="77">
+        <v>3.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -3952,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
@@ -3963,12 +4084,12 @@
         <f t="shared" ref="A2:A32" si="1">ROW()-ROW($G$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="74" t="str">
+      <c r="B2" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A2,0)</f>
         <v>ITEM_POTION</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3">
@@ -3976,12 +4097,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="74" t="str">
+      <c r="B3" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A3,0)</f>
         <v>ITEM_POTION_BLUE</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4">
@@ -3989,12 +4110,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="74" t="str">
+      <c r="B4" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A4,0)</f>
         <v>ITEM_FOUNTAIN</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5">
@@ -4002,12 +4123,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="74" t="str">
+      <c r="B5" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A5,0)</f>
         <v>ITEM_LAST</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6">
@@ -4015,297 +4136,297 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="74" t="str">
+      <c r="B6" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A6,0)</f>
         <v/>
       </c>
-      <c r="C6" s="74"/>
+      <c r="C6" s="78"/>
     </row>
     <row r="7">
       <c r="A7" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="74" t="str">
+      <c r="B7" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A7,0)</f>
         <v/>
       </c>
-      <c r="C7" s="74"/>
+      <c r="C7" s="78"/>
     </row>
     <row r="8">
       <c r="A8" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="74" t="str">
+      <c r="B8" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A8,0)</f>
         <v/>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="78"/>
     </row>
     <row r="9">
       <c r="A9" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="74" t="str">
+      <c r="B9" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A9,0)</f>
         <v/>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="78"/>
     </row>
     <row r="10">
       <c r="A10" s="27">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="74" t="str">
+      <c r="B10" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A10,0)</f>
         <v/>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="78"/>
     </row>
     <row r="11">
       <c r="A11" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="74" t="str">
+      <c r="B11" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A11,0)</f>
         <v/>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="78"/>
     </row>
     <row r="12">
       <c r="A12" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="74" t="str">
+      <c r="B12" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A12,0)</f>
         <v/>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="78"/>
     </row>
     <row r="13">
       <c r="A13" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="74" t="str">
+      <c r="B13" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A13,0)</f>
         <v/>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="78"/>
     </row>
     <row r="14">
       <c r="A14" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="74" t="str">
+      <c r="B14" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A14,0)</f>
         <v/>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="78"/>
     </row>
     <row r="15">
       <c r="A15" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="74" t="str">
+      <c r="B15" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A15,0)</f>
         <v/>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="78"/>
     </row>
     <row r="16">
       <c r="A16" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="74" t="str">
+      <c r="B16" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A16,0)</f>
         <v/>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="78"/>
     </row>
     <row r="17">
       <c r="A17" s="27">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="74" t="str">
+      <c r="B17" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A17,0)</f>
         <v/>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="78"/>
     </row>
     <row r="18">
       <c r="A18" s="27">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="74" t="str">
+      <c r="B18" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A18,0)</f>
         <v/>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="78"/>
     </row>
     <row r="19">
       <c r="A19" s="27">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="74" t="str">
+      <c r="B19" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A19,0)</f>
         <v/>
       </c>
-      <c r="C19" s="74"/>
+      <c r="C19" s="78"/>
     </row>
     <row r="20">
       <c r="A20" s="27">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="74" t="str">
+      <c r="B20" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A20,0)</f>
         <v/>
       </c>
-      <c r="C20" s="74"/>
+      <c r="C20" s="78"/>
     </row>
     <row r="21">
       <c r="A21" s="27">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="74" t="str">
+      <c r="B21" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A21,0)</f>
         <v/>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="78"/>
     </row>
     <row r="22">
       <c r="A22" s="27">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="74" t="str">
+      <c r="B22" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A22,0)</f>
         <v/>
       </c>
-      <c r="C22" s="74"/>
+      <c r="C22" s="78"/>
     </row>
     <row r="23">
       <c r="A23" s="27">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="74" t="str">
+      <c r="B23" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A23,0)</f>
         <v/>
       </c>
-      <c r="C23" s="74"/>
+      <c r="C23" s="78"/>
     </row>
     <row r="24">
       <c r="A24" s="27">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="74" t="str">
+      <c r="B24" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A24,0)</f>
         <v/>
       </c>
-      <c r="C24" s="74"/>
+      <c r="C24" s="78"/>
     </row>
     <row r="25">
       <c r="A25" s="27">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="74" t="str">
+      <c r="B25" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A25,0)</f>
         <v/>
       </c>
-      <c r="C25" s="74"/>
+      <c r="C25" s="78"/>
     </row>
     <row r="26">
       <c r="A26" s="27">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="74" t="str">
+      <c r="B26" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A26,0)</f>
         <v/>
       </c>
-      <c r="C26" s="74"/>
+      <c r="C26" s="78"/>
     </row>
     <row r="27">
       <c r="A27" s="27">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="74" t="str">
+      <c r="B27" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A27,0)</f>
         <v/>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="78"/>
     </row>
     <row r="28">
       <c r="A28" s="27">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="74" t="str">
+      <c r="B28" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A28,0)</f>
         <v/>
       </c>
-      <c r="C28" s="74"/>
+      <c r="C28" s="78"/>
     </row>
     <row r="29">
       <c r="A29" s="27">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="74" t="str">
+      <c r="B29" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A29,0)</f>
         <v/>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="78"/>
     </row>
     <row r="30">
       <c r="A30" s="27">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="74" t="str">
+      <c r="B30" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A30,0)</f>
         <v/>
       </c>
-      <c r="C30" s="74"/>
+      <c r="C30" s="78"/>
     </row>
     <row r="31">
       <c r="A31" s="27">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="74" t="str">
+      <c r="B31" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A31,0)</f>
         <v/>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="78"/>
     </row>
     <row r="32">
       <c r="A32" s="27">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="74" t="str">
+      <c r="B32" s="78" t="str">
         <f>OFFSET(ITEMS!$B$3,A32,0)</f>
         <v/>
       </c>
-      <c r="C32" s="74"/>
+      <c r="C32" s="78"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4317,7 +4438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4337,198 +4458,198 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>274</v>
+      <c r="A1" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="75">
+      <c r="A2" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="79">
         <v>1.0</v>
       </c>
-      <c r="C2" s="50" t="b">
+      <c r="C2" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="61" t="b">
+      <c r="D2" s="66" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" s="75">
+      <c r="A3" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="79">
         <v>1.0</v>
       </c>
-      <c r="C3" s="54" t="b">
+      <c r="C3" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="64" t="b">
+      <c r="D3" s="68" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" s="76">
+      <c r="A4" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="80">
         <v>3.0</v>
       </c>
-      <c r="C4" s="50" t="b">
+      <c r="C4" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="61" t="b">
+      <c r="D4" s="66" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="75">
+      <c r="A5" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="79">
         <v>1.0</v>
       </c>
-      <c r="C5" s="54" t="b">
+      <c r="C5" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="64" t="b">
+      <c r="D5" s="68" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="76">
+      <c r="A6" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="80">
         <v>3.0</v>
       </c>
-      <c r="C6" s="50" t="b">
+      <c r="C6" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="61" t="b">
+      <c r="D6" s="66" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="53" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7" s="76">
+      <c r="A7" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="80">
         <v>3.0</v>
       </c>
-      <c r="C7" s="54" t="b">
+      <c r="C7" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="64" t="b">
+      <c r="D7" s="68" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" s="77">
+      <c r="A8" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="B8" s="81">
         <v>5.0</v>
       </c>
-      <c r="C8" s="50" t="b">
+      <c r="C8" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="61" t="b">
+      <c r="D8" s="66" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="78">
+      <c r="A9" s="57" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="82">
         <v>4.0</v>
       </c>
-      <c r="C9" s="54" t="b">
+      <c r="C9" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="64" t="b">
+      <c r="D9" s="68" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="B10" s="78">
+      <c r="A10" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="82">
         <v>4.0</v>
       </c>
-      <c r="C10" s="50" t="b">
+      <c r="C10" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="61" t="b">
+      <c r="D10" s="66" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="75">
+      <c r="A11" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" s="79">
         <v>1.0</v>
       </c>
-      <c r="C11" s="54" t="b">
+      <c r="C11" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="64" t="b">
+      <c r="D11" s="68" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="79" t="s">
-        <v>285</v>
-      </c>
-      <c r="B12" s="78">
+      <c r="A12" s="83" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="82">
         <v>4.0</v>
       </c>
-      <c r="C12" s="50" t="b">
+      <c r="C12" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="D12" s="61" t="b">
+      <c r="D12" s="66" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="79" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="75">
+      <c r="A13" s="83" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" s="79">
         <v>1.0</v>
       </c>
-      <c r="C13" s="54" t="b">
+      <c r="C13" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="D13" s="64" t="b">
+      <c r="D13" s="68" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="B14" s="80">
+      <c r="A14" s="69" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" s="84">
         <v>5.0</v>
       </c>
-      <c r="C14" s="71" t="b">
+      <c r="C14" s="73" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="66" t="b">
+      <c r="D14" s="70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4642,7 +4763,7 @@
     </row>
     <row r="2">
       <c r="A2" s="29">
-        <f t="shared" ref="A2:A35" si="1">ROW()-ROW($A$2)</f>
+        <f t="shared" ref="A2:A36" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -4927,7 +5048,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -4946,28 +5067,28 @@
         <v>24</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>67</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -4975,47 +5096,45 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="16" t="s">
         <v>94</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="12" t="s">
         <v>67</v>
       </c>
+      <c r="I9" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="J9" s="13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -5023,13 +5142,13 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -5038,14 +5157,14 @@
       <c r="F10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>25</v>
+      <c r="G10" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>25</v>
@@ -5057,7 +5176,7 @@
         <v>25</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>25</v>
@@ -5083,14 +5202,16 @@
       <c r="E11" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="13" t="s">
@@ -5103,10 +5224,10 @@
         <v>25</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="O11" s="14" t="s">
         <v>25</v>
@@ -5183,7 +5304,7 @@
         <v>25</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>25</v>
@@ -5201,7 +5322,7 @@
         <v>67</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -5209,13 +5330,13 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="15" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="15" t="s">
         <v>114</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -5228,26 +5349,26 @@
       <c r="H14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -5255,13 +5376,13 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="11" t="s">
         <v>118</v>
       </c>
       <c r="E15" s="16" t="s">
@@ -5274,7 +5395,7 @@
       <c r="H15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="13" t="s">
@@ -5283,8 +5404,8 @@
       <c r="K15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="13" t="s">
-        <v>25</v>
+      <c r="L15" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>25</v>
@@ -5376,7 +5497,7 @@
         <v>25</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>25</v>
@@ -5413,16 +5534,16 @@
         <v>25</v>
       </c>
       <c r="I18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>25</v>
@@ -5459,16 +5580,16 @@
         <v>25</v>
       </c>
       <c r="I19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>25</v>
@@ -5508,16 +5629,16 @@
         <v>24</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>25</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>25</v>
@@ -5560,13 +5681,13 @@
         <v>25</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>67</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="O21" s="14" t="s">
         <v>25</v>
@@ -5597,7 +5718,7 @@
         <v>25</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>25</v>
@@ -5615,7 +5736,7 @@
         <v>67</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -5669,102 +5790,102 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="35" t="s">
+      <c r="F24" s="20"/>
+      <c r="G24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="34" t="s">
+      <c r="J24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O24" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
     </row>
     <row r="25">
       <c r="A25" s="30">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="13" t="s">
+      <c r="F25" s="33"/>
+      <c r="G25" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="O25" s="14" t="s">
+      <c r="M25" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="34" t="s">
         <v>24</v>
       </c>
+      <c r="O25" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
     </row>
     <row r="26">
       <c r="A26" s="29">
@@ -5800,16 +5921,16 @@
         <v>25</v>
       </c>
       <c r="L26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -5837,22 +5958,22 @@
         <v>25</v>
       </c>
       <c r="I27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="M27" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="O27" s="14" t="s">
         <v>25</v>
@@ -5883,22 +6004,22 @@
         <v>25</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>25</v>
@@ -5929,7 +6050,7 @@
         <v>25</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>25</v>
@@ -5938,7 +6059,7 @@
         <v>67</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="M29" s="13" t="s">
         <v>25</v>
@@ -5969,7 +6090,7 @@
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="8" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>25</v>
@@ -5981,19 +6102,19 @@
         <v>25</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -6021,7 +6142,7 @@
         <v>25</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>25</v>
@@ -6033,13 +6154,13 @@
         <v>67</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
@@ -6067,7 +6188,7 @@
         <v>25</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>25</v>
@@ -6079,7 +6200,7 @@
         <v>67</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>25</v>
@@ -6113,19 +6234,19 @@
         <v>25</v>
       </c>
       <c r="I33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="13" t="s">
+      <c r="M33" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="N33" s="13" t="s">
         <v>25</v>
@@ -6153,85 +6274,131 @@
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="8" t="s">
+      <c r="M34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="30">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="M34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="38">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C35" s="39" t="s">
+      <c r="M35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="38">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D36" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="23" t="s">
+      <c r="E36" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="41"/>
+      <c r="G36" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H35" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="26" t="s">
+      <c r="H36" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="43" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A35">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A36">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:O35">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:O36">
       <formula1>"W,X,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6277,348 +6444,348 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="41" t="s">
+      <c r="B1" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="C1" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="D1" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="E1" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="G1" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="H1" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="I1" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="J1" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="K1" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="L1" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="M1" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="N1" s="45" t="s">
         <v>214</v>
       </c>
+      <c r="O1" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="R1" s="47" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="44">
+      <c r="A2" s="48">
         <f t="shared" ref="A2:A6" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="45" t="b">
+      <c r="B2" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="50">
         <f t="shared" ref="D2:D6" si="2">COUNTIF(E2,"=TRUE")+COUNTIF(L2,"=TRUE")</f>
         <v>0</v>
       </c>
-      <c r="E2" s="45" t="b">
+      <c r="E2" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="J2" s="47" t="s">
+      <c r="F2" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="K2" s="44" t="b">
+      <c r="I2" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="K2" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="L2" s="44" t="b">
+      <c r="L2" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="M2" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="N2" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="O2" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="P2" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q2" s="47" t="s">
+      <c r="M2" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="O2" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="R2" s="44" t="b">
+      <c r="P2" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q2" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="R2" s="48" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="44">
+      <c r="A3" s="48">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="45" t="b">
+      <c r="B3" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="50">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E3" s="45" t="b">
+      <c r="E3" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="G3" s="47" t="s">
+      <c r="F3" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="N3" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="J3" s="47" t="s">
+      <c r="O3" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="K3" s="44" t="b">
+      <c r="P3" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q3" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="R3" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="48">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="O3" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="P3" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q3" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="R3" s="44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="46">
+      <c r="D4" s="50">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E4" s="45" t="b">
+      <c r="E4" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="K4" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="N4" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="J4" s="47" t="s">
+      <c r="O4" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="K4" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="44" t="b">
+      <c r="P4" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q4" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="R4" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="N4" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="O4" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="P4" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q4" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="R4" s="44" t="b">
+    </row>
+    <row r="5">
+      <c r="A5" s="48">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="44">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="46">
+      <c r="D5" s="50">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E5" s="45" t="b">
+      <c r="E5" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="H5" s="47" t="s">
+      <c r="F5" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="G5" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="O5" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="J5" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="K5" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="47" t="s">
+      <c r="P5" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q5" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="N5" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="O5" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="P5" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q5" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="R5" s="44" t="b">
+      <c r="R5" s="48" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="44">
+      <c r="A6" s="48">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="45" t="b">
+      <c r="B6" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E6" s="45" t="b">
+      <c r="E6" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="J6" s="47" t="s">
+      <c r="F6" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="K6" s="44" t="b">
+      <c r="I6" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="K6" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="L6" s="44" t="b">
+      <c r="L6" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="N6" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="O6" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="P6" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q6" s="47" t="s">
+      <c r="M6" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="N6" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="O6" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="R6" s="44" t="b">
+      <c r="P6" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q6" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="R6" s="48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6674,118 +6841,118 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="57">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" s="41" t="s">
+      <c r="C3" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="53">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="51" t="s">
+      <c r="C4" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="F4" s="51" t="s">
+      <c r="E5" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="52" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="57">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="58" t="s">
+      <c r="F5" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>237</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>238</v>
+      <c r="G5" s="64" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -6822,49 +6989,83 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="21.57"/>
-    <col customWidth="1" min="3" max="3" width="59.14"/>
+    <col customWidth="1" min="3" max="3" width="22.43"/>
+    <col customWidth="1" min="4" max="5" width="32.14"/>
+    <col customWidth="1" min="6" max="6" width="21.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="D1" s="48" t="s">
+      <c r="B1" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="53">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="65">
+        <f t="array" ref="D2">INDEX(Table_Rooms[N],MATCH(C2,Table_Rooms[ROOM_ID],0))</f>
+        <v>-1</v>
+      </c>
+      <c r="F2" s="54"/>
+      <c r="G2" s="66">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="62" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="49">
+      <c r="C3" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="62">
+        <f t="array" ref="D3">INDEX(Table_Rooms[N],MATCH(C3,Table_Rooms[ROOM_ID],0))</f>
+        <v>-1</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="67">
         <v>0.0</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="D2" s="61">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="57">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="62">
-        <v>0.0</v>
-      </c>
     </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="C2:C3">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -6875,46 +7076,111 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="15.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="53">
+        <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)-1</f>
+        <v>-1</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
-        <v>247</v>
+      <c r="B1" s="52" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="63">
+      <c r="A2" s="48">
         <f t="shared" ref="A2:A3" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>248</v>
+      <c r="B2" s="48" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="63">
+      <c r="A3" s="48">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>249</v>
+      <c r="B3" s="48" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FF990000"/>
@@ -6935,147 +7201,147 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>250</v>
+      <c r="B1" s="52" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49">
+      <c r="A2" s="53">
         <v>0.0</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>251</v>
+      <c r="B2" s="66" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="53">
+      <c r="A3" s="57">
         <v>1.0</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>216</v>
+      <c r="B3" s="68" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49">
+      <c r="A4" s="53">
         <v>2.0</v>
       </c>
-      <c r="B4" s="61" t="s">
-        <v>223</v>
+      <c r="B4" s="66" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="57">
+      <c r="A5" s="61">
         <v>3.0</v>
       </c>
-      <c r="B5" s="62" t="s">
-        <v>252</v>
+      <c r="B5" s="67" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>253</v>
+      <c r="B7" s="52" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="49">
+      <c r="A8" s="53">
         <v>0.0</v>
       </c>
-      <c r="B8" s="61" t="s">
-        <v>254</v>
+      <c r="B8" s="66" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="53">
+      <c r="A9" s="57">
         <v>1.0</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>255</v>
+      <c r="B9" s="68" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49">
+      <c r="A10" s="53">
         <v>2.0</v>
       </c>
-      <c r="B10" s="61" t="s">
-        <v>236</v>
+      <c r="B10" s="66" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="53">
+      <c r="A11" s="57">
         <v>3.0</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>237</v>
+      <c r="B11" s="68" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49">
+      <c r="A12" s="53">
         <v>4.0</v>
       </c>
-      <c r="B12" s="61" t="s">
-        <v>240</v>
+      <c r="B12" s="66" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="57">
+      <c r="A13" s="61">
         <v>5.0</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>239</v>
+      <c r="B13" s="67" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="48" t="s">
-        <v>256</v>
+      <c r="B15" s="52" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="49">
+      <c r="A16" s="53">
         <v>0.0</v>
       </c>
-      <c r="B16" s="61" t="s">
-        <v>217</v>
+      <c r="B16" s="66" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="53">
+      <c r="A17" s="57">
         <v>1.0</v>
       </c>
-      <c r="B17" s="64" t="s">
-        <v>221</v>
+      <c r="B17" s="68" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="49">
+      <c r="A18" s="53">
         <v>2.0</v>
       </c>
-      <c r="B18" s="61" t="s">
-        <v>225</v>
+      <c r="B18" s="66" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="53">
+      <c r="A19" s="57">
         <v>3.0</v>
       </c>
-      <c r="B19" s="64" t="s">
-        <v>257</v>
+      <c r="B19" s="68" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="65">
+      <c r="A20" s="69">
         <v>4.0</v>
       </c>
-      <c r="B20" s="66" t="s">
-        <v>258</v>
+      <c r="B20" s="70" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -7084,41 +7350,6 @@
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFB45F06"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="20.57"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="67" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="68">
-        <v>3.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7148,75 +7379,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>265</v>
+      <c r="B1" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49">
+      <c r="A2" s="53">
         <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="G2" s="70"/>
+      <c r="B2" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3">
-      <c r="A3" s="53">
+      <c r="A3" s="57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="55" t="s">
+      <c r="B3" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="56" t="s">
-        <v>227</v>
+      <c r="E3" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="60" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="65">
+      <c r="A4" s="69">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="71" t="s">
-        <v>267</v>
-      </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="G4" s="73"/>
+      <c r="B4" s="73" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="G4" s="75"/>
     </row>
   </sheetData>
   <dataValidations>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -20,7 +20,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataChecksum="s4Gx29HYjtFA4VIdk44SgsA8ZMcTp6N/brQlDNGJdGY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataChecksum="NQY0q4nAuQW+tyNRdgL2oNSuG2ILqHEPgvkCiU5W2Lw="/>
     </ext>
   </extLst>
 </workbook>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="310">
   <si>
     <t>N</t>
   </si>
@@ -673,6 +673,18 @@
     <t>Starts a dialogue with given text and sound</t>
   </si>
   <si>
+    <t>SHOW_DIALOGUE</t>
+  </si>
+  <si>
+    <t>SHOW_DIALOGUE_DELEGATE</t>
+  </si>
+  <si>
+    <t>GraphicsMasterClass.ShowDialogueService</t>
+  </si>
+  <si>
+    <t>Tell Graphics Maste which dialogue to show</t>
+  </si>
+  <si>
     <t>LAST_SERVICE</t>
   </si>
   <si>
@@ -823,6 +835,9 @@
     <t>Room_Code</t>
   </si>
   <si>
+    <t>Sender</t>
+  </si>
+  <si>
     <t>Text_English</t>
   </si>
   <si>
@@ -835,6 +850,9 @@
     <t>ROOM_NONE</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>That has no sense!</t>
   </si>
   <si>
@@ -884,6 +902,18 @@
   </si>
   <si>
     <t>INTERACTION_TAKE_AND_RECEIVE</t>
+  </si>
+  <si>
+    <t>CharName</t>
+  </si>
+  <si>
+    <t>Main Character</t>
+  </si>
+  <si>
+    <t>Parrot Character</t>
+  </si>
+  <si>
+    <t>Snake Character</t>
   </si>
   <si>
     <t>EVENT_ID</t>
@@ -1204,21 +1234,21 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
@@ -1246,16 +1276,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF284E3F"/>
       </bottom>
     </border>
     <border>
@@ -1374,7 +1404,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="81">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1489,23 +1519,11 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1519,85 +1537,85 @@
     <xf borderId="3" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1683,7 +1701,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="13">
+  <tableStyles count="14">
     <tableStyle count="3" pivot="0" name="VARMAP-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -1730,6 +1748,11 @@
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="CHARACTERS-style 3">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="CHARACTERS-style 4">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -1837,7 +1860,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Events" name="Table_Events" id="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A22:B25" displayName="Table_Characters_Name" name="Table_Characters_Name" id="11">
+  <tableColumns count="2">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="CharName" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="CHARACTERS-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Events" name="Table_Events" id="12">
   <tableColumns count="7">
     <tableColumn name="N" id="1"/>
     <tableColumn name="EVENT_ID" id="2"/>
@@ -1851,8 +1884,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A2" displayName="Table_Constants" name="Table_Constants" id="12">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A2" displayName="Table_Constants" name="Table_Constants" id="13">
   <tableColumns count="1">
     <tableColumn name="NUM_PLAYERS" id="1"/>
   </tableColumns>
@@ -1860,8 +1893,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D14" displayName="Table_TODO" name="Table_TODO" id="13">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D14" displayName="Table_TODO" name="Table_TODO" id="14">
   <tableColumns count="4">
     <tableColumn name="TASK" id="1"/>
     <tableColumn name="PRIO" id="2"/>
@@ -1873,7 +1906,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O36" displayName="Table_Services" name="Table_Services" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O37" displayName="Table_Services" name="Table_Services" id="2">
   <tableColumns count="15">
     <tableColumn name="N" id="1"/>
     <tableColumn name="SERVICE_ID" id="2"/>
@@ -1937,15 +1970,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G3" displayName="Table_Dialogs" name="Table_Dialogs" id="5">
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H3" displayName="Table_Dialogs" name="Table_Dialogs" id="5">
+  <tableColumns count="8">
     <tableColumn name="N" id="1"/>
     <tableColumn name="DIALOG_ID" id="2"/>
     <tableColumn name="Room_used" id="3"/>
     <tableColumn name="Room_Code" id="4"/>
-    <tableColumn name="Text_English" id="5"/>
-    <tableColumn name="Text_Spanish" id="6"/>
-    <tableColumn name="Sound" id="7"/>
+    <tableColumn name="Sender" id="5"/>
+    <tableColumn name="Text_English" id="6"/>
+    <tableColumn name="Text_Spanish" id="7"/>
+    <tableColumn name="Sound" id="8"/>
   </tableColumns>
   <tableStyleInfo name="DIALOGS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -4037,12 +4071,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="76" t="s">
-        <v>279</v>
+      <c r="A1" s="72" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="77">
+      <c r="A2" s="73">
         <v>3.0</v>
       </c>
     </row>
@@ -4073,10 +4107,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2">
@@ -4084,12 +4118,12 @@
         <f t="shared" ref="A2:A32" si="1">ROW()-ROW($G$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="78" t="str">
+      <c r="B2" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A2,0)</f>
         <v>ITEM_POTION</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3">
@@ -4097,12 +4131,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="78" t="str">
+      <c r="B3" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A3,0)</f>
         <v>ITEM_POTION_BLUE</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
@@ -4110,12 +4144,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="78" t="str">
+      <c r="B4" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A4,0)</f>
         <v>ITEM_FOUNTAIN</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5">
@@ -4123,12 +4157,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="78" t="str">
+      <c r="B5" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A5,0)</f>
         <v>ITEM_LAST</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6">
@@ -4136,297 +4170,297 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="78" t="str">
+      <c r="B6" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A6,0)</f>
         <v/>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="74"/>
     </row>
     <row r="7">
       <c r="A7" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="78" t="str">
+      <c r="B7" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A7,0)</f>
         <v/>
       </c>
-      <c r="C7" s="78"/>
+      <c r="C7" s="74"/>
     </row>
     <row r="8">
       <c r="A8" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="78" t="str">
+      <c r="B8" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A8,0)</f>
         <v/>
       </c>
-      <c r="C8" s="78"/>
+      <c r="C8" s="74"/>
     </row>
     <row r="9">
       <c r="A9" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="78" t="str">
+      <c r="B9" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A9,0)</f>
         <v/>
       </c>
-      <c r="C9" s="78"/>
+      <c r="C9" s="74"/>
     </row>
     <row r="10">
       <c r="A10" s="27">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="78" t="str">
+      <c r="B10" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A10,0)</f>
         <v/>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="74"/>
     </row>
     <row r="11">
       <c r="A11" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="78" t="str">
+      <c r="B11" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A11,0)</f>
         <v/>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="74"/>
     </row>
     <row r="12">
       <c r="A12" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="78" t="str">
+      <c r="B12" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A12,0)</f>
         <v/>
       </c>
-      <c r="C12" s="78"/>
+      <c r="C12" s="74"/>
     </row>
     <row r="13">
       <c r="A13" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="78" t="str">
+      <c r="B13" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A13,0)</f>
         <v/>
       </c>
-      <c r="C13" s="78"/>
+      <c r="C13" s="74"/>
     </row>
     <row r="14">
       <c r="A14" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="78" t="str">
+      <c r="B14" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A14,0)</f>
         <v/>
       </c>
-      <c r="C14" s="78"/>
+      <c r="C14" s="74"/>
     </row>
     <row r="15">
       <c r="A15" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="78" t="str">
+      <c r="B15" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A15,0)</f>
         <v/>
       </c>
-      <c r="C15" s="78"/>
+      <c r="C15" s="74"/>
     </row>
     <row r="16">
       <c r="A16" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="78" t="str">
+      <c r="B16" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A16,0)</f>
         <v/>
       </c>
-      <c r="C16" s="78"/>
+      <c r="C16" s="74"/>
     </row>
     <row r="17">
       <c r="A17" s="27">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="78" t="str">
+      <c r="B17" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A17,0)</f>
         <v/>
       </c>
-      <c r="C17" s="78"/>
+      <c r="C17" s="74"/>
     </row>
     <row r="18">
       <c r="A18" s="27">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="78" t="str">
+      <c r="B18" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A18,0)</f>
         <v/>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="74"/>
     </row>
     <row r="19">
       <c r="A19" s="27">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="78" t="str">
+      <c r="B19" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A19,0)</f>
         <v/>
       </c>
-      <c r="C19" s="78"/>
+      <c r="C19" s="74"/>
     </row>
     <row r="20">
       <c r="A20" s="27">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="78" t="str">
+      <c r="B20" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A20,0)</f>
         <v/>
       </c>
-      <c r="C20" s="78"/>
+      <c r="C20" s="74"/>
     </row>
     <row r="21">
       <c r="A21" s="27">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="78" t="str">
+      <c r="B21" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A21,0)</f>
         <v/>
       </c>
-      <c r="C21" s="78"/>
+      <c r="C21" s="74"/>
     </row>
     <row r="22">
       <c r="A22" s="27">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="78" t="str">
+      <c r="B22" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A22,0)</f>
         <v/>
       </c>
-      <c r="C22" s="78"/>
+      <c r="C22" s="74"/>
     </row>
     <row r="23">
       <c r="A23" s="27">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="78" t="str">
+      <c r="B23" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A23,0)</f>
         <v/>
       </c>
-      <c r="C23" s="78"/>
+      <c r="C23" s="74"/>
     </row>
     <row r="24">
       <c r="A24" s="27">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="78" t="str">
+      <c r="B24" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A24,0)</f>
         <v/>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="74"/>
     </row>
     <row r="25">
       <c r="A25" s="27">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="78" t="str">
+      <c r="B25" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A25,0)</f>
         <v/>
       </c>
-      <c r="C25" s="78"/>
+      <c r="C25" s="74"/>
     </row>
     <row r="26">
       <c r="A26" s="27">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="78" t="str">
+      <c r="B26" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A26,0)</f>
         <v/>
       </c>
-      <c r="C26" s="78"/>
+      <c r="C26" s="74"/>
     </row>
     <row r="27">
       <c r="A27" s="27">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="78" t="str">
+      <c r="B27" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A27,0)</f>
         <v/>
       </c>
-      <c r="C27" s="78"/>
+      <c r="C27" s="74"/>
     </row>
     <row r="28">
       <c r="A28" s="27">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="78" t="str">
+      <c r="B28" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A28,0)</f>
         <v/>
       </c>
-      <c r="C28" s="78"/>
+      <c r="C28" s="74"/>
     </row>
     <row r="29">
       <c r="A29" s="27">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="78" t="str">
+      <c r="B29" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A29,0)</f>
         <v/>
       </c>
-      <c r="C29" s="78"/>
+      <c r="C29" s="74"/>
     </row>
     <row r="30">
       <c r="A30" s="27">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="78" t="str">
+      <c r="B30" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A30,0)</f>
         <v/>
       </c>
-      <c r="C30" s="78"/>
+      <c r="C30" s="74"/>
     </row>
     <row r="31">
       <c r="A31" s="27">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="78" t="str">
+      <c r="B31" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A31,0)</f>
         <v/>
       </c>
-      <c r="C31" s="78"/>
+      <c r="C31" s="74"/>
     </row>
     <row r="32">
       <c r="A32" s="27">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="78" t="str">
+      <c r="B32" s="74" t="str">
         <f>OFFSET(ITEMS!$B$3,A32,0)</f>
         <v/>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="74"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4458,198 +4492,198 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>286</v>
+      <c r="A1" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="79">
+      <c r="A2" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="75">
         <v>1.0</v>
       </c>
-      <c r="C2" s="54" t="b">
+      <c r="C2" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="66" t="b">
+      <c r="D2" s="62" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="57" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" s="79">
+      <c r="A3" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="75">
         <v>1.0</v>
       </c>
-      <c r="C3" s="58" t="b">
+      <c r="C3" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="68" t="b">
+      <c r="D3" s="64" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="53" t="s">
-        <v>289</v>
-      </c>
-      <c r="B4" s="80">
+      <c r="A4" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="76">
         <v>3.0</v>
       </c>
-      <c r="C4" s="54" t="b">
+      <c r="C4" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="66" t="b">
+      <c r="D4" s="62" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="57" t="s">
-        <v>290</v>
-      </c>
-      <c r="B5" s="79">
+      <c r="A5" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="75">
         <v>1.0</v>
       </c>
-      <c r="C5" s="58" t="b">
+      <c r="C5" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="68" t="b">
+      <c r="D5" s="64" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="53" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="80">
+      <c r="A6" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="76">
         <v>3.0</v>
       </c>
-      <c r="C6" s="54" t="b">
+      <c r="C6" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="66" t="b">
+      <c r="D6" s="62" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="B7" s="80">
+      <c r="A7" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="76">
         <v>3.0</v>
       </c>
-      <c r="C7" s="58" t="b">
+      <c r="C7" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="68" t="b">
+      <c r="D7" s="64" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="53" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" s="81">
+      <c r="A8" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="77">
         <v>5.0</v>
       </c>
-      <c r="C8" s="54" t="b">
+      <c r="C8" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="66" t="b">
+      <c r="D8" s="62" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="57" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="82">
+      <c r="A9" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="78">
         <v>4.0</v>
       </c>
-      <c r="C9" s="58" t="b">
+      <c r="C9" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="68" t="b">
+      <c r="D9" s="64" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" s="82">
+      <c r="A10" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" s="78">
         <v>4.0</v>
       </c>
-      <c r="C10" s="54" t="b">
+      <c r="C10" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="66" t="b">
+      <c r="D10" s="62" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="57" t="s">
-        <v>296</v>
-      </c>
-      <c r="B11" s="79">
+      <c r="A11" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" s="75">
         <v>1.0</v>
       </c>
-      <c r="C11" s="58" t="b">
+      <c r="C11" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="68" t="b">
+      <c r="D11" s="64" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="83" t="s">
-        <v>297</v>
-      </c>
-      <c r="B12" s="82">
+      <c r="A12" s="79" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="78">
         <v>4.0</v>
       </c>
-      <c r="C12" s="54" t="b">
+      <c r="C12" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D12" s="66" t="b">
+      <c r="D12" s="62" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="83" t="s">
-        <v>298</v>
-      </c>
-      <c r="B13" s="79">
+      <c r="A13" s="79" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="75">
         <v>1.0</v>
       </c>
-      <c r="C13" s="58" t="b">
+      <c r="C13" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="D13" s="68" t="b">
+      <c r="D13" s="64" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="69" t="s">
-        <v>299</v>
-      </c>
-      <c r="B14" s="84">
+      <c r="A14" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" s="80">
         <v>5.0</v>
       </c>
-      <c r="C14" s="73" t="b">
+      <c r="C14" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="70" t="b">
+      <c r="D14" s="66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4763,7 +4797,7 @@
     </row>
     <row r="2">
       <c r="A2" s="29">
-        <f t="shared" ref="A2:A36" si="1">ROW()-ROW($A$2)</f>
+        <f t="shared" ref="A2:A37" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -6348,57 +6382,103 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="38">
+      <c r="A36" s="29">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="38">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D37" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42" t="s">
+      <c r="E37" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="25"/>
+      <c r="G37" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="J36" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="M36" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="O36" s="43" t="s">
+      <c r="H37" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="26" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A36">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A37">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:O36">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:O37">
       <formula1>"W,X,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6444,348 +6524,348 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="C1" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="D1" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="E1" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="F1" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="G1" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="H1" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="I1" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="J1" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="K1" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="L1" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="M1" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="N1" s="41" t="s">
         <v>218</v>
       </c>
+      <c r="O1" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="43" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="48">
+      <c r="A2" s="44">
         <f t="shared" ref="A2:A6" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="49" t="b">
+      <c r="B2" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="46">
         <f t="shared" ref="D2:D6" si="2">COUNTIF(E2,"=TRUE")+COUNTIF(L2,"=TRUE")</f>
         <v>0</v>
       </c>
-      <c r="E2" s="49" t="b">
+      <c r="E2" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="J2" s="51" t="s">
+      <c r="F2" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="K2" s="48" t="b">
+      <c r="I2" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="L2" s="48" t="b">
+      <c r="L2" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="M2" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="O2" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="P2" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q2" s="51" t="s">
+      <c r="M2" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="O2" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="R2" s="48" t="b">
+      <c r="P2" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="R2" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="48">
+      <c r="A3" s="44">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="49" t="b">
+      <c r="B3" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="46">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E3" s="49" t="b">
+      <c r="E3" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" s="51" t="s">
+      <c r="F3" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="N3" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="J3" s="51" t="s">
+      <c r="O3" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="K3" s="48" t="b">
+      <c r="P3" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="R3" s="44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="44">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="O3" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="P3" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q3" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="R3" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="48">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="50">
+      <c r="D4" s="46">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E4" s="49" t="b">
+      <c r="E4" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="J4" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="K4" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="N4" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="H4" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="J4" s="51" t="s">
+      <c r="O4" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="K4" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="48" t="b">
+      <c r="P4" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="R4" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="O4" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="P4" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q4" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="R4" s="48" t="b">
+    </row>
+    <row r="5">
+      <c r="A5" s="44">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="48">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="50">
+      <c r="D5" s="46">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E5" s="49" t="b">
+      <c r="E5" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="H5" s="51" t="s">
+      <c r="F5" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="G5" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="O5" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="J5" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="K5" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="51" t="s">
+      <c r="P5" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q5" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="N5" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="O5" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="P5" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q5" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="R5" s="48" t="b">
+      <c r="R5" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48">
+      <c r="A6" s="44">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="49" t="b">
+      <c r="B6" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E6" s="49" t="b">
+      <c r="E6" s="45" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="J6" s="51" t="s">
+      <c r="F6" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="H6" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="K6" s="48" t="b">
+      <c r="I6" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="L6" s="48" t="b">
+      <c r="L6" s="44" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="N6" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="O6" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="P6" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q6" s="51" t="s">
+      <c r="M6" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="N6" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="O6" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="R6" s="48" t="b">
+      <c r="P6" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="R6" s="44" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6841,118 +6921,118 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="53">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>235</v>
-      </c>
-      <c r="D1" s="45" t="s">
+      <c r="C3" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="49">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="57">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="G3" s="60" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="53">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="D4" s="55" t="s">
+      <c r="C4" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="57">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="F4" s="55" t="s">
+      <c r="E5" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="G4" s="56" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="61">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="62" t="s">
+      <c r="F5" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="63" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>241</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>242</v>
+      <c r="G5" s="60" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -6990,73 +7070,79 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="21.57"/>
     <col customWidth="1" min="3" max="3" width="22.43"/>
-    <col customWidth="1" min="4" max="5" width="32.14"/>
-    <col customWidth="1" min="6" max="6" width="21.0"/>
+    <col customWidth="1" min="4" max="6" width="32.14"/>
+    <col customWidth="1" min="7" max="7" width="21.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="F1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="C1" s="42" t="s">
         <v>252</v>
       </c>
+      <c r="D1" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="48" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="53">
+      <c r="A2" s="49">
         <v>0.0</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" s="65">
+      <c r="B2" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="61">
         <f t="array" ref="D2">INDEX(Table_Rooms[N],MATCH(C2,Table_Rooms[ROOM_ID],0))</f>
         <v>-1</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="66">
+      <c r="G2" s="50"/>
+      <c r="H2" s="62">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="61">
+      <c r="A3" s="57">
         <v>1.0</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="D3" s="62">
+      <c r="B3" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="58">
         <f t="array" ref="D3">INDEX(Table_Rooms[N],MATCH(C3,Table_Rooms[ROOM_ID],0))</f>
         <v>-1</v>
       </c>
-      <c r="E3" s="62" t="s">
-        <v>254</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3" s="67">
+      <c r="E3" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" s="63">
         <v>0.0</v>
       </c>
     </row>
@@ -7090,38 +7176,38 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>256</v>
+      <c r="B1" s="48" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="53">
+      <c r="A2" s="49">
         <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)-1</f>
         <v>-1</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>253</v>
+      <c r="B2" s="62" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="57">
+      <c r="A3" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>257</v>
+      <c r="B3" s="64" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="69">
+      <c r="A4" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B4" s="70" t="s">
-        <v>258</v>
+      <c r="B4" s="66" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -7147,29 +7233,29 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>259</v>
+      <c r="B1" s="48" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48">
+      <c r="A2" s="44">
         <f t="shared" ref="A2:A3" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>260</v>
+      <c r="B2" s="44" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="48">
+      <c r="A3" s="44">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>261</v>
+      <c r="B3" s="44" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -7201,155 +7287,188 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>262</v>
+      <c r="B1" s="48" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="53">
+      <c r="A2" s="49">
         <v>0.0</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>263</v>
+      <c r="B2" s="62" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="57">
+      <c r="A3" s="53">
         <v>1.0</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>220</v>
+      <c r="B3" s="64" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="53">
+      <c r="A4" s="49">
         <v>2.0</v>
       </c>
-      <c r="B4" s="66" t="s">
-        <v>227</v>
+      <c r="B4" s="62" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="61">
+      <c r="A5" s="57">
         <v>3.0</v>
       </c>
-      <c r="B5" s="67" t="s">
-        <v>264</v>
+      <c r="B5" s="63" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>265</v>
+      <c r="B7" s="48" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="53">
+      <c r="A8" s="49">
         <v>0.0</v>
       </c>
-      <c r="B8" s="66" t="s">
-        <v>266</v>
+      <c r="B8" s="62" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="57">
+      <c r="A9" s="53">
         <v>1.0</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>267</v>
+      <c r="B9" s="64" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="53">
+      <c r="A10" s="49">
         <v>2.0</v>
       </c>
-      <c r="B10" s="66" t="s">
-        <v>240</v>
+      <c r="B10" s="62" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="57">
+      <c r="A11" s="53">
         <v>3.0</v>
       </c>
-      <c r="B11" s="68" t="s">
-        <v>241</v>
+      <c r="B11" s="64" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="53">
+      <c r="A12" s="49">
         <v>4.0</v>
       </c>
-      <c r="B12" s="66" t="s">
-        <v>244</v>
+      <c r="B12" s="62" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="61">
+      <c r="A13" s="57">
         <v>5.0</v>
       </c>
-      <c r="B13" s="67" t="s">
-        <v>243</v>
+      <c r="B13" s="63" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="52" t="s">
-        <v>268</v>
+      <c r="B15" s="48" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="53">
+      <c r="A16" s="49">
         <v>0.0</v>
       </c>
-      <c r="B16" s="66" t="s">
-        <v>221</v>
+      <c r="B16" s="62" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="57">
+      <c r="A17" s="53">
         <v>1.0</v>
       </c>
-      <c r="B17" s="68" t="s">
-        <v>225</v>
+      <c r="B17" s="64" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="53">
+      <c r="A18" s="49">
         <v>2.0</v>
       </c>
-      <c r="B18" s="66" t="s">
-        <v>229</v>
+      <c r="B18" s="62" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="57">
+      <c r="A19" s="53">
         <v>3.0</v>
       </c>
-      <c r="B19" s="68" t="s">
-        <v>269</v>
+      <c r="B19" s="64" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="69">
+      <c r="A20" s="65">
         <v>4.0</v>
       </c>
-      <c r="B20" s="70" t="s">
-        <v>270</v>
+      <c r="B20" s="66" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="49">
+        <v>0.0</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="53">
+        <v>1.0</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="65">
+        <v>2.0</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-  <tableParts count="3">
-    <tablePart r:id="rId5"/>
+  <tableParts count="4">
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7379,75 +7498,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>276</v>
+      <c r="B1" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="53">
+      <c r="A2" s="49">
         <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="G2" s="72"/>
+      <c r="B2" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3">
-      <c r="A3" s="57">
+      <c r="A3" s="53">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>224</v>
-      </c>
-      <c r="E3" s="59" t="s">
+      <c r="B3" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="60" t="s">
-        <v>231</v>
+      <c r="E3" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="56" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="69">
+      <c r="A4" s="65">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="73" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="G4" s="75"/>
+      <c r="B4" s="69" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="G4" s="71"/>
     </row>
   </sheetData>
   <dataValidations>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -20,7 +20,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataChecksum="NQY0q4nAuQW+tyNRdgL2oNSuG2ILqHEPgvkCiU5W2Lw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataChecksum="WtgYArt80jdk3iwt6u2KNbEVbrbmYhjnqhBUXFxjKn4="/>
     </ext>
   </extLst>
 </workbook>
@@ -70,8 +70,30 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="D7">
+      <text>
+        <t xml:space="preserve">Event triggered after all phrases
+======</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E7">
+      <text>
+        <t xml:space="preserve">New dialog shown after all phrases have been said
+======</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="348">
   <si>
     <t>N</t>
   </si>
@@ -802,9 +824,15 @@
     <t>Dialog_OK</t>
   </si>
   <si>
+    <t>Phrase_OK</t>
+  </si>
+  <si>
     <t>Dialog_NOK_Event</t>
   </si>
   <si>
+    <t>Phrase_NOK_Event</t>
+  </si>
+  <si>
     <t>ITEM_USE_ANIMATION_TAKE</t>
   </si>
   <si>
@@ -814,13 +842,19 @@
     <t>DIALOG_NONE</t>
   </si>
   <si>
+    <t>PHRASE_NONE</t>
+  </si>
+  <si>
     <t>ITEM_USE_ANIMATION_POUR</t>
   </si>
   <si>
     <t>ITEM_USE_ANIMATION_STARE_SCREEN</t>
   </si>
   <si>
-    <t>DIALOG_NONSENSE</t>
+    <t>DIALOG_SIMPLE</t>
+  </si>
+  <si>
+    <t>PHRASE_NONSENSE</t>
   </si>
   <si>
     <t>COND_LAST</t>
@@ -832,7 +866,97 @@
     <t>Room_used</t>
   </si>
   <si>
-    <t>Room_Code</t>
+    <t>Options_Count</t>
+  </si>
+  <si>
+    <t>Option1</t>
+  </si>
+  <si>
+    <t>Option2</t>
+  </si>
+  <si>
+    <t>Option3</t>
+  </si>
+  <si>
+    <t>Option4</t>
+  </si>
+  <si>
+    <t>Option5</t>
+  </si>
+  <si>
+    <t>Option6</t>
+  </si>
+  <si>
+    <t>Option7</t>
+  </si>
+  <si>
+    <t>Option8</t>
+  </si>
+  <si>
+    <t>ROOM_NONE</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_NONE</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_SIMPLE</t>
+  </si>
+  <si>
+    <t>DIALOG_FOUNTAIN</t>
+  </si>
+  <si>
+    <t>ROOM_FIRST</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_1</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_2</t>
+  </si>
+  <si>
+    <t>DIALOG_LAST</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ID</t>
+  </si>
+  <si>
+    <t>EventCondition</t>
+  </si>
+  <si>
+    <t>EventTriggered</t>
+  </si>
+  <si>
+    <t>DialogTriggered</t>
+  </si>
+  <si>
+    <t>PhraseCount</t>
+  </si>
+  <si>
+    <t>Phrase1</t>
+  </si>
+  <si>
+    <t>Phrase2</t>
+  </si>
+  <si>
+    <t>Phrase3</t>
+  </si>
+  <si>
+    <t>Phrase4</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN1_1</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN1_2</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN2_1</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_LAST</t>
+  </si>
+  <si>
+    <t>PHRASE_ID</t>
   </si>
   <si>
     <t>Sender</t>
@@ -847,9 +971,6 @@
     <t>Sound</t>
   </si>
   <si>
-    <t>ROOM_NONE</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -859,10 +980,25 @@
     <t>¡Eso no tiene sentido!</t>
   </si>
   <si>
+    <t>Are you the fountain?</t>
+  </si>
+  <si>
+    <t>¿Eres tú la fuente?</t>
+  </si>
+  <si>
+    <t>Sure?</t>
+  </si>
+  <si>
+    <t>¿De verdad?</t>
+  </si>
+  <si>
+    <t>Why are you red?</t>
+  </si>
+  <si>
+    <t>¿Por qué estás roja?</t>
+  </si>
+  <si>
     <t>ROOM_ID</t>
-  </si>
-  <si>
-    <t>ROOM_FIRST</t>
   </si>
   <si>
     <t>ROOM_LAST</t>
@@ -1265,7 +1401,7 @@
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
@@ -1279,7 +1415,7 @@
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF284E3F"/>
       </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
@@ -1346,6 +1482,20 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB7E1CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB7E1CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB7E1CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF57BB8A"/>
       </left>
       <right style="thin">
@@ -1374,20 +1524,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB7E1CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB7E1CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB7E1CD"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF57BB8A"/>
       </left>
       <right style="thin">
@@ -1404,7 +1540,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="97">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1588,37 +1724,85 @@
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1701,7 +1885,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="14">
+  <tableStyles count="16">
     <tableStyle count="3" pivot="0" name="VARMAP-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -1723,6 +1907,16 @@
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="DIALOGS-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="DIALOGS-style 2">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="DIALOGS-style 3">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -1850,7 +2044,27 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A15:B20" displayName="Table_Interaction" name="Table_Interaction" id="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B5" displayName="Table_Characters" name="Table_Characters" id="10">
+  <tableColumns count="2">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="Type" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="CHARACTERS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:B13" displayName="Table_ItemUse_Animation" name="Table_ItemUse_Animation" id="11">
+  <tableColumns count="2">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="ANIMATION_ID" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="CHARACTERS-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A15:B20" displayName="Table_Interaction" name="Table_Interaction" id="12">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="INTERACTION_ID" id="2"/>
@@ -1859,8 +2073,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A22:B25" displayName="Table_Characters_Name" name="Table_Characters_Name" id="11">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A22:B25" displayName="Table_Characters_Name" name="Table_Characters_Name" id="13">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="CharName" id="2"/>
@@ -1869,8 +2083,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Events" name="Table_Events" id="12">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Events" name="Table_Events" id="14">
   <tableColumns count="7">
     <tableColumn name="N" id="1"/>
     <tableColumn name="EVENT_ID" id="2"/>
@@ -1884,8 +2098,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A2" displayName="Table_Constants" name="Table_Constants" id="13">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A2" displayName="Table_Constants" name="Table_Constants" id="15">
   <tableColumns count="1">
     <tableColumn name="NUM_PLAYERS" id="1"/>
   </tableColumns>
@@ -1893,8 +2107,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D14" displayName="Table_TODO" name="Table_TODO" id="14">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D14" displayName="Table_TODO" name="Table_TODO" id="16">
   <tableColumns count="4">
     <tableColumn name="TASK" id="1"/>
     <tableColumn name="PRIO" id="2"/>
@@ -1955,38 +2169,77 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G5" displayName="Table_Item_Conditions" name="Table_Item_Conditions" id="4">
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I5" displayName="Table_Item_Conditions" name="Table_Item_Conditions" id="4">
+  <tableColumns count="9">
     <tableColumn name="N" id="1"/>
     <tableColumn name="ITEM_COND_ID" id="2"/>
     <tableColumn name="Event" id="3"/>
     <tableColumn name="Animation_OK" id="4"/>
     <tableColumn name="Animation_NOK_Event" id="5"/>
     <tableColumn name="Dialog_OK" id="6"/>
-    <tableColumn name="Dialog_NOK_Event" id="7"/>
+    <tableColumn name="Phrase_OK" id="7"/>
+    <tableColumn name="Dialog_NOK_Event" id="8"/>
+    <tableColumn name="Phrase_NOK_Event" id="9"/>
   </tableColumns>
   <tableStyleInfo name="ITEMS_CONDS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H3" displayName="Table_Dialogs" name="Table_Dialogs" id="5">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L5" displayName="Table_Dialogs" name="Table_Dialogs" id="5">
+  <tableColumns count="12">
     <tableColumn name="N" id="1"/>
     <tableColumn name="DIALOG_ID" id="2"/>
     <tableColumn name="Room_used" id="3"/>
-    <tableColumn name="Room_Code" id="4"/>
-    <tableColumn name="Sender" id="5"/>
-    <tableColumn name="Text_English" id="6"/>
-    <tableColumn name="Text_Spanish" id="7"/>
-    <tableColumn name="Sound" id="8"/>
+    <tableColumn name="Options_Count" id="4"/>
+    <tableColumn name="Option1" id="5"/>
+    <tableColumn name="Option2" id="6"/>
+    <tableColumn name="Option3" id="7"/>
+    <tableColumn name="Option4" id="8"/>
+    <tableColumn name="Option5" id="9"/>
+    <tableColumn name="Option6" id="10"/>
+    <tableColumn name="Option7" id="11"/>
+    <tableColumn name="Option8" id="12"/>
   </tableColumns>
   <tableStyleInfo name="DIALOGS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B4" displayName="Table_Rooms" name="Table_Rooms" id="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:J12" displayName="Table_Dialog_Options" name="Table_Dialog_Options" id="6">
+  <tableColumns count="10">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="DIALOG_OPTION_ID" id="2"/>
+    <tableColumn name="EventCondition" id="3"/>
+    <tableColumn name="EventTriggered" id="4"/>
+    <tableColumn name="DialogTriggered" id="5"/>
+    <tableColumn name="PhraseCount" id="6"/>
+    <tableColumn name="Phrase1" id="7"/>
+    <tableColumn name="Phrase2" id="8"/>
+    <tableColumn name="Phrase3" id="9"/>
+    <tableColumn name="Phrase4" id="10"/>
+  </tableColumns>
+  <tableStyleInfo name="DIALOGS-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A14:G19" displayName="Table_Phrases" name="Table_Phrases" id="7">
+  <tableColumns count="7">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="PHRASE_ID" id="2"/>
+    <tableColumn name="Room_used" id="3"/>
+    <tableColumn name="Sender" id="4"/>
+    <tableColumn name="Text_English" id="5"/>
+    <tableColumn name="Text_Spanish" id="6"/>
+    <tableColumn name="Sound" id="7"/>
+  </tableColumns>
+  <tableStyleInfo name="DIALOGS-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B4" displayName="Table_Rooms" name="Table_Rooms" id="8">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="ROOM_ID" id="2"/>
@@ -1995,33 +2248,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B3" displayName="Table_NPCs" name="Table_NPCs" id="7">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B3" displayName="Table_NPCs" name="Table_NPCs" id="9">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="NPC_ID" id="2"/>
   </tableColumns>
   <tableStyleInfo name="NPCs-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B5" displayName="Table_Characters" name="Table_Characters" id="8">
-  <tableColumns count="2">
-    <tableColumn name="N" id="1"/>
-    <tableColumn name="Type" id="2"/>
-  </tableColumns>
-  <tableStyleInfo name="CHARACTERS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:B13" displayName="Table_ItemUse_Animation" name="Table_ItemUse_Animation" id="9">
-  <tableColumns count="2">
-    <tableColumn name="N" id="1"/>
-    <tableColumn name="ANIMATION_ID" id="2"/>
-  </tableColumns>
-  <tableStyleInfo name="CHARACTERS-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -4071,12 +4304,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="72" t="s">
-        <v>289</v>
+      <c r="A1" s="88" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="73">
+      <c r="A2" s="89">
         <v>3.0</v>
       </c>
     </row>
@@ -4107,10 +4340,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
@@ -4118,12 +4351,12 @@
         <f t="shared" ref="A2:A32" si="1">ROW()-ROW($G$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="74" t="str">
+      <c r="B2" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A2,0)</f>
         <v>ITEM_POTION</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
@@ -4131,12 +4364,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="74" t="str">
+      <c r="B3" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A3,0)</f>
         <v>ITEM_POTION_BLUE</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4">
@@ -4144,12 +4377,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="74" t="str">
+      <c r="B4" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A4,0)</f>
         <v>ITEM_FOUNTAIN</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
@@ -4157,12 +4390,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="74" t="str">
+      <c r="B5" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A5,0)</f>
         <v>ITEM_LAST</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6">
@@ -4170,297 +4403,297 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="74" t="str">
+      <c r="B6" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A6,0)</f>
         <v/>
       </c>
-      <c r="C6" s="74"/>
+      <c r="C6" s="90"/>
     </row>
     <row r="7">
       <c r="A7" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="74" t="str">
+      <c r="B7" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A7,0)</f>
         <v/>
       </c>
-      <c r="C7" s="74"/>
+      <c r="C7" s="90"/>
     </row>
     <row r="8">
       <c r="A8" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="74" t="str">
+      <c r="B8" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A8,0)</f>
         <v/>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="90"/>
     </row>
     <row r="9">
       <c r="A9" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="74" t="str">
+      <c r="B9" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A9,0)</f>
         <v/>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="90"/>
     </row>
     <row r="10">
       <c r="A10" s="27">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="74" t="str">
+      <c r="B10" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A10,0)</f>
         <v/>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="90"/>
     </row>
     <row r="11">
       <c r="A11" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="74" t="str">
+      <c r="B11" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A11,0)</f>
         <v/>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="90"/>
     </row>
     <row r="12">
       <c r="A12" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="74" t="str">
+      <c r="B12" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A12,0)</f>
         <v/>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="90"/>
     </row>
     <row r="13">
       <c r="A13" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="74" t="str">
+      <c r="B13" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A13,0)</f>
         <v/>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="90"/>
     </row>
     <row r="14">
       <c r="A14" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="74" t="str">
+      <c r="B14" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A14,0)</f>
         <v/>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="90"/>
     </row>
     <row r="15">
       <c r="A15" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="74" t="str">
+      <c r="B15" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A15,0)</f>
         <v/>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="90"/>
     </row>
     <row r="16">
       <c r="A16" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="74" t="str">
+      <c r="B16" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A16,0)</f>
         <v/>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="90"/>
     </row>
     <row r="17">
       <c r="A17" s="27">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="74" t="str">
+      <c r="B17" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A17,0)</f>
         <v/>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="90"/>
     </row>
     <row r="18">
       <c r="A18" s="27">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="74" t="str">
+      <c r="B18" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A18,0)</f>
         <v/>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="90"/>
     </row>
     <row r="19">
       <c r="A19" s="27">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="74" t="str">
+      <c r="B19" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A19,0)</f>
         <v/>
       </c>
-      <c r="C19" s="74"/>
+      <c r="C19" s="90"/>
     </row>
     <row r="20">
       <c r="A20" s="27">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="74" t="str">
+      <c r="B20" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A20,0)</f>
         <v/>
       </c>
-      <c r="C20" s="74"/>
+      <c r="C20" s="90"/>
     </row>
     <row r="21">
       <c r="A21" s="27">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="74" t="str">
+      <c r="B21" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A21,0)</f>
         <v/>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="90"/>
     </row>
     <row r="22">
       <c r="A22" s="27">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="74" t="str">
+      <c r="B22" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A22,0)</f>
         <v/>
       </c>
-      <c r="C22" s="74"/>
+      <c r="C22" s="90"/>
     </row>
     <row r="23">
       <c r="A23" s="27">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="74" t="str">
+      <c r="B23" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A23,0)</f>
         <v/>
       </c>
-      <c r="C23" s="74"/>
+      <c r="C23" s="90"/>
     </row>
     <row r="24">
       <c r="A24" s="27">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="74" t="str">
+      <c r="B24" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A24,0)</f>
         <v/>
       </c>
-      <c r="C24" s="74"/>
+      <c r="C24" s="90"/>
     </row>
     <row r="25">
       <c r="A25" s="27">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="74" t="str">
+      <c r="B25" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A25,0)</f>
         <v/>
       </c>
-      <c r="C25" s="74"/>
+      <c r="C25" s="90"/>
     </row>
     <row r="26">
       <c r="A26" s="27">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="74" t="str">
+      <c r="B26" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A26,0)</f>
         <v/>
       </c>
-      <c r="C26" s="74"/>
+      <c r="C26" s="90"/>
     </row>
     <row r="27">
       <c r="A27" s="27">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="74" t="str">
+      <c r="B27" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A27,0)</f>
         <v/>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="90"/>
     </row>
     <row r="28">
       <c r="A28" s="27">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="74" t="str">
+      <c r="B28" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A28,0)</f>
         <v/>
       </c>
-      <c r="C28" s="74"/>
+      <c r="C28" s="90"/>
     </row>
     <row r="29">
       <c r="A29" s="27">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="74" t="str">
+      <c r="B29" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A29,0)</f>
         <v/>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="90"/>
     </row>
     <row r="30">
       <c r="A30" s="27">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="74" t="str">
+      <c r="B30" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A30,0)</f>
         <v/>
       </c>
-      <c r="C30" s="74"/>
+      <c r="C30" s="90"/>
     </row>
     <row r="31">
       <c r="A31" s="27">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="74" t="str">
+      <c r="B31" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A31,0)</f>
         <v/>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="90"/>
     </row>
     <row r="32">
       <c r="A32" s="27">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="74" t="str">
+      <c r="B32" s="90" t="str">
         <f>OFFSET(ITEMS!$B$3,A32,0)</f>
         <v/>
       </c>
-      <c r="C32" s="74"/>
+      <c r="C32" s="90"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4493,197 +4726,197 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="40" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>296</v>
+        <v>333</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="49" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" s="75">
+        <v>335</v>
+      </c>
+      <c r="B2" s="91">
         <v>1.0</v>
       </c>
       <c r="C2" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="62" t="b">
+      <c r="D2" s="80" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="B3" s="75">
+        <v>336</v>
+      </c>
+      <c r="B3" s="91">
         <v>1.0</v>
       </c>
       <c r="C3" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="64" t="b">
+      <c r="D3" s="81" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="49" t="s">
-        <v>299</v>
-      </c>
-      <c r="B4" s="76">
+        <v>337</v>
+      </c>
+      <c r="B4" s="92">
         <v>3.0</v>
       </c>
       <c r="C4" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="62" t="b">
+      <c r="D4" s="80" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="53" t="s">
-        <v>300</v>
-      </c>
-      <c r="B5" s="75">
+      <c r="A5" s="93" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="91">
         <v>1.0</v>
       </c>
       <c r="C5" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="64" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="81" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="49" t="s">
-        <v>301</v>
-      </c>
-      <c r="B6" s="76">
+        <v>339</v>
+      </c>
+      <c r="B6" s="92">
         <v>3.0</v>
       </c>
       <c r="C6" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="62" t="b">
+      <c r="D6" s="80" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="53" t="s">
-        <v>302</v>
-      </c>
-      <c r="B7" s="76">
+        <v>340</v>
+      </c>
+      <c r="B7" s="92">
         <v>3.0</v>
       </c>
       <c r="C7" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="64" t="b">
+      <c r="D7" s="81" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="49" t="s">
-        <v>303</v>
-      </c>
-      <c r="B8" s="77">
+      <c r="A8" s="93" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" s="94">
         <v>5.0</v>
       </c>
       <c r="C8" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="62" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="80" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="B9" s="78">
+        <v>342</v>
+      </c>
+      <c r="B9" s="95">
         <v>4.0</v>
       </c>
       <c r="C9" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="64" t="b">
+      <c r="D9" s="81" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="49" t="s">
-        <v>305</v>
-      </c>
-      <c r="B10" s="78">
+        <v>343</v>
+      </c>
+      <c r="B10" s="95">
         <v>4.0</v>
       </c>
       <c r="C10" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="62" t="b">
+      <c r="D10" s="80" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="B11" s="75">
+        <v>344</v>
+      </c>
+      <c r="B11" s="91">
         <v>1.0</v>
       </c>
       <c r="C11" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="64" t="b">
+      <c r="D11" s="81" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="79" t="s">
-        <v>307</v>
-      </c>
-      <c r="B12" s="78">
+      <c r="A12" s="93" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="95">
         <v>4.0</v>
       </c>
       <c r="C12" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D12" s="62" t="b">
+      <c r="D12" s="80" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="79" t="s">
-        <v>308</v>
-      </c>
-      <c r="B13" s="75">
+      <c r="A13" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" s="91">
         <v>1.0</v>
       </c>
       <c r="C13" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="D13" s="64" t="b">
+      <c r="D13" s="81" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="B14" s="80">
+      <c r="A14" s="74" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" s="96">
         <v>5.0</v>
       </c>
-      <c r="C14" s="69" t="b">
+      <c r="C14" s="75" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="66" t="b">
+      <c r="D14" s="82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6917,7 +7150,8 @@
     <col customWidth="1" min="4" max="4" width="44.57"/>
     <col customWidth="1" min="5" max="5" width="38.86"/>
     <col customWidth="1" min="6" max="6" width="25.86"/>
-    <col customWidth="1" min="7" max="7" width="27.14"/>
+    <col customWidth="1" min="7" max="8" width="27.14"/>
+    <col customWidth="1" min="9" max="9" width="22.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6939,8 +7173,14 @@
       <c r="F1" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="42" t="s">
         <v>243</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="2">
@@ -6954,16 +7194,22 @@
         <v>227</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>246</v>
+        <v>248</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="3">
@@ -6977,16 +7223,22 @@
         <v>227</v>
       </c>
       <c r="D3" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="55" t="s">
-        <v>245</v>
-      </c>
       <c r="F3" s="55" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>246</v>
+        <v>248</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="4">
@@ -7000,16 +7252,22 @@
         <v>227</v>
       </c>
       <c r="D4" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="H4" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="F4" s="51" t="s">
+      <c r="I4" s="52" t="s">
         <v>249</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="5">
@@ -7017,30 +7275,45 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C5" s="59" t="s">
         <v>227</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>246</v>
+        <v>248</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="G2:G5">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="I2:I5">
+      <formula1>Table_Phrases[PHRASE_ID]</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F2:F5">
+      <formula1>#REF!</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C2:C5">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:G5">
+    <dataValidation type="list" allowBlank="1" sqref="H2:H5">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="D2:E5">
@@ -7068,10 +7341,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.57"/>
-    <col customWidth="1" min="3" max="3" width="22.43"/>
-    <col customWidth="1" min="4" max="6" width="32.14"/>
-    <col customWidth="1" min="7" max="7" width="21.0"/>
+    <col customWidth="1" min="2" max="2" width="34.86"/>
+    <col customWidth="1" min="3" max="3" width="30.0"/>
+    <col customWidth="1" min="4" max="4" width="32.14"/>
+    <col customWidth="1" min="5" max="6" width="40.57"/>
+    <col customWidth="1" min="7" max="8" width="33.86"/>
+    <col customWidth="1" min="9" max="13" width="32.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7079,82 +7354,572 @@
         <v>0</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="G1" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="D1" s="61" t="s">
         <v>257</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="K1" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="49">
+        <f>ROW()-ROW(Table_Dialogs[N])</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="62">
+        <f t="shared" ref="D2:D5" si="1">COUNTIFS(E2:L2,"&lt;&gt;DIALOG_OPTION_NONE",E2:L2,"&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="I2" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="K2" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="L2" s="64" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="53">
+        <f>ROW()-ROW(Table_Dialogs[N])</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="65">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>267</v>
+      </c>
+      <c r="L3" s="67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="49">
+        <f>ROW()-ROW(Table_Dialogs[N])</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="68">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="L4" s="64" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="57">
+        <f>ROW()-ROW(Table_Dialogs[N])</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="K5" s="70" t="s">
+        <v>267</v>
+      </c>
+      <c r="L5" s="71" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="49">
+        <f>ROW()-ROW(Table_Dialog_Options[N])</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="68">
+        <f t="shared" ref="F8:F12" si="2">COUNTIFS(G8:J8,"&lt;&gt;PHRASE_NONE",G8:J8,"&lt;&gt;")</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="53">
+        <f>ROW()-ROW(Table_Dialog_Options[N])</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="49">
+        <f>ROW()-ROW(Table_Dialog_Options[N])</f>
+        <v>2</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="73">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="53">
+        <f>ROW()-ROW(Table_Dialog_Options[N])</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="72">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="74">
+        <f>ROW()-ROW(Table_Dialog_Options[N])</f>
+        <v>4</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="H12" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="I12" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="J12" s="78" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>290</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="49">
+        <f>ROW()-ROW(Table_Phrases[N])</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="80">
         <v>0.0</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" s="61">
-        <f t="array" ref="D2">INDEX(Table_Rooms[N],MATCH(C2,Table_Rooms[ROOM_ID],0))</f>
-        <v>-1</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="62">
+    </row>
+    <row r="16">
+      <c r="A16" s="53">
+        <f>ROW()-ROW(Table_Phrases[N])</f>
+        <v>1</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" s="81">
         <v>0.0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="57">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="58">
-        <f t="array" ref="D3">INDEX(Table_Rooms[N],MATCH(C3,Table_Rooms[ROOM_ID],0))</f>
-        <v>-1</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="H3" s="63">
+    <row r="17">
+      <c r="A17" s="49">
+        <f>ROW()-ROW(Table_Phrases[N])</f>
+        <v>2</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="G17" s="80">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="53">
+        <f>ROW()-ROW(Table_Phrases[N])</f>
+        <v>3</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="G18" s="81">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="74">
+        <f>ROW()-ROW(Table_Phrases[N])</f>
+        <v>4</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="G19" s="82">
         <v>0.0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C3">
+    <dataValidation type="list" allowBlank="1" sqref="G8:G12">
       <formula1>#REF!</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="H8:J12">
+      <formula1>Table_Phrases[PHRASE_ID]</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E2:E5">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D8:D12">
+      <formula1>Table_Events[EVENT_ID]</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C8:C12">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D2:D5 F8:F12">
+      <formula1>AND(ISNUMBER(D2),(NOT(OR(NOT(ISERROR(DATEVALUE(D2))), AND(ISNUMBER(D2), LEFT(CELL("format", D2))="D")))))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C15:C19">
+      <formula1>Table_Rooms[ROOM_ID]</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F2:L5">
+      <formula1>Table_Dialog_Options[DIALOG_OPTION_ID]</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C2:C5">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E8:E12">
+      <formula1>Table_Dialogs[DIALOG_ID]</formula1>
+    </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7179,8 +7944,8 @@
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>262</v>
+      <c r="B1" s="79" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="2">
@@ -7188,8 +7953,8 @@
         <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)-1</f>
         <v>-1</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>258</v>
+      <c r="B2" s="80" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="3">
@@ -7197,17 +7962,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>263</v>
+      <c r="B3" s="81" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="65">
+      <c r="A4" s="74">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B4" s="66" t="s">
-        <v>264</v>
+      <c r="B4" s="82" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -7236,8 +8001,8 @@
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>265</v>
+      <c r="B1" s="79" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="2">
@@ -7246,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3">
@@ -7255,7 +8020,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -7290,23 +8055,23 @@
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>268</v>
+      <c r="B1" s="79" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="49">
         <v>0.0</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>269</v>
+      <c r="B2" s="80" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="53">
         <v>1.0</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="81" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7314,7 +8079,7 @@
       <c r="A4" s="49">
         <v>2.0</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="80" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7322,79 +8087,79 @@
       <c r="A5" s="57">
         <v>3.0</v>
       </c>
-      <c r="B5" s="63" t="s">
-        <v>270</v>
+      <c r="B5" s="83" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>271</v>
+      <c r="B7" s="79" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="49">
         <v>0.0</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>272</v>
+      <c r="B8" s="80" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="53">
         <v>1.0</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>273</v>
+      <c r="B9" s="81" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="49">
         <v>2.0</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>244</v>
+      <c r="B10" s="80" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="53">
         <v>3.0</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>245</v>
+      <c r="B11" s="81" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="49">
         <v>4.0</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>248</v>
+      <c r="B12" s="80" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="57">
         <v>5.0</v>
       </c>
-      <c r="B13" s="63" t="s">
-        <v>247</v>
+      <c r="B13" s="83" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="48" t="s">
-        <v>274</v>
+      <c r="B15" s="79" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="49">
         <v>0.0</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="80" t="s">
         <v>225</v>
       </c>
     </row>
@@ -7402,7 +8167,7 @@
       <c r="A17" s="53">
         <v>1.0</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="81" t="s">
         <v>229</v>
       </c>
     </row>
@@ -7410,7 +8175,7 @@
       <c r="A18" s="49">
         <v>2.0</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="80" t="s">
         <v>233</v>
       </c>
     </row>
@@ -7418,48 +8183,48 @@
       <c r="A19" s="53">
         <v>3.0</v>
       </c>
-      <c r="B19" s="64" t="s">
-        <v>275</v>
+      <c r="B19" s="81" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="65">
+      <c r="A20" s="74">
         <v>4.0</v>
       </c>
-      <c r="B20" s="66" t="s">
-        <v>276</v>
+      <c r="B20" s="82" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="48" t="s">
-        <v>277</v>
+      <c r="B22" s="79" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="49">
         <v>0.0</v>
       </c>
-      <c r="B23" s="62" t="s">
-        <v>278</v>
+      <c r="B23" s="80" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="53">
         <v>1.0</v>
       </c>
-      <c r="B24" s="64" t="s">
-        <v>279</v>
+      <c r="B24" s="81" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="65">
+      <c r="A25" s="74">
         <v>2.0</v>
       </c>
-      <c r="B25" s="66" t="s">
-        <v>280</v>
+      <c r="B25" s="82" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -7502,22 +8267,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>286</v>
+        <v>323</v>
+      </c>
+      <c r="G1" s="79" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="2">
@@ -7528,10 +8293,10 @@
       <c r="B2" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="G2" s="68"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="G2" s="85"/>
     </row>
     <row r="3">
       <c r="A3" s="53">
@@ -7542,7 +8307,7 @@
         <v>235</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>228</v>
@@ -7556,17 +8321,17 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="65">
+      <c r="A4" s="74">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="69" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="75" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="G4" s="87"/>
     </row>
   </sheetData>
   <dataValidations>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -8,19 +8,20 @@
     <sheet state="visible" name="ITEMS" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="ITEMS_CONDS" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="DIALOGS" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="ROOMS" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="NPCs" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="CHARACTERS" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="EVENTS" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="CONSTANTS" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="_ITEM_AVAIL" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="_TODO" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="PHRASES" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="ROOMS" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="NPCs" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="CHARACTERS" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="EVENTS" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="CONSTANTS" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="_ITEM_AVAIL" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="_TODO" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataChecksum="WtgYArt80jdk3iwt6u2KNbEVbrbmYhjnqhBUXFxjKn4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataChecksum="9ZPMbab+ehRN73TcaYua9Ff18EgWyemFU7YZJ6AEt9c="/>
     </ext>
   </extLst>
 </workbook>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="351">
   <si>
     <t>N</t>
   </si>
@@ -863,9 +864,6 @@
     <t>DIALOG_ID</t>
   </si>
   <si>
-    <t>Room_used</t>
-  </si>
-  <si>
     <t>Options_Count</t>
   </si>
   <si>
@@ -893,93 +891,102 @@
     <t>Option8</t>
   </si>
   <si>
+    <t>DIALOG_OPTION_NONE</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_SIMPLE</t>
+  </si>
+  <si>
+    <t>DIALOG_FOUNTAIN</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_1</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_2</t>
+  </si>
+  <si>
+    <t>DIALOG_LAST</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ID</t>
+  </si>
+  <si>
+    <t>EventCondition</t>
+  </si>
+  <si>
+    <t>EventTriggered</t>
+  </si>
+  <si>
+    <t>DialogTriggered</t>
+  </si>
+  <si>
+    <t>PhraseCount</t>
+  </si>
+  <si>
+    <t>Phrase1</t>
+  </si>
+  <si>
+    <t>Phrase2</t>
+  </si>
+  <si>
+    <t>Phrase3</t>
+  </si>
+  <si>
+    <t>Phrase4</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN1_1</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN1_2</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN2_1</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_LAST</t>
+  </si>
+  <si>
+    <t>PHRASE_ID</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>CharAnimation</t>
+  </si>
+  <si>
+    <t>Text_English</t>
+  </si>
+  <si>
+    <t>Text_Spanish</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>ROOM_NONE</t>
   </si>
   <si>
-    <t>DIALOG_OPTION_NONE</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_SIMPLE</t>
-  </si>
-  <si>
-    <t>DIALOG_FOUNTAIN</t>
+    <t>DIALOG_ANIMATION_NONE</t>
+  </si>
+  <si>
+    <t>DIALOG_ANIMATION_TALK</t>
+  </si>
+  <si>
+    <t>That has no sense!</t>
+  </si>
+  <si>
+    <t>¡Eso no tiene sentido!</t>
   </si>
   <si>
     <t>ROOM_FIRST</t>
   </si>
   <si>
-    <t>DIALOG_OPTION_ASK_FOUNTAIN_1</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_ASK_FOUNTAIN_2</t>
-  </si>
-  <si>
-    <t>DIALOG_LAST</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_ID</t>
-  </si>
-  <si>
-    <t>EventCondition</t>
-  </si>
-  <si>
-    <t>EventTriggered</t>
-  </si>
-  <si>
-    <t>DialogTriggered</t>
-  </si>
-  <si>
-    <t>PhraseCount</t>
-  </si>
-  <si>
-    <t>Phrase1</t>
-  </si>
-  <si>
-    <t>Phrase2</t>
-  </si>
-  <si>
-    <t>Phrase3</t>
-  </si>
-  <si>
-    <t>Phrase4</t>
-  </si>
-  <si>
-    <t>PHRASE_ASK_FOUNTAIN1_1</t>
-  </si>
-  <si>
-    <t>PHRASE_ASK_FOUNTAIN1_2</t>
-  </si>
-  <si>
-    <t>PHRASE_ASK_FOUNTAIN2_1</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_LAST</t>
-  </si>
-  <si>
-    <t>PHRASE_ID</t>
-  </si>
-  <si>
-    <t>Sender</t>
-  </si>
-  <si>
-    <t>Text_English</t>
-  </si>
-  <si>
-    <t>Text_Spanish</t>
-  </si>
-  <si>
-    <t>Sound</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>That has no sense!</t>
-  </si>
-  <si>
-    <t>¡Eso no tiene sentido!</t>
-  </si>
-  <si>
     <t>Are you the fountain?</t>
   </si>
   <si>
@@ -1050,6 +1057,9 @@
   </si>
   <si>
     <t>Snake Character</t>
+  </si>
+  <si>
+    <t>DIALOG_ANIMATION_ID</t>
   </si>
   <si>
     <t>EVENT_ID</t>
@@ -1540,7 +1550,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1778,17 +1788,21 @@
     <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1885,7 +1899,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="16">
+  <tableStyles count="17">
     <tableStyle count="3" pivot="0" name="VARMAP-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -1916,7 +1930,7 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="DIALOGS-style 3">
+    <tableStyle count="3" pivot="0" name="PHRASES-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -1947,6 +1961,11 @@
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="CHARACTERS-style 4">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="CHARACTERS-style 5">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -1983,6 +2002,10 @@
 </file>
 
 <file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2084,7 +2107,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Events" name="Table_Events" id="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A27:B29" displayName="Table_Dialog_Animation" name="Table_Dialog_Animation" id="14">
+  <tableColumns count="2">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="DIALOG_ANIMATION_ID" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="CHARACTERS-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Events" name="Table_Events" id="15">
   <tableColumns count="7">
     <tableColumn name="N" id="1"/>
     <tableColumn name="EVENT_ID" id="2"/>
@@ -2098,8 +2131,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A2" displayName="Table_Constants" name="Table_Constants" id="15">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A2" displayName="Table_Constants" name="Table_Constants" id="16">
   <tableColumns count="1">
     <tableColumn name="NUM_PLAYERS" id="1"/>
   </tableColumns>
@@ -2107,8 +2140,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D14" displayName="Table_TODO" name="Table_TODO" id="16">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D14" displayName="Table_TODO" name="Table_TODO" id="17">
   <tableColumns count="4">
     <tableColumn name="TASK" id="1"/>
     <tableColumn name="PRIO" id="2"/>
@@ -2186,20 +2219,19 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L5" displayName="Table_Dialogs" name="Table_Dialogs" id="5">
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K5" displayName="Table_Dialogs" name="Table_Dialogs" id="5">
+  <tableColumns count="11">
     <tableColumn name="N" id="1"/>
     <tableColumn name="DIALOG_ID" id="2"/>
-    <tableColumn name="Room_used" id="3"/>
-    <tableColumn name="Options_Count" id="4"/>
-    <tableColumn name="Option1" id="5"/>
-    <tableColumn name="Option2" id="6"/>
-    <tableColumn name="Option3" id="7"/>
-    <tableColumn name="Option4" id="8"/>
-    <tableColumn name="Option5" id="9"/>
-    <tableColumn name="Option6" id="10"/>
-    <tableColumn name="Option7" id="11"/>
-    <tableColumn name="Option8" id="12"/>
+    <tableColumn name="Options_Count" id="3"/>
+    <tableColumn name="Option1" id="4"/>
+    <tableColumn name="Option2" id="5"/>
+    <tableColumn name="Option3" id="6"/>
+    <tableColumn name="Option4" id="7"/>
+    <tableColumn name="Option5" id="8"/>
+    <tableColumn name="Option6" id="9"/>
+    <tableColumn name="Option7" id="10"/>
+    <tableColumn name="Option8" id="11"/>
   </tableColumns>
   <tableStyleInfo name="DIALOGS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -2224,17 +2256,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A14:G19" displayName="Table_Phrases" name="Table_Phrases" id="7">
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H6" displayName="Table_Phrases" name="Table_Phrases" id="7">
+  <tableColumns count="8">
     <tableColumn name="N" id="1"/>
     <tableColumn name="PHRASE_ID" id="2"/>
-    <tableColumn name="Room_used" id="3"/>
-    <tableColumn name="Sender" id="4"/>
-    <tableColumn name="Text_English" id="5"/>
-    <tableColumn name="Text_Spanish" id="6"/>
-    <tableColumn name="Sound" id="7"/>
+    <tableColumn name="Sender" id="3"/>
+    <tableColumn name="Room" id="4"/>
+    <tableColumn name="Sound" id="5"/>
+    <tableColumn name="CharAnimation" id="6"/>
+    <tableColumn name="Text_English" id="7"/>
+    <tableColumn name="Text_Spanish" id="8"/>
   </tableColumns>
-  <tableStyleInfo name="DIALOGS-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="PHRASES-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -4289,6 +4322,117 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="25.71"/>
+    <col customWidth="1" min="3" max="3" width="30.29"/>
+    <col customWidth="1" min="4" max="5" width="28.86"/>
+    <col customWidth="1" min="6" max="6" width="32.43"/>
+    <col customWidth="1" min="7" max="7" width="43.0"/>
+    <col customWidth="1" min="8" max="8" width="15.29"/>
+    <col customWidth="1" min="10" max="10" width="18.57"/>
+    <col customWidth="1" min="11" max="11" width="21.71"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="84" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="49">
+        <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="G2" s="87"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="56" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="74">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="G4" s="89"/>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:E4 G2:G4">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C4">
+      <formula1>"TALK,ITEM_TAKE,ITEM_USE,WALK,EVENT,ALWAYS"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <tabColor rgb="FFB45F06"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -4304,12 +4448,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="88" t="s">
-        <v>327</v>
+      <c r="A1" s="90" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="89">
+      <c r="A2" s="91">
         <v>3.0</v>
       </c>
     </row>
@@ -4321,7 +4465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4340,10 +4484,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
@@ -4351,12 +4495,12 @@
         <f t="shared" ref="A2:A32" si="1">ROW()-ROW($G$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="90" t="str">
+      <c r="B2" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A2,0)</f>
         <v>ITEM_POTION</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3">
@@ -4364,12 +4508,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="90" t="str">
+      <c r="B3" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A3,0)</f>
         <v>ITEM_POTION_BLUE</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4">
@@ -4377,12 +4521,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="90" t="str">
+      <c r="B4" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A4,0)</f>
         <v>ITEM_FOUNTAIN</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5">
@@ -4390,12 +4534,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="90" t="str">
+      <c r="B5" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A5,0)</f>
         <v>ITEM_LAST</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6">
@@ -4403,297 +4547,297 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="90" t="str">
+      <c r="B6" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A6,0)</f>
         <v/>
       </c>
-      <c r="C6" s="90"/>
+      <c r="C6" s="92"/>
     </row>
     <row r="7">
       <c r="A7" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="90" t="str">
+      <c r="B7" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A7,0)</f>
         <v/>
       </c>
-      <c r="C7" s="90"/>
+      <c r="C7" s="92"/>
     </row>
     <row r="8">
       <c r="A8" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="90" t="str">
+      <c r="B8" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A8,0)</f>
         <v/>
       </c>
-      <c r="C8" s="90"/>
+      <c r="C8" s="92"/>
     </row>
     <row r="9">
       <c r="A9" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="90" t="str">
+      <c r="B9" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A9,0)</f>
         <v/>
       </c>
-      <c r="C9" s="90"/>
+      <c r="C9" s="92"/>
     </row>
     <row r="10">
       <c r="A10" s="27">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="90" t="str">
+      <c r="B10" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A10,0)</f>
         <v/>
       </c>
-      <c r="C10" s="90"/>
+      <c r="C10" s="92"/>
     </row>
     <row r="11">
       <c r="A11" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="90" t="str">
+      <c r="B11" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A11,0)</f>
         <v/>
       </c>
-      <c r="C11" s="90"/>
+      <c r="C11" s="92"/>
     </row>
     <row r="12">
       <c r="A12" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="90" t="str">
+      <c r="B12" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A12,0)</f>
         <v/>
       </c>
-      <c r="C12" s="90"/>
+      <c r="C12" s="92"/>
     </row>
     <row r="13">
       <c r="A13" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="90" t="str">
+      <c r="B13" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A13,0)</f>
         <v/>
       </c>
-      <c r="C13" s="90"/>
+      <c r="C13" s="92"/>
     </row>
     <row r="14">
       <c r="A14" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="90" t="str">
+      <c r="B14" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A14,0)</f>
         <v/>
       </c>
-      <c r="C14" s="90"/>
+      <c r="C14" s="92"/>
     </row>
     <row r="15">
       <c r="A15" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="90" t="str">
+      <c r="B15" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A15,0)</f>
         <v/>
       </c>
-      <c r="C15" s="90"/>
+      <c r="C15" s="92"/>
     </row>
     <row r="16">
       <c r="A16" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="90" t="str">
+      <c r="B16" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A16,0)</f>
         <v/>
       </c>
-      <c r="C16" s="90"/>
+      <c r="C16" s="92"/>
     </row>
     <row r="17">
       <c r="A17" s="27">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="90" t="str">
+      <c r="B17" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A17,0)</f>
         <v/>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="92"/>
     </row>
     <row r="18">
       <c r="A18" s="27">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="90" t="str">
+      <c r="B18" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A18,0)</f>
         <v/>
       </c>
-      <c r="C18" s="90"/>
+      <c r="C18" s="92"/>
     </row>
     <row r="19">
       <c r="A19" s="27">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="90" t="str">
+      <c r="B19" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A19,0)</f>
         <v/>
       </c>
-      <c r="C19" s="90"/>
+      <c r="C19" s="92"/>
     </row>
     <row r="20">
       <c r="A20" s="27">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="90" t="str">
+      <c r="B20" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A20,0)</f>
         <v/>
       </c>
-      <c r="C20" s="90"/>
+      <c r="C20" s="92"/>
     </row>
     <row r="21">
       <c r="A21" s="27">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="90" t="str">
+      <c r="B21" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A21,0)</f>
         <v/>
       </c>
-      <c r="C21" s="90"/>
+      <c r="C21" s="92"/>
     </row>
     <row r="22">
       <c r="A22" s="27">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="90" t="str">
+      <c r="B22" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A22,0)</f>
         <v/>
       </c>
-      <c r="C22" s="90"/>
+      <c r="C22" s="92"/>
     </row>
     <row r="23">
       <c r="A23" s="27">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="90" t="str">
+      <c r="B23" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A23,0)</f>
         <v/>
       </c>
-      <c r="C23" s="90"/>
+      <c r="C23" s="92"/>
     </row>
     <row r="24">
       <c r="A24" s="27">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="90" t="str">
+      <c r="B24" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A24,0)</f>
         <v/>
       </c>
-      <c r="C24" s="90"/>
+      <c r="C24" s="92"/>
     </row>
     <row r="25">
       <c r="A25" s="27">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="90" t="str">
+      <c r="B25" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A25,0)</f>
         <v/>
       </c>
-      <c r="C25" s="90"/>
+      <c r="C25" s="92"/>
     </row>
     <row r="26">
       <c r="A26" s="27">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="90" t="str">
+      <c r="B26" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A26,0)</f>
         <v/>
       </c>
-      <c r="C26" s="90"/>
+      <c r="C26" s="92"/>
     </row>
     <row r="27">
       <c r="A27" s="27">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="90" t="str">
+      <c r="B27" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A27,0)</f>
         <v/>
       </c>
-      <c r="C27" s="90"/>
+      <c r="C27" s="92"/>
     </row>
     <row r="28">
       <c r="A28" s="27">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="90" t="str">
+      <c r="B28" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A28,0)</f>
         <v/>
       </c>
-      <c r="C28" s="90"/>
+      <c r="C28" s="92"/>
     </row>
     <row r="29">
       <c r="A29" s="27">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="90" t="str">
+      <c r="B29" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A29,0)</f>
         <v/>
       </c>
-      <c r="C29" s="90"/>
+      <c r="C29" s="92"/>
     </row>
     <row r="30">
       <c r="A30" s="27">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="90" t="str">
+      <c r="B30" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A30,0)</f>
         <v/>
       </c>
-      <c r="C30" s="90"/>
+      <c r="C30" s="92"/>
     </row>
     <row r="31">
       <c r="A31" s="27">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="90" t="str">
+      <c r="B31" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A31,0)</f>
         <v/>
       </c>
-      <c r="C31" s="90"/>
+      <c r="C31" s="92"/>
     </row>
     <row r="32">
       <c r="A32" s="27">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="90" t="str">
+      <c r="B32" s="92" t="str">
         <f>OFFSET(ITEMS!$B$3,A32,0)</f>
         <v/>
       </c>
-      <c r="C32" s="90"/>
+      <c r="C32" s="92"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4705,7 +4849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4726,23 +4870,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="40" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>334</v>
+        <v>336</v>
+      </c>
+      <c r="D1" s="84" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="B2" s="91">
+        <v>338</v>
+      </c>
+      <c r="B2" s="93">
         <v>1.0</v>
       </c>
       <c r="C2" s="50" t="b">
@@ -4754,9 +4898,9 @@
     </row>
     <row r="3">
       <c r="A3" s="53" t="s">
-        <v>336</v>
-      </c>
-      <c r="B3" s="91">
+        <v>339</v>
+      </c>
+      <c r="B3" s="93">
         <v>1.0</v>
       </c>
       <c r="C3" s="54" t="b">
@@ -4768,9 +4912,9 @@
     </row>
     <row r="4">
       <c r="A4" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="B4" s="92">
+        <v>340</v>
+      </c>
+      <c r="B4" s="94">
         <v>3.0</v>
       </c>
       <c r="C4" s="50" t="b">
@@ -4781,10 +4925,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="93" t="s">
-        <v>338</v>
-      </c>
-      <c r="B5" s="91">
+      <c r="A5" s="95" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="93">
         <v>1.0</v>
       </c>
       <c r="C5" s="54" t="b">
@@ -4796,9 +4940,9 @@
     </row>
     <row r="6">
       <c r="A6" s="49" t="s">
-        <v>339</v>
-      </c>
-      <c r="B6" s="92">
+        <v>342</v>
+      </c>
+      <c r="B6" s="94">
         <v>3.0</v>
       </c>
       <c r="C6" s="50" t="b">
@@ -4810,9 +4954,9 @@
     </row>
     <row r="7">
       <c r="A7" s="53" t="s">
-        <v>340</v>
-      </c>
-      <c r="B7" s="92">
+        <v>343</v>
+      </c>
+      <c r="B7" s="94">
         <v>3.0</v>
       </c>
       <c r="C7" s="54" t="b">
@@ -4823,10 +4967,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="93" t="s">
-        <v>341</v>
-      </c>
-      <c r="B8" s="94">
+      <c r="A8" s="95" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="96">
         <v>5.0</v>
       </c>
       <c r="C8" s="50" t="b">
@@ -4838,9 +4982,9 @@
     </row>
     <row r="9">
       <c r="A9" s="53" t="s">
-        <v>342</v>
-      </c>
-      <c r="B9" s="95">
+        <v>345</v>
+      </c>
+      <c r="B9" s="97">
         <v>4.0</v>
       </c>
       <c r="C9" s="54" t="b">
@@ -4852,9 +4996,9 @@
     </row>
     <row r="10">
       <c r="A10" s="49" t="s">
-        <v>343</v>
-      </c>
-      <c r="B10" s="95">
+        <v>346</v>
+      </c>
+      <c r="B10" s="97">
         <v>4.0</v>
       </c>
       <c r="C10" s="50" t="b">
@@ -4866,9 +5010,9 @@
     </row>
     <row r="11">
       <c r="A11" s="53" t="s">
-        <v>344</v>
-      </c>
-      <c r="B11" s="91">
+        <v>347</v>
+      </c>
+      <c r="B11" s="93">
         <v>1.0</v>
       </c>
       <c r="C11" s="54" t="b">
@@ -4879,10 +5023,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="B12" s="95">
+      <c r="A12" s="95" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="97">
         <v>4.0</v>
       </c>
       <c r="C12" s="50" t="b">
@@ -4893,10 +5037,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="B13" s="91">
+      <c r="A13" s="95" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13" s="93">
         <v>1.0</v>
       </c>
       <c r="C13" s="54" t="b">
@@ -4908,15 +5052,15 @@
     </row>
     <row r="14">
       <c r="A14" s="74" t="s">
-        <v>347</v>
-      </c>
-      <c r="B14" s="96">
+        <v>350</v>
+      </c>
+      <c r="B14" s="98">
         <v>5.0</v>
       </c>
       <c r="C14" s="75" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="82" t="b">
+      <c r="D14" s="83" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7301,12 +7445,6 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G5">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I5">
-      <formula1>Table_Phrases[PHRASE_ID]</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="F2:F5">
       <formula1>#REF!</formula1>
     </dataValidation>
@@ -7317,6 +7455,9 @@
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="D2:E5">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="G2:G5 I2:I5">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -7356,7 +7497,7 @@
       <c r="B1" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="61" t="s">
         <v>256</v>
       </c>
       <c r="D1" s="61" t="s">
@@ -7380,11 +7521,8 @@
       <c r="J1" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="48" t="s">
         <v>264</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="2">
@@ -7395,36 +7533,33 @@
       <c r="B2" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" s="62">
-        <f t="shared" ref="D2:D5" si="1">COUNTIFS(E2:L2,"&lt;&gt;DIALOG_OPTION_NONE",E2:L2,"&lt;&gt;")</f>
+      <c r="C2" s="62">
+        <f t="shared" ref="C2:C5" si="1">COUNTIFS(D2:K2,"&lt;&gt;DIALOG_OPTION_NONE",D2:K2,"&lt;&gt;")</f>
         <v>0</v>
       </c>
+      <c r="D2" s="63" t="s">
+        <v>265</v>
+      </c>
       <c r="E2" s="63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H2" s="63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I2" s="63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J2" s="63" t="s">
-        <v>267</v>
-      </c>
-      <c r="K2" s="63" t="s">
-        <v>267</v>
-      </c>
-      <c r="L2" s="64" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="K2" s="64" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="3">
@@ -7435,36 +7570,33 @@
       <c r="B3" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="65">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D3" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="65">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="E3" s="66" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I3" s="66" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="K3" s="66" t="s">
-        <v>267</v>
-      </c>
-      <c r="L3" s="67" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="K3" s="67" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4">
@@ -7473,38 +7605,35 @@
         <v>2</v>
       </c>
       <c r="B4" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="68">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="D4" s="68">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>271</v>
-      </c>
       <c r="F4" s="63" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>267</v>
-      </c>
-      <c r="K4" s="63" t="s">
-        <v>267</v>
-      </c>
-      <c r="L4" s="64" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="K4" s="64" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="5">
@@ -7513,38 +7642,35 @@
         <v>3</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="69">
+        <v>270</v>
+      </c>
+      <c r="C5" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="D5" s="70" t="s">
+        <v>265</v>
+      </c>
       <c r="E5" s="70" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I5" s="70" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J5" s="70" t="s">
-        <v>267</v>
-      </c>
-      <c r="K5" s="70" t="s">
-        <v>267</v>
-      </c>
-      <c r="L5" s="71" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="K5" s="71" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="7">
@@ -7552,31 +7678,31 @@
         <v>0</v>
       </c>
       <c r="B7" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="F7" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="G7" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="H7" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="I7" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="J7" s="48" t="s">
         <v>279</v>
-      </c>
-      <c r="H7" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="I7" s="61" t="s">
-        <v>281</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="8">
@@ -7585,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>227</v>
@@ -7619,7 +7745,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C9" s="55" t="s">
         <v>227</v>
@@ -7653,7 +7779,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>227</v>
@@ -7669,10 +7795,10 @@
         <v>2</v>
       </c>
       <c r="G10" s="51" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I10" s="51" t="s">
         <v>249</v>
@@ -7687,7 +7813,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C11" s="55" t="s">
         <v>235</v>
@@ -7703,11 +7829,17 @@
         <v>1</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>285</v>
-      </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56"/>
+        <v>282</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="74">
@@ -7715,7 +7847,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C12" s="76" t="s">
         <v>227</v>
@@ -7744,152 +7876,68 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="G14" s="79" t="s">
-        <v>291</v>
-      </c>
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
     </row>
     <row r="15">
-      <c r="A15" s="49">
-        <f>ROW()-ROW(Table_Phrases[N])</f>
-        <v>0</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>266</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="80">
-        <v>0.0</v>
-      </c>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
     </row>
     <row r="16">
-      <c r="A16" s="53">
-        <f>ROW()-ROW(Table_Phrases[N])</f>
-        <v>1</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>253</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>293</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="G16" s="81">
-        <v>0.0</v>
-      </c>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
     </row>
     <row r="17">
-      <c r="A17" s="49">
-        <f>ROW()-ROW(Table_Phrases[N])</f>
-        <v>2</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>283</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="G17" s="80">
-        <v>0.0</v>
-      </c>
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
     </row>
     <row r="18">
-      <c r="A18" s="53">
-        <f>ROW()-ROW(Table_Phrases[N])</f>
-        <v>3</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>297</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="G18" s="81">
-        <v>0.0</v>
-      </c>
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
     </row>
     <row r="19">
-      <c r="A19" s="74">
-        <f>ROW()-ROW(Table_Phrases[N])</f>
-        <v>4</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>285</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>292</v>
-      </c>
-      <c r="E19" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="G19" s="82">
-        <v>0.0</v>
-      </c>
+      <c r="A19" s="79"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="G8:G12">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H8:J12">
-      <formula1>Table_Phrases[PHRASE_ID]</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E5">
+    <dataValidation type="list" allowBlank="1" sqref="D2:H5">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="D8:D12">
@@ -7898,16 +7946,13 @@
     <dataValidation type="list" allowBlank="1" sqref="C8:C12">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D2:D5 F8:F12">
-      <formula1>AND(ISNUMBER(D2),(NOT(OR(NOT(ISERROR(DATEVALUE(D2))), AND(ISNUMBER(D2), LEFT(CELL("format", D2))="D")))))</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C2:C5 F8:F12">
+      <formula1>AND(ISNUMBER(C2),(NOT(OR(NOT(ISERROR(DATEVALUE(C2))), AND(ISNUMBER(C2), LEFT(CELL("format", C2))="D")))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C15:C19">
-      <formula1>Table_Rooms[ROOM_ID]</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:L5">
+    <dataValidation type="list" allowBlank="1" sqref="I2:K5">
       <formula1>Table_Dialog_Options[DIALOG_OPTION_ID]</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C5">
+    <dataValidation type="list" allowBlank="1" sqref="G8:J12">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="E8:E12">
@@ -7916,15 +7961,206 @@
   </dataValidations>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <tableParts count="3">
+  <tableParts count="2">
+    <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF674EA7"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="28.14"/>
+    <col customWidth="1" min="3" max="3" width="21.29"/>
+    <col customWidth="1" min="4" max="4" width="19.43"/>
+    <col customWidth="1" min="5" max="6" width="32.86"/>
+    <col customWidth="1" min="7" max="7" width="24.14"/>
+    <col customWidth="1" min="8" max="8" width="32.86"/>
+    <col customWidth="1" min="9" max="9" width="24.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="49">
+        <f>ROW()-ROW(Table_Phrases[N])</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" s="80"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="53">
+        <f>ROW()-ROW(Table_Phrases[N])</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="54">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="H3" s="81" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="49">
+        <f>ROW()-ROW(Table_Phrases[N])</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="53">
+        <f>ROW()-ROW(Table_Phrases[N])</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="54">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="H5" s="81" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="74">
+        <f>ROW()-ROW(Table_Phrases[N])</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="75">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="H6" s="83" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="F2:F6">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D2:D6">
+      <formula1>Table_Rooms[ROOM_ID]</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7944,8 +8180,8 @@
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
-        <v>301</v>
+      <c r="B1" s="84" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="2">
@@ -7954,7 +8190,7 @@
         <v>-1</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3">
@@ -7963,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4">
@@ -7971,8 +8207,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>302</v>
+      <c r="B4" s="83" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -7983,7 +8219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FF6AA84F"/>
@@ -8001,8 +8237,8 @@
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
-        <v>303</v>
+      <c r="B1" s="84" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="2">
@@ -8011,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3">
@@ -8020,7 +8256,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -8031,7 +8267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FF990000"/>
@@ -8055,8 +8291,8 @@
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
-        <v>306</v>
+      <c r="B1" s="84" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="2">
@@ -8064,7 +8300,7 @@
         <v>0.0</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3">
@@ -8087,16 +8323,16 @@
       <c r="A5" s="57">
         <v>3.0</v>
       </c>
-      <c r="B5" s="83" t="s">
-        <v>308</v>
+      <c r="B5" s="85" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="79" t="s">
-        <v>309</v>
+      <c r="B7" s="84" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="8">
@@ -8104,7 +8340,7 @@
         <v>0.0</v>
       </c>
       <c r="B8" s="80" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9">
@@ -8112,7 +8348,7 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10">
@@ -8143,7 +8379,7 @@
       <c r="A13" s="57">
         <v>5.0</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="85" t="s">
         <v>250</v>
       </c>
     </row>
@@ -8151,8 +8387,8 @@
       <c r="A15" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="79" t="s">
-        <v>312</v>
+      <c r="B15" s="84" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="16">
@@ -8184,23 +8420,23 @@
         <v>3.0</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="74">
         <v>4.0</v>
       </c>
-      <c r="B20" s="82" t="s">
-        <v>314</v>
+      <c r="B20" s="83" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="79" t="s">
-        <v>315</v>
+      <c r="B22" s="84" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="23">
@@ -8208,7 +8444,7 @@
         <v>0.0</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24">
@@ -8216,135 +8452,49 @@
         <v>1.0</v>
       </c>
       <c r="B24" s="81" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="74">
         <v>2.0</v>
       </c>
-      <c r="B25" s="82" t="s">
-        <v>318</v>
+      <c r="B25" s="83" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="84" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="49">
+        <v>-1.0</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="57">
+        <v>0.0</v>
+      </c>
+      <c r="B29" s="85" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-  <tableParts count="4">
-    <tablePart r:id="rId6"/>
+  <tableParts count="5">
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FF00FF00"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="25.71"/>
-    <col customWidth="1" min="3" max="3" width="30.29"/>
-    <col customWidth="1" min="4" max="5" width="28.86"/>
-    <col customWidth="1" min="6" max="6" width="32.43"/>
-    <col customWidth="1" min="7" max="7" width="43.0"/>
-    <col customWidth="1" min="8" max="8" width="15.29"/>
-    <col customWidth="1" min="10" max="10" width="18.57"/>
-    <col customWidth="1" min="11" max="11" width="21.71"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>321</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>322</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="G1" s="79" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="49">
-        <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="G2" s="85"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="53">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>325</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="56" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="74">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>326</v>
-      </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="G4" s="87"/>
-    </row>
-  </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:E4 G2:G4">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C4">
-      <formula1>"TALK,ITEM_TAKE,ITEM_USE,WALK,EVENT,ALWAYS"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -21,7 +21,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataChecksum="9ZPMbab+ehRN73TcaYua9Ff18EgWyemFU7YZJ6AEt9c="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataChecksum="5oFTi3KvLMBg2OZglBTNC6QL+vTDnoxY6biXQj0GAd4="/>
     </ext>
   </extLst>
 </workbook>
@@ -77,13 +77,13 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D7">
+    <comment authorId="0" ref="E7">
       <text>
         <t xml:space="preserve">Event triggered after all phrases
 ======</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E7">
+    <comment authorId="0" ref="F7">
       <text>
         <t xml:space="preserve">New dialog shown after all phrases have been said
 ======</t>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="357">
   <si>
     <t>N</t>
   </si>
@@ -702,10 +702,10 @@
     <t>SHOW_DIALOGUE_DELEGATE</t>
   </si>
   <si>
-    <t>GraphicsMasterClass.ShowDialogueService</t>
-  </si>
-  <si>
-    <t>Tell Graphics Maste which dialogue to show</t>
+    <t>GameMenuClass.ShowDialogueService</t>
+  </si>
+  <si>
+    <t>Second part of start dialogue. Tells Game Menu to prepare menu elements</t>
   </si>
   <si>
     <t>LAST_SERVICE</t>
@@ -852,129 +852,138 @@
     <t>ITEM_USE_ANIMATION_STARE_SCREEN</t>
   </si>
   <si>
+    <t>DIALOG_FOUNTAIN</t>
+  </si>
+  <si>
+    <t>COND_LAST</t>
+  </si>
+  <si>
+    <t>DIALOG_ID</t>
+  </si>
+  <si>
+    <t>Options_Count</t>
+  </si>
+  <si>
+    <t>Option1</t>
+  </si>
+  <si>
+    <t>Option2</t>
+  </si>
+  <si>
+    <t>Option3</t>
+  </si>
+  <si>
+    <t>Option4</t>
+  </si>
+  <si>
+    <t>Option5</t>
+  </si>
+  <si>
+    <t>Option6</t>
+  </si>
+  <si>
+    <t>Option7</t>
+  </si>
+  <si>
+    <t>Option8</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_NONE</t>
+  </si>
+  <si>
     <t>DIALOG_SIMPLE</t>
   </si>
   <si>
+    <t>DIALOG_OPTION_SIMPLE</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_1</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_2</t>
+  </si>
+  <si>
+    <t>DIALOG_LAST</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ID</t>
+  </si>
+  <si>
+    <t>EventCondition</t>
+  </si>
+  <si>
+    <t>EventConditionNotOccurred</t>
+  </si>
+  <si>
+    <t>EventTriggered</t>
+  </si>
+  <si>
+    <t>DialogTriggered</t>
+  </si>
+  <si>
+    <t>PhraseCount</t>
+  </si>
+  <si>
+    <t>Phrase1</t>
+  </si>
+  <si>
+    <t>Phrase2</t>
+  </si>
+  <si>
+    <t>Phrase3</t>
+  </si>
+  <si>
+    <t>Phrase4</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN1_1</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN1_2</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN2_1</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_3</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN3_1</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_LAST</t>
+  </si>
+  <si>
+    <t>PHRASE_ID</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>CharAnimation</t>
+  </si>
+  <si>
+    <t>Text_English</t>
+  </si>
+  <si>
+    <t>Text_Spanish</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>ROOM_NONE</t>
+  </si>
+  <si>
+    <t>DIALOG_ANIMATION_NONE</t>
+  </si>
+  <si>
     <t>PHRASE_NONSENSE</t>
   </si>
   <si>
-    <t>COND_LAST</t>
-  </si>
-  <si>
-    <t>DIALOG_ID</t>
-  </si>
-  <si>
-    <t>Options_Count</t>
-  </si>
-  <si>
-    <t>Option1</t>
-  </si>
-  <si>
-    <t>Option2</t>
-  </si>
-  <si>
-    <t>Option3</t>
-  </si>
-  <si>
-    <t>Option4</t>
-  </si>
-  <si>
-    <t>Option5</t>
-  </si>
-  <si>
-    <t>Option6</t>
-  </si>
-  <si>
-    <t>Option7</t>
-  </si>
-  <si>
-    <t>Option8</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_NONE</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_SIMPLE</t>
-  </si>
-  <si>
-    <t>DIALOG_FOUNTAIN</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_ASK_FOUNTAIN_1</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_ASK_FOUNTAIN_2</t>
-  </si>
-  <si>
-    <t>DIALOG_LAST</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_ID</t>
-  </si>
-  <si>
-    <t>EventCondition</t>
-  </si>
-  <si>
-    <t>EventTriggered</t>
-  </si>
-  <si>
-    <t>DialogTriggered</t>
-  </si>
-  <si>
-    <t>PhraseCount</t>
-  </si>
-  <si>
-    <t>Phrase1</t>
-  </si>
-  <si>
-    <t>Phrase2</t>
-  </si>
-  <si>
-    <t>Phrase3</t>
-  </si>
-  <si>
-    <t>Phrase4</t>
-  </si>
-  <si>
-    <t>PHRASE_ASK_FOUNTAIN1_1</t>
-  </si>
-  <si>
-    <t>PHRASE_ASK_FOUNTAIN1_2</t>
-  </si>
-  <si>
-    <t>PHRASE_ASK_FOUNTAIN2_1</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_LAST</t>
-  </si>
-  <si>
-    <t>PHRASE_ID</t>
-  </si>
-  <si>
-    <t>Sender</t>
-  </si>
-  <si>
-    <t>Sound</t>
-  </si>
-  <si>
-    <t>CharAnimation</t>
-  </si>
-  <si>
-    <t>Text_English</t>
-  </si>
-  <si>
-    <t>Text_Spanish</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>ROOM_NONE</t>
-  </si>
-  <si>
-    <t>DIALOG_ANIMATION_NONE</t>
-  </si>
-  <si>
     <t>DIALOG_ANIMATION_TALK</t>
   </si>
   <si>
@@ -999,6 +1008,12 @@
     <t>¿De verdad?</t>
   </si>
   <si>
+    <t>Are you kidding me?</t>
+  </si>
+  <si>
+    <t>¿Me estás troleando?</t>
+  </si>
+  <si>
     <t>Why are you red?</t>
   </si>
   <si>
@@ -1144,6 +1159,9 @@
   </si>
   <si>
     <t>Avoid services modifying VARMAP</t>
+  </si>
+  <si>
+    <t>Normalize menu items with dialog opts</t>
   </si>
   <si>
     <t>Last</t>
@@ -1194,7 +1212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border/>
     <border>
       <left style="thin">
@@ -1411,7 +1429,7 @@
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF284E3F"/>
       </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
@@ -1425,7 +1443,7 @@
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
@@ -1534,6 +1552,20 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFFF7F00"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF7F00"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF7F00"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF7F00"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF57BB8A"/>
       </left>
       <right style="thin">
@@ -1550,7 +1582,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1767,26 +1799,23 @@
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1795,28 +1824,31 @@
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1842,6 +1874,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -2141,7 +2176,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D14" displayName="Table_TODO" name="Table_TODO" id="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D15" displayName="Table_TODO" name="Table_TODO" id="17">
   <tableColumns count="4">
     <tableColumn name="TASK" id="1"/>
     <tableColumn name="PRIO" id="2"/>
@@ -2238,25 +2273,26 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:J12" displayName="Table_Dialog_Options" name="Table_Dialog_Options" id="6">
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:K13" displayName="Table_Dialog_Options" name="Table_Dialog_Options" id="6">
+  <tableColumns count="11">
     <tableColumn name="N" id="1"/>
     <tableColumn name="DIALOG_OPTION_ID" id="2"/>
     <tableColumn name="EventCondition" id="3"/>
-    <tableColumn name="EventTriggered" id="4"/>
-    <tableColumn name="DialogTriggered" id="5"/>
-    <tableColumn name="PhraseCount" id="6"/>
-    <tableColumn name="Phrase1" id="7"/>
-    <tableColumn name="Phrase2" id="8"/>
-    <tableColumn name="Phrase3" id="9"/>
-    <tableColumn name="Phrase4" id="10"/>
+    <tableColumn name="EventConditionNotOccurred" id="4"/>
+    <tableColumn name="EventTriggered" id="5"/>
+    <tableColumn name="DialogTriggered" id="6"/>
+    <tableColumn name="PhraseCount" id="7"/>
+    <tableColumn name="Phrase1" id="8"/>
+    <tableColumn name="Phrase2" id="9"/>
+    <tableColumn name="Phrase3" id="10"/>
+    <tableColumn name="Phrase4" id="11"/>
   </tableColumns>
   <tableStyleInfo name="DIALOGS-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H6" displayName="Table_Phrases" name="Table_Phrases" id="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H7" displayName="Table_Phrases" name="Table_Phrases" id="7">
   <tableColumns count="8">
     <tableColumn name="N" id="1"/>
     <tableColumn name="PHRASE_ID" id="2"/>
@@ -4348,22 +4384,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="G1" s="84" t="s">
-        <v>327</v>
+        <v>331</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="2">
@@ -4374,10 +4410,10 @@
       <c r="B2" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="G2" s="87"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3">
       <c r="A3" s="53">
@@ -4388,7 +4424,7 @@
         <v>235</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>228</v>
@@ -4402,12 +4438,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="74">
+      <c r="A4" s="83">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="75" t="s">
-        <v>329</v>
+      <c r="B4" s="87" t="s">
+        <v>334</v>
       </c>
       <c r="C4" s="88"/>
       <c r="D4" s="88"/>
@@ -4449,7 +4485,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="90" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
@@ -4484,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
@@ -4500,7 +4536,7 @@
         <v>ITEM_POTION</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3">
@@ -4513,7 +4549,7 @@
         <v>ITEM_POTION_BLUE</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
@@ -4526,7 +4562,7 @@
         <v>ITEM_FOUNTAIN</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5">
@@ -4539,7 +4575,7 @@
         <v>ITEM_LAST</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6">
@@ -4870,21 +4906,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="40" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="D1" s="84" t="s">
-        <v>337</v>
+        <v>341</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="49" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B2" s="93">
         <v>1.0</v>
@@ -4892,13 +4928,13 @@
       <c r="C2" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="80" t="b">
+      <c r="D2" s="79" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="53" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B3" s="93">
         <v>1.0</v>
@@ -4906,13 +4942,13 @@
       <c r="C3" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="81" t="b">
+      <c r="D3" s="80" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="49" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B4" s="94">
         <v>3.0</v>
@@ -4920,13 +4956,13 @@
       <c r="C4" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="80" t="b">
+      <c r="D4" s="79" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="95" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B5" s="93">
         <v>1.0</v>
@@ -4934,13 +4970,13 @@
       <c r="C5" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="81" t="b">
+      <c r="D5" s="80" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="49" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B6" s="94">
         <v>3.0</v>
@@ -4948,13 +4984,13 @@
       <c r="C6" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="80" t="b">
+      <c r="D6" s="79" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="53" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B7" s="94">
         <v>3.0</v>
@@ -4962,13 +4998,13 @@
       <c r="C7" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="81" t="b">
+      <c r="D7" s="80" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="95" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B8" s="96">
         <v>5.0</v>
@@ -4976,13 +5012,13 @@
       <c r="C8" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="80" t="b">
+      <c r="D8" s="79" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="53" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B9" s="97">
         <v>4.0</v>
@@ -4990,13 +5026,13 @@
       <c r="C9" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="81" t="b">
+      <c r="D9" s="80" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="49" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B10" s="97">
         <v>4.0</v>
@@ -5004,13 +5040,13 @@
       <c r="C10" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="80" t="b">
+      <c r="D10" s="79" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="53" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B11" s="93">
         <v>1.0</v>
@@ -5018,13 +5054,13 @@
       <c r="C11" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="81" t="b">
+      <c r="D11" s="80" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="95" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B12" s="97">
         <v>4.0</v>
@@ -5032,13 +5068,13 @@
       <c r="C12" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D12" s="80" t="b">
+      <c r="D12" s="79" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="95" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B13" s="93">
         <v>1.0</v>
@@ -5046,26 +5082,40 @@
       <c r="C13" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="D13" s="81" t="b">
+      <c r="D13" s="80" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="74" t="s">
-        <v>350</v>
+      <c r="A14" s="49" t="s">
+        <v>355</v>
       </c>
       <c r="B14" s="98">
+        <v>2.0</v>
+      </c>
+      <c r="C14" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" s="99">
         <v>5.0</v>
       </c>
-      <c r="C14" s="75" t="b">
+      <c r="C15" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="83" t="b">
+      <c r="D15" s="81" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B14">
+  <conditionalFormatting sqref="B2:B15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="formula" val="1"/>
@@ -5077,13 +5127,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A14">
+  <conditionalFormatting sqref="A2:A15">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>$C2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B2:B14">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B2:B15">
       <formula1>AND(ISNUMBER(B2),(NOT(OR(NOT(ISERROR(DATEVALUE(B2))), AND(ISNUMBER(B2), LEFT(CELL("format", B2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -6181,7 +6231,7 @@
         <v>25</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="L23" s="13" t="s">
         <v>67</v>
@@ -6786,10 +6836,10 @@
         <v>25</v>
       </c>
       <c r="J36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>25</v>
@@ -7405,7 +7455,7 @@
         <v>252</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H4" s="51" t="s">
         <v>248</v>
@@ -7419,7 +7469,7 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C5" s="59" t="s">
         <v>227</v>
@@ -7484,8 +7534,7 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="34.86"/>
     <col customWidth="1" min="3" max="3" width="30.0"/>
-    <col customWidth="1" min="4" max="4" width="32.14"/>
-    <col customWidth="1" min="5" max="6" width="40.57"/>
+    <col customWidth="1" min="4" max="6" width="40.57"/>
     <col customWidth="1" min="7" max="8" width="33.86"/>
     <col customWidth="1" min="9" max="13" width="32.57"/>
   </cols>
@@ -7495,34 +7544,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="D1" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="E1" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="F1" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="G1" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="H1" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="I1" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="J1" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="K1" s="48" t="s">
         <v>263</v>
-      </c>
-      <c r="K1" s="48" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2">
@@ -7538,28 +7587,28 @@
         <v>0</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G2" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H2" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I2" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J2" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K2" s="64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3">
@@ -7568,7 +7617,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C3" s="65">
         <f t="shared" si="1"/>
@@ -7578,25 +7627,25 @@
         <v>266</v>
       </c>
       <c r="E3" s="66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I3" s="66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J3" s="66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K3" s="67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4">
@@ -7605,35 +7654,35 @@
         <v>2</v>
       </c>
       <c r="B4" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="68">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="68">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D4" s="63" t="s">
+      <c r="E4" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="E4" s="63" t="s">
-        <v>269</v>
-      </c>
       <c r="F4" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K4" s="64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5">
@@ -7642,35 +7691,35 @@
         <v>3</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I5" s="70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J5" s="70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K5" s="71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7">
@@ -7678,30 +7727,33 @@
         <v>0</v>
       </c>
       <c r="B7" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="D7" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="E7" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="F7" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="G7" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="H7" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="I7" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="I7" s="61" t="s">
+      <c r="J7" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="K7" s="48" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7711,23 +7763,23 @@
         <v>0</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="F8" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="68">
-        <f t="shared" ref="F8:F12" si="2">COUNTIFS(G8:J8,"&lt;&gt;PHRASE_NONE",G8:J8,"&lt;&gt;")</f>
+      <c r="G8" s="68">
+        <f t="shared" ref="G8:G13" si="2">COUNTIFS(H8:K8,"&lt;&gt;PHRASE_NONE",H8:K8,"&lt;&gt;")</f>
         <v>0</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>249</v>
       </c>
       <c r="H8" s="51" t="s">
         <v>249</v>
@@ -7735,7 +7787,10 @@
       <c r="I8" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="K8" s="52" t="s">
         <v>249</v>
       </c>
     </row>
@@ -7750,26 +7805,29 @@
       <c r="C9" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="F9" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="F9" s="72">
+      <c r="G9" s="74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="55" t="s">
-        <v>249</v>
-      </c>
       <c r="H9" s="55" t="s">
         <v>249</v>
       </c>
       <c r="I9" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="J9" s="56" t="s">
+      <c r="J9" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="K9" s="56" t="s">
         <v>249</v>
       </c>
     </row>
@@ -7779,31 +7837,34 @@
         <v>2</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="F10" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="F10" s="73">
+      <c r="G10" s="75">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="H10" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="I10" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="J10" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="J10" s="52" t="s">
+      <c r="K10" s="52" t="s">
         <v>249</v>
       </c>
     </row>
@@ -7813,149 +7874,195 @@
         <v>3</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="55" t="s">
         <v>227</v>
       </c>
+      <c r="D11" s="73" t="b">
+        <v>0</v>
+      </c>
       <c r="E11" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="F11" s="72">
+      <c r="G11" s="74">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="H11" s="55" t="s">
         <v>282</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>249</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="55" t="s">
         <v>249</v>
       </c>
+      <c r="K11" s="56" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="74">
+      <c r="A12" s="49">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>4</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="F12" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" s="75">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="57">
+        <f>ROW()-ROW(Table_Dialog_Options[N])</f>
+        <v>5</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="D13" s="76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="F12" s="77">
+      <c r="G13" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G12" s="76" t="s">
+      <c r="H13" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="H12" s="76" t="s">
+      <c r="I13" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="I12" s="76" t="s">
+      <c r="J13" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="J12" s="78" t="s">
+      <c r="K13" s="60" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-    </row>
     <row r="15">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
     </row>
     <row r="16">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
     </row>
     <row r="17">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
     </row>
     <row r="18">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
     </row>
     <row r="19">
-      <c r="A19" s="79"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
     </row>
   </sheetData>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" sqref="D2:H5">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D8:D12">
+    <dataValidation type="list" allowBlank="1" sqref="E8:E13">
       <formula1>Table_Events[EVENT_ID]</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C8:C12">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C2:C5 F8:F12">
-      <formula1>AND(ISNUMBER(C2),(NOT(OR(NOT(ISERROR(DATEVALUE(C2))), AND(ISNUMBER(C2), LEFT(CELL("format", C2))="D")))))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="I2:K5">
       <formula1>Table_Dialog_Options[DIALOG_OPTION_ID]</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G8:J12">
+    <dataValidation type="list" allowBlank="1" sqref="C8:C13">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E8:E12">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C2:C5 G8:G13">
+      <formula1>AND(ISNUMBER(C2),(NOT(OR(NOT(ISERROR(DATEVALUE(C2))), AND(ISNUMBER(C2), LEFT(CELL("format", C2))="D")))))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="H8:H13">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="I8:K13">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F8:F13">
       <formula1>Table_Dialogs[DIALOG_ID]</formula1>
     </dataValidation>
   </dataValidations>
@@ -7993,25 +8100,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2">
@@ -8023,18 +8130,18 @@
         <v>249</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E2" s="50">
         <v>0.0</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="H2" s="80"/>
+        <v>294</v>
+      </c>
+      <c r="H2" s="79"/>
     </row>
     <row r="3">
       <c r="A3" s="53">
@@ -8042,25 +8149,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E3" s="54">
         <v>0.0</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="H3" s="81" t="s">
-        <v>295</v>
+        <v>297</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="4">
@@ -8072,22 +8179,22 @@
         <v>280</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E4" s="50">
         <v>0.0</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="H4" s="80" t="s">
-        <v>298</v>
+        <v>300</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="5">
@@ -8099,57 +8206,84 @@
         <v>281</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E5" s="54">
         <v>0.0</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="H5" s="81" t="s">
-        <v>300</v>
+        <v>302</v>
+      </c>
+      <c r="H5" s="80" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="74">
+      <c r="A6" s="49">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>4</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="C6" s="75" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="76" t="s">
+      <c r="C6" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="E6" s="75">
+      <c r="G6" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="H6" s="79" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="57">
+        <f>ROW()-ROW(Table_Phrases[N])</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="E7" s="58">
         <v>0.0</v>
       </c>
-      <c r="F6" s="82" t="s">
-        <v>293</v>
-      </c>
-      <c r="G6" s="75" t="s">
-        <v>301</v>
-      </c>
-      <c r="H6" s="83" t="s">
-        <v>302</v>
+      <c r="F7" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="H7" s="81" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F6">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F7">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D6">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D7">
       <formula1>Table_Rooms[ROOM_ID]</formula1>
     </dataValidation>
   </dataValidations>
@@ -8180,8 +8314,8 @@
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
-        <v>303</v>
+      <c r="B1" s="82" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="2">
@@ -8189,8 +8323,8 @@
         <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)-1</f>
         <v>-1</v>
       </c>
-      <c r="B2" s="80" t="s">
-        <v>291</v>
+      <c r="B2" s="79" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="3">
@@ -8198,17 +8332,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B3" s="81" t="s">
-        <v>296</v>
+      <c r="B3" s="80" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="74">
+      <c r="A4" s="83">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B4" s="83" t="s">
-        <v>304</v>
+      <c r="B4" s="84" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -8237,8 +8371,8 @@
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
-        <v>305</v>
+      <c r="B1" s="82" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="2">
@@ -8247,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
@@ -8256,7 +8390,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -8291,23 +8425,23 @@
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
-        <v>308</v>
+      <c r="B1" s="82" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="49">
         <v>0.0</v>
       </c>
-      <c r="B2" s="80" t="s">
-        <v>309</v>
+      <c r="B2" s="79" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="53">
         <v>1.0</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="80" t="s">
         <v>224</v>
       </c>
     </row>
@@ -8315,7 +8449,7 @@
       <c r="A4" s="49">
         <v>2.0</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8323,39 +8457,39 @@
       <c r="A5" s="57">
         <v>3.0</v>
       </c>
-      <c r="B5" s="85" t="s">
-        <v>310</v>
+      <c r="B5" s="81" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="84" t="s">
-        <v>311</v>
+      <c r="B7" s="82" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="49">
         <v>0.0</v>
       </c>
-      <c r="B8" s="80" t="s">
-        <v>312</v>
+      <c r="B8" s="79" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="53">
         <v>1.0</v>
       </c>
-      <c r="B9" s="81" t="s">
-        <v>313</v>
+      <c r="B9" s="80" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="49">
         <v>2.0</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="79" t="s">
         <v>246</v>
       </c>
     </row>
@@ -8363,7 +8497,7 @@
       <c r="A11" s="53">
         <v>3.0</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>247</v>
       </c>
     </row>
@@ -8371,7 +8505,7 @@
       <c r="A12" s="49">
         <v>4.0</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="79" t="s">
         <v>251</v>
       </c>
     </row>
@@ -8379,7 +8513,7 @@
       <c r="A13" s="57">
         <v>5.0</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="81" t="s">
         <v>250</v>
       </c>
     </row>
@@ -8387,15 +8521,15 @@
       <c r="A15" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="84" t="s">
-        <v>314</v>
+      <c r="B15" s="82" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="49">
         <v>0.0</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="79" t="s">
         <v>225</v>
       </c>
     </row>
@@ -8403,7 +8537,7 @@
       <c r="A17" s="53">
         <v>1.0</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="80" t="s">
         <v>229</v>
       </c>
     </row>
@@ -8411,7 +8545,7 @@
       <c r="A18" s="49">
         <v>2.0</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="79" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8419,72 +8553,72 @@
       <c r="A19" s="53">
         <v>3.0</v>
       </c>
-      <c r="B19" s="81" t="s">
-        <v>315</v>
+      <c r="B19" s="80" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="74">
+      <c r="A20" s="83">
         <v>4.0</v>
       </c>
-      <c r="B20" s="83" t="s">
-        <v>316</v>
+      <c r="B20" s="84" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="84" t="s">
-        <v>317</v>
+      <c r="B22" s="82" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="49">
         <v>0.0</v>
       </c>
-      <c r="B23" s="80" t="s">
-        <v>318</v>
+      <c r="B23" s="79" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="53">
         <v>1.0</v>
       </c>
-      <c r="B24" s="81" t="s">
-        <v>319</v>
+      <c r="B24" s="80" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="74">
+      <c r="A25" s="83">
         <v>2.0</v>
       </c>
-      <c r="B25" s="83" t="s">
-        <v>320</v>
+      <c r="B25" s="84" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="84" t="s">
-        <v>321</v>
+      <c r="B27" s="82" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="49">
         <v>-1.0</v>
       </c>
-      <c r="B28" s="80" t="s">
-        <v>292</v>
+      <c r="B28" s="79" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="57">
         <v>0.0</v>
       </c>
-      <c r="B29" s="85" t="s">
-        <v>293</v>
+      <c r="B29" s="81" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -21,7 +21,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataChecksum="5oFTi3KvLMBg2OZglBTNC6QL+vTDnoxY6biXQj0GAd4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataChecksum="xbgZzFm5j5RePZcmEOpoZSd331k8tUrY23o9WgYNcQw="/>
     </ext>
   </extLst>
 </workbook>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="361">
   <si>
     <t>N</t>
   </si>
@@ -201,6 +201,9 @@
     <t>default</t>
   </si>
   <si>
+    <t>W E</t>
+  </si>
+  <si>
     <t>PICKABLE_ITEM_OWNER</t>
   </si>
   <si>
@@ -246,9 +249,6 @@
     <t>PLAYER_SELECTED</t>
   </si>
   <si>
-    <t>W E</t>
-  </si>
-  <si>
     <t>ITEM_MENU_ACTIVE</t>
   </si>
   <si>
@@ -348,18 +348,6 @@
     <t>Exits games to OS</t>
   </si>
   <si>
-    <t>LATE_START_SUBSCRIPTION</t>
-  </si>
-  <si>
-    <t>LATE_START_SUBSCRIPTION_DELEGATE</t>
-  </si>
-  <si>
-    <t>GameMasterClass.LateStartSubrsciptionService</t>
-  </si>
-  <si>
-    <t>This service subscribes for late start. This happens at some moment after Start event. when everything has been setup</t>
-  </si>
-  <si>
     <t>MODULE_LOADING_COMPLETED</t>
   </si>
   <si>
@@ -696,6 +684,18 @@
     <t>Starts a dialogue with given text and sound</t>
   </si>
   <si>
+    <t>END_DIALOGUE</t>
+  </si>
+  <si>
+    <t>END_DIALOGUE_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameMasterClass.EndDialogueService</t>
+  </si>
+  <si>
+    <t>Ends a dialogue</t>
+  </si>
+  <si>
     <t>SHOW_DIALOGUE</t>
   </si>
   <si>
@@ -903,6 +903,12 @@
     <t>DIALOG_OPTION_ASK_FOUNTAIN_2</t>
   </si>
   <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_3</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_4</t>
+  </si>
+  <si>
     <t>DIALOG_LAST</t>
   </si>
   <si>
@@ -945,12 +951,12 @@
     <t>PHRASE_ASK_FOUNTAIN2_1</t>
   </si>
   <si>
-    <t>DIALOG_OPTION_ASK_FOUNTAIN_3</t>
-  </si>
-  <si>
     <t>PHRASE_ASK_FOUNTAIN3_1</t>
   </si>
   <si>
+    <t>PHRASE_ASK_FOUNTAIN4_1</t>
+  </si>
+  <si>
     <t>DIALOG_OPTION_LAST</t>
   </si>
   <si>
@@ -1018,6 +1024,12 @@
   </si>
   <si>
     <t>¿Por qué estás roja?</t>
+  </si>
+  <si>
+    <t>Why are you not red yet?</t>
+  </si>
+  <si>
+    <t>¿Por qué aún no estás roja?</t>
   </si>
   <si>
     <t>ROOM_ID</t>
@@ -1429,7 +1441,7 @@
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FF284E3F"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
@@ -1443,7 +1455,7 @@
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF284E3F"/>
       </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
@@ -1582,7 +1594,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1676,22 +1688,22 @@
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1811,11 +1823,23 @@
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1824,31 +1848,28 @@
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2273,7 +2294,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:K13" displayName="Table_Dialog_Options" name="Table_Dialog_Options" id="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:K14" displayName="Table_Dialog_Options" name="Table_Dialog_Options" id="6">
   <tableColumns count="11">
     <tableColumn name="N" id="1"/>
     <tableColumn name="DIALOG_OPTION_ID" id="2"/>
@@ -2292,7 +2313,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H7" displayName="Table_Phrases" name="Table_Phrases" id="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H8" displayName="Table_Phrases" name="Table_Phrases" id="7">
   <tableColumns count="8">
     <tableColumn name="N" id="1"/>
     <tableColumn name="PHRASE_ID" id="2"/>
@@ -2821,7 +2842,7 @@
         <v>25</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -2830,10 +2851,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8">
         <v>2.0</v>
@@ -2843,7 +2864,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>20</v>
@@ -2883,10 +2904,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="13">
         <v>2.0</v>
@@ -2936,10 +2957,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7">
         <v>0.0</v>
@@ -2948,7 +2969,7 @@
         <v>0.0</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>0</v>
@@ -2990,10 +3011,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="12">
         <v>0.0</v>
@@ -3002,7 +3023,7 @@
         <v>0.0</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>0</v>
@@ -3044,10 +3065,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
         <v>0.0</v>
@@ -3056,7 +3077,7 @@
         <v>0.0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>0</v>
@@ -3098,10 +3119,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="13">
         <v>0.0</v>
@@ -3110,7 +3131,7 @@
         <v>0.0</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>0</v>
@@ -3132,7 +3153,7 @@
         <v>22</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="O11" s="13" t="s">
         <v>25</v>
@@ -3181,7 +3202,7 @@
         <v>22</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>25</v>
@@ -4384,22 +4405,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="G1" s="82" t="s">
-        <v>332</v>
+        <v>335</v>
+      </c>
+      <c r="G1" s="87" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="2">
@@ -4410,10 +4431,10 @@
       <c r="B2" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="G2" s="86"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="G2" s="90"/>
     </row>
     <row r="3">
       <c r="A3" s="53">
@@ -4424,7 +4445,7 @@
         <v>235</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>228</v>
@@ -4438,17 +4459,17 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="83">
+      <c r="A4" s="76">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="87" t="s">
-        <v>334</v>
-      </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="G4" s="89"/>
+      <c r="B4" s="77" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="G4" s="92"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4484,12 +4505,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="90" t="s">
-        <v>335</v>
+      <c r="A1" s="93" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="91">
+      <c r="A2" s="94">
         <v>3.0</v>
       </c>
     </row>
@@ -4520,10 +4541,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2">
@@ -4531,12 +4552,12 @@
         <f t="shared" ref="A2:A32" si="1">ROW()-ROW($G$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="92" t="str">
+      <c r="B2" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A2,0)</f>
         <v>ITEM_POTION</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3">
@@ -4544,12 +4565,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="92" t="str">
+      <c r="B3" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A3,0)</f>
         <v>ITEM_POTION_BLUE</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4">
@@ -4557,12 +4578,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="92" t="str">
+      <c r="B4" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A4,0)</f>
         <v>ITEM_FOUNTAIN</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5">
@@ -4570,12 +4591,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="92" t="str">
+      <c r="B5" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A5,0)</f>
         <v>ITEM_LAST</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6">
@@ -4583,297 +4604,297 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="92" t="str">
+      <c r="B6" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A6,0)</f>
         <v/>
       </c>
-      <c r="C6" s="92"/>
+      <c r="C6" s="95"/>
     </row>
     <row r="7">
       <c r="A7" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="92" t="str">
+      <c r="B7" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A7,0)</f>
         <v/>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="95"/>
     </row>
     <row r="8">
       <c r="A8" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="92" t="str">
+      <c r="B8" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A8,0)</f>
         <v/>
       </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="95"/>
     </row>
     <row r="9">
       <c r="A9" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="92" t="str">
+      <c r="B9" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A9,0)</f>
         <v/>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="95"/>
     </row>
     <row r="10">
       <c r="A10" s="27">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="92" t="str">
+      <c r="B10" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A10,0)</f>
         <v/>
       </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="95"/>
     </row>
     <row r="11">
       <c r="A11" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="92" t="str">
+      <c r="B11" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A11,0)</f>
         <v/>
       </c>
-      <c r="C11" s="92"/>
+      <c r="C11" s="95"/>
     </row>
     <row r="12">
       <c r="A12" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="92" t="str">
+      <c r="B12" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A12,0)</f>
         <v/>
       </c>
-      <c r="C12" s="92"/>
+      <c r="C12" s="95"/>
     </row>
     <row r="13">
       <c r="A13" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="92" t="str">
+      <c r="B13" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A13,0)</f>
         <v/>
       </c>
-      <c r="C13" s="92"/>
+      <c r="C13" s="95"/>
     </row>
     <row r="14">
       <c r="A14" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="92" t="str">
+      <c r="B14" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A14,0)</f>
         <v/>
       </c>
-      <c r="C14" s="92"/>
+      <c r="C14" s="95"/>
     </row>
     <row r="15">
       <c r="A15" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="92" t="str">
+      <c r="B15" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A15,0)</f>
         <v/>
       </c>
-      <c r="C15" s="92"/>
+      <c r="C15" s="95"/>
     </row>
     <row r="16">
       <c r="A16" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="92" t="str">
+      <c r="B16" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A16,0)</f>
         <v/>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="95"/>
     </row>
     <row r="17">
       <c r="A17" s="27">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="92" t="str">
+      <c r="B17" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A17,0)</f>
         <v/>
       </c>
-      <c r="C17" s="92"/>
+      <c r="C17" s="95"/>
     </row>
     <row r="18">
       <c r="A18" s="27">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="92" t="str">
+      <c r="B18" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A18,0)</f>
         <v/>
       </c>
-      <c r="C18" s="92"/>
+      <c r="C18" s="95"/>
     </row>
     <row r="19">
       <c r="A19" s="27">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="92" t="str">
+      <c r="B19" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A19,0)</f>
         <v/>
       </c>
-      <c r="C19" s="92"/>
+      <c r="C19" s="95"/>
     </row>
     <row r="20">
       <c r="A20" s="27">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="92" t="str">
+      <c r="B20" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A20,0)</f>
         <v/>
       </c>
-      <c r="C20" s="92"/>
+      <c r="C20" s="95"/>
     </row>
     <row r="21">
       <c r="A21" s="27">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="92" t="str">
+      <c r="B21" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A21,0)</f>
         <v/>
       </c>
-      <c r="C21" s="92"/>
+      <c r="C21" s="95"/>
     </row>
     <row r="22">
       <c r="A22" s="27">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="92" t="str">
+      <c r="B22" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A22,0)</f>
         <v/>
       </c>
-      <c r="C22" s="92"/>
+      <c r="C22" s="95"/>
     </row>
     <row r="23">
       <c r="A23" s="27">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="92" t="str">
+      <c r="B23" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A23,0)</f>
         <v/>
       </c>
-      <c r="C23" s="92"/>
+      <c r="C23" s="95"/>
     </row>
     <row r="24">
       <c r="A24" s="27">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="92" t="str">
+      <c r="B24" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A24,0)</f>
         <v/>
       </c>
-      <c r="C24" s="92"/>
+      <c r="C24" s="95"/>
     </row>
     <row r="25">
       <c r="A25" s="27">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="92" t="str">
+      <c r="B25" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A25,0)</f>
         <v/>
       </c>
-      <c r="C25" s="92"/>
+      <c r="C25" s="95"/>
     </row>
     <row r="26">
       <c r="A26" s="27">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="92" t="str">
+      <c r="B26" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A26,0)</f>
         <v/>
       </c>
-      <c r="C26" s="92"/>
+      <c r="C26" s="95"/>
     </row>
     <row r="27">
       <c r="A27" s="27">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="92" t="str">
+      <c r="B27" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A27,0)</f>
         <v/>
       </c>
-      <c r="C27" s="92"/>
+      <c r="C27" s="95"/>
     </row>
     <row r="28">
       <c r="A28" s="27">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="92" t="str">
+      <c r="B28" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A28,0)</f>
         <v/>
       </c>
-      <c r="C28" s="92"/>
+      <c r="C28" s="95"/>
     </row>
     <row r="29">
       <c r="A29" s="27">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="92" t="str">
+      <c r="B29" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A29,0)</f>
         <v/>
       </c>
-      <c r="C29" s="92"/>
+      <c r="C29" s="95"/>
     </row>
     <row r="30">
       <c r="A30" s="27">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="92" t="str">
+      <c r="B30" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A30,0)</f>
         <v/>
       </c>
-      <c r="C30" s="92"/>
+      <c r="C30" s="95"/>
     </row>
     <row r="31">
       <c r="A31" s="27">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="92" t="str">
+      <c r="B31" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A31,0)</f>
         <v/>
       </c>
-      <c r="C31" s="92"/>
+      <c r="C31" s="95"/>
     </row>
     <row r="32">
       <c r="A32" s="27">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="92" t="str">
+      <c r="B32" s="95" t="str">
         <f>OFFSET(ITEMS!$B$3,A32,0)</f>
         <v/>
       </c>
-      <c r="C32" s="92"/>
+      <c r="C32" s="95"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4906,211 +4927,211 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="40" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="D1" s="82" t="s">
-        <v>342</v>
+        <v>345</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="49" t="s">
-        <v>343</v>
-      </c>
-      <c r="B2" s="93">
+        <v>347</v>
+      </c>
+      <c r="B2" s="96">
         <v>1.0</v>
       </c>
       <c r="C2" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="79" t="b">
+      <c r="D2" s="83" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="53" t="s">
-        <v>344</v>
-      </c>
-      <c r="B3" s="93">
+        <v>348</v>
+      </c>
+      <c r="B3" s="96">
         <v>1.0</v>
       </c>
       <c r="C3" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="80" t="b">
+      <c r="D3" s="84" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="49" t="s">
-        <v>345</v>
-      </c>
-      <c r="B4" s="94">
+        <v>349</v>
+      </c>
+      <c r="B4" s="97">
         <v>3.0</v>
       </c>
       <c r="C4" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="79" t="b">
+      <c r="D4" s="83" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="95" t="s">
-        <v>346</v>
-      </c>
-      <c r="B5" s="93">
+      <c r="A5" s="98" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" s="96">
         <v>1.0</v>
       </c>
       <c r="C5" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="80" t="b">
+      <c r="D5" s="84" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="49" t="s">
-        <v>347</v>
-      </c>
-      <c r="B6" s="94">
+        <v>351</v>
+      </c>
+      <c r="B6" s="97">
         <v>3.0</v>
       </c>
       <c r="C6" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="79" t="b">
+      <c r="D6" s="83" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="53" t="s">
-        <v>348</v>
-      </c>
-      <c r="B7" s="94">
+        <v>352</v>
+      </c>
+      <c r="B7" s="97">
         <v>3.0</v>
       </c>
       <c r="C7" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="80" t="b">
+      <c r="D7" s="84" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="95" t="s">
-        <v>349</v>
-      </c>
-      <c r="B8" s="96">
+      <c r="A8" s="98" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="99">
         <v>5.0</v>
       </c>
       <c r="C8" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="79" t="b">
+      <c r="D8" s="83" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="B9" s="97">
+        <v>354</v>
+      </c>
+      <c r="B9" s="100">
         <v>4.0</v>
       </c>
       <c r="C9" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="80" t="b">
+      <c r="D9" s="84" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="B10" s="97">
+        <v>355</v>
+      </c>
+      <c r="B10" s="100">
         <v>4.0</v>
       </c>
       <c r="C10" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="79" t="b">
+      <c r="D10" s="83" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="53" t="s">
-        <v>352</v>
-      </c>
-      <c r="B11" s="93">
+        <v>356</v>
+      </c>
+      <c r="B11" s="96">
         <v>1.0</v>
       </c>
       <c r="C11" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="80" t="b">
+      <c r="D11" s="84" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="95" t="s">
-        <v>353</v>
-      </c>
-      <c r="B12" s="97">
+      <c r="A12" s="98" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="100">
         <v>4.0</v>
       </c>
       <c r="C12" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="D12" s="79" t="b">
+      <c r="D12" s="83" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="95" t="s">
-        <v>354</v>
-      </c>
-      <c r="B13" s="93">
+      <c r="A13" s="98" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" s="96">
         <v>1.0</v>
       </c>
       <c r="C13" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="D13" s="80" t="b">
+      <c r="D13" s="84" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="49" t="s">
-        <v>355</v>
-      </c>
-      <c r="B14" s="98">
+        <v>359</v>
+      </c>
+      <c r="B14" s="101">
         <v>2.0</v>
       </c>
       <c r="C14" s="50" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="79" t="b">
+      <c r="D14" s="83" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="57" t="s">
-        <v>356</v>
-      </c>
-      <c r="B15" s="99">
+        <v>360</v>
+      </c>
+      <c r="B15" s="102">
         <v>5.0</v>
       </c>
       <c r="C15" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="81" t="b">
+      <c r="D15" s="88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5466,23 +5487,25 @@
       <c r="B7" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>86</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>67</v>
       </c>
       <c r="J7" s="13" t="s">
@@ -5512,25 +5535,23 @@
       <c r="B8" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="15" t="s">
         <v>90</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>67</v>
       </c>
       <c r="J8" s="8" t="s">
@@ -5557,45 +5578,47 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="11" t="s">
         <v>94</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="J9" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -5603,13 +5626,13 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="15" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -5618,26 +5641,26 @@
       <c r="F10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>25</v>
@@ -5663,16 +5686,14 @@
       <c r="E11" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="F11" s="18"/>
       <c r="G11" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="13" t="s">
@@ -5685,10 +5706,10 @@
         <v>25</v>
       </c>
       <c r="M11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="O11" s="14" t="s">
         <v>25</v>
@@ -5765,7 +5786,7 @@
         <v>25</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>25</v>
@@ -5783,7 +5804,7 @@
         <v>67</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -5791,13 +5812,13 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="6" t="s">
         <v>114</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -5810,8 +5831,8 @@
       <c r="H14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>25</v>
+      <c r="I14" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>25</v>
@@ -5819,17 +5840,17 @@
       <c r="K14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>25</v>
+      <c r="L14" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -5837,13 +5858,13 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="16" t="s">
         <v>118</v>
       </c>
       <c r="E15" s="16" t="s">
@@ -5856,7 +5877,7 @@
       <c r="H15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="13" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="13" t="s">
@@ -5865,8 +5886,8 @@
       <c r="K15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="12" t="s">
-        <v>67</v>
+      <c r="L15" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>25</v>
@@ -5958,7 +5979,7 @@
         <v>25</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>25</v>
@@ -5995,16 +6016,16 @@
         <v>25</v>
       </c>
       <c r="I18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>25</v>
@@ -6041,16 +6062,16 @@
         <v>25</v>
       </c>
       <c r="I19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="K19" s="13" t="s">
         <v>25</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>25</v>
@@ -6090,16 +6111,16 @@
         <v>24</v>
       </c>
       <c r="J20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>25</v>
@@ -6142,13 +6163,13 @@
         <v>25</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>67</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="O21" s="14" t="s">
         <v>25</v>
@@ -6179,13 +6200,13 @@
         <v>25</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>67</v>
@@ -6197,7 +6218,7 @@
         <v>67</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -6251,102 +6272,102 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="8" t="s">
+      <c r="F24" s="33"/>
+      <c r="G24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="O24" s="9" t="s">
+      <c r="M24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="34" t="s">
         <v>24</v>
       </c>
+      <c r="O24" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
     </row>
     <row r="25">
       <c r="A25" s="30">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="35" t="s">
+      <c r="F25" s="18"/>
+      <c r="G25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="M25" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="34" t="s">
+      <c r="J25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
     </row>
     <row r="26">
       <c r="A26" s="29">
@@ -6382,16 +6403,16 @@
         <v>25</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>25</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -6419,22 +6440,22 @@
         <v>25</v>
       </c>
       <c r="I27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="O27" s="14" t="s">
         <v>25</v>
@@ -6465,22 +6486,22 @@
         <v>25</v>
       </c>
       <c r="I28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>25</v>
@@ -6505,13 +6526,13 @@
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>25</v>
@@ -6551,7 +6572,7 @@
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="8" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>25</v>
@@ -6563,19 +6584,19 @@
         <v>25</v>
       </c>
       <c r="K30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L30" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="M30" s="8" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="N30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O30" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -6603,7 +6624,7 @@
         <v>25</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>25</v>
@@ -6615,13 +6636,13 @@
         <v>67</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
@@ -6649,7 +6670,7 @@
         <v>25</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>25</v>
@@ -6661,7 +6682,7 @@
         <v>67</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>25</v>
@@ -6695,7 +6716,7 @@
         <v>25</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>25</v>
@@ -6704,10 +6725,10 @@
         <v>25</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N33" s="13" t="s">
         <v>25</v>
@@ -6735,22 +6756,22 @@
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>25</v>
@@ -6793,10 +6814,10 @@
         <v>25</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="M35" s="13" t="s">
         <v>25</v>
@@ -7534,9 +7555,9 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="34.86"/>
     <col customWidth="1" min="3" max="3" width="30.0"/>
-    <col customWidth="1" min="4" max="6" width="40.57"/>
-    <col customWidth="1" min="7" max="8" width="33.86"/>
-    <col customWidth="1" min="9" max="13" width="32.57"/>
+    <col customWidth="1" min="4" max="7" width="40.57"/>
+    <col customWidth="1" min="8" max="9" width="33.86"/>
+    <col customWidth="1" min="10" max="13" width="32.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7658,7 +7679,7 @@
       </c>
       <c r="C4" s="68">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="63" t="s">
         <v>267</v>
@@ -7667,10 +7688,10 @@
         <v>268</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H4" s="63" t="s">
         <v>264</v>
@@ -7691,7 +7712,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C5" s="69">
         <f t="shared" si="1"/>
@@ -7727,34 +7748,34 @@
         <v>0</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I7" s="61" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K7" s="48" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8">
@@ -7778,7 +7799,7 @@
         <v>248</v>
       </c>
       <c r="G8" s="68">
-        <f t="shared" ref="G8:G13" si="2">COUNTIFS(H8:K8,"&lt;&gt;PHRASE_NONE",H8:K8,"&lt;&gt;")</f>
+        <f t="shared" ref="G8:G14" si="2">COUNTIFS(H8:K8,"&lt;&gt;PHRASE_NONE",H8:K8,"&lt;&gt;")</f>
         <v>0</v>
       </c>
       <c r="H8" s="51" t="s">
@@ -7856,10 +7877,10 @@
         <v>2</v>
       </c>
       <c r="H10" s="51" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I10" s="51" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="J10" s="51" t="s">
         <v>249</v>
@@ -7893,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>249</v>
@@ -7911,7 +7932,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C12" s="51" t="s">
         <v>235</v>
@@ -7930,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="51" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I12" s="51" t="s">
         <v>249</v>
@@ -7943,126 +7964,166 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="57">
+      <c r="A13" s="53">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>5</v>
       </c>
-      <c r="B13" s="58" t="s">
-        <v>285</v>
-      </c>
-      <c r="C13" s="59" t="s">
+      <c r="B13" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="76" t="b">
+      <c r="F13" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="74">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="K13" s="56" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="76">
+        <f>ROW()-ROW(Table_Dialog_Options[N])</f>
+        <v>6</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="79" t="b">
         <v>0</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E14" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F14" s="78" t="s">
         <v>248</v>
       </c>
-      <c r="G13" s="77">
+      <c r="G14" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H14" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I14" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="J13" s="59" t="s">
+      <c r="J14" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K14" s="81" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-    </row>
     <row r="16">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
     </row>
     <row r="17">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
     </row>
     <row r="18">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
     </row>
     <row r="19">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
     </row>
     <row r="20">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D2:H5">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E8:E13">
-      <formula1>Table_Events[EVENT_ID]</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="I2:K5">
       <formula1>Table_Dialog_Options[DIALOG_OPTION_ID]</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C8:C13">
+    <dataValidation type="list" allowBlank="1" sqref="D2:E5 H2:H5">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C2:C5 G8:G13">
+    <dataValidation type="list" allowBlank="1" sqref="F2:G5">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E8:E14">
+      <formula1>Table_Events[EVENT_ID]</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="H8:H14">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="C8:C14">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C2:C5 G8:G14">
       <formula1>AND(ISNUMBER(C2),(NOT(OR(NOT(ISERROR(DATEVALUE(C2))), AND(ISNUMBER(C2), LEFT(CELL("format", C2))="D")))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H8:H13">
+    <dataValidation type="list" allowBlank="1" sqref="I8:K14">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I8:K13">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F8:F13">
+    <dataValidation type="list" allowBlank="1" sqref="F8:F14">
       <formula1>Table_Dialogs[DIALOG_ID]</formula1>
     </dataValidation>
   </dataValidations>
@@ -8100,25 +8161,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2">
@@ -8130,18 +8191,18 @@
         <v>249</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E2" s="50">
         <v>0.0</v>
       </c>
       <c r="F2" s="63" t="s">
-        <v>294</v>
-      </c>
-      <c r="H2" s="79"/>
+        <v>296</v>
+      </c>
+      <c r="H2" s="83"/>
     </row>
     <row r="3">
       <c r="A3" s="53">
@@ -8149,25 +8210,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>295</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>293</v>
       </c>
       <c r="E3" s="54">
         <v>0.0</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>297</v>
-      </c>
-      <c r="H3" s="80" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="4">
@@ -8176,25 +8237,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E4" s="50">
         <v>0.0</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="H4" s="79" t="s">
-        <v>301</v>
+        <v>302</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="5">
@@ -8203,25 +8264,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E5" s="54">
         <v>0.0</v>
       </c>
       <c r="F5" s="66" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>302</v>
-      </c>
-      <c r="H5" s="80" t="s">
-        <v>303</v>
+        <v>304</v>
+      </c>
+      <c r="H5" s="84" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="6">
@@ -8230,60 +8291,87 @@
         <v>4</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E6" s="50">
         <v>0.0</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="H6" s="79" t="s">
-        <v>305</v>
+        <v>306</v>
+      </c>
+      <c r="H6" s="83" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="57">
+      <c r="A7" s="53">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>5</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>292</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>299</v>
-      </c>
-      <c r="E7" s="58">
+      <c r="B7" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="54">
         <v>0.0</v>
       </c>
-      <c r="F7" s="70" t="s">
-        <v>296</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>306</v>
-      </c>
-      <c r="H7" s="81" t="s">
-        <v>307</v>
+      <c r="F7" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="H7" s="84" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="76">
+        <f>ROW()-ROW(Table_Phrases[N])</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="77">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>298</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>310</v>
+      </c>
+      <c r="H8" s="86" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F7">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F8">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D7">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D8">
       <formula1>Table_Rooms[ROOM_ID]</formula1>
     </dataValidation>
   </dataValidations>
@@ -8314,8 +8402,8 @@
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
-        <v>308</v>
+      <c r="B1" s="87" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="2">
@@ -8323,8 +8411,8 @@
         <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)-1</f>
         <v>-1</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>293</v>
+      <c r="B2" s="83" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="3">
@@ -8332,17 +8420,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B3" s="80" t="s">
-        <v>299</v>
+      <c r="B3" s="84" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="83">
+      <c r="A4" s="76">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B4" s="84" t="s">
-        <v>309</v>
+      <c r="B4" s="86" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -8371,8 +8459,8 @@
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
-        <v>310</v>
+      <c r="B1" s="87" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="2">
@@ -8381,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
@@ -8390,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -8425,23 +8513,23 @@
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
-        <v>313</v>
+      <c r="B1" s="87" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="49">
         <v>0.0</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>314</v>
+      <c r="B2" s="83" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="53">
         <v>1.0</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="84" t="s">
         <v>224</v>
       </c>
     </row>
@@ -8449,7 +8537,7 @@
       <c r="A4" s="49">
         <v>2.0</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="83" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8457,39 +8545,39 @@
       <c r="A5" s="57">
         <v>3.0</v>
       </c>
-      <c r="B5" s="81" t="s">
-        <v>315</v>
+      <c r="B5" s="88" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="82" t="s">
-        <v>316</v>
+      <c r="B7" s="87" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="49">
         <v>0.0</v>
       </c>
-      <c r="B8" s="79" t="s">
-        <v>317</v>
+      <c r="B8" s="83" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="53">
         <v>1.0</v>
       </c>
-      <c r="B9" s="80" t="s">
-        <v>318</v>
+      <c r="B9" s="84" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="49">
         <v>2.0</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="83" t="s">
         <v>246</v>
       </c>
     </row>
@@ -8497,7 +8585,7 @@
       <c r="A11" s="53">
         <v>3.0</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="84" t="s">
         <v>247</v>
       </c>
     </row>
@@ -8505,7 +8593,7 @@
       <c r="A12" s="49">
         <v>4.0</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="83" t="s">
         <v>251</v>
       </c>
     </row>
@@ -8513,7 +8601,7 @@
       <c r="A13" s="57">
         <v>5.0</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="88" t="s">
         <v>250</v>
       </c>
     </row>
@@ -8521,15 +8609,15 @@
       <c r="A15" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="82" t="s">
-        <v>319</v>
+      <c r="B15" s="87" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="49">
         <v>0.0</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="83" t="s">
         <v>225</v>
       </c>
     </row>
@@ -8537,7 +8625,7 @@
       <c r="A17" s="53">
         <v>1.0</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="84" t="s">
         <v>229</v>
       </c>
     </row>
@@ -8545,7 +8633,7 @@
       <c r="A18" s="49">
         <v>2.0</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="83" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8553,72 +8641,72 @@
       <c r="A19" s="53">
         <v>3.0</v>
       </c>
-      <c r="B19" s="80" t="s">
-        <v>320</v>
+      <c r="B19" s="84" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="83">
+      <c r="A20" s="76">
         <v>4.0</v>
       </c>
-      <c r="B20" s="84" t="s">
-        <v>321</v>
+      <c r="B20" s="86" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="82" t="s">
-        <v>322</v>
+      <c r="B22" s="87" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="49">
         <v>0.0</v>
       </c>
-      <c r="B23" s="79" t="s">
-        <v>323</v>
+      <c r="B23" s="83" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="53">
         <v>1.0</v>
       </c>
-      <c r="B24" s="80" t="s">
-        <v>324</v>
+      <c r="B24" s="84" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="83">
+      <c r="A25" s="76">
         <v>2.0</v>
       </c>
-      <c r="B25" s="84" t="s">
-        <v>325</v>
+      <c r="B25" s="86" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="82" t="s">
-        <v>326</v>
+      <c r="B27" s="87" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="49">
         <v>-1.0</v>
       </c>
-      <c r="B28" s="79" t="s">
-        <v>294</v>
+      <c r="B28" s="83" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="57">
         <v>0.0</v>
       </c>
-      <c r="B29" s="81" t="s">
-        <v>296</v>
+      <c r="B29" s="88" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -7,21 +7,22 @@
     <sheet state="visible" name="SERVICES" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="ITEMS" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="ITEMS_CONDS" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="DIALOGS" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="PHRASES" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="ROOMS" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="NPCs" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="CHARACTERS" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="EVENTS" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="CONSTANTS" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="_ITEM_AVAIL" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="_TODO" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="SPRITES" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="DIALOGS" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="PHRASES" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="ROOMS" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="NPCs" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="CHARACTERS" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="EVENTS" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="CONSTANTS" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="_ITEM_AVAIL" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="_TODO" sheetId="14" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId17" roundtripDataChecksum="xbgZzFm5j5RePZcmEOpoZSd331k8tUrY23o9WgYNcQw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId18" roundtripDataChecksum="BafN0MHUlTs/eN0zbTB3vTvVIC4CsPJTr5YHKRka6Ps="/>
     </ext>
   </extLst>
 </workbook>
@@ -45,7 +46,7 @@
 ======</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E14">
+    <comment authorId="0" ref="E13">
       <text>
         <t xml:space="preserve">Calculated
 ======</t>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="370">
   <si>
     <t>N</t>
   </si>
@@ -249,7 +250,19 @@
     <t>PLAYER_SELECTED</t>
   </si>
   <si>
-    <t>ITEM_MENU_ACTIVE</t>
+    <t>PICKABLE_ITEM_CHOSEN</t>
+  </si>
+  <si>
+    <t>GameItem</t>
+  </si>
+  <si>
+    <t>GameItem.ITEM_NONE</t>
+  </si>
+  <si>
+    <t>PLAYER_TRANSACTION</t>
+  </si>
+  <si>
+    <t>LAST_VARMAP_VAL</t>
   </si>
   <si>
     <t>bool</t>
@@ -258,21 +271,6 @@
     <t>false</t>
   </si>
   <si>
-    <t>PICKABLE_ITEM_CHOSEN</t>
-  </si>
-  <si>
-    <t>GameItem</t>
-  </si>
-  <si>
-    <t>GameItem.ITEM_NONE</t>
-  </si>
-  <si>
-    <t>PLAYER_TRANSACTION</t>
-  </si>
-  <si>
-    <t>LAST_VARMAP_VAL</t>
-  </si>
-  <si>
     <t>SERVICE_ID</t>
   </si>
   <si>
@@ -600,6 +598,18 @@
     <t>Gets scenario item list</t>
   </si>
   <si>
+    <t>ENABLE_ITEM_MENU</t>
+  </si>
+  <si>
+    <t>ENABLE_ITEM_MENU_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameMasterClass.EnableItemMenu</t>
+  </si>
+  <si>
+    <t>Enables or disables item menu (from Play State)</t>
+  </si>
+  <si>
     <t>SELECT_PICKABLE_ITEM</t>
   </si>
   <si>
@@ -672,30 +682,18 @@
     <t>Locks player so it cannot act until an action over it has been done (or removes lock)</t>
   </si>
   <si>
-    <t>START_DIALOGUE</t>
-  </si>
-  <si>
-    <t>START_DIALOGUE_DELEGATE</t>
-  </si>
-  <si>
-    <t>GameMasterClass.StartDialogueService</t>
+    <t>ENABLE_DIALOGUE</t>
+  </si>
+  <si>
+    <t>ENABLE_DIALOGUE_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameMasterClass.EnableDialogueService</t>
   </si>
   <si>
     <t>Starts a dialogue with given text and sound</t>
   </si>
   <si>
-    <t>END_DIALOGUE</t>
-  </si>
-  <si>
-    <t>END_DIALOGUE_DELEGATE</t>
-  </si>
-  <si>
-    <t>GameMasterClass.EndDialogueService</t>
-  </si>
-  <si>
-    <t>Ends a dialogue</t>
-  </si>
-  <si>
     <t>SHOW_DIALOGUE</t>
   </si>
   <si>
@@ -858,6 +856,42 @@
     <t>COND_LAST</t>
   </si>
   <si>
+    <t>SPRITE_ID</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>IS_ITEM</t>
+  </si>
+  <si>
+    <t>NEEDED_IN_ROOM</t>
+  </si>
+  <si>
+    <t>SPRITE_NONE</t>
+  </si>
+  <si>
+    <t>ROOM_NONE</t>
+  </si>
+  <si>
+    <t>SPRITE_POTION_RED</t>
+  </si>
+  <si>
+    <t>Sprites/potion_64</t>
+  </si>
+  <si>
+    <t>ROOM_FIRST</t>
+  </si>
+  <si>
+    <t>SPRITE_POTION_BLUE</t>
+  </si>
+  <si>
+    <t>Sprites/potionblue_64</t>
+  </si>
+  <si>
+    <t>SPRITE_LAST</t>
+  </si>
+  <si>
     <t>DIALOG_ID</t>
   </si>
   <si>
@@ -981,9 +1015,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>ROOM_NONE</t>
-  </si>
-  <si>
     <t>DIALOG_ANIMATION_NONE</t>
   </si>
   <si>
@@ -997,9 +1028,6 @@
   </si>
   <si>
     <t>¡Eso no tiene sentido!</t>
-  </si>
-  <si>
-    <t>ROOM_FIRST</t>
   </si>
   <si>
     <t>Are you the fountain?</t>
@@ -1371,6 +1399,48 @@
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
         <color rgb="FFF6F8F9"/>
       </right>
       <top style="thin">
@@ -1427,48 +1497,6 @@
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
         <color rgb="FF284E3F"/>
       </right>
       <top style="thin">
@@ -1490,6 +1518,20 @@
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB7E1CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB7E1CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB7E1CD"/>
       </bottom>
     </border>
     <border>
@@ -1518,20 +1560,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFFFFF00"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB7E1CD"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB7E1CD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB7E1CD"/>
       </bottom>
     </border>
     <border>
@@ -1594,7 +1622,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="107">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1652,9 +1680,6 @@
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf quotePrefix="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1709,11 +1734,23 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1727,23 +1764,71 @@
     <xf borderId="3" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1754,9 +1839,6 @@
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1766,6 +1848,24 @@
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1775,70 +1875,13 @@
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1848,28 +1891,25 @@
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1955,7 +1995,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="17">
+  <tableStyles count="18">
     <tableStyle count="3" pivot="0" name="VARMAP-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -1972,6 +2012,11 @@
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="ITEMS_CONDS-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="SPRITES-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -2065,6 +2110,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -2098,7 +2147,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Q15" displayName="Table_Varmap" name="Table_Varmap" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Q14" displayName="Table_Varmap" name="Table_Varmap" id="1">
   <tableColumns count="17">
     <tableColumn name="N" id="1"/>
     <tableColumn name="ENUM_ID" id="2"/>
@@ -2123,7 +2172,17 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B5" displayName="Table_Characters" name="Table_Characters" id="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B3" displayName="Table_NPCs" name="Table_NPCs" id="10">
+  <tableColumns count="2">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="NPC_ID" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="NPCs-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B5" displayName="Table_Characters" name="Table_Characters" id="11">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="Type" id="2"/>
@@ -2132,8 +2191,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:B13" displayName="Table_ItemUse_Animation" name="Table_ItemUse_Animation" id="11">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:B13" displayName="Table_ItemUse_Animation" name="Table_ItemUse_Animation" id="12">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="ANIMATION_ID" id="2"/>
@@ -2142,8 +2201,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A15:B20" displayName="Table_Interaction" name="Table_Interaction" id="12">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A15:B20" displayName="Table_Interaction" name="Table_Interaction" id="13">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="INTERACTION_ID" id="2"/>
@@ -2152,8 +2211,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A22:B25" displayName="Table_Characters_Name" name="Table_Characters_Name" id="13">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A22:B25" displayName="Table_Characters_Name" name="Table_Characters_Name" id="14">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="CharName" id="2"/>
@@ -2162,8 +2221,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A27:B29" displayName="Table_Dialog_Animation" name="Table_Dialog_Animation" id="14">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A27:B29" displayName="Table_Dialog_Animation" name="Table_Dialog_Animation" id="15">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="DIALOG_ANIMATION_ID" id="2"/>
@@ -2172,8 +2231,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Events" name="Table_Events" id="15">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Events" name="Table_Events" id="16">
   <tableColumns count="7">
     <tableColumn name="N" id="1"/>
     <tableColumn name="EVENT_ID" id="2"/>
@@ -2187,8 +2246,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A2" displayName="Table_Constants" name="Table_Constants" id="16">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A2" displayName="Table_Constants" name="Table_Constants" id="17">
   <tableColumns count="1">
     <tableColumn name="NUM_PLAYERS" id="1"/>
   </tableColumns>
@@ -2196,8 +2255,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D15" displayName="Table_TODO" name="Table_TODO" id="17">
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D15" displayName="Table_TODO" name="Table_TODO" id="18">
   <tableColumns count="4">
     <tableColumn name="TASK" id="1"/>
     <tableColumn name="PRIO" id="2"/>
@@ -2275,7 +2334,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K5" displayName="Table_Dialogs" name="Table_Dialogs" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E5" displayName="Table_sprites" name="Table_sprites" id="5">
+  <tableColumns count="5">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="SPRITE_ID" id="2"/>
+    <tableColumn name="PATH" id="3"/>
+    <tableColumn name="IS_ITEM" id="4"/>
+    <tableColumn name="NEEDED_IN_ROOM" id="5"/>
+  </tableColumns>
+  <tableStyleInfo name="SPRITES-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K5" displayName="Table_Dialogs" name="Table_Dialogs" id="6">
   <tableColumns count="11">
     <tableColumn name="N" id="1"/>
     <tableColumn name="DIALOG_ID" id="2"/>
@@ -2293,8 +2365,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:K14" displayName="Table_Dialog_Options" name="Table_Dialog_Options" id="6">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:K14" displayName="Table_Dialog_Options" name="Table_Dialog_Options" id="7">
   <tableColumns count="11">
     <tableColumn name="N" id="1"/>
     <tableColumn name="DIALOG_OPTION_ID" id="2"/>
@@ -2312,8 +2384,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H8" displayName="Table_Phrases" name="Table_Phrases" id="7">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H8" displayName="Table_Phrases" name="Table_Phrases" id="8">
   <tableColumns count="8">
     <tableColumn name="N" id="1"/>
     <tableColumn name="PHRASE_ID" id="2"/>
@@ -2328,23 +2400,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B4" displayName="Table_Rooms" name="Table_Rooms" id="8">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B4" displayName="Table_Rooms" name="Table_Rooms" id="9">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="ROOM_ID" id="2"/>
   </tableColumns>
   <tableStyleInfo name="ROOMS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B3" displayName="Table_NPCs" name="Table_NPCs" id="9">
-  <tableColumns count="2">
-    <tableColumn name="N" id="1"/>
-    <tableColumn name="NPC_ID" id="2"/>
-  </tableColumns>
-  <tableStyleInfo name="NPCs-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -2631,7 +2693,7 @@
     </row>
     <row r="2">
       <c r="A2" s="5">
-        <f t="shared" ref="A2:A15" si="1">ROW()-ROW($A$2)</f>
+        <f t="shared" ref="A2:A14" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -3177,18 +3239,18 @@
         <v>52</v>
       </c>
       <c r="D12" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E12" s="15">
         <v>0.0</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="15" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="8" t="s">
         <v>25</v>
       </c>
@@ -3196,22 +3258,22 @@
         <v>25</v>
       </c>
       <c r="K12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P12" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="Q12" s="9" t="s">
         <v>25</v>
@@ -3226,16 +3288,17 @@
         <v>54</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D13" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="16">
         <v>0.0</v>
       </c>
+      <c r="E13" s="17">
+        <f>COUNT(Table_Characters[N])-1</f>
+        <v>3</v>
+      </c>
       <c r="F13" s="16" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>0</v>
@@ -3251,138 +3314,86 @@
         <v>22</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="5">
+      <c r="A14" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="17">
-        <f>COUNT(Table_Characters[N])-1</f>
-        <v>3</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="8" t="s">
+      <c r="H14" s="24"/>
+      <c r="I14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="21">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="23">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
+      <c r="J14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="I22" s="27"/>
-    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -4352,16 +4363,15 @@
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G14">
       <formula1>"N,Y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D14">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:Q15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:Q14">
       <formula1>"R,R E,W,W E,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4377,6 +4387,238 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF990000"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="3" width="38.86"/>
+    <col customWidth="1" min="4" max="4" width="23.29"/>
+    <col customWidth="1" min="6" max="6" width="38.86"/>
+    <col customWidth="1" min="8" max="8" width="34.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="56">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="52">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="60">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="56">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="52">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="56">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="52">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="60">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="92" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="56">
+        <v>1.0</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="52">
+        <v>2.0</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="56">
+        <v>3.0</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="81">
+        <v>4.0</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="56">
+        <v>1.0</v>
+      </c>
+      <c r="B24" s="89" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="81">
+        <v>2.0</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="52">
+        <v>-1.0</v>
+      </c>
+      <c r="B28" s="88" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="60">
+        <v>0.0</v>
+      </c>
+      <c r="B29" s="92" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+  <tableParts count="5">
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
@@ -4401,75 +4643,75 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="G1" s="87" t="s">
-        <v>336</v>
+      <c r="B1" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49">
+      <c r="A2" s="52">
         <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="G2" s="90"/>
+      <c r="B2" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="G2" s="94"/>
     </row>
     <row r="3">
-      <c r="A3" s="53">
+      <c r="A3" s="56">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>337</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="56" t="s">
-        <v>235</v>
+      <c r="B3" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="59" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="76">
+      <c r="A4" s="81">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="77" t="s">
-        <v>338</v>
-      </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="G4" s="92"/>
+      <c r="B4" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="G4" s="96"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4487,7 +4729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFB45F06"/>
@@ -4505,12 +4747,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="93" t="s">
-        <v>339</v>
+      <c r="A1" s="97" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="94">
+      <c r="A2" s="98">
         <v>3.0</v>
       </c>
     </row>
@@ -4522,7 +4764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4537,364 +4779,364 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>341</v>
+      <c r="B1" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <f t="shared" ref="A2:A32" si="1">ROW()-ROW($G$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="95" t="str">
+      <c r="B2" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A2,0)</f>
         <v>ITEM_POTION</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>342</v>
+      <c r="C2" s="26" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="95" t="str">
+      <c r="B3" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A3,0)</f>
         <v>ITEM_POTION_BLUE</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>342</v>
+      <c r="C3" s="26" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="95" t="str">
+      <c r="B4" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A4,0)</f>
         <v>ITEM_FOUNTAIN</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>342</v>
+      <c r="C4" s="26" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="95" t="str">
+      <c r="B5" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A5,0)</f>
         <v>ITEM_LAST</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>342</v>
+      <c r="C5" s="26" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="95" t="str">
+      <c r="B6" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A6,0)</f>
         <v/>
       </c>
-      <c r="C6" s="95"/>
+      <c r="C6" s="99"/>
     </row>
     <row r="7">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="95" t="str">
+      <c r="B7" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A7,0)</f>
         <v/>
       </c>
-      <c r="C7" s="95"/>
+      <c r="C7" s="99"/>
     </row>
     <row r="8">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="95" t="str">
+      <c r="B8" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A8,0)</f>
         <v/>
       </c>
-      <c r="C8" s="95"/>
+      <c r="C8" s="99"/>
     </row>
     <row r="9">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="95" t="str">
+      <c r="B9" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A9,0)</f>
         <v/>
       </c>
-      <c r="C9" s="95"/>
+      <c r="C9" s="99"/>
     </row>
     <row r="10">
-      <c r="A10" s="27">
+      <c r="A10" s="26">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="95" t="str">
+      <c r="B10" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A10,0)</f>
         <v/>
       </c>
-      <c r="C10" s="95"/>
+      <c r="C10" s="99"/>
     </row>
     <row r="11">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="95" t="str">
+      <c r="B11" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A11,0)</f>
         <v/>
       </c>
-      <c r="C11" s="95"/>
+      <c r="C11" s="99"/>
     </row>
     <row r="12">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="95" t="str">
+      <c r="B12" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A12,0)</f>
         <v/>
       </c>
-      <c r="C12" s="95"/>
+      <c r="C12" s="99"/>
     </row>
     <row r="13">
-      <c r="A13" s="27">
+      <c r="A13" s="26">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="95" t="str">
+      <c r="B13" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A13,0)</f>
         <v/>
       </c>
-      <c r="C13" s="95"/>
+      <c r="C13" s="99"/>
     </row>
     <row r="14">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="95" t="str">
+      <c r="B14" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A14,0)</f>
         <v/>
       </c>
-      <c r="C14" s="95"/>
+      <c r="C14" s="99"/>
     </row>
     <row r="15">
-      <c r="A15" s="27">
+      <c r="A15" s="26">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="95" t="str">
+      <c r="B15" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A15,0)</f>
         <v/>
       </c>
-      <c r="C15" s="95"/>
+      <c r="C15" s="99"/>
     </row>
     <row r="16">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="95" t="str">
+      <c r="B16" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A16,0)</f>
         <v/>
       </c>
-      <c r="C16" s="95"/>
+      <c r="C16" s="99"/>
     </row>
     <row r="17">
-      <c r="A17" s="27">
+      <c r="A17" s="26">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="95" t="str">
+      <c r="B17" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A17,0)</f>
         <v/>
       </c>
-      <c r="C17" s="95"/>
+      <c r="C17" s="99"/>
     </row>
     <row r="18">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="95" t="str">
+      <c r="B18" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A18,0)</f>
         <v/>
       </c>
-      <c r="C18" s="95"/>
+      <c r="C18" s="99"/>
     </row>
     <row r="19">
-      <c r="A19" s="27">
+      <c r="A19" s="26">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="95" t="str">
+      <c r="B19" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A19,0)</f>
         <v/>
       </c>
-      <c r="C19" s="95"/>
+      <c r="C19" s="99"/>
     </row>
     <row r="20">
-      <c r="A20" s="27">
+      <c r="A20" s="26">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="95" t="str">
+      <c r="B20" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A20,0)</f>
         <v/>
       </c>
-      <c r="C20" s="95"/>
+      <c r="C20" s="99"/>
     </row>
     <row r="21">
-      <c r="A21" s="27">
+      <c r="A21" s="26">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="95" t="str">
+      <c r="B21" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A21,0)</f>
         <v/>
       </c>
-      <c r="C21" s="95"/>
+      <c r="C21" s="99"/>
     </row>
     <row r="22">
-      <c r="A22" s="27">
+      <c r="A22" s="26">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="95" t="str">
+      <c r="B22" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A22,0)</f>
         <v/>
       </c>
-      <c r="C22" s="95"/>
+      <c r="C22" s="99"/>
     </row>
     <row r="23">
-      <c r="A23" s="27">
+      <c r="A23" s="26">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="95" t="str">
+      <c r="B23" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A23,0)</f>
         <v/>
       </c>
-      <c r="C23" s="95"/>
+      <c r="C23" s="99"/>
     </row>
     <row r="24">
-      <c r="A24" s="27">
+      <c r="A24" s="26">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="95" t="str">
+      <c r="B24" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A24,0)</f>
         <v/>
       </c>
-      <c r="C24" s="95"/>
+      <c r="C24" s="99"/>
     </row>
     <row r="25">
-      <c r="A25" s="27">
+      <c r="A25" s="26">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="95" t="str">
+      <c r="B25" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A25,0)</f>
         <v/>
       </c>
-      <c r="C25" s="95"/>
+      <c r="C25" s="99"/>
     </row>
     <row r="26">
-      <c r="A26" s="27">
+      <c r="A26" s="26">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="95" t="str">
+      <c r="B26" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A26,0)</f>
         <v/>
       </c>
-      <c r="C26" s="95"/>
+      <c r="C26" s="99"/>
     </row>
     <row r="27">
-      <c r="A27" s="27">
+      <c r="A27" s="26">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="95" t="str">
+      <c r="B27" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A27,0)</f>
         <v/>
       </c>
-      <c r="C27" s="95"/>
+      <c r="C27" s="99"/>
     </row>
     <row r="28">
-      <c r="A28" s="27">
+      <c r="A28" s="26">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="95" t="str">
+      <c r="B28" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A28,0)</f>
         <v/>
       </c>
-      <c r="C28" s="95"/>
+      <c r="C28" s="99"/>
     </row>
     <row r="29">
-      <c r="A29" s="27">
+      <c r="A29" s="26">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="95" t="str">
+      <c r="B29" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A29,0)</f>
         <v/>
       </c>
-      <c r="C29" s="95"/>
+      <c r="C29" s="99"/>
     </row>
     <row r="30">
-      <c r="A30" s="27">
+      <c r="A30" s="26">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="95" t="str">
+      <c r="B30" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A30,0)</f>
         <v/>
       </c>
-      <c r="C30" s="95"/>
+      <c r="C30" s="99"/>
     </row>
     <row r="31">
-      <c r="A31" s="27">
+      <c r="A31" s="26">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="95" t="str">
+      <c r="B31" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A31,0)</f>
         <v/>
       </c>
-      <c r="C31" s="95"/>
+      <c r="C31" s="99"/>
     </row>
     <row r="32">
-      <c r="A32" s="27">
+      <c r="A32" s="26">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="95" t="str">
+      <c r="B32" s="99" t="str">
         <f>OFFSET(ITEMS!$B$3,A32,0)</f>
         <v/>
       </c>
-      <c r="C32" s="95"/>
+      <c r="C32" s="99"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4906,7 +5148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4926,212 +5168,212 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>346</v>
+      <c r="A1" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="s">
-        <v>347</v>
-      </c>
-      <c r="B2" s="96">
+      <c r="A2" s="100" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="101">
         <v>1.0</v>
       </c>
-      <c r="C2" s="50" t="b">
+      <c r="C2" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="101">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="57" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="83" t="b">
+      <c r="D3" s="89" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="53" t="s">
-        <v>348</v>
-      </c>
-      <c r="B3" s="96">
+    <row r="4">
+      <c r="A4" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" s="102">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="100" t="s">
+        <v>359</v>
+      </c>
+      <c r="B5" s="101">
         <v>1.0</v>
       </c>
-      <c r="C3" s="54" t="b">
+      <c r="C5" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" s="102">
+        <v>3.0</v>
+      </c>
+      <c r="C6" s="53" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="84" t="b">
+      <c r="D6" s="88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="100" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" s="102">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="57" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="49" t="s">
-        <v>349</v>
-      </c>
-      <c r="B4" s="97">
-        <v>3.0</v>
-      </c>
-      <c r="C4" s="50" t="b">
+      <c r="D7" s="89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="100" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" s="103">
+        <v>5.0</v>
+      </c>
+      <c r="C8" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" s="104">
+        <v>4.0</v>
+      </c>
+      <c r="C9" s="57" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="83" t="b">
+      <c r="D9" s="89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="98" t="s">
-        <v>350</v>
-      </c>
-      <c r="B5" s="96">
+    <row r="10">
+      <c r="A10" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" s="104">
+        <v>4.0</v>
+      </c>
+      <c r="C10" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="101">
         <v>1.0</v>
       </c>
-      <c r="C5" s="54" t="b">
+      <c r="C11" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="100" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" s="104">
+        <v>4.0</v>
+      </c>
+      <c r="C12" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="84" t="b">
+      <c r="D12" s="88" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="B6" s="97">
-        <v>3.0</v>
-      </c>
-      <c r="C6" s="50" t="b">
+    <row r="13">
+      <c r="A13" s="100" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" s="101">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="100" t="s">
+        <v>368</v>
+      </c>
+      <c r="B14" s="105">
+        <v>2.0</v>
+      </c>
+      <c r="C14" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="106">
+        <v>5.0</v>
+      </c>
+      <c r="C15" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="53" t="s">
-        <v>352</v>
-      </c>
-      <c r="B7" s="97">
-        <v>3.0</v>
-      </c>
-      <c r="C7" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="98" t="s">
-        <v>353</v>
-      </c>
-      <c r="B8" s="99">
-        <v>5.0</v>
-      </c>
-      <c r="C8" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="53" t="s">
-        <v>354</v>
-      </c>
-      <c r="B9" s="100">
-        <v>4.0</v>
-      </c>
-      <c r="C9" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="49" t="s">
-        <v>355</v>
-      </c>
-      <c r="B10" s="100">
-        <v>4.0</v>
-      </c>
-      <c r="C10" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="53" t="s">
-        <v>356</v>
-      </c>
-      <c r="B11" s="96">
-        <v>1.0</v>
-      </c>
-      <c r="C11" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="98" t="s">
-        <v>357</v>
-      </c>
-      <c r="B12" s="100">
-        <v>4.0</v>
-      </c>
-      <c r="C12" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="98" t="s">
-        <v>358</v>
-      </c>
-      <c r="B13" s="96">
-        <v>1.0</v>
-      </c>
-      <c r="C13" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="84" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="49" t="s">
-        <v>359</v>
-      </c>
-      <c r="B14" s="101">
-        <v>2.0</v>
-      </c>
-      <c r="C14" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" s="83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="57" t="s">
-        <v>360</v>
-      </c>
-      <c r="B15" s="102">
-        <v>5.0</v>
-      </c>
-      <c r="C15" s="58" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="88" t="b">
+      <c r="D15" s="92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5197,20 +5439,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
@@ -5244,21 +5486,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29">
+      <c r="A2" s="28">
         <f t="shared" ref="A2:A37" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>21</v>
@@ -5276,7 +5518,7 @@
         <v>25</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>25</v>
@@ -5292,21 +5534,21 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="30">
+      <c r="A3" s="29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="13" t="s">
@@ -5316,13 +5558,13 @@
         <v>25</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L3" s="13" t="s">
         <v>25</v>
@@ -5338,21 +5580,21 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29">
+      <c r="A4" s="28">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="8" t="s">
@@ -5368,7 +5610,7 @@
         <v>25</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>25</v>
@@ -5384,21 +5626,21 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="30">
+      <c r="A5" s="29">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>21</v>
@@ -5410,7 +5652,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>25</v>
@@ -5432,21 +5674,21 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="29">
+      <c r="A6" s="28">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>21</v>
@@ -5464,7 +5706,7 @@
         <v>25</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>25</v>
@@ -5480,21 +5722,21 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="30">
+      <c r="A7" s="29">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>87</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>21</v>
@@ -5503,92 +5745,92 @@
         <v>24</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="8" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="30">
+      <c r="A9" s="29">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>95</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>21</v>
@@ -5600,7 +5842,7 @@
         <v>25</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>25</v>
@@ -5622,21 +5864,21 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>21</v>
@@ -5660,7 +5902,7 @@
         <v>25</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>25</v>
@@ -5670,21 +5912,21 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="30">
+      <c r="A11" s="29">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="13" t="s">
@@ -5709,30 +5951,30 @@
         <v>25</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O11" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="29">
+      <c r="A12" s="28">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="8" t="s">
         <v>25</v>
       </c>
@@ -5755,28 +5997,28 @@
         <v>25</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="30">
+      <c r="A13" s="29">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="13" t="s">
@@ -5801,30 +6043,30 @@
         <v>25</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="29">
+      <c r="A14" s="28">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="8" t="s">
         <v>25</v>
       </c>
@@ -5841,7 +6083,7 @@
         <v>25</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>25</v>
@@ -5854,21 +6096,21 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="30">
+      <c r="A15" s="29">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="D15" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>118</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>119</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="13" t="s">
@@ -5900,23 +6142,23 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="29">
+      <c r="A16" s="28">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="8" t="s">
         <v>25</v>
       </c>
@@ -5946,21 +6188,21 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="30">
+      <c r="A17" s="29">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="E17" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="13" t="s">
@@ -5979,7 +6221,7 @@
         <v>25</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>25</v>
@@ -5992,23 +6234,23 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="29">
+      <c r="A18" s="28">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="E18" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="8" t="s">
         <v>25</v>
       </c>
@@ -6016,7 +6258,7 @@
         <v>25</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>25</v>
@@ -6038,21 +6280,21 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="30">
+      <c r="A19" s="29">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="13" t="s">
@@ -6065,13 +6307,13 @@
         <v>24</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>25</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>25</v>
@@ -6084,23 +6326,23 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="29">
+      <c r="A20" s="28">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="8" t="s">
         <v>25</v>
       </c>
@@ -6120,7 +6362,7 @@
         <v>25</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>25</v>
@@ -6130,21 +6372,21 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="30">
+      <c r="A21" s="29">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="E21" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="13" t="s">
@@ -6163,36 +6405,36 @@
         <v>25</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="29">
+      <c r="A22" s="28">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="E22" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="8" t="s">
         <v>25</v>
       </c>
@@ -6200,43 +6442,43 @@
         <v>25</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="30">
+      <c r="A23" s="29">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="D23" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="E23" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>151</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="13" t="s">
@@ -6246,99 +6488,99 @@
         <v>25</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>25</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O23" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="29">
+      <c r="A24" s="28">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="D24" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="E24" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="E24" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="M24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="34" t="s">
+      <c r="F24" s="32"/>
+      <c r="G24" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="O24" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
+      <c r="O24" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
     </row>
     <row r="25">
-      <c r="A25" s="30">
+      <c r="A25" s="29">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="E25" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>159</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="13" t="s">
@@ -6348,7 +6590,7 @@
         <v>25</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>25</v>
@@ -6363,30 +6605,30 @@
         <v>25</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O25" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="29">
+      <c r="A26" s="28">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="D26" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="E26" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="8" t="s">
         <v>25</v>
       </c>
@@ -6394,7 +6636,7 @@
         <v>25</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>25</v>
@@ -6416,21 +6658,21 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="30">
+      <c r="A27" s="29">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="E27" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>167</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="13" t="s">
@@ -6455,44 +6697,44 @@
         <v>25</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O27" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="29">
+      <c r="A28" s="28">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="D28" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" s="20"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>25</v>
@@ -6501,44 +6743,44 @@
         <v>25</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="30">
+      <c r="A29" s="29">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="D29" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="E29" s="16" t="s">
         <v>174</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>175</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>25</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L29" s="13" t="s">
         <v>25</v>
@@ -6554,67 +6796,67 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="29">
+      <c r="A30" s="28">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="D30" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="E30" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="F30" s="20"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="8" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="30">
+      <c r="A31" s="29">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="D31" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="E31" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>183</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="13" t="s">
@@ -6624,45 +6866,45 @@
         <v>25</v>
       </c>
       <c r="I31" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O31" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O31" s="14" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" s="29">
+      <c r="A32" s="28">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="D32" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="E32" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="F32" s="20"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="8" t="s">
         <v>25</v>
       </c>
@@ -6670,7 +6912,7 @@
         <v>25</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>25</v>
@@ -6679,10 +6921,10 @@
         <v>25</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>25</v>
@@ -6692,21 +6934,21 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="30">
+      <c r="A33" s="29">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="D33" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="E33" s="16" t="s">
         <v>190</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="13" t="s">
@@ -6716,7 +6958,7 @@
         <v>25</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>25</v>
@@ -6725,11 +6967,11 @@
         <v>25</v>
       </c>
       <c r="L33" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M33" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="N33" s="13" t="s">
         <v>25</v>
       </c>
@@ -6738,41 +6980,41 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="29">
+      <c r="A34" s="28">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="D34" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="E34" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="F34" s="20"/>
+      <c r="F34" s="19"/>
       <c r="G34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="M34" s="8" t="s">
         <v>25</v>
       </c>
@@ -6784,21 +7026,21 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="30">
+      <c r="A35" s="29">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="D35" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="E35" s="16" t="s">
         <v>198</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>199</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="13" t="s">
@@ -6814,10 +7056,10 @@
         <v>25</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="M35" s="13" t="s">
         <v>25</v>
@@ -6830,25 +7072,25 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="29">
+      <c r="A36" s="28">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="D36" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="E36" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="F36" s="20"/>
+      <c r="F36" s="19"/>
       <c r="G36" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>25</v>
@@ -6876,48 +7118,48 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="38">
+      <c r="A37" s="37">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="C37" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="23" t="s">
+      <c r="F37" s="40"/>
+      <c r="G37" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M37" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N37" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="O37" s="26" t="s">
+      <c r="H37" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="42" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6972,348 +7214,348 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="I1" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="K1" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="L1" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="P1" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="Q1" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="R1" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="R1" s="43" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="44">
+      <c r="A2" s="47">
         <f t="shared" ref="A2:A6" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="45" t="b">
+      <c r="B2" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="49">
         <f t="shared" ref="D2:D6" si="2">COUNTIF(E2,"=TRUE")+COUNTIF(L2,"=TRUE")</f>
         <v>0</v>
       </c>
-      <c r="E2" s="45" t="b">
+      <c r="E2" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="H2" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="J2" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="K2" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="N2" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="O2" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="P2" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q2" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="J2" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="K2" s="44" t="b">
+      <c r="R2" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="L2" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="N2" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="O2" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="P2" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q2" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="R2" s="44" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="44">
+      <c r="A3" s="47">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="45" t="b">
+      <c r="B3" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="49">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E3" s="45" t="b">
+      <c r="E3" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="K3" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="N3" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="I3" s="47" t="s">
+      <c r="O3" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="P3" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q3" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="J3" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="K3" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="44" t="b">
+      <c r="R3" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="M3" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="N3" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="O3" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="P3" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q3" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="R3" s="44" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="44">
+      <c r="A4" s="47">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="45" t="b">
+      <c r="B4" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="49">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E4" s="45" t="b">
+      <c r="E4" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="H4" s="47" t="s">
+      <c r="F4" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="K4" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="N4" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="O4" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q4" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="J4" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="K4" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="44" t="b">
+      <c r="R4" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="N4" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="O4" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="P4" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q4" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="R4" s="44" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" s="44">
+      <c r="A5" s="47">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="45" t="b">
+      <c r="B5" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="49">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E5" s="45" t="b">
+      <c r="E5" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="G5" s="47" t="s">
+      <c r="F5" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="H5" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="I5" s="47" t="s">
+      <c r="J5" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="K5" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="O5" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="P5" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="K5" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="N5" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="O5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="P5" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q5" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="R5" s="44" t="b">
+      <c r="Q5" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="R5" s="47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="44">
+      <c r="A6" s="47">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="45" t="b">
+      <c r="B6" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E6" s="45" t="b">
+      <c r="E6" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="H6" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="J6" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="N6" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q6" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="J6" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="K6" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="44" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="N6" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="O6" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="P6" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q6" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="R6" s="44" t="b">
+      <c r="R6" s="47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7370,148 +7612,148 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="I1" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="I1" s="48" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="52">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="50" t="s">
+      <c r="E2" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="56">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="51" t="s">
+      <c r="D3" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="F3" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="G3" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="G2" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="H2" s="51" t="s">
+      <c r="H3" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="I2" s="52" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" s="55" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="52">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E4" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="H4" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="I4" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="G3" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="H3" s="55" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="60">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="62" t="s">
         <v>248</v>
       </c>
-      <c r="I3" s="56" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" s="51" t="s">
+      <c r="H5" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="F4" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="H4" s="51" t="s">
+      <c r="I5" s="63" t="s">
         <v>248</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="57">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="G5" s="59" t="s">
-        <v>249</v>
-      </c>
-      <c r="H5" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="I5" s="60" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -7542,6 +7784,122 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FF93C47D"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="22.29"/>
+    <col customWidth="1" min="3" max="3" width="21.71"/>
+    <col customWidth="1" min="4" max="4" width="24.0"/>
+    <col customWidth="1" min="5" max="5" width="22.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="52">
+        <f>ROW()-ROW(Table_sprites[N])</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="56">
+        <f>ROW()-ROW(Table_sprites[N])</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="52">
+        <f>ROW()-ROW(Table_sprites[N])</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="60">
+        <f>ROW()-ROW(Table_sprites[N])</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="E2:E5">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <tabColor rgb="FF9900FF"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -7561,541 +7919,541 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>257</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>258</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>260</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>261</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>262</v>
-      </c>
-      <c r="K1" s="48" t="s">
-        <v>263</v>
+      <c r="B1" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" s="51" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49">
+      <c r="A2" s="52">
         <f>ROW()-ROW(Table_Dialogs[N])</f>
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="62">
+      <c r="B2" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="69">
         <f t="shared" ref="C2:C5" si="1">COUNTIFS(D2:K2,"&lt;&gt;DIALOG_OPTION_NONE",D2:K2,"&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="H2" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="I2" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="J2" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="K2" s="64" t="s">
-        <v>264</v>
+      <c r="D2" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="I2" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="J2" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="K2" s="71" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="53">
+      <c r="A3" s="56">
         <f>ROW()-ROW(Table_Dialogs[N])</f>
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="65">
+      <c r="B3" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="72">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D3" s="66" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>264</v>
-      </c>
-      <c r="F3" s="66" t="s">
-        <v>264</v>
-      </c>
-      <c r="G3" s="66" t="s">
-        <v>264</v>
-      </c>
-      <c r="H3" s="66" t="s">
-        <v>264</v>
-      </c>
-      <c r="I3" s="66" t="s">
-        <v>264</v>
-      </c>
-      <c r="J3" s="66" t="s">
-        <v>264</v>
-      </c>
-      <c r="K3" s="67" t="s">
-        <v>264</v>
+      <c r="D3" s="73" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="K3" s="74" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49">
+      <c r="A4" s="52">
         <f>ROW()-ROW(Table_Dialogs[N])</f>
         <v>2</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="C4" s="68">
+      <c r="B4" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="75">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D4" s="63" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>269</v>
-      </c>
-      <c r="G4" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="I4" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="J4" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="K4" s="64" t="s">
-        <v>264</v>
+      <c r="D4" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="K4" s="71" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="57">
+      <c r="A5" s="60">
         <f>ROW()-ROW(Table_Dialogs[N])</f>
         <v>3</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>271</v>
-      </c>
-      <c r="C5" s="69">
+      <c r="B5" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D5" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>264</v>
-      </c>
-      <c r="K5" s="71" t="s">
-        <v>264</v>
+      <c r="D5" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="J5" s="77" t="s">
+        <v>275</v>
+      </c>
+      <c r="K5" s="78" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="61" t="s">
-        <v>278</v>
-      </c>
-      <c r="I7" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="J7" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>281</v>
+      <c r="B7" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>289</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>290</v>
+      </c>
+      <c r="J7" s="68" t="s">
+        <v>291</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="49">
+      <c r="A8" s="52">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>0</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="72" t="b">
+      <c r="B8" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="65" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="G8" s="68">
+      <c r="E8" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="75">
         <f t="shared" ref="G8:G14" si="2">COUNTIFS(H8:K8,"&lt;&gt;PHRASE_NONE",H8:K8,"&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="H8" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="J8" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="K8" s="52" t="s">
-        <v>249</v>
+      <c r="H8" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="53">
+      <c r="A9" s="56">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>1</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" s="73" t="b">
+      <c r="B9" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="66" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="F9" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="G9" s="74">
+      <c r="E9" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="79">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="J9" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="K9" s="56" t="s">
-        <v>249</v>
+      <c r="H9" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="K9" s="59" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49">
+      <c r="A10" s="52">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>2</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="D10" s="72" t="b">
+      <c r="B10" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="65" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" s="75">
+      <c r="E10" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="80">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H10" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="K10" s="52" t="s">
-        <v>249</v>
+      <c r="H10" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="53">
+      <c r="A11" s="56">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>3</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="73" t="b">
+      <c r="B11" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="66" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="G11" s="74">
+      <c r="E11" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="79">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H11" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="J11" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="K11" s="56" t="s">
-        <v>249</v>
+      <c r="H11" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49">
+      <c r="A12" s="52">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>4</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="72" t="b">
+      <c r="B12" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="65" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="G12" s="75">
+      <c r="E12" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" s="80">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H12" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="I12" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="J12" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="K12" s="52" t="s">
-        <v>249</v>
+      <c r="H12" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="53">
+      <c r="A13" s="56">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>5</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="73" t="b">
+      <c r="B13" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="66" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="G13" s="74">
+      <c r="E13" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" s="79">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H13" s="55" t="s">
-        <v>286</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="J13" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="K13" s="56" t="s">
-        <v>249</v>
+      <c r="H13" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="I13" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="76">
+      <c r="A14" s="81">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>6</v>
       </c>
-      <c r="B14" s="77" t="s">
-        <v>287</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>227</v>
-      </c>
-      <c r="D14" s="79" t="b">
+      <c r="B14" s="82" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="84" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="78" t="s">
-        <v>227</v>
-      </c>
-      <c r="F14" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="G14" s="80">
+      <c r="E14" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H14" s="78" t="s">
-        <v>249</v>
-      </c>
-      <c r="I14" s="78" t="s">
-        <v>249</v>
-      </c>
-      <c r="J14" s="78" t="s">
-        <v>249</v>
-      </c>
-      <c r="K14" s="81" t="s">
-        <v>249</v>
+      <c r="H14" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="I14" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="J14" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="K14" s="86" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
     </row>
     <row r="17">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
     </row>
     <row r="18">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
     </row>
     <row r="19">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
     </row>
     <row r="20">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
     </row>
     <row r="21">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -8136,7 +8494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FF674EA7"/>
@@ -8157,213 +8515,213 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>293</v>
+      <c r="E1" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49">
+      <c r="A2" s="52">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="E2" s="50">
+      <c r="B2" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="53">
         <v>0.0</v>
       </c>
-      <c r="F2" s="63" t="s">
-        <v>296</v>
-      </c>
-      <c r="H2" s="83"/>
+      <c r="F2" s="70" t="s">
+        <v>306</v>
+      </c>
+      <c r="H2" s="88"/>
     </row>
     <row r="3">
-      <c r="A3" s="53">
+      <c r="A3" s="56">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="E3" s="54">
+      <c r="B3" s="57" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="57">
         <v>0.0</v>
       </c>
-      <c r="F3" s="66" t="s">
-        <v>298</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>300</v>
+      <c r="F3" s="73" t="s">
+        <v>308</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" s="89" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49">
+      <c r="A4" s="52">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>2</v>
       </c>
-      <c r="B4" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>301</v>
-      </c>
-      <c r="E4" s="50">
+      <c r="B4" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="53">
         <v>0.0</v>
       </c>
-      <c r="F4" s="63" t="s">
-        <v>298</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="H4" s="83" t="s">
-        <v>303</v>
+      <c r="F4" s="70" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="88" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="53">
+      <c r="A5" s="56">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>3</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>283</v>
-      </c>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="D5" s="55" t="s">
-        <v>301</v>
-      </c>
-      <c r="E5" s="54">
+      <c r="C5" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="57">
         <v>0.0</v>
       </c>
-      <c r="F5" s="66" t="s">
-        <v>298</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>304</v>
-      </c>
-      <c r="H5" s="84" t="s">
-        <v>305</v>
+      <c r="F5" s="73" t="s">
+        <v>308</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="H5" s="89" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="49">
+      <c r="A6" s="52">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>4</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>301</v>
-      </c>
-      <c r="E6" s="50">
+      <c r="B6" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="53">
         <v>0.0</v>
       </c>
-      <c r="F6" s="63" t="s">
-        <v>298</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>306</v>
-      </c>
-      <c r="H6" s="83" t="s">
-        <v>307</v>
+      <c r="F6" s="70" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="53">
+      <c r="A7" s="56">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>5</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>301</v>
-      </c>
-      <c r="E7" s="54">
+      <c r="B7" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="57">
         <v>0.0</v>
       </c>
-      <c r="F7" s="66" t="s">
-        <v>298</v>
-      </c>
-      <c r="G7" s="54" t="s">
+      <c r="F7" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="H7" s="84" t="s">
-        <v>309</v>
+      <c r="G7" s="57" t="s">
+        <v>317</v>
+      </c>
+      <c r="H7" s="89" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="76">
+      <c r="A8" s="81">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>6</v>
       </c>
-      <c r="B8" s="77" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" s="77" t="s">
-        <v>294</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="E8" s="77">
+      <c r="B8" s="82" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="82">
         <v>0.0</v>
       </c>
-      <c r="F8" s="85" t="s">
-        <v>298</v>
-      </c>
-      <c r="G8" s="77" t="s">
-        <v>310</v>
-      </c>
-      <c r="H8" s="86" t="s">
-        <v>311</v>
+      <c r="F8" s="90" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="H8" s="91" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -8382,7 +8740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8399,38 +8757,38 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
-        <v>312</v>
+      <c r="B1" s="64" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49">
+      <c r="A2" s="52">
         <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)-1</f>
         <v>-1</v>
       </c>
-      <c r="B2" s="83" t="s">
-        <v>295</v>
+      <c r="B2" s="88" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="53">
+      <c r="A3" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B3" s="84" t="s">
-        <v>301</v>
+      <c r="B3" s="89" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="76">
+      <c r="A4" s="81">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B4" s="86" t="s">
-        <v>313</v>
+      <c r="B4" s="91" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -8441,7 +8799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FF6AA84F"/>
@@ -8456,29 +8814,29 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
-        <v>314</v>
+      <c r="B1" s="64" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="44">
+      <c r="A2" s="47">
         <f t="shared" ref="A2:A3" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>315</v>
+      <c r="B2" s="47" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="44">
+      <c r="A3" s="47">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>316</v>
+      <c r="B3" s="47" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -8487,236 +8845,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FF990000"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="2" max="3" width="38.86"/>
-    <col customWidth="1" min="4" max="4" width="23.29"/>
-    <col customWidth="1" min="6" max="6" width="38.86"/>
-    <col customWidth="1" min="8" max="8" width="34.57"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="87" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="83" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="57">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="88" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="53">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="49">
-        <v>4.0</v>
-      </c>
-      <c r="B12" s="83" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="57">
-        <v>5.0</v>
-      </c>
-      <c r="B13" s="88" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="87" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="B16" s="83" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="B17" s="84" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="53">
-        <v>3.0</v>
-      </c>
-      <c r="B19" s="84" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="76">
-        <v>4.0</v>
-      </c>
-      <c r="B20" s="86" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="87" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="49">
-        <v>0.0</v>
-      </c>
-      <c r="B23" s="83" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="B24" s="84" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="76">
-        <v>2.0</v>
-      </c>
-      <c r="B25" s="86" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="87" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="49">
-        <v>-1.0</v>
-      </c>
-      <c r="B28" s="83" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="B29" s="88" t="s">
-        <v>298</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-  <tableParts count="5">
-    <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
-    <tablePart r:id="rId10"/>
-    <tablePart r:id="rId11"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -22,7 +22,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId18" roundtripDataChecksum="BafN0MHUlTs/eN0zbTB3vTvVIC4CsPJTr5YHKRka6Ps="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId18" roundtripDataChecksum="4Fn75qX1cFV9eQAeEzCajvWsRtJ/ac0/qtbg/M3/ps4="/>
     </ext>
   </extLst>
 </workbook>
@@ -94,8 +94,24 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="C2">
+      <text>
+        <t xml:space="preserve">Calculated
+======</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="384">
   <si>
     <t>N</t>
   </si>
@@ -802,135 +818,150 @@
     <t>EVENT_FOUNTAIN_FULL</t>
   </si>
   <si>
+    <t>ITEM_LAST</t>
+  </si>
+  <si>
+    <t>ITEM_COND_ID</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Event_NOT_Occurred</t>
+  </si>
+  <si>
+    <t>Animation_OK</t>
+  </si>
+  <si>
+    <t>Animation_NOK_Event</t>
+  </si>
+  <si>
+    <t>Dialog_OK</t>
+  </si>
+  <si>
+    <t>Phrase_OK</t>
+  </si>
+  <si>
+    <t>Dialog_NOK_Event</t>
+  </si>
+  <si>
+    <t>Phrase_NOK_Event</t>
+  </si>
+  <si>
+    <t>ITEM_USE_ANIMATION_TAKE</t>
+  </si>
+  <si>
+    <t>ITEM_USE_ANIMATION_CONFUSE</t>
+  </si>
+  <si>
+    <t>DIALOG_NONE</t>
+  </si>
+  <si>
+    <t>PHRASE_NONE</t>
+  </si>
+  <si>
+    <t>ITEM_USE_ANIMATION_POUR</t>
+  </si>
+  <si>
     <t>COND_FOUNTAIN2</t>
   </si>
   <si>
-    <t>ITEM_LAST</t>
-  </si>
-  <si>
-    <t>ITEM_COND_ID</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>Animation_OK</t>
-  </si>
-  <si>
-    <t>Animation_NOK_Event</t>
-  </si>
-  <si>
-    <t>Dialog_OK</t>
-  </si>
-  <si>
-    <t>Phrase_OK</t>
-  </si>
-  <si>
-    <t>Dialog_NOK_Event</t>
-  </si>
-  <si>
-    <t>Phrase_NOK_Event</t>
-  </si>
-  <si>
-    <t>ITEM_USE_ANIMATION_TAKE</t>
-  </si>
-  <si>
-    <t>ITEM_USE_ANIMATION_CONFUSE</t>
-  </si>
-  <si>
-    <t>DIALOG_NONE</t>
-  </si>
-  <si>
-    <t>PHRASE_NONE</t>
-  </si>
-  <si>
-    <t>ITEM_USE_ANIMATION_POUR</t>
-  </si>
-  <si>
     <t>ITEM_USE_ANIMATION_STARE_SCREEN</t>
   </si>
   <si>
+    <t>COND_LAST</t>
+  </si>
+  <si>
+    <t>SPRITE_ID</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>ASSOCIATED_ITEM</t>
+  </si>
+  <si>
+    <t>NEEDED_IN_ROOM</t>
+  </si>
+  <si>
+    <t>SPRITE_NONE</t>
+  </si>
+  <si>
+    <t>ROOM_NONE</t>
+  </si>
+  <si>
+    <t>SPRITE_POTION_RED</t>
+  </si>
+  <si>
+    <t>Sprites/potion_64</t>
+  </si>
+  <si>
+    <t>ROOM_FIRST</t>
+  </si>
+  <si>
+    <t>SPRITE_POTION_BLUE</t>
+  </si>
+  <si>
+    <t>Sprites/potionblue_64</t>
+  </si>
+  <si>
+    <t>SPRITE_FOUNTAIN</t>
+  </si>
+  <si>
+    <t>Sprites/spr_fountain_256</t>
+  </si>
+  <si>
+    <t>SPRITE_FOUNTAIN_FULL</t>
+  </si>
+  <si>
+    <t>Sprites/spr_fountain_full_256</t>
+  </si>
+  <si>
+    <t>SPRITE_LAST</t>
+  </si>
+  <si>
+    <t>DIALOG_ID</t>
+  </si>
+  <si>
+    <t>Options_Count</t>
+  </si>
+  <si>
+    <t>Option1</t>
+  </si>
+  <si>
+    <t>Option2</t>
+  </si>
+  <si>
+    <t>Option3</t>
+  </si>
+  <si>
+    <t>Option4</t>
+  </si>
+  <si>
+    <t>Option5</t>
+  </si>
+  <si>
+    <t>Option6</t>
+  </si>
+  <si>
+    <t>Option7</t>
+  </si>
+  <si>
+    <t>Option8</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_NONE</t>
+  </si>
+  <si>
+    <t>DIALOG_SIMPLE</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_SIMPLE</t>
+  </si>
+  <si>
     <t>DIALOG_FOUNTAIN</t>
   </si>
   <si>
-    <t>COND_LAST</t>
-  </si>
-  <si>
-    <t>SPRITE_ID</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>IS_ITEM</t>
-  </si>
-  <si>
-    <t>NEEDED_IN_ROOM</t>
-  </si>
-  <si>
-    <t>SPRITE_NONE</t>
-  </si>
-  <si>
-    <t>ROOM_NONE</t>
-  </si>
-  <si>
-    <t>SPRITE_POTION_RED</t>
-  </si>
-  <si>
-    <t>Sprites/potion_64</t>
-  </si>
-  <si>
-    <t>ROOM_FIRST</t>
-  </si>
-  <si>
-    <t>SPRITE_POTION_BLUE</t>
-  </si>
-  <si>
-    <t>Sprites/potionblue_64</t>
-  </si>
-  <si>
-    <t>SPRITE_LAST</t>
-  </si>
-  <si>
-    <t>DIALOG_ID</t>
-  </si>
-  <si>
-    <t>Options_Count</t>
-  </si>
-  <si>
-    <t>Option1</t>
-  </si>
-  <si>
-    <t>Option2</t>
-  </si>
-  <si>
-    <t>Option3</t>
-  </si>
-  <si>
-    <t>Option4</t>
-  </si>
-  <si>
-    <t>Option5</t>
-  </si>
-  <si>
-    <t>Option6</t>
-  </si>
-  <si>
-    <t>Option7</t>
-  </si>
-  <si>
-    <t>Option8</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_NONE</t>
-  </si>
-  <si>
-    <t>DIALOG_SIMPLE</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_SIMPLE</t>
-  </si>
-  <si>
     <t>DIALOG_OPTION_ASK_FOUNTAIN_1</t>
   </si>
   <si>
@@ -1069,10 +1100,37 @@
     <t>NPC_ID</t>
   </si>
   <si>
+    <t>Action1_Dialog_NoItem</t>
+  </si>
+  <si>
+    <t>Action2_Dialog_NoItem</t>
+  </si>
+  <si>
     <t>NPC_FIRST</t>
   </si>
   <si>
+    <t>INTERACTION_TALK</t>
+  </si>
+  <si>
     <t>NPC_LAST</t>
+  </si>
+  <si>
+    <t>Name_English</t>
+  </si>
+  <si>
+    <t>Name_Spanish</t>
+  </si>
+  <si>
+    <t>Militer</t>
+  </si>
+  <si>
+    <t>Milito</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Nada</t>
   </si>
   <si>
     <t>Type</t>
@@ -1622,7 +1680,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="113">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1788,6 +1846,9 @@
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1800,6 +1861,9 @@
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1812,6 +1876,9 @@
     <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1821,10 +1888,19 @@
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1995,7 +2071,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="18">
+  <tableStyles count="19">
     <tableStyle count="3" pivot="0" name="VARMAP-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -2042,6 +2118,11 @@
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="NPCs-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="NPCs-style 2">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -2172,17 +2253,45 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B3" displayName="Table_NPCs" name="Table_NPCs" id="10">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:S3" displayName="Table_NPCs" name="Table_NPCs" id="10">
+  <tableColumns count="19">
     <tableColumn name="N" id="1"/>
     <tableColumn name="NPC_ID" id="2"/>
+    <tableColumn name="ActionCount" id="3"/>
+    <tableColumn name="Action1" id="4"/>
+    <tableColumn name="Action1_SourceChar" id="5"/>
+    <tableColumn name="Action1_Action" id="6"/>
+    <tableColumn name="Action1_ItemSrc" id="7"/>
+    <tableColumn name="Action1_Condition" id="8"/>
+    <tableColumn name="Action1_Dialog_NoItem" id="9"/>
+    <tableColumn name="Action1_UnchainEvent" id="10"/>
+    <tableColumn name="Action1_Consume" id="11"/>
+    <tableColumn name="Action2" id="12"/>
+    <tableColumn name="Action2_SourceChar" id="13"/>
+    <tableColumn name="Action2_Action" id="14"/>
+    <tableColumn name="Action2_ItemSrc" id="15"/>
+    <tableColumn name="Action2_Condition" id="16"/>
+    <tableColumn name="Action2_Dialog_NoItem" id="17"/>
+    <tableColumn name="Action2_UnchainEvent" id="18"/>
+    <tableColumn name="Action2_Consume" id="19"/>
   </tableColumns>
   <tableStyleInfo name="NPCs-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B5" displayName="Table_Characters" name="Table_Characters" id="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A5:C7" displayName="Table_NPC_Name" name="Table_NPC_Name" id="11">
+  <tableColumns count="3">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="Name_English" id="2"/>
+    <tableColumn name="Name_Spanish" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="NPCs-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B5" displayName="Table_Characters" name="Table_Characters" id="12">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="Type" id="2"/>
@@ -2191,8 +2300,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:B13" displayName="Table_ItemUse_Animation" name="Table_ItemUse_Animation" id="12">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:B13" displayName="Table_ItemUse_Animation" name="Table_ItemUse_Animation" id="13">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="ANIMATION_ID" id="2"/>
@@ -2201,8 +2310,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A15:B20" displayName="Table_Interaction" name="Table_Interaction" id="13">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A15:B21" displayName="Table_Interaction" name="Table_Interaction" id="14">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="INTERACTION_ID" id="2"/>
@@ -2211,8 +2320,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A22:B25" displayName="Table_Characters_Name" name="Table_Characters_Name" id="14">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A23:B26" displayName="Table_Characters_Name" name="Table_Characters_Name" id="15">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="CharName" id="2"/>
@@ -2221,8 +2330,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A27:B29" displayName="Table_Dialog_Animation" name="Table_Dialog_Animation" id="15">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A28:B30" displayName="Table_Dialog_Animation" name="Table_Dialog_Animation" id="16">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="DIALOG_ANIMATION_ID" id="2"/>
@@ -2231,8 +2340,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Events" name="Table_Events" id="16">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Events" name="Table_Events" id="17">
   <tableColumns count="7">
     <tableColumn name="N" id="1"/>
     <tableColumn name="EVENT_ID" id="2"/>
@@ -2246,8 +2355,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A2" displayName="Table_Constants" name="Table_Constants" id="17">
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A2" displayName="Table_Constants" name="Table_Constants" id="18">
   <tableColumns count="1">
     <tableColumn name="NUM_PLAYERS" id="1"/>
   </tableColumns>
@@ -2255,8 +2364,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D15" displayName="Table_TODO" name="Table_TODO" id="18">
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D15" displayName="Table_TODO" name="Table_TODO" id="19">
   <tableColumns count="4">
     <tableColumn name="TASK" id="1"/>
     <tableColumn name="PRIO" id="2"/>
@@ -2317,29 +2426,30 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I5" displayName="Table_Item_Conditions" name="Table_Item_Conditions" id="4">
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:J5" displayName="Table_Item_Conditions" name="Table_Item_Conditions" id="4">
+  <tableColumns count="10">
     <tableColumn name="N" id="1"/>
     <tableColumn name="ITEM_COND_ID" id="2"/>
     <tableColumn name="Event" id="3"/>
-    <tableColumn name="Animation_OK" id="4"/>
-    <tableColumn name="Animation_NOK_Event" id="5"/>
-    <tableColumn name="Dialog_OK" id="6"/>
-    <tableColumn name="Phrase_OK" id="7"/>
-    <tableColumn name="Dialog_NOK_Event" id="8"/>
-    <tableColumn name="Phrase_NOK_Event" id="9"/>
+    <tableColumn name="Event_NOT_Occurred" id="4"/>
+    <tableColumn name="Animation_OK" id="5"/>
+    <tableColumn name="Animation_NOK_Event" id="6"/>
+    <tableColumn name="Dialog_OK" id="7"/>
+    <tableColumn name="Phrase_OK" id="8"/>
+    <tableColumn name="Dialog_NOK_Event" id="9"/>
+    <tableColumn name="Phrase_NOK_Event" id="10"/>
   </tableColumns>
   <tableStyleInfo name="ITEMS_CONDS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E5" displayName="Table_sprites" name="Table_sprites" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E7" displayName="Table_sprites" name="Table_sprites" id="5">
   <tableColumns count="5">
     <tableColumn name="N" id="1"/>
     <tableColumn name="SPRITE_ID" id="2"/>
     <tableColumn name="PATH" id="3"/>
-    <tableColumn name="IS_ITEM" id="4"/>
+    <tableColumn name="ASSOCIATED_ITEM" id="4"/>
     <tableColumn name="NEEDED_IN_ROOM" id="5"/>
   </tableColumns>
   <tableStyleInfo name="SPRITES-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
@@ -2922,7 +3032,7 @@
         <v>2.0</v>
       </c>
       <c r="E6" s="17">
-        <f>COUNT(Table_Items[N])-2</f>
+        <f>COUNTIF(Table_Items[PICKABLE],"=TRUE")</f>
         <v>3</v>
       </c>
       <c r="F6" s="15" t="s">
@@ -4410,23 +4520,23 @@
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
-        <v>326</v>
+      <c r="B1" s="67" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="52">
         <v>0.0</v>
       </c>
-      <c r="B2" s="88" t="s">
-        <v>327</v>
+      <c r="B2" s="94" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="56">
+      <c r="A3" s="57">
         <v>1.0</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="95" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4434,55 +4544,55 @@
       <c r="A4" s="52">
         <v>2.0</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="94" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="60">
+      <c r="A5" s="62">
         <v>3.0</v>
       </c>
-      <c r="B5" s="92" t="s">
-        <v>328</v>
+      <c r="B5" s="98" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="64" t="s">
-        <v>329</v>
+      <c r="B7" s="67" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="52">
         <v>0.0</v>
       </c>
-      <c r="B8" s="88" t="s">
-        <v>330</v>
+      <c r="B8" s="94" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="56">
+      <c r="A9" s="57">
         <v>1.0</v>
       </c>
-      <c r="B9" s="89" t="s">
-        <v>331</v>
+      <c r="B9" s="95" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="52">
         <v>2.0</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="94" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="56">
+      <c r="A11" s="57">
         <v>3.0</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="95" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4490,15 +4600,15 @@
       <c r="A12" s="52">
         <v>4.0</v>
       </c>
-      <c r="B12" s="88" t="s">
-        <v>250</v>
+      <c r="B12" s="94" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="60">
+      <c r="A13" s="62">
         <v>5.0</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="98" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4506,23 +4616,23 @@
       <c r="A15" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="64" t="s">
-        <v>332</v>
+      <c r="B15" s="67" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="52">
         <v>0.0</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="94" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="56">
+      <c r="A17" s="57">
         <v>1.0</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="95" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4530,80 +4640,88 @@
       <c r="A18" s="52">
         <v>2.0</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="94" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="56">
+      <c r="A19" s="57">
         <v>3.0</v>
       </c>
-      <c r="B19" s="89" t="s">
-        <v>333</v>
+      <c r="B19" s="95" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="81">
+      <c r="A20" s="52">
         <v>4.0</v>
       </c>
-      <c r="B20" s="91" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="43" t="s">
+      <c r="B20" s="94" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="62">
+        <v>5.0</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="64" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="52">
+      <c r="B23" s="67" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="52">
         <v>0.0</v>
       </c>
-      <c r="B23" s="88" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="56">
+      <c r="B24" s="94" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="57">
         <v>1.0</v>
       </c>
-      <c r="B24" s="89" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="81">
+      <c r="B25" s="95" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="87">
         <v>2.0</v>
       </c>
-      <c r="B25" s="91" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="43" t="s">
+      <c r="B26" s="97" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="64" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="52">
+      <c r="B28" s="67" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="52">
         <v>-1.0</v>
       </c>
-      <c r="B28" s="88" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="60">
+      <c r="B29" s="94" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="62">
         <v>0.0</v>
       </c>
-      <c r="B29" s="92" t="s">
-        <v>308</v>
+      <c r="B30" s="98" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -4647,22 +4765,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>344</v>
-      </c>
-      <c r="G1" s="64" t="s">
-        <v>345</v>
+        <v>358</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="2">
@@ -4673,45 +4791,45 @@
       <c r="B2" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3">
-      <c r="A3" s="56">
+      <c r="A3" s="57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" s="58" t="s">
+      <c r="C3" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="59" t="s">
+      <c r="F3" s="58"/>
+      <c r="G3" s="61" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="81">
+      <c r="A4" s="87">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>347</v>
-      </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="G4" s="96"/>
+      <c r="B4" s="88" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="G4" s="102"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4747,12 +4865,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="97" t="s">
-        <v>348</v>
+      <c r="A1" s="103" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="98">
+      <c r="A2" s="104">
         <v>3.0</v>
       </c>
     </row>
@@ -4783,10 +4901,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2">
@@ -4794,12 +4912,12 @@
         <f t="shared" ref="A2:A32" si="1">ROW()-ROW($G$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="99" t="str">
+      <c r="B2" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A2,0)</f>
         <v>ITEM_POTION</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3">
@@ -4807,12 +4925,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="99" t="str">
+      <c r="B3" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A3,0)</f>
         <v>ITEM_POTION_BLUE</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4">
@@ -4820,12 +4938,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="99" t="str">
+      <c r="B4" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A4,0)</f>
         <v>ITEM_FOUNTAIN</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5">
@@ -4833,12 +4951,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="99" t="str">
+      <c r="B5" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A5,0)</f>
         <v>ITEM_LAST</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6">
@@ -4846,297 +4964,297 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="99" t="str">
+      <c r="B6" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A6,0)</f>
         <v/>
       </c>
-      <c r="C6" s="99"/>
+      <c r="C6" s="105"/>
     </row>
     <row r="7">
       <c r="A7" s="26">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="99" t="str">
+      <c r="B7" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A7,0)</f>
         <v/>
       </c>
-      <c r="C7" s="99"/>
+      <c r="C7" s="105"/>
     </row>
     <row r="8">
       <c r="A8" s="26">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="99" t="str">
+      <c r="B8" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A8,0)</f>
         <v/>
       </c>
-      <c r="C8" s="99"/>
+      <c r="C8" s="105"/>
     </row>
     <row r="9">
       <c r="A9" s="26">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="99" t="str">
+      <c r="B9" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A9,0)</f>
         <v/>
       </c>
-      <c r="C9" s="99"/>
+      <c r="C9" s="105"/>
     </row>
     <row r="10">
       <c r="A10" s="26">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="99" t="str">
+      <c r="B10" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A10,0)</f>
         <v/>
       </c>
-      <c r="C10" s="99"/>
+      <c r="C10" s="105"/>
     </row>
     <row r="11">
       <c r="A11" s="26">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="99" t="str">
+      <c r="B11" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A11,0)</f>
         <v/>
       </c>
-      <c r="C11" s="99"/>
+      <c r="C11" s="105"/>
     </row>
     <row r="12">
       <c r="A12" s="26">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="99" t="str">
+      <c r="B12" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A12,0)</f>
         <v/>
       </c>
-      <c r="C12" s="99"/>
+      <c r="C12" s="105"/>
     </row>
     <row r="13">
       <c r="A13" s="26">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="99" t="str">
+      <c r="B13" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A13,0)</f>
         <v/>
       </c>
-      <c r="C13" s="99"/>
+      <c r="C13" s="105"/>
     </row>
     <row r="14">
       <c r="A14" s="26">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="99" t="str">
+      <c r="B14" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A14,0)</f>
         <v/>
       </c>
-      <c r="C14" s="99"/>
+      <c r="C14" s="105"/>
     </row>
     <row r="15">
       <c r="A15" s="26">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="99" t="str">
+      <c r="B15" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A15,0)</f>
         <v/>
       </c>
-      <c r="C15" s="99"/>
+      <c r="C15" s="105"/>
     </row>
     <row r="16">
       <c r="A16" s="26">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="99" t="str">
+      <c r="B16" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A16,0)</f>
         <v/>
       </c>
-      <c r="C16" s="99"/>
+      <c r="C16" s="105"/>
     </row>
     <row r="17">
       <c r="A17" s="26">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="99" t="str">
+      <c r="B17" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A17,0)</f>
         <v/>
       </c>
-      <c r="C17" s="99"/>
+      <c r="C17" s="105"/>
     </row>
     <row r="18">
       <c r="A18" s="26">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="99" t="str">
+      <c r="B18" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A18,0)</f>
         <v/>
       </c>
-      <c r="C18" s="99"/>
+      <c r="C18" s="105"/>
     </row>
     <row r="19">
       <c r="A19" s="26">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="99" t="str">
+      <c r="B19" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A19,0)</f>
         <v/>
       </c>
-      <c r="C19" s="99"/>
+      <c r="C19" s="105"/>
     </row>
     <row r="20">
       <c r="A20" s="26">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="99" t="str">
+      <c r="B20" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A20,0)</f>
         <v/>
       </c>
-      <c r="C20" s="99"/>
+      <c r="C20" s="105"/>
     </row>
     <row r="21">
       <c r="A21" s="26">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="99" t="str">
+      <c r="B21" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A21,0)</f>
         <v/>
       </c>
-      <c r="C21" s="99"/>
+      <c r="C21" s="105"/>
     </row>
     <row r="22">
       <c r="A22" s="26">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="99" t="str">
+      <c r="B22" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A22,0)</f>
         <v/>
       </c>
-      <c r="C22" s="99"/>
+      <c r="C22" s="105"/>
     </row>
     <row r="23">
       <c r="A23" s="26">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="99" t="str">
+      <c r="B23" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A23,0)</f>
         <v/>
       </c>
-      <c r="C23" s="99"/>
+      <c r="C23" s="105"/>
     </row>
     <row r="24">
       <c r="A24" s="26">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="99" t="str">
+      <c r="B24" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A24,0)</f>
         <v/>
       </c>
-      <c r="C24" s="99"/>
+      <c r="C24" s="105"/>
     </row>
     <row r="25">
       <c r="A25" s="26">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="99" t="str">
+      <c r="B25" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A25,0)</f>
         <v/>
       </c>
-      <c r="C25" s="99"/>
+      <c r="C25" s="105"/>
     </row>
     <row r="26">
       <c r="A26" s="26">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="99" t="str">
+      <c r="B26" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A26,0)</f>
         <v/>
       </c>
-      <c r="C26" s="99"/>
+      <c r="C26" s="105"/>
     </row>
     <row r="27">
       <c r="A27" s="26">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="99" t="str">
+      <c r="B27" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A27,0)</f>
         <v/>
       </c>
-      <c r="C27" s="99"/>
+      <c r="C27" s="105"/>
     </row>
     <row r="28">
       <c r="A28" s="26">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="99" t="str">
+      <c r="B28" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A28,0)</f>
         <v/>
       </c>
-      <c r="C28" s="99"/>
+      <c r="C28" s="105"/>
     </row>
     <row r="29">
       <c r="A29" s="26">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="99" t="str">
+      <c r="B29" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A29,0)</f>
         <v/>
       </c>
-      <c r="C29" s="99"/>
+      <c r="C29" s="105"/>
     </row>
     <row r="30">
       <c r="A30" s="26">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="99" t="str">
+      <c r="B30" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A30,0)</f>
         <v/>
       </c>
-      <c r="C30" s="99"/>
+      <c r="C30" s="105"/>
     </row>
     <row r="31">
       <c r="A31" s="26">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="99" t="str">
+      <c r="B31" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A31,0)</f>
         <v/>
       </c>
-      <c r="C31" s="99"/>
+      <c r="C31" s="105"/>
     </row>
     <row r="32">
       <c r="A32" s="26">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="99" t="str">
+      <c r="B32" s="105" t="str">
         <f>OFFSET(ITEMS!$B$3,A32,0)</f>
         <v/>
       </c>
-      <c r="C32" s="99"/>
+      <c r="C32" s="105"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -5169,211 +5287,211 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="43" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>354</v>
-      </c>
-      <c r="D1" s="64" t="s">
-        <v>355</v>
+        <v>368</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="100" t="s">
-        <v>356</v>
-      </c>
-      <c r="B2" s="101">
+      <c r="A2" s="106" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" s="107">
         <v>1.0</v>
       </c>
       <c r="C2" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="88" t="b">
+      <c r="D2" s="94" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="56" t="s">
-        <v>357</v>
-      </c>
-      <c r="B3" s="101">
+      <c r="A3" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3" s="107">
         <v>1.0</v>
       </c>
-      <c r="C3" s="57" t="b">
+      <c r="C3" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="89" t="b">
+      <c r="D3" s="95" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>358</v>
-      </c>
-      <c r="B4" s="102">
+        <v>372</v>
+      </c>
+      <c r="B4" s="108">
         <v>3.0</v>
       </c>
       <c r="C4" s="53" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="88" t="b">
+      <c r="D4" s="94" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="100" t="s">
-        <v>359</v>
-      </c>
-      <c r="B5" s="101">
+      <c r="A5" s="106" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" s="107">
         <v>1.0</v>
       </c>
-      <c r="C5" s="57" t="b">
+      <c r="C5" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="89" t="b">
+      <c r="D5" s="95" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="B6" s="102">
+        <v>374</v>
+      </c>
+      <c r="B6" s="108">
         <v>3.0</v>
       </c>
       <c r="C6" s="53" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="88" t="b">
+      <c r="D6" s="94" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="100" t="s">
-        <v>361</v>
-      </c>
-      <c r="B7" s="102">
+      <c r="A7" s="106" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" s="108">
         <v>3.0</v>
       </c>
-      <c r="C7" s="57" t="b">
+      <c r="C7" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="89" t="b">
+      <c r="D7" s="95" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="100" t="s">
-        <v>362</v>
-      </c>
-      <c r="B8" s="103">
+      <c r="A8" s="106" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" s="109">
         <v>5.0</v>
       </c>
       <c r="C8" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="88" t="b">
+      <c r="D8" s="94" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="56" t="s">
-        <v>363</v>
-      </c>
-      <c r="B9" s="104">
+      <c r="A9" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="110">
         <v>4.0</v>
       </c>
-      <c r="C9" s="57" t="b">
+      <c r="C9" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="89" t="b">
+      <c r="D9" s="95" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="52" t="s">
-        <v>364</v>
-      </c>
-      <c r="B10" s="104">
+        <v>378</v>
+      </c>
+      <c r="B10" s="110">
         <v>4.0</v>
       </c>
       <c r="C10" s="53" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="88" t="b">
+      <c r="D10" s="94" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="56" t="s">
-        <v>365</v>
-      </c>
-      <c r="B11" s="101">
+      <c r="A11" s="57" t="s">
+        <v>379</v>
+      </c>
+      <c r="B11" s="107">
         <v>1.0</v>
       </c>
-      <c r="C11" s="57" t="b">
+      <c r="C11" s="58" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="89" t="b">
+      <c r="D11" s="95" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="100" t="s">
-        <v>366</v>
-      </c>
-      <c r="B12" s="104">
+      <c r="A12" s="106" t="s">
+        <v>380</v>
+      </c>
+      <c r="B12" s="110">
         <v>4.0</v>
       </c>
       <c r="C12" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="D12" s="88" t="b">
+      <c r="D12" s="94" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="100" t="s">
-        <v>367</v>
-      </c>
-      <c r="B13" s="101">
+      <c r="A13" s="106" t="s">
+        <v>381</v>
+      </c>
+      <c r="B13" s="107">
         <v>1.0</v>
       </c>
-      <c r="C13" s="57" t="b">
+      <c r="C13" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="D13" s="89" t="b">
+      <c r="D13" s="95" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="100" t="s">
-        <v>368</v>
-      </c>
-      <c r="B14" s="105">
+      <c r="A14" s="106" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" s="111">
         <v>2.0</v>
       </c>
       <c r="C14" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="D14" s="88" t="b">
+      <c r="D14" s="94" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="60" t="s">
-        <v>369</v>
-      </c>
-      <c r="B15" s="106">
+      <c r="A15" s="62" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" s="112">
         <v>5.0</v>
       </c>
-      <c r="C15" s="61" t="b">
+      <c r="C15" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="92" t="b">
+      <c r="D15" s="98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7456,7 +7574,7 @@
       </c>
       <c r="D5" s="49">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="48" t="b">
         <v>1</v>
@@ -7480,19 +7598,19 @@
         <v>1</v>
       </c>
       <c r="L5" s="47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="50" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="N5" s="50" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="O5" s="50" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P5" s="50" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="50" t="s">
         <v>226</v>
@@ -7507,7 +7625,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="48" t="b">
         <v>0</v>
@@ -7602,13 +7720,16 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
+    <col customWidth="1" min="1" max="1" width="6.29"/>
+    <col customWidth="1" min="2" max="2" width="19.14"/>
     <col customWidth="1" min="3" max="3" width="19.86"/>
-    <col customWidth="1" min="4" max="4" width="44.57"/>
-    <col customWidth="1" min="5" max="5" width="38.86"/>
-    <col customWidth="1" min="6" max="6" width="25.86"/>
-    <col customWidth="1" min="7" max="8" width="27.14"/>
-    <col customWidth="1" min="9" max="9" width="22.57"/>
+    <col customWidth="1" min="4" max="4" width="24.57"/>
+    <col customWidth="1" min="5" max="5" width="44.57"/>
+    <col customWidth="1" min="6" max="6" width="38.86"/>
+    <col customWidth="1" min="7" max="7" width="20.71"/>
+    <col customWidth="1" min="8" max="8" width="21.29"/>
+    <col customWidth="1" min="9" max="9" width="22.0"/>
+    <col customWidth="1" min="10" max="10" width="22.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7616,27 +7737,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="D1" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="E1" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="F1" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="G1" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>244</v>
       </c>
     </row>
@@ -7650,51 +7774,57 @@
       <c r="C2" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="F2" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="G2" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="H2" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="I2" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="J2" s="56" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="56">
+      <c r="A3" s="57">
         <v>1.0</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="F3" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="G3" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="H3" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="I3" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="J3" s="61" t="s">
         <v>248</v>
       </c>
     </row>
@@ -7703,74 +7833,80 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C4" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="54" t="s">
-        <v>250</v>
+      <c r="D4" s="55" t="b">
+        <v>0</v>
       </c>
       <c r="E4" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="F4" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="54" t="s">
-        <v>251</v>
-      </c>
       <c r="G4" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="I4" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="J4" s="56" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="60">
+      <c r="A5" s="62">
         <v>3.0</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="F5" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="G5" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="H5" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="I5" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="J5" s="66" t="s">
         <v>248</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F5">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G5">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C2:C5">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H2:H5">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I5">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:E5">
+    <dataValidation type="list" allowBlank="1" sqref="E2:F5">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G5 I2:I5">
+    <dataValidation type="list" allowBlank="1" sqref="H2:H5 J2:J5">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -7795,9 +7931,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="22.29"/>
-    <col customWidth="1" min="3" max="3" width="21.71"/>
-    <col customWidth="1" min="4" max="4" width="24.0"/>
+    <col customWidth="1" min="2" max="2" width="24.71"/>
+    <col customWidth="1" min="3" max="3" width="28.43"/>
+    <col customWidth="1" min="4" max="4" width="26.0"/>
     <col customWidth="1" min="5" max="5" width="22.57"/>
   </cols>
   <sheetData>
@@ -7814,7 +7950,7 @@
       <c r="D1" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="67" t="s">
         <v>256</v>
       </c>
     </row>
@@ -7826,28 +7962,28 @@
       <c r="B2" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="55" t="s">
+      <c r="D2" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="69" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="56">
+      <c r="A3" s="57">
         <f>ROW()-ROW(Table_sprites[N])</f>
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="D3" s="66" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="59" t="s">
+      <c r="D3" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" s="71" t="s">
         <v>261</v>
       </c>
     </row>
@@ -7862,31 +7998,67 @@
       <c r="C4" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="D4" s="65" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="55" t="s">
+      <c r="D4" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="69" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="60">
+      <c r="A5" s="57">
         <f>ROW()-ROW(Table_sprites[N])</f>
         <v>3</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="D5" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="63" t="s">
+      <c r="C5" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="52">
+        <f>ROW()-ROW(Table_sprites[N])</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="62">
+        <f>ROW()-ROW(Table_sprites[N])</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="73" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E5">
+    <dataValidation type="list" allowBlank="1" sqref="D2:E7">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -7923,34 +8095,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="F1" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="C1" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="D1" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="E1" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="F1" s="74" t="s">
         <v>273</v>
       </c>
+      <c r="G1" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" s="74" t="s">
+        <v>277</v>
+      </c>
       <c r="K1" s="51" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2">
@@ -7961,70 +8133,70 @@
       <c r="B2" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="75">
         <f t="shared" ref="C2:C5" si="1">COUNTIFS(D2:K2,"&lt;&gt;DIALOG_OPTION_NONE",D2:K2,"&lt;&gt;")</f>
         <v>0</v>
       </c>
-      <c r="D2" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="G2" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="H2" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="I2" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="J2" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="K2" s="71" t="s">
-        <v>275</v>
+      <c r="D2" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="K2" s="77" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="56">
+      <c r="A3" s="57">
         <f>ROW()-ROW(Table_Dialogs[N])</f>
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" s="72">
+      <c r="B3" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="78">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D3" s="73" t="s">
-        <v>277</v>
-      </c>
-      <c r="E3" s="73" t="s">
-        <v>275</v>
-      </c>
-      <c r="F3" s="73" t="s">
-        <v>275</v>
-      </c>
-      <c r="G3" s="73" t="s">
-        <v>275</v>
-      </c>
-      <c r="H3" s="73" t="s">
-        <v>275</v>
-      </c>
-      <c r="I3" s="73" t="s">
-        <v>275</v>
-      </c>
-      <c r="J3" s="73" t="s">
-        <v>275</v>
-      </c>
-      <c r="K3" s="74" t="s">
-        <v>275</v>
+      <c r="D3" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="79" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>279</v>
+      </c>
+      <c r="I3" s="79" t="s">
+        <v>279</v>
+      </c>
+      <c r="J3" s="79" t="s">
+        <v>279</v>
+      </c>
+      <c r="K3" s="80" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="4">
@@ -8033,72 +8205,72 @@
         <v>2</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" s="75">
+        <v>282</v>
+      </c>
+      <c r="C4" s="81">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D4" s="70" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4" s="70" t="s">
+      <c r="D4" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="F4" s="70" t="s">
-        <v>280</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="J4" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="K4" s="71" t="s">
-        <v>275</v>
+      <c r="I4" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="60">
+      <c r="A5" s="62">
         <f>ROW()-ROW(Table_Dialogs[N])</f>
         <v>3</v>
       </c>
-      <c r="B5" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="C5" s="76">
+      <c r="B5" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D5" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="G5" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="H5" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="I5" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="K5" s="78" t="s">
-        <v>275</v>
+      <c r="D5" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="I5" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="K5" s="84" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="7">
@@ -8106,34 +8278,34 @@
         <v>0</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>285</v>
-      </c>
-      <c r="E7" s="68" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="G7" s="68" t="s">
-        <v>288</v>
-      </c>
-      <c r="H7" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="I7" s="68" t="s">
+      <c r="D7" s="74" t="s">
         <v>290</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="E7" s="74" t="s">
         <v>291</v>
       </c>
+      <c r="F7" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>294</v>
+      </c>
+      <c r="I7" s="74" t="s">
+        <v>295</v>
+      </c>
+      <c r="J7" s="74" t="s">
+        <v>296</v>
+      </c>
       <c r="K7" s="51" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8">
@@ -8142,12 +8314,12 @@
         <v>0</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C8" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="65" t="b">
+      <c r="D8" s="55" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="54" t="s">
@@ -8156,7 +8328,7 @@
       <c r="F8" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="G8" s="75">
+      <c r="G8" s="81">
         <f t="shared" ref="G8:G14" si="2">COUNTIFS(H8:K8,"&lt;&gt;PHRASE_NONE",H8:K8,"&lt;&gt;")</f>
         <v>0</v>
       </c>
@@ -8169,44 +8341,44 @@
       <c r="J8" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="56" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="56">
+      <c r="A9" s="57">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>1</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="58" t="s">
+      <c r="B9" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="66" t="b">
+      <c r="D9" s="60" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="G9" s="79">
+      <c r="G9" s="85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="61" t="s">
         <v>248</v>
       </c>
     </row>
@@ -8216,12 +8388,12 @@
         <v>2</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C10" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="65" t="b">
+      <c r="D10" s="55" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="54" t="s">
@@ -8230,57 +8402,57 @@
       <c r="F10" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="G10" s="80">
+      <c r="G10" s="86">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="I10" s="54" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J10" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="K10" s="55" t="s">
+      <c r="K10" s="56" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="56">
+      <c r="A11" s="57">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>3</v>
       </c>
-      <c r="B11" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="58" t="s">
+      <c r="B11" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="66" t="b">
+      <c r="D11" s="60" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="G11" s="79">
+      <c r="G11" s="85">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H11" s="58" t="s">
-        <v>295</v>
-      </c>
-      <c r="I11" s="58" t="s">
+      <c r="H11" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="I11" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="J11" s="58" t="s">
+      <c r="J11" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="61" t="s">
         <v>248</v>
       </c>
     </row>
@@ -8290,12 +8462,12 @@
         <v>4</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C12" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="D12" s="65" t="b">
+      <c r="D12" s="55" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="54" t="s">
@@ -8304,12 +8476,12 @@
       <c r="F12" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="G12" s="80">
+      <c r="G12" s="86">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H12" s="54" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="I12" s="54" t="s">
         <v>248</v>
@@ -8317,143 +8489,143 @@
       <c r="J12" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="56" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="56">
+      <c r="A13" s="57">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>5</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="C13" s="58" t="s">
+      <c r="B13" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="D13" s="66" t="b">
+      <c r="D13" s="60" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="G13" s="79">
+      <c r="G13" s="85">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H13" s="58" t="s">
-        <v>297</v>
-      </c>
-      <c r="I13" s="58" t="s">
+      <c r="H13" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="I13" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="61" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="81">
+      <c r="A14" s="87">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>6</v>
       </c>
-      <c r="B14" s="82" t="s">
-        <v>298</v>
-      </c>
-      <c r="C14" s="83" t="s">
+      <c r="B14" s="88" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="84" t="b">
+      <c r="D14" s="90" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="83" t="s">
+      <c r="E14" s="89" t="s">
         <v>226</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="F14" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="G14" s="85">
+      <c r="G14" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H14" s="83" t="s">
+      <c r="H14" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="I14" s="83" t="s">
+      <c r="I14" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="J14" s="83" t="s">
+      <c r="J14" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="K14" s="86" t="s">
+      <c r="K14" s="92" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
     </row>
     <row r="17">
-      <c r="A17" s="87"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
     </row>
     <row r="18">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
     </row>
     <row r="19">
-      <c r="A19" s="87"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
     </row>
     <row r="20">
-      <c r="A20" s="87"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
     </row>
     <row r="21">
-      <c r="A21" s="87"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -8519,25 +8691,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>301</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>302</v>
+        <v>306</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>307</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="H1" s="46" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
@@ -8549,7 +8721,7 @@
         <v>248</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>258</v>
@@ -8557,36 +8729,36 @@
       <c r="E2" s="53">
         <v>0.0</v>
       </c>
-      <c r="F2" s="70" t="s">
-        <v>306</v>
-      </c>
-      <c r="H2" s="88"/>
+      <c r="F2" s="76" t="s">
+        <v>311</v>
+      </c>
+      <c r="H2" s="94"/>
     </row>
     <row r="3">
-      <c r="A3" s="56">
+      <c r="A3" s="57">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="D3" s="58" t="s">
+      <c r="B3" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="58">
         <v>0.0</v>
       </c>
-      <c r="F3" s="73" t="s">
-        <v>308</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="H3" s="89" t="s">
-        <v>310</v>
+      <c r="F3" s="79" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="H3" s="95" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="4">
@@ -8595,10 +8767,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D4" s="54" t="s">
         <v>261</v>
@@ -8606,41 +8778,41 @@
       <c r="E4" s="53">
         <v>0.0</v>
       </c>
-      <c r="F4" s="70" t="s">
-        <v>308</v>
+      <c r="F4" s="76" t="s">
+        <v>313</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="H4" s="88" t="s">
-        <v>312</v>
+        <v>316</v>
+      </c>
+      <c r="H4" s="94" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="56">
+      <c r="A5" s="57">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>3</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>294</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="D5" s="58" t="s">
+      <c r="B5" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="58">
         <v>0.0</v>
       </c>
-      <c r="F5" s="73" t="s">
-        <v>308</v>
-      </c>
-      <c r="G5" s="57" t="s">
+      <c r="F5" s="79" t="s">
         <v>313</v>
       </c>
-      <c r="H5" s="89" t="s">
-        <v>314</v>
+      <c r="G5" s="58" t="s">
+        <v>318</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="6">
@@ -8649,10 +8821,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D6" s="54" t="s">
         <v>261</v>
@@ -8660,68 +8832,68 @@
       <c r="E6" s="53">
         <v>0.0</v>
       </c>
-      <c r="F6" s="70" t="s">
-        <v>308</v>
+      <c r="F6" s="76" t="s">
+        <v>313</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="H6" s="88" t="s">
-        <v>316</v>
+        <v>320</v>
+      </c>
+      <c r="H6" s="94" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="56">
+      <c r="A7" s="57">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>5</v>
       </c>
-      <c r="B7" s="57" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="D7" s="58" t="s">
+      <c r="B7" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="58">
         <v>0.0</v>
       </c>
-      <c r="F7" s="73" t="s">
-        <v>308</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>317</v>
-      </c>
-      <c r="H7" s="89" t="s">
-        <v>318</v>
+      <c r="F7" s="79" t="s">
+        <v>313</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>322</v>
+      </c>
+      <c r="H7" s="95" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="81">
+      <c r="A8" s="87">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>6</v>
       </c>
-      <c r="B8" s="82" t="s">
-        <v>297</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>305</v>
-      </c>
-      <c r="D8" s="83" t="s">
+      <c r="B8" s="88" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="89" t="s">
         <v>261</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="88">
         <v>0.0</v>
       </c>
-      <c r="F8" s="90" t="s">
-        <v>308</v>
-      </c>
-      <c r="G8" s="82" t="s">
-        <v>319</v>
-      </c>
-      <c r="H8" s="91" t="s">
-        <v>320</v>
+      <c r="F8" s="96" t="s">
+        <v>313</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="H8" s="97" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -8760,8 +8932,8 @@
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
-        <v>321</v>
+      <c r="B1" s="67" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="2">
@@ -8769,26 +8941,26 @@
         <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)-1</f>
         <v>-1</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="94" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="56">
+      <c r="A3" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="95" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="81">
+      <c r="A4" s="87">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B4" s="91" t="s">
-        <v>322</v>
+      <c r="B4" s="97" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -8812,37 +8984,267 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="18.86"/>
+    <col customWidth="1" min="4" max="4" width="12.0"/>
+    <col customWidth="1" min="5" max="6" width="26.57"/>
+    <col customWidth="1" min="7" max="7" width="20.29"/>
+    <col customWidth="1" min="8" max="8" width="23.57"/>
+    <col customWidth="1" min="9" max="9" width="26.71"/>
+    <col customWidth="1" min="10" max="10" width="25.71"/>
+    <col customWidth="1" min="11" max="11" width="21.86"/>
+    <col customWidth="1" min="12" max="12" width="12.0"/>
+    <col customWidth="1" min="13" max="13" width="25.0"/>
+    <col customWidth="1" min="14" max="14" width="26.57"/>
+    <col customWidth="1" min="15" max="15" width="20.29"/>
+    <col customWidth="1" min="16" max="16" width="22.0"/>
+    <col customWidth="1" min="17" max="17" width="26.71"/>
+    <col customWidth="1" min="18" max="18" width="25.71"/>
+    <col customWidth="1" min="19" max="19" width="21.86"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
-        <v>323</v>
+      <c r="B1" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="R1" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="S1" s="46" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="47">
-        <f t="shared" ref="A2:A3" si="1">ROW()-ROW($A$2)</f>
+        <f>ROW()-ROW(Table_NPCs[NPC_ID])</f>
         <v>0</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>324</v>
+        <v>331</v>
+      </c>
+      <c r="C2" s="49">
+        <f t="shared" ref="C2:C3" si="1">COUNTIF(D2,"=TRUE")+COUNTIF(K2,"=TRUE")</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="K2" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="O2" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="P2" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q2" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="R2" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="S2" s="48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="47">
+        <f>ROW()-ROW(Table_NPCs[NPC_ID])</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="49">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="K3" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="O3" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="P3" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q3" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="R3" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="S3" s="48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="52">
+        <f t="shared" ref="A6:A7" si="2">A2</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="62">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>325</v>
+      <c r="B7" s="63" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="G2:G3 O2:O3">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="H2:H3 P2:P3">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E3 M2:M3">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="I2:I3 Q2:Q3">
+      <formula1>Table_Dialogs[DIALOG_ID]</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="J2:J3 R2:R3">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="F2:F3 N2:N3">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -5,13 +5,13 @@
   <sheets>
     <sheet state="visible" name="VARMAP" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="SERVICES" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="ITEMS" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="ITEMS_CONDS" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="ACTION_CONDS" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="ITEMS" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="SPRITES" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="DIALOGS" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="PHRASES" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="ROOMS" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="NPCs" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="NAMES" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="PHRASES" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="ROOMS" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="CHARACTERS" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="EVENTS" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="CONSTANTS" sheetId="12" r:id="rId15"/>
@@ -22,7 +22,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId18" roundtripDataChecksum="4Fn75qX1cFV9eQAeEzCajvWsRtJ/ac0/qtbg/M3/ps4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId18" roundtripDataChecksum="aT7v5ivGytPT/yxhX9jGYX1j+3i8WhtzLOkhK6JdtTo="/>
     </ext>
   </extLst>
 </workbook>
@@ -62,29 +62,13 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D2">
-      <text>
-        <t xml:space="preserve">Calculated
-======</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="E7">
+    <comment authorId="0" ref="D7">
       <text>
         <t xml:space="preserve">Event triggered after all phrases
 ======</t>
       </text>
     </comment>
-    <comment authorId="0" ref="F7">
+    <comment authorId="0" ref="E7">
       <text>
         <t xml:space="preserve">New dialog shown after all phrases have been said
 ======</t>
@@ -94,24 +78,8 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="C2">
-      <text>
-        <t xml:space="preserve">Calculated
-======</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="397">
   <si>
     <t>N</t>
   </si>
@@ -566,6 +534,15 @@
     <t>Activates/Deactivates an event</t>
   </si>
   <si>
+    <t>IS_EVENT_COMBI_OCCURRED</t>
+  </si>
+  <si>
+    <t>GameEventMasterClass.IsEventCombiOccurredService</t>
+  </si>
+  <si>
+    <t>Same as IsEventOccurredService but for array of combos with possible negation</t>
+  </si>
+  <si>
     <t>USE_ITEM</t>
   </si>
   <si>
@@ -728,148 +705,190 @@
     <t>Last service</t>
   </si>
   <si>
+    <t>ACTION_COND_ID</t>
+  </si>
+  <si>
+    <t>NeededEvents</t>
+  </si>
+  <si>
+    <t>srcChar</t>
+  </si>
+  <si>
+    <t>srcItem</t>
+  </si>
+  <si>
+    <t>Action_OK</t>
+  </si>
+  <si>
+    <t>Animation_OK</t>
+  </si>
+  <si>
+    <t>Animation_NOK_Event</t>
+  </si>
+  <si>
+    <t>Dialog_OK</t>
+  </si>
+  <si>
+    <t>Phrase_OK</t>
+  </si>
+  <si>
+    <t>Dialog_NOK_Event</t>
+  </si>
+  <si>
+    <t>Phrase_NOK_Event</t>
+  </si>
+  <si>
+    <t>UnchainEvent</t>
+  </si>
+  <si>
+    <t>ConsumeItem</t>
+  </si>
+  <si>
+    <t>COND_OK</t>
+  </si>
+  <si>
+    <t>EVENT_NONE</t>
+  </si>
+  <si>
+    <t>CHARACTER_NONE</t>
+  </si>
+  <si>
+    <t>ITEM_NONE</t>
+  </si>
+  <si>
+    <t>INTERACTION_NONE</t>
+  </si>
+  <si>
+    <t>ITEM_USE_ANIMATION_TAKE</t>
+  </si>
+  <si>
+    <t>ITEM_USE_ANIMATION_CONFUSE</t>
+  </si>
+  <si>
+    <t>DIALOG_NONE</t>
+  </si>
+  <si>
+    <t>PHRASE_NONE</t>
+  </si>
+  <si>
+    <t>COND_TAKE_POTION</t>
+  </si>
+  <si>
+    <t>CHARACTER_MAIN</t>
+  </si>
+  <si>
+    <t>INTERACTION_TAKE</t>
+  </si>
+  <si>
+    <t>ITEM_USE_ANIMATION_NONE</t>
+  </si>
+  <si>
+    <t>COND_TAKE_POTION_BLUE</t>
+  </si>
+  <si>
+    <t>CHARACTER_PARROT</t>
+  </si>
+  <si>
+    <t>ITEM_POTION_BLUE</t>
+  </si>
+  <si>
+    <t>COND_FOUNTAIN</t>
+  </si>
+  <si>
+    <t>ITEM_POTION</t>
+  </si>
+  <si>
+    <t>INTERACTION_USE</t>
+  </si>
+  <si>
+    <t>ITEM_USE_ANIMATION_POUR</t>
+  </si>
+  <si>
+    <t>EVENT_FOUNTAIN_FULL</t>
+  </si>
+  <si>
+    <t>COND_FOUNTAIN2</t>
+  </si>
+  <si>
+    <t>INTERACTION_TALK</t>
+  </si>
+  <si>
+    <t>ITEM_USE_ANIMATION_STARE_SCREEN</t>
+  </si>
+  <si>
+    <t>DIALOG_FOUNTAIN</t>
+  </si>
+  <si>
+    <t>COND_LAST</t>
+  </si>
+  <si>
     <t>ITEM_ID</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sprites</t>
+  </si>
+  <si>
     <t>PICKABLE</t>
   </si>
   <si>
-    <t>ActionCount</t>
-  </si>
-  <si>
-    <t>Action1</t>
-  </si>
-  <si>
-    <t>Action1_SourceChar</t>
-  </si>
-  <si>
-    <t>Action1_Action</t>
-  </si>
-  <si>
-    <t>Action1_ItemSrc</t>
-  </si>
-  <si>
-    <t>Action1_Condition</t>
-  </si>
-  <si>
-    <t>Action1_UnchainEvent</t>
-  </si>
-  <si>
-    <t>Action1_Consume</t>
-  </si>
-  <si>
-    <t>Action2</t>
-  </si>
-  <si>
-    <t>Action2_SourceChar</t>
-  </si>
-  <si>
-    <t>Action2_Action</t>
-  </si>
-  <si>
-    <t>Action2_ItemSrc</t>
-  </si>
-  <si>
-    <t>Action2_Condition</t>
-  </si>
-  <si>
-    <t>Action2_UnchainEvent</t>
-  </si>
-  <si>
-    <t>Action2_Consume</t>
-  </si>
-  <si>
-    <t>ITEM_NONE</t>
-  </si>
-  <si>
-    <t>CHARACTER_MAIN</t>
-  </si>
-  <si>
-    <t>INTERACTION_NONE</t>
-  </si>
-  <si>
-    <t>COND_OK</t>
-  </si>
-  <si>
-    <t>EVENT_NONE</t>
-  </si>
-  <si>
-    <t>ITEM_POTION</t>
-  </si>
-  <si>
-    <t>INTERACTION_TAKE</t>
-  </si>
-  <si>
-    <t>ITEM_POTION_BLUE</t>
-  </si>
-  <si>
-    <t>CHARACTER_PARROT</t>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>SpritePickable</t>
+  </si>
+  <si>
+    <t>ActionConditions</t>
+  </si>
+  <si>
+    <t>NAME_NONE</t>
+  </si>
+  <si>
+    <t>SPRITE_NONE</t>
+  </si>
+  <si>
+    <t>NAME_ITEM_POTION</t>
+  </si>
+  <si>
+    <t>SPRITE_POTION_RED</t>
+  </si>
+  <si>
+    <t>NAME_ITEM_BLUE_POTION</t>
+  </si>
+  <si>
+    <t>SPRITE_POTION_BLUE</t>
   </si>
   <si>
     <t>ITEM_FOUNTAIN</t>
   </si>
   <si>
-    <t>INTERACTION_USE</t>
-  </si>
-  <si>
-    <t>COND_FOUNTAIN</t>
-  </si>
-  <si>
-    <t>EVENT_FOUNTAIN_FULL</t>
+    <t>NAME_ITEM_FOUNTAIN</t>
+  </si>
+  <si>
+    <t>SPRITE_FOUNTAIN, SPRITE_FOUNTAIN_FULL</t>
+  </si>
+  <si>
+    <t>COND_FOUNTAIN, COND_FOUNTAIN2</t>
+  </si>
+  <si>
+    <t>ITEM_NPC_MILITO</t>
+  </si>
+  <si>
+    <t>NAME_NPC_MILITO</t>
+  </si>
+  <si>
+    <t>SPRITE_NPC_MILITO</t>
   </si>
   <si>
     <t>ITEM_LAST</t>
   </si>
   <si>
-    <t>ITEM_COND_ID</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>Event_NOT_Occurred</t>
-  </si>
-  <si>
-    <t>Animation_OK</t>
-  </si>
-  <si>
-    <t>Animation_NOK_Event</t>
-  </si>
-  <si>
-    <t>Dialog_OK</t>
-  </si>
-  <si>
-    <t>Phrase_OK</t>
-  </si>
-  <si>
-    <t>Dialog_NOK_Event</t>
-  </si>
-  <si>
-    <t>Phrase_NOK_Event</t>
-  </si>
-  <si>
-    <t>ITEM_USE_ANIMATION_TAKE</t>
-  </si>
-  <si>
-    <t>ITEM_USE_ANIMATION_CONFUSE</t>
-  </si>
-  <si>
-    <t>DIALOG_NONE</t>
-  </si>
-  <si>
-    <t>PHRASE_NONE</t>
-  </si>
-  <si>
-    <t>ITEM_USE_ANIMATION_POUR</t>
-  </si>
-  <si>
-    <t>COND_FOUNTAIN2</t>
-  </si>
-  <si>
-    <t>ITEM_USE_ANIMATION_STARE_SCREEN</t>
-  </si>
-  <si>
-    <t>COND_LAST</t>
+    <t>NAME_NPC_LAST</t>
+  </si>
+  <si>
+    <t>SPRITE_LAST</t>
   </si>
   <si>
     <t>SPRITE_ID</t>
@@ -878,276 +897,264 @@
     <t>PATH</t>
   </si>
   <si>
-    <t>ASSOCIATED_ITEM</t>
-  </si>
-  <si>
-    <t>NEEDED_IN_ROOM</t>
-  </si>
-  <si>
-    <t>SPRITE_NONE</t>
+    <t>Sprites/potion_64</t>
+  </si>
+  <si>
+    <t>Sprites/potionblue_64</t>
+  </si>
+  <si>
+    <t>SPRITE_FOUNTAIN</t>
+  </si>
+  <si>
+    <t>Sprites/spr_fountain_256</t>
+  </si>
+  <si>
+    <t>SPRITE_FOUNTAIN_FULL</t>
+  </si>
+  <si>
+    <t>Sprites/spr_fountain_full_256</t>
+  </si>
+  <si>
+    <t>Sprites/spr_milito_1</t>
+  </si>
+  <si>
+    <t>DIALOG_ID</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_NONE</t>
+  </si>
+  <si>
+    <t>DIALOG_SIMPLE</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_SIMPLE</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_1, DIALOG_OPTION_ASK_FOUNTAIN_2, DIALOG_OPTION_ASK_FOUNTAIN_3, DIALOG_OPTION_ASK_FOUNTAIN_4</t>
+  </si>
+  <si>
+    <t>DIALOG_LAST</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ID</t>
+  </si>
+  <si>
+    <t>EventTriggered</t>
+  </si>
+  <si>
+    <t>DialogTriggered</t>
+  </si>
+  <si>
+    <t>Phrases</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_1</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN1_1, PHRASE_ASK_FOUNTAIN1_2</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_2</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN2_1</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_3</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN3_1</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_4</t>
+  </si>
+  <si>
+    <t>(NOT)EVENT_FOUNTAIN_FULL</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN4_1</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_LAST</t>
+  </si>
+  <si>
+    <t>NAME_ID</t>
+  </si>
+  <si>
+    <t>Name_English</t>
+  </si>
+  <si>
+    <t>Name_Spanish</t>
+  </si>
+  <si>
+    <t>NAME_CHAR_MAIN</t>
+  </si>
+  <si>
+    <t>Blount</t>
+  </si>
+  <si>
+    <t>NAME_CHAR_PARROT</t>
+  </si>
+  <si>
+    <t>Parrot</t>
+  </si>
+  <si>
+    <t>Loro</t>
+  </si>
+  <si>
+    <t>NAME_CHAR_SNAKE</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>Serpiente</t>
+  </si>
+  <si>
+    <t>Red Potion</t>
+  </si>
+  <si>
+    <t>Pocion Roja</t>
+  </si>
+  <si>
+    <t>Blue Potion</t>
+  </si>
+  <si>
+    <t>Pocion Azul</t>
+  </si>
+  <si>
+    <t>Fountain</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>Militer</t>
+  </si>
+  <si>
+    <t>Milito</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Ultimo</t>
+  </si>
+  <si>
+    <t>PHRASE_ID</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>CharAnimation</t>
+  </si>
+  <si>
+    <t>Text_English</t>
+  </si>
+  <si>
+    <t>Text_Spanish</t>
+  </si>
+  <si>
+    <t>DIALOG_ANIMATION_NONE</t>
+  </si>
+  <si>
+    <t>PHRASE_NONSENSE</t>
+  </si>
+  <si>
+    <t>DIALOG_ANIMATION_TALK</t>
+  </si>
+  <si>
+    <t>That has no sense!</t>
+  </si>
+  <si>
+    <t>¡Eso no tiene sentido!</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN1_1</t>
+  </si>
+  <si>
+    <t>Are you the fountain?</t>
+  </si>
+  <si>
+    <t>¿Eres tú la fuente?</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN1_2</t>
+  </si>
+  <si>
+    <t>Sure?</t>
+  </si>
+  <si>
+    <t>¿De verdad?</t>
+  </si>
+  <si>
+    <t>Are you kidding me?</t>
+  </si>
+  <si>
+    <t>¿Me estás troleando?</t>
+  </si>
+  <si>
+    <t>Why are you red?</t>
+  </si>
+  <si>
+    <t>¿Por qué estás roja?</t>
+  </si>
+  <si>
+    <t>Why are you not red yet?</t>
+  </si>
+  <si>
+    <t>¿Por qué aún no estás roja?</t>
+  </si>
+  <si>
+    <t>ROOM_ID</t>
+  </si>
+  <si>
+    <t>CompoundSpritesText</t>
+  </si>
+  <si>
+    <t>CompoundPhrasesText</t>
+  </si>
+  <si>
+    <t>CompoundNamesText</t>
+  </si>
+  <si>
+    <t>NeededItems</t>
+  </si>
+  <si>
+    <t>NeededPhrases</t>
   </si>
   <si>
     <t>ROOM_NONE</t>
   </si>
   <si>
-    <t>SPRITE_POTION_RED</t>
-  </si>
-  <si>
-    <t>Sprites/potion_64</t>
-  </si>
-  <si>
     <t>ROOM_FIRST</t>
   </si>
   <si>
-    <t>SPRITE_POTION_BLUE</t>
-  </si>
-  <si>
-    <t>Sprites/potionblue_64</t>
-  </si>
-  <si>
-    <t>SPRITE_FOUNTAIN</t>
-  </si>
-  <si>
-    <t>Sprites/spr_fountain_256</t>
-  </si>
-  <si>
-    <t>SPRITE_FOUNTAIN_FULL</t>
-  </si>
-  <si>
-    <t>Sprites/spr_fountain_full_256</t>
-  </si>
-  <si>
-    <t>SPRITE_LAST</t>
-  </si>
-  <si>
-    <t>DIALOG_ID</t>
-  </si>
-  <si>
-    <t>Options_Count</t>
-  </si>
-  <si>
-    <t>Option1</t>
-  </si>
-  <si>
-    <t>Option2</t>
-  </si>
-  <si>
-    <t>Option3</t>
-  </si>
-  <si>
-    <t>Option4</t>
-  </si>
-  <si>
-    <t>Option5</t>
-  </si>
-  <si>
-    <t>Option6</t>
-  </si>
-  <si>
-    <t>Option7</t>
-  </si>
-  <si>
-    <t>Option8</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_NONE</t>
-  </si>
-  <si>
-    <t>DIALOG_SIMPLE</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_SIMPLE</t>
-  </si>
-  <si>
-    <t>DIALOG_FOUNTAIN</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_ASK_FOUNTAIN_1</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_ASK_FOUNTAIN_2</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_ASK_FOUNTAIN_3</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_ASK_FOUNTAIN_4</t>
-  </si>
-  <si>
-    <t>DIALOG_LAST</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_ID</t>
-  </si>
-  <si>
-    <t>EventCondition</t>
-  </si>
-  <si>
-    <t>EventConditionNotOccurred</t>
-  </si>
-  <si>
-    <t>EventTriggered</t>
-  </si>
-  <si>
-    <t>DialogTriggered</t>
-  </si>
-  <si>
-    <t>PhraseCount</t>
-  </si>
-  <si>
-    <t>Phrase1</t>
-  </si>
-  <si>
-    <t>Phrase2</t>
-  </si>
-  <si>
-    <t>Phrase3</t>
-  </si>
-  <si>
-    <t>Phrase4</t>
-  </si>
-  <si>
-    <t>PHRASE_ASK_FOUNTAIN1_1</t>
-  </si>
-  <si>
-    <t>PHRASE_ASK_FOUNTAIN1_2</t>
-  </si>
-  <si>
-    <t>PHRASE_ASK_FOUNTAIN2_1</t>
-  </si>
-  <si>
-    <t>PHRASE_ASK_FOUNTAIN3_1</t>
-  </si>
-  <si>
-    <t>PHRASE_ASK_FOUNTAIN4_1</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_LAST</t>
-  </si>
-  <si>
-    <t>PHRASE_ID</t>
-  </si>
-  <si>
-    <t>Sender</t>
-  </si>
-  <si>
-    <t>Sound</t>
-  </si>
-  <si>
-    <t>CharAnimation</t>
-  </si>
-  <si>
-    <t>Text_English</t>
-  </si>
-  <si>
-    <t>Text_Spanish</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>DIALOG_ANIMATION_NONE</t>
-  </si>
-  <si>
-    <t>PHRASE_NONSENSE</t>
-  </si>
-  <si>
-    <t>DIALOG_ANIMATION_TALK</t>
-  </si>
-  <si>
-    <t>That has no sense!</t>
-  </si>
-  <si>
-    <t>¡Eso no tiene sentido!</t>
-  </si>
-  <si>
-    <t>Are you the fountain?</t>
-  </si>
-  <si>
-    <t>¿Eres tú la fuente?</t>
-  </si>
-  <si>
-    <t>Sure?</t>
-  </si>
-  <si>
-    <t>¿De verdad?</t>
-  </si>
-  <si>
-    <t>Are you kidding me?</t>
-  </si>
-  <si>
-    <t>¿Me estás troleando?</t>
-  </si>
-  <si>
-    <t>Why are you red?</t>
-  </si>
-  <si>
-    <t>¿Por qué estás roja?</t>
-  </si>
-  <si>
-    <t>Why are you not red yet?</t>
-  </si>
-  <si>
-    <t>¿Por qué aún no estás roja?</t>
-  </si>
-  <si>
-    <t>ROOM_ID</t>
+    <t>ITEM_POTION, ITEM_POTION_BLUE, ITEM_FOUNTAIN, ITEM_NPC_MILITO</t>
+  </si>
+  <si>
+    <t>PHRASE_NONSENSE, PHRASE_ASK_FOUNTAIN1_1, PHRASE_ASK_FOUNTAIN1_2, PHRASE_ASK_FOUNTAIN2_1, PHRASE_ASK_FOUNTAIN3_1, PHRASE_ASK_FOUNTAIN4_1</t>
   </si>
   <si>
     <t>ROOM_LAST</t>
   </si>
   <si>
-    <t>NPC_ID</t>
-  </si>
-  <si>
-    <t>Action1_Dialog_NoItem</t>
-  </si>
-  <si>
-    <t>Action2_Dialog_NoItem</t>
-  </si>
-  <si>
-    <t>NPC_FIRST</t>
-  </si>
-  <si>
-    <t>INTERACTION_TALK</t>
-  </si>
-  <si>
-    <t>NPC_LAST</t>
-  </si>
-  <si>
-    <t>Name_English</t>
-  </si>
-  <si>
-    <t>Name_Spanish</t>
-  </si>
-  <si>
-    <t>Militer</t>
-  </si>
-  <si>
-    <t>Milito</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>CHARACTER_NONE</t>
-  </si>
-  <si>
     <t>CHARACTER_SNAKE</t>
   </si>
   <si>
     <t>ANIMATION_ID</t>
   </si>
   <si>
-    <t>ITEM_USE_ANIMATION_NONE</t>
-  </si>
-  <si>
     <t>ITEM_USE_ANIMATION_NORMAL</t>
   </si>
   <si>
@@ -1163,15 +1170,6 @@
     <t>CharName</t>
   </si>
   <si>
-    <t>Main Character</t>
-  </si>
-  <si>
-    <t>Parrot Character</t>
-  </si>
-  <si>
-    <t>Snake Character</t>
-  </si>
-  <si>
     <t>DIALOG_ANIMATION_ID</t>
   </si>
   <si>
@@ -1199,9 +1197,21 @@
     <t>EVENT_LAST</t>
   </si>
   <si>
+    <t>EVENT_COMBI_ID</t>
+  </si>
+  <si>
     <t>NUM_PLAYERS</t>
   </si>
   <si>
+    <t>SPRITES</t>
+  </si>
+  <si>
+    <t>WORK</t>
+  </si>
+  <si>
+    <t>NAMES</t>
+  </si>
+  <si>
     <t>ITEM_ID (Ref)</t>
   </si>
   <si>
@@ -1260,9 +1270,6 @@
   </si>
   <si>
     <t>Normalize menu items with dialog opts</t>
-  </si>
-  <si>
-    <t>Last</t>
   </si>
 </sst>
 </file>
@@ -1680,7 +1687,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="124">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1772,43 +1779,43 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1819,180 +1826,213 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2071,7 +2111,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="19">
+  <tableStyles count="21">
     <tableStyle count="3" pivot="0" name="VARMAP-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -2082,12 +2122,12 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="ITEMS-style">
+    <tableStyle count="3" pivot="0" name="ACTION_CONDS-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="ITEMS_CONDS-style">
+    <tableStyle count="3" pivot="0" name="ITEMS-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -2107,22 +2147,17 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
+    <tableStyle count="3" pivot="0" name="NAMES-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
     <tableStyle count="3" pivot="0" name="PHRASES-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="ROOMS-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="NPCs-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="3" pivot="0" name="NPCs-style 2">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -2157,7 +2192,22 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
+    <tableStyle count="3" pivot="0" name="EVENTS-style 2">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
     <tableStyle count="3" pivot="0" name="CONSTANTS-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="CONSTANTS-style 2">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="CONSTANTS-style 3">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -2253,45 +2303,22 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:S3" displayName="Table_NPCs" name="Table_NPCs" id="10">
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Rooms" name="Table_Rooms" id="10">
+  <tableColumns count="7">
     <tableColumn name="N" id="1"/>
-    <tableColumn name="NPC_ID" id="2"/>
-    <tableColumn name="ActionCount" id="3"/>
-    <tableColumn name="Action1" id="4"/>
-    <tableColumn name="Action1_SourceChar" id="5"/>
-    <tableColumn name="Action1_Action" id="6"/>
-    <tableColumn name="Action1_ItemSrc" id="7"/>
-    <tableColumn name="Action1_Condition" id="8"/>
-    <tableColumn name="Action1_Dialog_NoItem" id="9"/>
-    <tableColumn name="Action1_UnchainEvent" id="10"/>
-    <tableColumn name="Action1_Consume" id="11"/>
-    <tableColumn name="Action2" id="12"/>
-    <tableColumn name="Action2_SourceChar" id="13"/>
-    <tableColumn name="Action2_Action" id="14"/>
-    <tableColumn name="Action2_ItemSrc" id="15"/>
-    <tableColumn name="Action2_Condition" id="16"/>
-    <tableColumn name="Action2_Dialog_NoItem" id="17"/>
-    <tableColumn name="Action2_UnchainEvent" id="18"/>
-    <tableColumn name="Action2_Consume" id="19"/>
+    <tableColumn name="ROOM_ID" id="2"/>
+    <tableColumn name="CompoundSpritesText" id="3"/>
+    <tableColumn name="CompoundPhrasesText" id="4"/>
+    <tableColumn name="CompoundNamesText" id="5"/>
+    <tableColumn name="NeededItems" id="6"/>
+    <tableColumn name="NeededPhrases" id="7"/>
   </tableColumns>
-  <tableStyleInfo name="NPCs-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="ROOMS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A5:C7" displayName="Table_NPC_Name" name="Table_NPC_Name" id="11">
-  <tableColumns count="3">
-    <tableColumn name="N" id="1"/>
-    <tableColumn name="Name_English" id="2"/>
-    <tableColumn name="Name_Spanish" id="3"/>
-  </tableColumns>
-  <tableStyleInfo name="NPCs-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B5" displayName="Table_Characters" name="Table_Characters" id="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B5" displayName="Table_Characters" name="Table_Characters" id="11">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="Type" id="2"/>
@@ -2300,8 +2327,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:B13" displayName="Table_ItemUse_Animation" name="Table_ItemUse_Animation" id="13">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:B13" displayName="Table_ItemUse_Animation" name="Table_ItemUse_Animation" id="12">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="ANIMATION_ID" id="2"/>
@@ -2310,8 +2337,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A15:B21" displayName="Table_Interaction" name="Table_Interaction" id="14">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A15:B21" displayName="Table_Interaction" name="Table_Interaction" id="13">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="INTERACTION_ID" id="2"/>
@@ -2320,8 +2347,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A23:B26" displayName="Table_Characters_Name" name="Table_Characters_Name" id="15">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A23:B26" displayName="Table_Characters_Name" name="Table_Characters_Name" id="14">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="CharName" id="2"/>
@@ -2330,8 +2357,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A28:B30" displayName="Table_Dialog_Animation" name="Table_Dialog_Animation" id="16">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A28:B30" displayName="Table_Dialog_Animation" name="Table_Dialog_Animation" id="15">
   <tableColumns count="2">
     <tableColumn name="N" id="1"/>
     <tableColumn name="DIALOG_ANIMATION_ID" id="2"/>
@@ -2340,8 +2367,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Events" name="Table_Events" id="17">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Events" name="Table_Events" id="16">
   <tableColumns count="7">
     <tableColumn name="N" id="1"/>
     <tableColumn name="EVENT_ID" id="2"/>
@@ -2355,6 +2382,16 @@
 </table>
 </file>
 
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A6:B12" displayName="Table_EventsCombi" name="Table_EventsCombi" id="17">
+  <tableColumns count="2">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="EVENT_COMBI_ID" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="EVENTS-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:A2" displayName="Table_Constants" name="Table_Constants" id="18">
   <tableColumns count="1">
@@ -2365,19 +2402,17 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D15" displayName="Table_TODO" name="Table_TODO" id="19">
-  <tableColumns count="4">
-    <tableColumn name="TASK" id="1"/>
-    <tableColumn name="PRIO" id="2"/>
-    <tableColumn name="DONE" id="3"/>
-    <tableColumn name="ONGOING" id="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="C1:D128" displayName="Table_PickableSprites" name="Table_PickableSprites" id="19">
+  <tableColumns count="2">
+    <tableColumn name="SPRITES" id="1"/>
+    <tableColumn name="WORK" id="2"/>
   </tableColumns>
-  <tableStyleInfo name="_TODO-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="CONSTANTS-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O37" displayName="Table_Services" name="Table_Services" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O38" displayName="Table_Services" name="Table_Services" id="2">
   <tableColumns count="15">
     <tableColumn name="N" id="1"/>
     <tableColumn name="SERVICE_ID" id="2"/>
@@ -2399,124 +2434,126 @@
 </table>
 </file>
 
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="F1:G128" displayName="Table_PickableNames" name="Table_PickableNames" id="20">
+  <tableColumns count="2">
+    <tableColumn name="NAMES" id="1"/>
+    <tableColumn name="WORK" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="CONSTANTS-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D15" displayName="Table_TODO" name="Table_TODO" id="21">
+  <tableColumns count="4">
+    <tableColumn name="TASK" id="1"/>
+    <tableColumn name="PRIO" id="2"/>
+    <tableColumn name="DONE" id="3"/>
+    <tableColumn name="ONGOING" id="4"/>
+  </tableColumns>
+  <tableStyleInfo name="_TODO-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:R6" displayName="Table_Items" name="Table_Items" id="3">
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N7" displayName="Table_Action_Conditions" name="Table_Action_Conditions" id="3">
+  <tableColumns count="14">
+    <tableColumn name="N" id="1"/>
+    <tableColumn name="ACTION_COND_ID" id="2"/>
+    <tableColumn name="NeededEvents" id="3"/>
+    <tableColumn name="srcChar" id="4"/>
+    <tableColumn name="srcItem" id="5"/>
+    <tableColumn name="Action_OK" id="6"/>
+    <tableColumn name="Animation_OK" id="7"/>
+    <tableColumn name="Animation_NOK_Event" id="8"/>
+    <tableColumn name="Dialog_OK" id="9"/>
+    <tableColumn name="Phrase_OK" id="10"/>
+    <tableColumn name="Dialog_NOK_Event" id="11"/>
+    <tableColumn name="Phrase_NOK_Event" id="12"/>
+    <tableColumn name="UnchainEvent" id="13"/>
+    <tableColumn name="ConsumeItem" id="14"/>
+  </tableColumns>
+  <tableStyleInfo name="ACTION_CONDS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H7" displayName="Table_Items" name="Table_Items" id="4">
+  <tableColumns count="8">
     <tableColumn name="N" id="1"/>
     <tableColumn name="ITEM_ID" id="2"/>
-    <tableColumn name="PICKABLE" id="3"/>
-    <tableColumn name="ActionCount" id="4"/>
-    <tableColumn name="Action1" id="5"/>
-    <tableColumn name="Action1_SourceChar" id="6"/>
-    <tableColumn name="Action1_Action" id="7"/>
-    <tableColumn name="Action1_ItemSrc" id="8"/>
-    <tableColumn name="Action1_Condition" id="9"/>
-    <tableColumn name="Action1_UnchainEvent" id="10"/>
-    <tableColumn name="Action1_Consume" id="11"/>
-    <tableColumn name="Action2" id="12"/>
-    <tableColumn name="Action2_SourceChar" id="13"/>
-    <tableColumn name="Action2_Action" id="14"/>
-    <tableColumn name="Action2_ItemSrc" id="15"/>
-    <tableColumn name="Action2_Condition" id="16"/>
-    <tableColumn name="Action2_UnchainEvent" id="17"/>
-    <tableColumn name="Action2_Consume" id="18"/>
+    <tableColumn name="Name" id="3"/>
+    <tableColumn name="Sprites" id="4"/>
+    <tableColumn name="PICKABLE" id="5"/>
+    <tableColumn name="NPC" id="6"/>
+    <tableColumn name="SpritePickable" id="7"/>
+    <tableColumn name="ActionConditions" id="8"/>
   </tableColumns>
   <tableStyleInfo name="ITEMS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:J5" displayName="Table_Item_Conditions" name="Table_Item_Conditions" id="4">
-  <tableColumns count="10">
-    <tableColumn name="N" id="1"/>
-    <tableColumn name="ITEM_COND_ID" id="2"/>
-    <tableColumn name="Event" id="3"/>
-    <tableColumn name="Event_NOT_Occurred" id="4"/>
-    <tableColumn name="Animation_OK" id="5"/>
-    <tableColumn name="Animation_NOK_Event" id="6"/>
-    <tableColumn name="Dialog_OK" id="7"/>
-    <tableColumn name="Phrase_OK" id="8"/>
-    <tableColumn name="Dialog_NOK_Event" id="9"/>
-    <tableColumn name="Phrase_NOK_Event" id="10"/>
-  </tableColumns>
-  <tableStyleInfo name="ITEMS_CONDS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E7" displayName="Table_sprites" name="Table_sprites" id="5">
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C8" displayName="Table_sprites" name="Table_sprites" id="5">
+  <tableColumns count="3">
     <tableColumn name="N" id="1"/>
     <tableColumn name="SPRITE_ID" id="2"/>
     <tableColumn name="PATH" id="3"/>
-    <tableColumn name="ASSOCIATED_ITEM" id="4"/>
-    <tableColumn name="NEEDED_IN_ROOM" id="5"/>
   </tableColumns>
   <tableStyleInfo name="SPRITES-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K5" displayName="Table_Dialogs" name="Table_Dialogs" id="6">
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C5" displayName="Table_Dialogs" name="Table_Dialogs" id="6">
+  <tableColumns count="3">
     <tableColumn name="N" id="1"/>
     <tableColumn name="DIALOG_ID" id="2"/>
-    <tableColumn name="Options_Count" id="3"/>
-    <tableColumn name="Option1" id="4"/>
-    <tableColumn name="Option2" id="5"/>
-    <tableColumn name="Option3" id="6"/>
-    <tableColumn name="Option4" id="7"/>
-    <tableColumn name="Option5" id="8"/>
-    <tableColumn name="Option6" id="9"/>
-    <tableColumn name="Option7" id="10"/>
-    <tableColumn name="Option8" id="11"/>
+    <tableColumn name="Options" id="3"/>
   </tableColumns>
   <tableStyleInfo name="DIALOGS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:K14" displayName="Table_Dialog_Options" name="Table_Dialog_Options" id="7">
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:F14" displayName="Table_Dialog_Options" name="Table_Dialog_Options" id="7">
+  <tableColumns count="6">
     <tableColumn name="N" id="1"/>
     <tableColumn name="DIALOG_OPTION_ID" id="2"/>
-    <tableColumn name="EventCondition" id="3"/>
-    <tableColumn name="EventConditionNotOccurred" id="4"/>
-    <tableColumn name="EventTriggered" id="5"/>
-    <tableColumn name="DialogTriggered" id="6"/>
-    <tableColumn name="PhraseCount" id="7"/>
-    <tableColumn name="Phrase1" id="8"/>
-    <tableColumn name="Phrase2" id="9"/>
-    <tableColumn name="Phrase3" id="10"/>
-    <tableColumn name="Phrase4" id="11"/>
+    <tableColumn name="NeededEvents" id="3"/>
+    <tableColumn name="EventTriggered" id="4"/>
+    <tableColumn name="DialogTriggered" id="5"/>
+    <tableColumn name="Phrases" id="6"/>
   </tableColumns>
   <tableStyleInfo name="DIALOGS-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H8" displayName="Table_Phrases" name="Table_Phrases" id="8">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D10" displayName="Table_Name" name="Table_Name" id="8">
+  <tableColumns count="4">
     <tableColumn name="N" id="1"/>
-    <tableColumn name="PHRASE_ID" id="2"/>
-    <tableColumn name="Sender" id="3"/>
-    <tableColumn name="Room" id="4"/>
-    <tableColumn name="Sound" id="5"/>
-    <tableColumn name="CharAnimation" id="6"/>
-    <tableColumn name="Text_English" id="7"/>
-    <tableColumn name="Text_Spanish" id="8"/>
+    <tableColumn name="NAME_ID" id="2"/>
+    <tableColumn name="Name_English" id="3"/>
+    <tableColumn name="Name_Spanish" id="4"/>
   </tableColumns>
-  <tableStyleInfo name="PHRASES-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="NAMES-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B4" displayName="Table_Rooms" name="Table_Rooms" id="9">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G8" displayName="Table_Phrases" name="Table_Phrases" id="9">
+  <tableColumns count="7">
     <tableColumn name="N" id="1"/>
-    <tableColumn name="ROOM_ID" id="2"/>
+    <tableColumn name="PHRASE_ID" id="2"/>
+    <tableColumn name="Sender" id="3"/>
+    <tableColumn name="Sound" id="4"/>
+    <tableColumn name="CharAnimation" id="5"/>
+    <tableColumn name="Text_English" id="6"/>
+    <tableColumn name="Text_Spanish" id="7"/>
   </tableColumns>
-  <tableStyleInfo name="ROOMS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="PHRASES-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -3033,7 +3070,7 @@
       </c>
       <c r="E6" s="17">
         <f>COUNTIF(Table_Items[PICKABLE],"=TRUE")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>38</v>
@@ -4520,211 +4557,216 @@
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>340</v>
+      <c r="B1" s="73" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="52">
+      <c r="A2" s="48">
         <v>0.0</v>
       </c>
-      <c r="B2" s="94" t="s">
-        <v>341</v>
+      <c r="B2" s="75" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="57">
+      <c r="A3" s="54">
         <v>1.0</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>223</v>
+      <c r="B3" s="74" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="52">
+      <c r="A4" s="48">
         <v>2.0</v>
       </c>
-      <c r="B4" s="94" t="s">
-        <v>230</v>
+      <c r="B4" s="75" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="62">
         <v>3.0</v>
       </c>
-      <c r="B5" s="98" t="s">
-        <v>342</v>
+      <c r="B5" s="94" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="67" t="s">
-        <v>343</v>
+      <c r="B7" s="73" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="52">
+      <c r="A8" s="48">
         <v>0.0</v>
       </c>
-      <c r="B8" s="94" t="s">
-        <v>344</v>
+      <c r="B8" s="75" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="57">
+      <c r="A9" s="54">
         <v>1.0</v>
       </c>
-      <c r="B9" s="95" t="s">
-        <v>345</v>
+      <c r="B9" s="74" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="52">
+      <c r="A10" s="48">
         <v>2.0</v>
       </c>
-      <c r="B10" s="94" t="s">
-        <v>245</v>
+      <c r="B10" s="75" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="57">
+      <c r="A11" s="54">
         <v>3.0</v>
       </c>
-      <c r="B11" s="95" t="s">
-        <v>246</v>
+      <c r="B11" s="74" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="52">
+      <c r="A12" s="48">
         <v>4.0</v>
       </c>
-      <c r="B12" s="94" t="s">
-        <v>251</v>
+      <c r="B12" s="75" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="62">
         <v>5.0</v>
       </c>
-      <c r="B13" s="98" t="s">
-        <v>249</v>
+      <c r="B13" s="94" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="67" t="s">
-        <v>346</v>
+      <c r="B15" s="73" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="52">
+      <c r="A16" s="48">
         <v>0.0</v>
       </c>
-      <c r="B16" s="94" t="s">
-        <v>224</v>
+      <c r="B16" s="75" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="57">
+      <c r="A17" s="54">
         <v>1.0</v>
       </c>
-      <c r="B17" s="95" t="s">
-        <v>228</v>
+      <c r="B17" s="74" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="52">
+      <c r="A18" s="48">
         <v>2.0</v>
       </c>
-      <c r="B18" s="94" t="s">
-        <v>232</v>
+      <c r="B18" s="75" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="57">
+      <c r="A19" s="54">
         <v>3.0</v>
       </c>
-      <c r="B19" s="95" t="s">
-        <v>347</v>
+      <c r="B19" s="74" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="52">
+      <c r="A20" s="48">
         <v>4.0</v>
       </c>
-      <c r="B20" s="94" t="s">
-        <v>348</v>
+      <c r="B20" s="75" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="62">
         <v>5.0</v>
       </c>
-      <c r="B21" s="98" t="s">
-        <v>332</v>
+      <c r="B21" s="94" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="67" t="s">
-        <v>349</v>
+      <c r="B23" s="73" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="52">
+      <c r="A24" s="48">
         <v>0.0</v>
       </c>
-      <c r="B24" s="94" t="s">
-        <v>350</v>
+      <c r="B24" s="95" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="57">
+      <c r="A25" s="54">
         <v>1.0</v>
       </c>
-      <c r="B25" s="95" t="s">
-        <v>351</v>
+      <c r="B25" s="96" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="87">
+      <c r="A26" s="76">
         <v>2.0</v>
       </c>
       <c r="B26" s="97" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="67" t="s">
-        <v>353</v>
+      <c r="B28" s="73" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="52">
-        <v>-1.0</v>
-      </c>
-      <c r="B29" s="94" t="s">
-        <v>311</v>
+      <c r="A29" s="48">
+        <v>0.0</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="62">
-        <v>0.0</v>
-      </c>
-      <c r="B30" s="98" t="s">
-        <v>313</v>
+        <v>1.0</v>
+      </c>
+      <c r="B30" s="94" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="B24:B26">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
   <tableParts count="5">
     <tablePart r:id="rId7"/>
@@ -4750,7 +4792,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.71"/>
+    <col customWidth="1" min="2" max="2" width="31.71"/>
     <col customWidth="1" min="3" max="3" width="30.29"/>
     <col customWidth="1" min="4" max="5" width="28.86"/>
     <col customWidth="1" min="6" max="6" width="32.43"/>
@@ -4765,71 +4807,139 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="G1" s="67" t="s">
-        <v>359</v>
+        <v>368</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="52">
+      <c r="A2" s="48">
         <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="G2" s="100"/>
+      <c r="B2" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="G2" s="99"/>
     </row>
     <row r="3">
-      <c r="A3" s="57">
+      <c r="A3" s="54">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>360</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="61" t="s">
-        <v>234</v>
+      <c r="B3" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="96" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="87">
+      <c r="A4" s="76">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="88" t="s">
-        <v>361</v>
-      </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="G4" s="102"/>
+      <c r="B4" s="77" t="s">
+        <v>371</v>
+      </c>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="G4" s="101"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="102">
+        <f>ROW()-ROW(Table_EventsCombi[N])</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="103" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(FLATTEN(Table_Events[EVENT_ID],""(NOT)""&amp;Table_Events[EVENT_ID]))"),"EVENT_NONE")</f>
+        <v>EVENT_NONE</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="104">
+        <f>ROW()-ROW(Table_EventsCombi[N])</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="105" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EVENT_FOUNTAIN_FULL")</f>
+        <v>EVENT_FOUNTAIN_FULL</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="102">
+        <f>ROW()-ROW(Table_EventsCombi[N])</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="103" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EVENT_LAST")</f>
+        <v>EVENT_LAST</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="104">
+        <f>ROW()-ROW(Table_EventsCombi[N])</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="105" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(NOT)EVENT_NONE")</f>
+        <v>(NOT)EVENT_NONE</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="102">
+        <f>ROW()-ROW(Table_EventsCombi[N])</f>
+        <v>4</v>
+      </c>
+      <c r="B11" s="103" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(NOT)EVENT_FOUNTAIN_FULL")</f>
+        <v>(NOT)EVENT_FOUNTAIN_FULL</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="106">
+        <f>ROW()-ROW(Table_EventsCombi[N])</f>
+        <v>5</v>
+      </c>
+      <c r="B12" s="107" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(NOT)EVENT_LAST")</f>
+        <v>(NOT)EVENT_LAST</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations>
@@ -4841,8 +4951,9 @@
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4861,23 +4972,103 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.57"/>
+    <col customWidth="1" min="1" max="1" width="31.0"/>
+    <col customWidth="1" min="3" max="4" width="34.0"/>
+    <col customWidth="1" min="6" max="7" width="23.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="103" t="s">
-        <v>362</v>
+      <c r="A1" s="108" t="s">
+        <v>373</v>
+      </c>
+      <c r="C1" s="109" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>375</v>
+      </c>
+      <c r="F1" s="109" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" s="110" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="104">
+      <c r="A2" s="111">
         <v>3.0</v>
+      </c>
+      <c r="C2" s="112" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(Table_PickableSprites[WORK],Table_PickableSprites[WORK]&lt;&gt;"""")"),"SPRITE_POTION_RED")</f>
+        <v>SPRITE_POTION_RED</v>
+      </c>
+      <c r="D2" s="113" t="str">
+        <f t="array" ref="D2:D7">IF(Table_Items[SpritePickable]&lt;&gt;"SPRITE_NONE",Table_Items[SpritePickable],"")</f>
+        <v/>
+      </c>
+      <c r="F2" s="112" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(Table_PickableNames[WORK],Table_PickableNames[WORK]&lt;&gt;"""")"),"NAME_ITEM_POTION")</f>
+        <v>NAME_ITEM_POTION</v>
+      </c>
+      <c r="G2" s="113" t="str">
+        <f t="array" ref="G2:G7">IF(Table_Items[SpritePickable]&lt;&gt;"SPRITE_NONE",Table_Items[Name],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="114" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SPRITE_POTION_BLUE")</f>
+        <v>SPRITE_POTION_BLUE</v>
+      </c>
+      <c r="D3" s="115" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="114" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NAME_ITEM_BLUE_POTION")</f>
+        <v>NAME_ITEM_BLUE_POTION</v>
+      </c>
+      <c r="G3" s="115" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" s="113" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="113" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="115" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="113" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="115" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4901,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
@@ -4912,12 +5103,12 @@
         <f t="shared" ref="A2:A32" si="1">ROW()-ROW($G$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="105" t="str">
+      <c r="B2" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A2,0)</f>
         <v>ITEM_POTION</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3">
@@ -4925,12 +5116,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="105" t="str">
+      <c r="B3" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A3,0)</f>
         <v>ITEM_POTION_BLUE</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4">
@@ -4938,12 +5129,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="105" t="str">
+      <c r="B4" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A4,0)</f>
         <v>ITEM_FOUNTAIN</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5">
@@ -4951,12 +5142,12 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="105" t="str">
+      <c r="B5" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A5,0)</f>
-        <v>ITEM_LAST</v>
+        <v>ITEM_NPC_MILITO</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6">
@@ -4964,297 +5155,297 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="105" t="str">
+      <c r="B6" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A6,0)</f>
-        <v/>
-      </c>
-      <c r="C6" s="105"/>
+        <v>ITEM_LAST</v>
+      </c>
+      <c r="C6" s="116"/>
     </row>
     <row r="7">
       <c r="A7" s="26">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="105" t="str">
+      <c r="B7" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A7,0)</f>
         <v/>
       </c>
-      <c r="C7" s="105"/>
+      <c r="C7" s="116"/>
     </row>
     <row r="8">
       <c r="A8" s="26">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="105" t="str">
+      <c r="B8" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A8,0)</f>
         <v/>
       </c>
-      <c r="C8" s="105"/>
+      <c r="C8" s="116"/>
     </row>
     <row r="9">
       <c r="A9" s="26">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="105" t="str">
+      <c r="B9" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A9,0)</f>
         <v/>
       </c>
-      <c r="C9" s="105"/>
+      <c r="C9" s="116"/>
     </row>
     <row r="10">
       <c r="A10" s="26">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="105" t="str">
+      <c r="B10" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A10,0)</f>
         <v/>
       </c>
-      <c r="C10" s="105"/>
+      <c r="C10" s="116"/>
     </row>
     <row r="11">
       <c r="A11" s="26">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="105" t="str">
+      <c r="B11" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A11,0)</f>
         <v/>
       </c>
-      <c r="C11" s="105"/>
+      <c r="C11" s="116"/>
     </row>
     <row r="12">
       <c r="A12" s="26">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="105" t="str">
+      <c r="B12" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A12,0)</f>
         <v/>
       </c>
-      <c r="C12" s="105"/>
+      <c r="C12" s="116"/>
     </row>
     <row r="13">
       <c r="A13" s="26">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="105" t="str">
+      <c r="B13" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A13,0)</f>
         <v/>
       </c>
-      <c r="C13" s="105"/>
+      <c r="C13" s="116"/>
     </row>
     <row r="14">
       <c r="A14" s="26">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="105" t="str">
+      <c r="B14" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A14,0)</f>
         <v/>
       </c>
-      <c r="C14" s="105"/>
+      <c r="C14" s="116"/>
     </row>
     <row r="15">
       <c r="A15" s="26">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="105" t="str">
+      <c r="B15" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A15,0)</f>
         <v/>
       </c>
-      <c r="C15" s="105"/>
+      <c r="C15" s="116"/>
     </row>
     <row r="16">
       <c r="A16" s="26">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="105" t="str">
+      <c r="B16" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A16,0)</f>
         <v/>
       </c>
-      <c r="C16" s="105"/>
+      <c r="C16" s="116"/>
     </row>
     <row r="17">
       <c r="A17" s="26">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="105" t="str">
+      <c r="B17" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A17,0)</f>
         <v/>
       </c>
-      <c r="C17" s="105"/>
+      <c r="C17" s="116"/>
     </row>
     <row r="18">
       <c r="A18" s="26">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="105" t="str">
+      <c r="B18" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A18,0)</f>
         <v/>
       </c>
-      <c r="C18" s="105"/>
+      <c r="C18" s="116"/>
     </row>
     <row r="19">
       <c r="A19" s="26">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="105" t="str">
+      <c r="B19" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A19,0)</f>
         <v/>
       </c>
-      <c r="C19" s="105"/>
+      <c r="C19" s="116"/>
     </row>
     <row r="20">
       <c r="A20" s="26">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="105" t="str">
+      <c r="B20" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A20,0)</f>
         <v/>
       </c>
-      <c r="C20" s="105"/>
+      <c r="C20" s="116"/>
     </row>
     <row r="21">
       <c r="A21" s="26">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="105" t="str">
+      <c r="B21" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A21,0)</f>
         <v/>
       </c>
-      <c r="C21" s="105"/>
+      <c r="C21" s="116"/>
     </row>
     <row r="22">
       <c r="A22" s="26">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="105" t="str">
+      <c r="B22" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A22,0)</f>
         <v/>
       </c>
-      <c r="C22" s="105"/>
+      <c r="C22" s="116"/>
     </row>
     <row r="23">
       <c r="A23" s="26">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="105" t="str">
+      <c r="B23" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A23,0)</f>
         <v/>
       </c>
-      <c r="C23" s="105"/>
+      <c r="C23" s="116"/>
     </row>
     <row r="24">
       <c r="A24" s="26">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="105" t="str">
+      <c r="B24" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A24,0)</f>
         <v/>
       </c>
-      <c r="C24" s="105"/>
+      <c r="C24" s="116"/>
     </row>
     <row r="25">
       <c r="A25" s="26">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="105" t="str">
+      <c r="B25" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A25,0)</f>
         <v/>
       </c>
-      <c r="C25" s="105"/>
+      <c r="C25" s="116"/>
     </row>
     <row r="26">
       <c r="A26" s="26">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="105" t="str">
+      <c r="B26" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A26,0)</f>
         <v/>
       </c>
-      <c r="C26" s="105"/>
+      <c r="C26" s="116"/>
     </row>
     <row r="27">
       <c r="A27" s="26">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="105" t="str">
+      <c r="B27" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A27,0)</f>
         <v/>
       </c>
-      <c r="C27" s="105"/>
+      <c r="C27" s="116"/>
     </row>
     <row r="28">
       <c r="A28" s="26">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="105" t="str">
+      <c r="B28" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A28,0)</f>
         <v/>
       </c>
-      <c r="C28" s="105"/>
+      <c r="C28" s="116"/>
     </row>
     <row r="29">
       <c r="A29" s="26">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="105" t="str">
+      <c r="B29" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A29,0)</f>
         <v/>
       </c>
-      <c r="C29" s="105"/>
+      <c r="C29" s="116"/>
     </row>
     <row r="30">
       <c r="A30" s="26">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="105" t="str">
+      <c r="B30" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A30,0)</f>
         <v/>
       </c>
-      <c r="C30" s="105"/>
+      <c r="C30" s="116"/>
     </row>
     <row r="31">
       <c r="A31" s="26">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="105" t="str">
+      <c r="B31" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A31,0)</f>
         <v/>
       </c>
-      <c r="C31" s="105"/>
+      <c r="C31" s="116"/>
     </row>
     <row r="32">
       <c r="A32" s="26">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="105" t="str">
+      <c r="B32" s="116" t="str">
         <f>OFFSET(ITEMS!$B$3,A32,0)</f>
         <v/>
       </c>
-      <c r="C32" s="105"/>
+      <c r="C32" s="116"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -5287,211 +5478,211 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="43" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>369</v>
+        <v>382</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="106" t="s">
-        <v>370</v>
-      </c>
-      <c r="B2" s="107">
+      <c r="A2" s="117" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" s="118">
         <v>1.0</v>
       </c>
-      <c r="C2" s="53" t="b">
+      <c r="C2" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="94" t="b">
+      <c r="D2" s="75" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="57" t="s">
-        <v>371</v>
-      </c>
-      <c r="B3" s="107">
+      <c r="A3" s="54" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" s="118">
         <v>1.0</v>
       </c>
-      <c r="C3" s="58" t="b">
+      <c r="C3" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="95" t="b">
+      <c r="D3" s="74" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="52" t="s">
-        <v>372</v>
-      </c>
-      <c r="B4" s="108">
+      <c r="A4" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="B4" s="119">
         <v>3.0</v>
       </c>
-      <c r="C4" s="53" t="b">
+      <c r="C4" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="94" t="b">
+      <c r="D4" s="75" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="106" t="s">
-        <v>373</v>
-      </c>
-      <c r="B5" s="107">
+      <c r="A5" s="117" t="s">
+        <v>387</v>
+      </c>
+      <c r="B5" s="118">
         <v>1.0</v>
       </c>
-      <c r="C5" s="58" t="b">
+      <c r="C5" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="95" t="b">
+      <c r="D5" s="74" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="52" t="s">
-        <v>374</v>
-      </c>
-      <c r="B6" s="108">
+      <c r="A6" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="119">
         <v>3.0</v>
       </c>
-      <c r="C6" s="53" t="b">
+      <c r="C6" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="94" t="b">
+      <c r="D6" s="75" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="106" t="s">
-        <v>375</v>
-      </c>
-      <c r="B7" s="108">
+      <c r="A7" s="117" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="119">
         <v>3.0</v>
       </c>
-      <c r="C7" s="58" t="b">
+      <c r="C7" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="95" t="b">
+      <c r="D7" s="74" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="106" t="s">
-        <v>376</v>
-      </c>
-      <c r="B8" s="109">
+      <c r="A8" s="117" t="s">
+        <v>390</v>
+      </c>
+      <c r="B8" s="120">
         <v>5.0</v>
       </c>
-      <c r="C8" s="53" t="b">
+      <c r="C8" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="94" t="b">
+      <c r="D8" s="75" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="57" t="s">
-        <v>377</v>
-      </c>
-      <c r="B9" s="110">
+      <c r="A9" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="B9" s="121">
         <v>4.0</v>
       </c>
-      <c r="C9" s="58" t="b">
+      <c r="C9" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="95" t="b">
+      <c r="D9" s="74" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="B10" s="110">
+      <c r="A10" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" s="121">
         <v>4.0</v>
       </c>
-      <c r="C10" s="53" t="b">
+      <c r="C10" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="94" t="b">
+      <c r="D10" s="75" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="57" t="s">
-        <v>379</v>
-      </c>
-      <c r="B11" s="107">
+      <c r="A11" s="54" t="s">
+        <v>393</v>
+      </c>
+      <c r="B11" s="118">
         <v>1.0</v>
       </c>
-      <c r="C11" s="58" t="b">
+      <c r="C11" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="95" t="b">
+      <c r="D11" s="74" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="106" t="s">
-        <v>380</v>
-      </c>
-      <c r="B12" s="110">
+      <c r="A12" s="117" t="s">
+        <v>394</v>
+      </c>
+      <c r="B12" s="121">
         <v>4.0</v>
       </c>
-      <c r="C12" s="53" t="b">
+      <c r="C12" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D12" s="94" t="b">
+      <c r="D12" s="75" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="106" t="s">
-        <v>381</v>
-      </c>
-      <c r="B13" s="107">
+      <c r="A13" s="117" t="s">
+        <v>395</v>
+      </c>
+      <c r="B13" s="118">
         <v>1.0</v>
       </c>
-      <c r="C13" s="58" t="b">
+      <c r="C13" s="55" t="b">
         <v>1</v>
       </c>
-      <c r="D13" s="95" t="b">
+      <c r="D13" s="74" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="106" t="s">
-        <v>382</v>
-      </c>
-      <c r="B14" s="111">
+      <c r="A14" s="117" t="s">
+        <v>396</v>
+      </c>
+      <c r="B14" s="122">
         <v>2.0</v>
       </c>
-      <c r="C14" s="53" t="b">
+      <c r="C14" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="D14" s="94" t="b">
+      <c r="D14" s="75" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="62" t="s">
-        <v>383</v>
-      </c>
-      <c r="B15" s="112">
+        <v>319</v>
+      </c>
+      <c r="B15" s="123">
         <v>5.0</v>
       </c>
       <c r="C15" s="63" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="98" t="b">
+      <c r="D15" s="94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5605,7 +5796,7 @@
     </row>
     <row r="2">
       <c r="A2" s="28">
-        <f t="shared" ref="A2:A37" si="1">ROW()-ROW($A$2)</f>
+        <f t="shared" ref="A2:A38" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -6636,98 +6827,108 @@
         <v>151</v>
       </c>
       <c r="C24" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="E24" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="E24" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="34" t="s">
+      <c r="F24" s="31"/>
+      <c r="G24" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="M24" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="33" t="s">
+      <c r="J24" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="O24" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
     </row>
     <row r="25">
       <c r="A25" s="29">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="E25" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="13" t="s">
+      <c r="F25" s="37"/>
+      <c r="G25" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="J25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O25" s="14" t="s">
+      <c r="M25" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="38" t="s">
         <v>24</v>
       </c>
+      <c r="O25" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
     </row>
     <row r="26">
       <c r="A26" s="28">
@@ -6735,16 +6936,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="D26" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="E26" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>162</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="8" t="s">
@@ -6763,16 +6964,16 @@
         <v>25</v>
       </c>
       <c r="L26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -6781,16 +6982,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="E27" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>166</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="13" t="s">
@@ -6800,22 +7001,22 @@
         <v>25</v>
       </c>
       <c r="I27" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="M27" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="O27" s="14" t="s">
         <v>25</v>
@@ -6827,41 +7028,41 @@
         <v>26</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="D28" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="8" t="s">
+      <c r="J28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="O28" s="9" t="s">
         <v>25</v>
@@ -6873,32 +7074,32 @@
         <v>27</v>
       </c>
       <c r="B29" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="D29" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="E29" s="16" t="s">
         <v>173</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>174</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>25</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>25</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="L29" s="13" t="s">
         <v>25</v>
@@ -6907,7 +7108,7 @@
         <v>25</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O29" s="14" t="s">
         <v>25</v>
@@ -6919,26 +7120,26 @@
         <v>28</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="D30" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="E30" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>178</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="8" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>25</v>
@@ -6965,20 +7166,20 @@
         <v>29</v>
       </c>
       <c r="B31" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="D31" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="E31" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>182</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="13" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>25</v>
@@ -6990,19 +7191,19 @@
         <v>25</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
@@ -7011,16 +7212,16 @@
         <v>30</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="D32" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="E32" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>186</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="8" t="s">
@@ -7030,7 +7231,7 @@
         <v>25</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>25</v>
@@ -7042,13 +7243,13 @@
         <v>66</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33">
@@ -7057,16 +7258,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="D33" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="E33" s="16" t="s">
         <v>189</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>190</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="13" t="s">
@@ -7076,7 +7277,7 @@
         <v>25</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>25</v>
@@ -7088,7 +7289,7 @@
         <v>66</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N33" s="13" t="s">
         <v>25</v>
@@ -7103,16 +7304,16 @@
         <v>32</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="D34" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="E34" s="15" t="s">
         <v>193</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>194</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="8" t="s">
@@ -7122,19 +7323,19 @@
         <v>25</v>
       </c>
       <c r="I34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="8" t="s">
+      <c r="M34" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>25</v>
@@ -7149,35 +7350,35 @@
         <v>33</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="D35" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="E35" s="16" t="s">
         <v>197</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>198</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="M35" s="13" t="s">
         <v>25</v>
@@ -7195,35 +7396,35 @@
         <v>34</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="D36" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="E36" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="L36" s="8" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="M36" s="8" t="s">
         <v>25</v>
@@ -7236,57 +7437,103 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="37">
+      <c r="A37" s="29">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="D37" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="41">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D38" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="41" t="s">
+      <c r="E38" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="M37" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="N37" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="O37" s="42" t="s">
+      <c r="H38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="25" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A37">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A38">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:O37">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:O38">
       <formula1>"W,X,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7298,6 +7545,374 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFF9CB9C"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="6.29"/>
+    <col customWidth="1" min="2" max="2" width="27.14"/>
+    <col customWidth="1" min="3" max="3" width="20.43"/>
+    <col customWidth="1" min="4" max="4" width="27.57"/>
+    <col customWidth="1" min="5" max="5" width="26.0"/>
+    <col customWidth="1" min="6" max="6" width="26.57"/>
+    <col customWidth="1" min="7" max="7" width="44.57"/>
+    <col customWidth="1" min="8" max="8" width="38.86"/>
+    <col customWidth="1" min="9" max="9" width="25.14"/>
+    <col customWidth="1" min="10" max="10" width="21.29"/>
+    <col customWidth="1" min="11" max="12" width="22.57"/>
+    <col customWidth="1" min="13" max="13" width="30.0"/>
+    <col customWidth="1" min="14" max="14" width="18.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="48">
+        <f>ROW()-ROW(Table_Action_Conditions[N])</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="N2" s="53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="54">
+        <f>ROW()-ROW(Table_Action_Conditions[N])</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="N3" s="59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="48">
+        <f>ROW()-ROW(Table_Action_Conditions[N])</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="N4" s="53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="54">
+        <f>ROW()-ROW(Table_Action_Conditions[N])</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="N5" s="59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="48">
+        <f>ROW()-ROW(Table_Action_Conditions[N])</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="L6" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="N6" s="53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="62">
+        <f>ROW()-ROW(Table_Action_Conditions[N])</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="J7" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="L7" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="N7" s="67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="C2:C7">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="I2:I7">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="K2:K7">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D2:H7 M2:M7">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="J2:J7 L2:L7">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
@@ -7313,22 +7928,13 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="7.71"/>
     <col customWidth="1" min="2" max="2" width="21.71"/>
-    <col customWidth="1" min="3" max="3" width="14.43"/>
-    <col customWidth="1" min="4" max="4" width="16.43"/>
-    <col customWidth="1" min="5" max="5" width="13.43"/>
-    <col customWidth="1" min="6" max="6" width="29.0"/>
-    <col customWidth="1" min="7" max="7" width="26.57"/>
-    <col customWidth="1" min="8" max="9" width="23.57"/>
-    <col customWidth="1" min="10" max="10" width="30.0"/>
-    <col customWidth="1" min="11" max="11" width="21.86"/>
-    <col customWidth="1" min="12" max="12" width="12.0"/>
-    <col customWidth="1" min="13" max="13" width="27.57"/>
-    <col customWidth="1" min="14" max="14" width="26.57"/>
-    <col customWidth="1" min="15" max="15" width="26.0"/>
-    <col customWidth="1" min="16" max="16" width="24.71"/>
-    <col customWidth="1" min="17" max="17" width="30.0"/>
-    <col customWidth="1" min="18" max="18" width="21.86"/>
-    <col customWidth="1" min="19" max="29" width="12.43"/>
+    <col customWidth="1" min="3" max="3" width="32.86"/>
+    <col customWidth="1" min="4" max="4" width="36.29"/>
+    <col customWidth="1" min="5" max="5" width="14.43"/>
+    <col customWidth="1" min="6" max="6" width="10.0"/>
+    <col customWidth="1" min="7" max="7" width="28.0"/>
+    <col customWidth="1" min="8" max="8" width="38.0"/>
+    <col customWidth="1" min="9" max="15" width="12.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7336,577 +7942,195 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>207</v>
+        <v>247</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>249</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="O1" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q1" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="R1" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="68">
+        <f t="shared" ref="A2:A7" si="1">ROW()-ROW($A$2)</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2" s="72" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="47">
-        <f t="shared" ref="A2:A6" si="1">ROW()-ROW($A$2)</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="49">
-        <f t="shared" ref="D2:D6" si="2">COUNTIF(E2,"=TRUE")+COUNTIF(L2,"=TRUE")</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="K2" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="N2" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="O2" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="P2" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q2" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="R2" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="3">
-      <c r="A3" s="47">
+      <c r="A3" s="68">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="48" t="b">
+      <c r="B3" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="49">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E3" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="K3" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="47" t="b">
+      <c r="F3" s="71" t="b">
         <v>0</v>
       </c>
-      <c r="M3" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="N3" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="O3" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="P3" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q3" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="R3" s="47" t="b">
-        <v>0</v>
+      <c r="G3" s="69" t="s">
+        <v>257</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="47">
+      <c r="A4" s="68">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="48" t="b">
+      <c r="B4" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="49">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E4" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="K4" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="47" t="b">
+      <c r="F4" s="71" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="N4" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="O4" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="P4" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q4" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="R4" s="47" t="b">
-        <v>0</v>
+      <c r="G4" s="69" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="47">
+      <c r="A5" s="68">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="48" t="b">
+      <c r="B5" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="71" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="49">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E5" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="H5" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="K5" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="47" t="b">
+      <c r="F5" s="71" t="b">
         <v>0</v>
       </c>
-      <c r="M5" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="O5" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="P5" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q5" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="R5" s="47" t="b">
-        <v>0</v>
+      <c r="G5" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="47">
+      <c r="A6" s="68">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="48" t="b">
+      <c r="B6" s="68" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="71" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="49">
-        <f t="shared" si="2"/>
+      <c r="F6" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="68">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="71" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="48" t="b">
+      <c r="F7" s="71" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="G6" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="I6" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="K6" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="N6" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="O6" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="P6" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q6" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="R6" s="47" t="b">
-        <v>0</v>
+      <c r="G7" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="H2:H6 O2:O6">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D7 H2:H7">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I6 P2:P6">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F6">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J6 Q2:Q6">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M2:M6">
-      <formula1>Table_Characters[Type]</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G6 N2:N6">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId5"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFF9CB9C"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="6.29"/>
-    <col customWidth="1" min="2" max="2" width="19.14"/>
-    <col customWidth="1" min="3" max="3" width="19.86"/>
-    <col customWidth="1" min="4" max="4" width="24.57"/>
-    <col customWidth="1" min="5" max="5" width="44.57"/>
-    <col customWidth="1" min="6" max="6" width="38.86"/>
-    <col customWidth="1" min="7" max="7" width="20.71"/>
-    <col customWidth="1" min="8" max="8" width="21.29"/>
-    <col customWidth="1" min="9" max="9" width="22.0"/>
-    <col customWidth="1" min="10" max="10" width="22.57"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="52">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="57">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>249</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="52">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="H4" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="I4" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="62">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="G5" s="64" t="s">
-        <v>247</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>248</v>
-      </c>
-      <c r="I5" s="64" t="s">
-        <v>247</v>
-      </c>
-      <c r="J5" s="66" t="s">
-        <v>248</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G5">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C5">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I5">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:F5">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H2:H5 J2:J5">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C7 G2:G7">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -7934,7 +8158,6 @@
     <col customWidth="1" min="2" max="2" width="24.71"/>
     <col customWidth="1" min="3" max="3" width="28.43"/>
     <col customWidth="1" min="4" max="4" width="26.0"/>
-    <col customWidth="1" min="5" max="5" width="22.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7942,126 +8165,91 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>256</v>
+        <v>270</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="52">
+      <c r="A2" s="48">
         <f>ROW()-ROW(Table_sprites[N])</f>
         <v>0</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>258</v>
+      <c r="B2" s="49" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="57">
+      <c r="A3" s="54">
         <f>ROW()-ROW(Table_sprites[N])</f>
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>261</v>
+      <c r="B3" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="52">
+      <c r="A4" s="48">
         <f>ROW()-ROW(Table_sprites[N])</f>
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>261</v>
+      <c r="B4" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="57">
+      <c r="A5" s="54">
         <f>ROW()-ROW(Table_sprites[N])</f>
         <v>3</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" s="71" t="s">
-        <v>261</v>
+      <c r="B5" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="52">
+      <c r="A6" s="48">
         <f>ROW()-ROW(Table_sprites[N])</f>
         <v>4</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>261</v>
+      <c r="B6" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="62">
+      <c r="A7" s="54">
         <f>ROW()-ROW(Table_sprites[N])</f>
         <v>5</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>258</v>
+      <c r="B7" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="76">
+        <f>ROW()-ROW(Table_sprites[N])</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D2:E7">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -8084,10 +8272,12 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="34.86"/>
-    <col customWidth="1" min="3" max="3" width="30.0"/>
-    <col customWidth="1" min="4" max="7" width="40.57"/>
-    <col customWidth="1" min="8" max="9" width="33.86"/>
-    <col customWidth="1" min="10" max="13" width="32.57"/>
+    <col customWidth="1" min="3" max="3" width="43.71"/>
+    <col customWidth="1" min="4" max="4" width="19.86"/>
+    <col customWidth="1" min="5" max="5" width="20.71"/>
+    <col customWidth="1" min="6" max="6" width="40.57"/>
+    <col customWidth="1" min="7" max="8" width="21.29"/>
+    <col customWidth="1" min="9" max="10" width="32.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8095,145 +8285,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>272</v>
-      </c>
-      <c r="F1" s="74" t="s">
-        <v>273</v>
-      </c>
-      <c r="G1" s="74" t="s">
-        <v>274</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>275</v>
-      </c>
-      <c r="I1" s="74" t="s">
-        <v>276</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="K1" s="51" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="52">
+      <c r="A2" s="48">
         <f>ROW()-ROW(Table_Dialogs[N])</f>
         <v>0</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="75">
-        <f t="shared" ref="C2:C5" si="1">COUNTIFS(D2:K2,"&lt;&gt;DIALOG_OPTION_NONE",D2:K2,"&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="E2" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="F2" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="G2" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="H2" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="I2" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="J2" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="K2" s="77" t="s">
-        <v>279</v>
+      <c r="B2" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="57">
+      <c r="A3" s="54">
         <f>ROW()-ROW(Table_Dialogs[N])</f>
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" s="78">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D3" s="79" t="s">
-        <v>281</v>
-      </c>
-      <c r="E3" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="F3" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="G3" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="H3" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="I3" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="J3" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="K3" s="80" t="s">
-        <v>279</v>
+      <c r="B3" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="52">
+      <c r="A4" s="48">
         <f>ROW()-ROW(Table_Dialogs[N])</f>
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="81">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>283</v>
-      </c>
-      <c r="E4" s="76" t="s">
+      <c r="B4" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="78" t="s">
         <v>284</v>
-      </c>
-      <c r="F4" s="76" t="s">
-        <v>285</v>
-      </c>
-      <c r="G4" s="76" t="s">
-        <v>286</v>
-      </c>
-      <c r="H4" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="I4" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="J4" s="76" t="s">
-        <v>279</v>
-      </c>
-      <c r="K4" s="77" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="5">
@@ -8242,35 +8333,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>287</v>
-      </c>
-      <c r="C5" s="82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="H5" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="I5" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="J5" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="K5" s="84" t="s">
-        <v>279</v>
+        <v>285</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="7">
@@ -8278,382 +8344,231 @@
         <v>0</v>
       </c>
       <c r="B7" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="F7" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="74" t="s">
-        <v>290</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>291</v>
-      </c>
-      <c r="F7" s="74" t="s">
-        <v>292</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>293</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>294</v>
-      </c>
-      <c r="I7" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="J7" s="74" t="s">
-        <v>296</v>
-      </c>
-      <c r="K7" s="51" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="52">
+      <c r="A8" s="48">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>0</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="G8" s="81">
-        <f t="shared" ref="G8:G14" si="2">COUNTIFS(H8:K8,"&lt;&gt;PHRASE_NONE",H8:K8,"&lt;&gt;")</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="J8" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="K8" s="56" t="s">
-        <v>248</v>
+      <c r="B8" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="81" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="57">
+      <c r="A9" s="54">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>1</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="G9" s="85">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="I9" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="J9" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="K9" s="61" t="s">
-        <v>248</v>
+      <c r="B9" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="52">
+      <c r="A10" s="48">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>2</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>283</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="G10" s="86">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H10" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="J10" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="K10" s="56" t="s">
-        <v>248</v>
+      <c r="B10" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="57">
+      <c r="A11" s="54">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>3</v>
       </c>
-      <c r="B11" s="58" t="s">
-        <v>284</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="60" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="G11" s="85">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="59" t="s">
-        <v>300</v>
-      </c>
-      <c r="I11" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="J11" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="K11" s="61" t="s">
-        <v>248</v>
+      <c r="B11" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="52">
+      <c r="A12" s="48">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>4</v>
       </c>
-      <c r="B12" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="D12" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" s="86">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="I12" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="J12" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="K12" s="56" t="s">
-        <v>248</v>
+      <c r="B12" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="81" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="57">
+      <c r="A13" s="54">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>5</v>
       </c>
-      <c r="B13" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="G13" s="85">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="59" t="s">
-        <v>302</v>
-      </c>
-      <c r="I13" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="J13" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="K13" s="61" t="s">
-        <v>248</v>
+      <c r="B13" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="87">
+      <c r="A14" s="76">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>6</v>
       </c>
-      <c r="B14" s="88" t="s">
-        <v>303</v>
-      </c>
-      <c r="C14" s="89" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14" s="90" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="89" t="s">
-        <v>226</v>
-      </c>
-      <c r="F14" s="89" t="s">
-        <v>247</v>
-      </c>
-      <c r="G14" s="91">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="I14" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="J14" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="K14" s="92" t="s">
-        <v>248</v>
+      <c r="B14" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="84" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
     </row>
     <row r="17">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
     </row>
     <row r="18">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
     </row>
     <row r="19">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
     </row>
     <row r="20">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
     </row>
     <row r="21">
-      <c r="A21" s="93"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="I2:K5">
-      <formula1>Table_Dialog_Options[DIALOG_OPTION_ID]</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:E5 H2:H5">
+    <dataValidation type="list" allowBlank="1" sqref="F8:F14">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:G5">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E8:E14">
+    <dataValidation type="list" allowBlank="1" sqref="D8:D14">
       <formula1>Table_Events[EVENT_ID]</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H8:H14">
-      <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C8:C14">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C2:C5 G8:G14">
-      <formula1>AND(ISNUMBER(C2),(NOT(OR(NOT(ISERROR(DATEVALUE(C2))), AND(ISNUMBER(C2), LEFT(CELL("format", C2))="D")))))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I8:K14">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C5">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F8:F14">
+    <dataValidation type="list" allowBlank="1" sqref="E8:E14">
       <formula1>Table_Dialogs[DIALOG_ID]</formula1>
     </dataValidation>
   </dataValidations>
@@ -8667,6 +8582,175 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF20124D"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="27.14"/>
+    <col customWidth="1" min="3" max="3" width="18.14"/>
+    <col customWidth="1" min="4" max="4" width="18.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="68">
+        <f>ROW()-ROW(Table_Name[NAME_ID])</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="68">
+        <f>ROW()-ROW(Table_Name[NAME_ID])</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="68">
+        <f>ROW()-ROW(Table_Name[NAME_ID])</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="68">
+        <f>ROW()-ROW(Table_Name[NAME_ID])</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="68">
+        <f>ROW()-ROW(Table_Name[NAME_ID])</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="68">
+        <f>ROW()-ROW(Table_Name[NAME_ID])</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="68">
+        <f>ROW()-ROW(Table_Name[NAME_ID])</f>
+        <v>6</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="68">
+        <f>ROW()-ROW(Table_Name[NAME_ID])</f>
+        <v>7</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="68">
+        <f>ROW()-ROW(Table_Name[NAME_ID])</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FF674EA7"/>
@@ -8691,218 +8775,194 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="F1" s="74" t="s">
-        <v>307</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>309</v>
+        <v>322</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" s="90" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="52">
+      <c r="A2" s="48">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>0</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="E2" s="53">
+      <c r="B2" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="49">
         <v>0.0</v>
       </c>
-      <c r="F2" s="76" t="s">
-        <v>311</v>
-      </c>
-      <c r="H2" s="94"/>
+      <c r="E2" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="75"/>
     </row>
     <row r="3">
-      <c r="A3" s="57">
+      <c r="A3" s="54">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>312</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="58">
+      <c r="B3" s="55" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="55">
         <v>0.0</v>
       </c>
-      <c r="F3" s="79" t="s">
-        <v>313</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="H3" s="95" t="s">
-        <v>315</v>
+      <c r="E3" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3" s="74" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="52">
+      <c r="A4" s="48">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="E4" s="53">
+      <c r="B4" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="49">
         <v>0.0</v>
       </c>
-      <c r="F4" s="76" t="s">
-        <v>313</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>316</v>
-      </c>
-      <c r="H4" s="94" t="s">
-        <v>317</v>
+      <c r="E4" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="57">
+      <c r="A5" s="54">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>3</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="E5" s="58">
+      <c r="B5" s="55" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="55">
         <v>0.0</v>
       </c>
-      <c r="F5" s="79" t="s">
-        <v>313</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="H5" s="95" t="s">
-        <v>319</v>
+      <c r="E5" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="52">
+      <c r="A6" s="48">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>4</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>261</v>
-      </c>
-      <c r="E6" s="53">
+      <c r="B6" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="49">
         <v>0.0</v>
       </c>
-      <c r="F6" s="76" t="s">
-        <v>313</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="H6" s="94" t="s">
-        <v>321</v>
+      <c r="E6" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="57">
+      <c r="A7" s="54">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>5</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" s="58">
+      <c r="B7" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="55">
         <v>0.0</v>
       </c>
-      <c r="F7" s="79" t="s">
-        <v>313</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>322</v>
-      </c>
-      <c r="H7" s="95" t="s">
-        <v>323</v>
+      <c r="E7" s="58" t="s">
+        <v>329</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="87">
+      <c r="A8" s="76">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>6</v>
       </c>
-      <c r="B8" s="88" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>310</v>
-      </c>
-      <c r="D8" s="89" t="s">
-        <v>261</v>
-      </c>
-      <c r="E8" s="88">
+      <c r="B8" s="77" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="77">
         <v>0.0</v>
       </c>
-      <c r="F8" s="96" t="s">
-        <v>313</v>
-      </c>
-      <c r="G8" s="88" t="s">
-        <v>324</v>
-      </c>
-      <c r="H8" s="97" t="s">
-        <v>325</v>
+      <c r="E8" s="91" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="G8" s="92" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F8">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E8">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D8">
-      <formula1>Table_Rooms[ROOM_ID]</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="C2:C8">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -8912,9 +8972,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -8926,325 +8987,181 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="15.14"/>
+    <col customWidth="1" min="3" max="3" width="25.57"/>
+    <col customWidth="1" min="4" max="5" width="29.86"/>
+    <col customWidth="1" min="6" max="6" width="26.57"/>
+    <col customWidth="1" min="7" max="7" width="35.71"/>
+    <col customWidth="1" min="8" max="8" width="24.29"/>
+    <col customWidth="1" min="9" max="9" width="31.71"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="52">
+      <c r="B1" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" ht="186.0" customHeight="1">
+      <c r="A2" s="68">
         <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)-1</f>
         <v>-1</v>
       </c>
-      <c r="B2" s="94" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="57">
+      <c r="B2" s="68" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="93" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(
+TEXTJOIN(""|"",TRUE,
+UNIQUE(TRANSPOSE(
+SPLIT(TEXTJOIN("", "",TRUE,
+VLOOKUP(TRANSPOSE(SPLIT(F2,"", "")),HSTACK(Table_Items[ITEM_ID],Table_Items[Sprites]),2,FALSE),
+Table_PickableSprites[SPRITES]
+),"", "")
+))
+)
+)"),"SPRITE_NONE|SPRITE_POTION_RED|SPRITE_POTION_BLUE")</f>
+        <v>SPRITE_NONE|SPRITE_POTION_RED|SPRITE_POTION_BLUE</v>
+      </c>
+      <c r="D2" s="93" t="str">
+        <f t="shared" ref="D2:D4" si="2">SUBSTITUTE(G2,", ","|")</f>
+        <v>PHRASE_NONSENSE</v>
+      </c>
+      <c r="E2" s="93" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(
+TEXTJOIN(""|"",TRUE,
+UNIQUE(TRANSPOSE(
+SPLIT(TEXTJOIN("", "",TRUE,
+VLOOKUP(TRANSPOSE(SPLIT(F2,"", "")),HSTACK(Table_Items[ITEM_ID],Table_Items[Name]),2,FALSE),
+Table_PickableNames[NAMES]
+),"", "")
+))
+)
+)"),"NAME_NONE|NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION")</f>
+        <v>NAME_NONE|NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" ht="98.25" customHeight="1">
+      <c r="A3" s="68">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>261</v>
+      <c r="B3" s="68" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="93" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(
+TEXTJOIN(""|"",TRUE,
+UNIQUE(TRANSPOSE(
+SPLIT(TEXTJOIN("", "",TRUE,
+VLOOKUP(TRANSPOSE(SPLIT(F3,"", "")),HSTACK(Table_Items[ITEM_ID],Table_Items[Sprites]),2,FALSE),
+Table_PickableSprites[SPRITES]
+),"", "")
+))
+)
+)"),"SPRITE_POTION_RED|SPRITE_POTION_BLUE|SPRITE_FOUNTAIN|SPRITE_FOUNTAIN_FULL|SPRITE_NPC_MILITO")</f>
+        <v>SPRITE_POTION_RED|SPRITE_POTION_BLUE|SPRITE_FOUNTAIN|SPRITE_FOUNTAIN_FULL|SPRITE_NPC_MILITO</v>
+      </c>
+      <c r="D3" s="93" t="str">
+        <f t="shared" si="2"/>
+        <v>PHRASE_NONSENSE|PHRASE_ASK_FOUNTAIN1_1|PHRASE_ASK_FOUNTAIN1_2|PHRASE_ASK_FOUNTAIN2_1|PHRASE_ASK_FOUNTAIN3_1|PHRASE_ASK_FOUNTAIN4_1</v>
+      </c>
+      <c r="E3" s="93" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(
+TEXTJOIN(""|"",TRUE,
+UNIQUE(TRANSPOSE(
+SPLIT(TEXTJOIN("", "",TRUE,
+VLOOKUP(TRANSPOSE(SPLIT(F3,"", "")),HSTACK(Table_Items[ITEM_ID],Table_Items[Name]),2,FALSE),
+Table_PickableNames[NAMES]
+),"", "")
+))
+)
+)"),"NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION|NAME_ITEM_FOUNTAIN|NAME_NPC_MILITO")</f>
+        <v>NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION|NAME_ITEM_FOUNTAIN|NAME_NPC_MILITO</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>352</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="87">
+      <c r="A4" s="68">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B4" s="97" t="s">
-        <v>327</v>
+      <c r="B4" s="68" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4" s="93" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(
+TEXTJOIN(""|"",TRUE,
+UNIQUE(TRANSPOSE(
+SPLIT(TEXTJOIN("", "",TRUE,
+VLOOKUP(TRANSPOSE(SPLIT(F4,"", "")),HSTACK(Table_Items[ITEM_ID],Table_Items[Sprites]),2,FALSE),
+Table_PickableSprites[SPRITES]
+),"", "")
+))
+)
+)"),"SPRITE_LAST|SPRITE_POTION_RED|SPRITE_POTION_BLUE")</f>
+        <v>SPRITE_LAST|SPRITE_POTION_RED|SPRITE_POTION_BLUE</v>
+      </c>
+      <c r="D4" s="93" t="str">
+        <f t="shared" si="2"/>
+        <v>PHRASE_NONSENSE</v>
+      </c>
+      <c r="E4" s="93" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(
+TEXTJOIN(""|"",TRUE,
+UNIQUE(TRANSPOSE(
+SPLIT(TEXTJOIN("", "",TRUE,
+VLOOKUP(TRANSPOSE(SPLIT(F4,"", "")),HSTACK(Table_Items[ITEM_ID],Table_Items[Name]),2,FALSE),
+Table_PickableNames[NAMES]
+),"", "")
+))
+)
+)"),"NAME_NPC_LAST|NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION")</f>
+        <v>NAME_NPC_LAST|NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="F2:G4">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FF6AA84F"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="3" max="3" width="18.86"/>
-    <col customWidth="1" min="4" max="4" width="12.0"/>
-    <col customWidth="1" min="5" max="6" width="26.57"/>
-    <col customWidth="1" min="7" max="7" width="20.29"/>
-    <col customWidth="1" min="8" max="8" width="23.57"/>
-    <col customWidth="1" min="9" max="9" width="26.71"/>
-    <col customWidth="1" min="10" max="10" width="25.71"/>
-    <col customWidth="1" min="11" max="11" width="21.86"/>
-    <col customWidth="1" min="12" max="12" width="12.0"/>
-    <col customWidth="1" min="13" max="13" width="25.0"/>
-    <col customWidth="1" min="14" max="14" width="26.57"/>
-    <col customWidth="1" min="15" max="15" width="20.29"/>
-    <col customWidth="1" min="16" max="16" width="22.0"/>
-    <col customWidth="1" min="17" max="17" width="26.71"/>
-    <col customWidth="1" min="18" max="18" width="25.71"/>
-    <col customWidth="1" min="19" max="19" width="21.86"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="O1" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q1" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="R1" s="45" t="s">
-        <v>220</v>
-      </c>
-      <c r="S1" s="46" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="47">
-        <f>ROW()-ROW(Table_NPCs[NPC_ID])</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="C2" s="49">
-        <f t="shared" ref="C2:C3" si="1">COUNTIF(D2,"=TRUE")+COUNTIF(K2,"=TRUE")</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="K2" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="N2" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="O2" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="P2" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q2" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="R2" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="S2" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="47">
-        <f>ROW()-ROW(Table_NPCs[NPC_ID])</f>
-        <v>1</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="C3" s="49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D3" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="K3" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="N3" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="O3" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="P3" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q3" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="R3" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="S3" s="48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>334</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="52">
-        <f t="shared" ref="A6:A7" si="2">A2</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>336</v>
-      </c>
-      <c r="C6" s="94" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="62">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>338</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>339</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G3 O2:O3">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H2:H3 P2:P3">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E3 M2:M3">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I3 Q2:Q3">
-      <formula1>Table_Dialogs[DIALOG_ID]</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J3 R2:R3">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F3 N2:N3">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -22,7 +22,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId18" roundtripDataChecksum="aT7v5ivGytPT/yxhX9jGYX1j+3i8WhtzLOkhK6JdtTo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId18" roundtripDataChecksum="RXxbI56OJ5UISGD6i8DWDI2KMxa52VBE/kVhRxXT/Ck="/>
     </ext>
   </extLst>
 </workbook>
@@ -78,8 +78,24 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="C1">
+      <text>
+        <t xml:space="preserve">Just as a clue, not linked to game
+======</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="390">
   <si>
     <t>N</t>
   </si>
@@ -123,9 +139,6 @@
     <t>PlayerMaster</t>
   </si>
   <si>
-    <t>NPCMaster</t>
-  </si>
-  <si>
     <t>ItemMaster</t>
   </si>
   <si>
@@ -366,18 +379,6 @@
     <t>This service is called to pause game or enter cinematic</t>
   </si>
   <si>
-    <t>NPC_REGISTER</t>
-  </si>
-  <si>
-    <t>NPC_REGISTER_DELEGATE</t>
-  </si>
-  <si>
-    <t>LevelMasterClass.NPCRegisterService</t>
-  </si>
-  <si>
-    <t>Registers an NPC in system</t>
-  </si>
-  <si>
     <t>ITEM_REGISTER</t>
   </si>
   <si>
@@ -462,6 +463,18 @@
     <t>Updates actual player waypoint when crossing or stopping on it</t>
   </si>
   <si>
+    <t>GAME_ELEMENT_CLICK</t>
+  </si>
+  <si>
+    <t>GAME_ELEMENT_CLICK_DELEGATE</t>
+  </si>
+  <si>
+    <t>LevelMasterClass.GameElementClickService</t>
+  </si>
+  <si>
+    <t>Any of Game Elements (Player or Item or Door) will call with essential info</t>
+  </si>
+  <si>
     <t>SELECT_PLAYER</t>
   </si>
   <si>
@@ -486,18 +499,6 @@
     <t>Gets a list of actual players</t>
   </si>
   <si>
-    <t>GET_NPC_LIST</t>
-  </si>
-  <si>
-    <t>GET_NPC_LIST_DELEGATE</t>
-  </si>
-  <si>
-    <t>LevelMasterClass.GetNPCListService</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gets a list of actual NPCs </t>
-  </si>
-  <si>
     <t>GET_NEAREST_WP</t>
   </si>
   <si>
@@ -522,6 +523,18 @@
     <t>Tells if an event is occurred</t>
   </si>
   <si>
+    <t>IS_EVENT_COMBI_OCCURRED</t>
+  </si>
+  <si>
+    <t>IS_EVENT_COMBI_OCCURRED_DELEGATE</t>
+  </si>
+  <si>
+    <t>GameEventMasterClass.IsEventCombiOccurredService</t>
+  </si>
+  <si>
+    <t>Same as IsEventOccurredService but for array of combos with possible negation</t>
+  </si>
+  <si>
     <t>COMMIT_EVENT</t>
   </si>
   <si>
@@ -534,15 +547,6 @@
     <t>Activates/Deactivates an event</t>
   </si>
   <si>
-    <t>IS_EVENT_COMBI_OCCURRED</t>
-  </si>
-  <si>
-    <t>GameEventMasterClass.IsEventCombiOccurredService</t>
-  </si>
-  <si>
-    <t>Same as IsEventOccurredService but for array of combos with possible negation</t>
-  </si>
-  <si>
     <t>USE_ITEM</t>
   </si>
   <si>
@@ -651,18 +655,6 @@
     <t>Trigger actions when crossing a door</t>
   </si>
   <si>
-    <t>INTERACT_PLAYER_NPC</t>
-  </si>
-  <si>
-    <t>INTERACT_PLAYER_NPC_DELEGATE</t>
-  </si>
-  <si>
-    <t>NPCMasterClass.InteractPlayerNPCService</t>
-  </si>
-  <si>
-    <t>Interacts player with NPC</t>
-  </si>
-  <si>
     <t>LOCK_PLAYER</t>
   </si>
   <si>
@@ -810,363 +802,363 @@
     <t>COND_FOUNTAIN2</t>
   </si>
   <si>
+    <t>ITEM_USE_ANIMATION_STARE_SCREEN</t>
+  </si>
+  <si>
+    <t>DIALOG_FOUNTAIN</t>
+  </si>
+  <si>
+    <t>COND_LAST</t>
+  </si>
+  <si>
+    <t>ITEM_ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sprites</t>
+  </si>
+  <si>
+    <t>PICKABLE</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>SpritePickable</t>
+  </si>
+  <si>
+    <t>ActionConditions</t>
+  </si>
+  <si>
+    <t>NAME_NONE</t>
+  </si>
+  <si>
+    <t>SPRITE_NONE</t>
+  </si>
+  <si>
+    <t>NAME_ITEM_POTION</t>
+  </si>
+  <si>
+    <t>SPRITE_POTION_RED</t>
+  </si>
+  <si>
+    <t>NAME_ITEM_BLUE_POTION</t>
+  </si>
+  <si>
+    <t>SPRITE_POTION_BLUE</t>
+  </si>
+  <si>
+    <t>ITEM_FOUNTAIN</t>
+  </si>
+  <si>
+    <t>NAME_ITEM_FOUNTAIN</t>
+  </si>
+  <si>
+    <t>SPRITE_FOUNTAIN, SPRITE_FOUNTAIN_FULL</t>
+  </si>
+  <si>
+    <t>COND_FOUNTAIN, COND_FOUNTAIN2</t>
+  </si>
+  <si>
+    <t>ITEM_NPC_MILITO</t>
+  </si>
+  <si>
+    <t>NAME_NPC_MILITO</t>
+  </si>
+  <si>
+    <t>SPRITE_NPC_MILITO</t>
+  </si>
+  <si>
+    <t>ITEM_LAST</t>
+  </si>
+  <si>
+    <t>NAME_NPC_LAST</t>
+  </si>
+  <si>
+    <t>SPRITE_LAST</t>
+  </si>
+  <si>
+    <t>SPRITE_ID</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>Sprites/potion_64</t>
+  </si>
+  <si>
+    <t>Sprites/potionblue_64</t>
+  </si>
+  <si>
+    <t>SPRITE_FOUNTAIN</t>
+  </si>
+  <si>
+    <t>Sprites/spr_fountain_256</t>
+  </si>
+  <si>
+    <t>SPRITE_FOUNTAIN_FULL</t>
+  </si>
+  <si>
+    <t>Sprites/spr_fountain_full_256</t>
+  </si>
+  <si>
+    <t>Sprites/spr_milito_1</t>
+  </si>
+  <si>
+    <t>DIALOG_ID</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_NONE</t>
+  </si>
+  <si>
+    <t>DIALOG_SIMPLE</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_SIMPLE</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_1, DIALOG_OPTION_ASK_FOUNTAIN_2, DIALOG_OPTION_ASK_FOUNTAIN_3, DIALOG_OPTION_ASK_FOUNTAIN_4</t>
+  </si>
+  <si>
+    <t>DIALOG_LAST</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ID</t>
+  </si>
+  <si>
+    <t>EventTriggered</t>
+  </si>
+  <si>
+    <t>DialogTriggered</t>
+  </si>
+  <si>
+    <t>Phrases</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_1</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN1_1, PHRASE_ASK_FOUNTAIN1_2</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_2</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN2_1</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_3</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN3_1</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_ASK_FOUNTAIN_4</t>
+  </si>
+  <si>
+    <t>(NOT)EVENT_FOUNTAIN_FULL</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN4_1</t>
+  </si>
+  <si>
+    <t>DIALOG_OPTION_LAST</t>
+  </si>
+  <si>
+    <t>NAME_ID</t>
+  </si>
+  <si>
+    <t>Name_English</t>
+  </si>
+  <si>
+    <t>Name_Spanish</t>
+  </si>
+  <si>
+    <t>NAME_CHAR_MAIN</t>
+  </si>
+  <si>
+    <t>Blount</t>
+  </si>
+  <si>
+    <t>NAME_CHAR_PARROT</t>
+  </si>
+  <si>
+    <t>Parrot</t>
+  </si>
+  <si>
+    <t>Loro</t>
+  </si>
+  <si>
+    <t>NAME_CHAR_SNAKE</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>Serpiente</t>
+  </si>
+  <si>
+    <t>Red Potion</t>
+  </si>
+  <si>
+    <t>Pocion Roja</t>
+  </si>
+  <si>
+    <t>Blue Potion</t>
+  </si>
+  <si>
+    <t>Pocion Azul</t>
+  </si>
+  <si>
+    <t>Fountain</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>Militer</t>
+  </si>
+  <si>
+    <t>Milito</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Ultimo</t>
+  </si>
+  <si>
+    <t>PHRASE_ID</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>CharAnimation</t>
+  </si>
+  <si>
+    <t>Text_English</t>
+  </si>
+  <si>
+    <t>Text_Spanish</t>
+  </si>
+  <si>
+    <t>DIALOG_ANIMATION_NONE</t>
+  </si>
+  <si>
+    <t>PHRASE_NONSENSE</t>
+  </si>
+  <si>
+    <t>DIALOG_ANIMATION_TALK</t>
+  </si>
+  <si>
+    <t>That has no sense!</t>
+  </si>
+  <si>
+    <t>¡Eso no tiene sentido!</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN1_1</t>
+  </si>
+  <si>
+    <t>Are you the fountain?</t>
+  </si>
+  <si>
+    <t>¿Eres tú la fuente?</t>
+  </si>
+  <si>
+    <t>PHRASE_ASK_FOUNTAIN1_2</t>
+  </si>
+  <si>
+    <t>Sure?</t>
+  </si>
+  <si>
+    <t>¿De verdad?</t>
+  </si>
+  <si>
+    <t>Are you kidding me?</t>
+  </si>
+  <si>
+    <t>¿Me estás troleando?</t>
+  </si>
+  <si>
+    <t>Why are you red?</t>
+  </si>
+  <si>
+    <t>¿Por qué estás roja?</t>
+  </si>
+  <si>
+    <t>Why are you not red yet?</t>
+  </si>
+  <si>
+    <t>¿Por qué aún no estás roja?</t>
+  </si>
+  <si>
+    <t>ROOM_ID</t>
+  </si>
+  <si>
+    <t>CompoundSpritesText</t>
+  </si>
+  <si>
+    <t>CompoundPhrasesText</t>
+  </si>
+  <si>
+    <t>CompoundNamesText</t>
+  </si>
+  <si>
+    <t>NeededItems</t>
+  </si>
+  <si>
+    <t>NeededPhrases</t>
+  </si>
+  <si>
+    <t>ROOM_NONE</t>
+  </si>
+  <si>
+    <t>ROOM_FIRST</t>
+  </si>
+  <si>
+    <t>ITEM_POTION, ITEM_POTION_BLUE, ITEM_FOUNTAIN, ITEM_NPC_MILITO</t>
+  </si>
+  <si>
+    <t>PHRASE_NONSENSE, PHRASE_ASK_FOUNTAIN1_1, PHRASE_ASK_FOUNTAIN1_2, PHRASE_ASK_FOUNTAIN2_1, PHRASE_ASK_FOUNTAIN3_1, PHRASE_ASK_FOUNTAIN4_1</t>
+  </si>
+  <si>
+    <t>ROOM_LAST</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CHARACTER_SNAKE</t>
+  </si>
+  <si>
+    <t>ANIMATION_ID</t>
+  </si>
+  <si>
+    <t>ITEM_USE_ANIMATION_NORMAL</t>
+  </si>
+  <si>
+    <t>INTERACTION_ID</t>
+  </si>
+  <si>
+    <t>INTERACTION_RECEIVE</t>
+  </si>
+  <si>
+    <t>INTERACTION_TAKE_AND_RECEIVE</t>
+  </si>
+  <si>
     <t>INTERACTION_TALK</t>
   </si>
   <si>
-    <t>ITEM_USE_ANIMATION_STARE_SCREEN</t>
-  </si>
-  <si>
-    <t>DIALOG_FOUNTAIN</t>
-  </si>
-  <si>
-    <t>COND_LAST</t>
-  </si>
-  <si>
-    <t>ITEM_ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Sprites</t>
-  </si>
-  <si>
-    <t>PICKABLE</t>
-  </si>
-  <si>
-    <t>NPC</t>
-  </si>
-  <si>
-    <t>SpritePickable</t>
-  </si>
-  <si>
-    <t>ActionConditions</t>
-  </si>
-  <si>
-    <t>NAME_NONE</t>
-  </si>
-  <si>
-    <t>SPRITE_NONE</t>
-  </si>
-  <si>
-    <t>NAME_ITEM_POTION</t>
-  </si>
-  <si>
-    <t>SPRITE_POTION_RED</t>
-  </si>
-  <si>
-    <t>NAME_ITEM_BLUE_POTION</t>
-  </si>
-  <si>
-    <t>SPRITE_POTION_BLUE</t>
-  </si>
-  <si>
-    <t>ITEM_FOUNTAIN</t>
-  </si>
-  <si>
-    <t>NAME_ITEM_FOUNTAIN</t>
-  </si>
-  <si>
-    <t>SPRITE_FOUNTAIN, SPRITE_FOUNTAIN_FULL</t>
-  </si>
-  <si>
-    <t>COND_FOUNTAIN, COND_FOUNTAIN2</t>
-  </si>
-  <si>
-    <t>ITEM_NPC_MILITO</t>
-  </si>
-  <si>
-    <t>NAME_NPC_MILITO</t>
-  </si>
-  <si>
-    <t>SPRITE_NPC_MILITO</t>
-  </si>
-  <si>
-    <t>ITEM_LAST</t>
-  </si>
-  <si>
-    <t>NAME_NPC_LAST</t>
-  </si>
-  <si>
-    <t>SPRITE_LAST</t>
-  </si>
-  <si>
-    <t>SPRITE_ID</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>Sprites/potion_64</t>
-  </si>
-  <si>
-    <t>Sprites/potionblue_64</t>
-  </si>
-  <si>
-    <t>SPRITE_FOUNTAIN</t>
-  </si>
-  <si>
-    <t>Sprites/spr_fountain_256</t>
-  </si>
-  <si>
-    <t>SPRITE_FOUNTAIN_FULL</t>
-  </si>
-  <si>
-    <t>Sprites/spr_fountain_full_256</t>
-  </si>
-  <si>
-    <t>Sprites/spr_milito_1</t>
-  </si>
-  <si>
-    <t>DIALOG_ID</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_NONE</t>
-  </si>
-  <si>
-    <t>DIALOG_SIMPLE</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_SIMPLE</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_ASK_FOUNTAIN_1, DIALOG_OPTION_ASK_FOUNTAIN_2, DIALOG_OPTION_ASK_FOUNTAIN_3, DIALOG_OPTION_ASK_FOUNTAIN_4</t>
-  </si>
-  <si>
-    <t>DIALOG_LAST</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_ID</t>
-  </si>
-  <si>
-    <t>EventTriggered</t>
-  </si>
-  <si>
-    <t>DialogTriggered</t>
-  </si>
-  <si>
-    <t>Phrases</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_ASK_FOUNTAIN_1</t>
-  </si>
-  <si>
-    <t>PHRASE_ASK_FOUNTAIN1_1, PHRASE_ASK_FOUNTAIN1_2</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_ASK_FOUNTAIN_2</t>
-  </si>
-  <si>
-    <t>PHRASE_ASK_FOUNTAIN2_1</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_ASK_FOUNTAIN_3</t>
-  </si>
-  <si>
-    <t>PHRASE_ASK_FOUNTAIN3_1</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_ASK_FOUNTAIN_4</t>
-  </si>
-  <si>
-    <t>(NOT)EVENT_FOUNTAIN_FULL</t>
-  </si>
-  <si>
-    <t>PHRASE_ASK_FOUNTAIN4_1</t>
-  </si>
-  <si>
-    <t>DIALOG_OPTION_LAST</t>
-  </si>
-  <si>
-    <t>NAME_ID</t>
-  </si>
-  <si>
-    <t>Name_English</t>
-  </si>
-  <si>
-    <t>Name_Spanish</t>
-  </si>
-  <si>
-    <t>NAME_CHAR_MAIN</t>
-  </si>
-  <si>
-    <t>Blount</t>
-  </si>
-  <si>
-    <t>NAME_CHAR_PARROT</t>
-  </si>
-  <si>
-    <t>Parrot</t>
-  </si>
-  <si>
-    <t>Loro</t>
-  </si>
-  <si>
-    <t>NAME_CHAR_SNAKE</t>
-  </si>
-  <si>
-    <t>Snake</t>
-  </si>
-  <si>
-    <t>Serpiente</t>
-  </si>
-  <si>
-    <t>Red Potion</t>
-  </si>
-  <si>
-    <t>Pocion Roja</t>
-  </si>
-  <si>
-    <t>Blue Potion</t>
-  </si>
-  <si>
-    <t>Pocion Azul</t>
-  </si>
-  <si>
-    <t>Fountain</t>
-  </si>
-  <si>
-    <t>Fuente</t>
-  </si>
-  <si>
-    <t>Militer</t>
-  </si>
-  <si>
-    <t>Milito</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>Ultimo</t>
-  </si>
-  <si>
-    <t>PHRASE_ID</t>
-  </si>
-  <si>
-    <t>Sender</t>
-  </si>
-  <si>
-    <t>Sound</t>
-  </si>
-  <si>
-    <t>CharAnimation</t>
-  </si>
-  <si>
-    <t>Text_English</t>
-  </si>
-  <si>
-    <t>Text_Spanish</t>
-  </si>
-  <si>
-    <t>DIALOG_ANIMATION_NONE</t>
-  </si>
-  <si>
-    <t>PHRASE_NONSENSE</t>
-  </si>
-  <si>
-    <t>DIALOG_ANIMATION_TALK</t>
-  </si>
-  <si>
-    <t>That has no sense!</t>
-  </si>
-  <si>
-    <t>¡Eso no tiene sentido!</t>
-  </si>
-  <si>
-    <t>PHRASE_ASK_FOUNTAIN1_1</t>
-  </si>
-  <si>
-    <t>Are you the fountain?</t>
-  </si>
-  <si>
-    <t>¿Eres tú la fuente?</t>
-  </si>
-  <si>
-    <t>PHRASE_ASK_FOUNTAIN1_2</t>
-  </si>
-  <si>
-    <t>Sure?</t>
-  </si>
-  <si>
-    <t>¿De verdad?</t>
-  </si>
-  <si>
-    <t>Are you kidding me?</t>
-  </si>
-  <si>
-    <t>¿Me estás troleando?</t>
-  </si>
-  <si>
-    <t>Why are you red?</t>
-  </si>
-  <si>
-    <t>¿Por qué estás roja?</t>
-  </si>
-  <si>
-    <t>Why are you not red yet?</t>
-  </si>
-  <si>
-    <t>¿Por qué aún no estás roja?</t>
-  </si>
-  <si>
-    <t>ROOM_ID</t>
-  </si>
-  <si>
-    <t>CompoundSpritesText</t>
-  </si>
-  <si>
-    <t>CompoundPhrasesText</t>
-  </si>
-  <si>
-    <t>CompoundNamesText</t>
-  </si>
-  <si>
-    <t>NeededItems</t>
-  </si>
-  <si>
-    <t>NeededPhrases</t>
-  </si>
-  <si>
-    <t>ROOM_NONE</t>
-  </si>
-  <si>
-    <t>ROOM_FIRST</t>
-  </si>
-  <si>
-    <t>ITEM_POTION, ITEM_POTION_BLUE, ITEM_FOUNTAIN, ITEM_NPC_MILITO</t>
-  </si>
-  <si>
-    <t>PHRASE_NONSENSE, PHRASE_ASK_FOUNTAIN1_1, PHRASE_ASK_FOUNTAIN1_2, PHRASE_ASK_FOUNTAIN2_1, PHRASE_ASK_FOUNTAIN3_1, PHRASE_ASK_FOUNTAIN4_1</t>
-  </si>
-  <si>
-    <t>ROOM_LAST</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>CHARACTER_SNAKE</t>
-  </si>
-  <si>
-    <t>ANIMATION_ID</t>
-  </si>
-  <si>
-    <t>ITEM_USE_ANIMATION_NORMAL</t>
-  </si>
-  <si>
-    <t>INTERACTION_ID</t>
-  </si>
-  <si>
-    <t>INTERACTION_RECEIVE</t>
-  </si>
-  <si>
-    <t>INTERACTION_TAKE_AND_RECEIVE</t>
-  </si>
-  <si>
     <t>CharName</t>
   </si>
   <si>
@@ -1185,9 +1177,6 @@
     <t>TRIGGERING_ITEM2</t>
   </si>
   <si>
-    <t>TRIGGERING_NPC</t>
-  </si>
-  <si>
     <t>TRIGGERED_EVENT (CONSEQUENCE)</t>
   </si>
   <si>
@@ -1270,6 +1259,12 @@
   </si>
   <si>
     <t>Normalize menu items with dialog opts</t>
+  </si>
+  <si>
+    <t>Use Dictionaries for LevelManager</t>
+  </si>
+  <si>
+    <t>Re-think usage of ITEM_TAKE, USE_TALK</t>
   </si>
 </sst>
 </file>
@@ -1687,7 +1682,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="121">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1697,87 +1692,87 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1793,22 +1788,13 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2278,8 +2264,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:Q14" displayName="Table_Varmap" name="Table_Varmap" id="1">
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:P14" displayName="Table_Varmap" name="Table_Varmap" id="1">
+  <tableColumns count="16">
     <tableColumn name="N" id="1"/>
     <tableColumn name="ENUM_ID" id="2"/>
     <tableColumn name="TYPE" id="3"/>
@@ -2294,9 +2280,8 @@
     <tableColumn name="GraphicsMaster" id="12"/>
     <tableColumn name="GameMenu" id="13"/>
     <tableColumn name="PlayerMaster" id="14"/>
-    <tableColumn name="NPCMaster" id="15"/>
-    <tableColumn name="ItemMaster" id="16"/>
-    <tableColumn name="GameEventMaster" id="17"/>
+    <tableColumn name="ItemMaster" id="15"/>
+    <tableColumn name="GameEventMaster" id="16"/>
   </tableColumns>
   <tableStyleInfo name="VARMAP-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -2368,15 +2353,14 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G4" displayName="Table_Events" name="Table_Events" id="16">
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F4" displayName="Table_Events" name="Table_Events" id="16">
+  <tableColumns count="6">
     <tableColumn name="N" id="1"/>
     <tableColumn name="EVENT_ID" id="2"/>
     <tableColumn name="TRIGGERING_ACTION" id="3"/>
     <tableColumn name="TRIGGERING_ITEM1" id="4"/>
     <tableColumn name="TRIGGERING_ITEM2" id="5"/>
-    <tableColumn name="TRIGGERING_NPC" id="6"/>
-    <tableColumn name="TRIGGERED_EVENT (CONSEQUENCE)" id="7"/>
+    <tableColumn name="TRIGGERED_EVENT (CONSEQUENCE)" id="6"/>
   </tableColumns>
   <tableStyleInfo name="EVENTS-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -2412,8 +2396,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:O38" displayName="Table_Services" name="Table_Services" id="2">
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N36" displayName="Table_Services" name="Table_Services" id="2">
+  <tableColumns count="14">
     <tableColumn name="N" id="1"/>
     <tableColumn name="SERVICE_ID" id="2"/>
     <tableColumn name="SPECIAL_DELEGATE" id="3"/>
@@ -2426,9 +2410,8 @@
     <tableColumn name="GraphicsMaster" id="10"/>
     <tableColumn name="GameMenu" id="11"/>
     <tableColumn name="PlayerMaster" id="12"/>
-    <tableColumn name="NPCMaster" id="13"/>
-    <tableColumn name="ItemMaster" id="14"/>
-    <tableColumn name="GameEventMaster" id="15"/>
+    <tableColumn name="ItemMaster" id="13"/>
+    <tableColumn name="GameEventMaster" id="14"/>
   </tableColumns>
   <tableStyleInfo name="SERVICES-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -2445,7 +2428,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D15" displayName="Table_TODO" name="Table_TODO" id="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D17" displayName="Table_TODO" name="Table_TODO" id="21">
   <tableColumns count="4">
     <tableColumn name="TASK" id="1"/>
     <tableColumn name="PRIO" id="2"/>
@@ -2828,707 +2811,665 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <f t="shared" ref="A2:A14" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>25</v>
+      <c r="N2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>25</v>
+      <c r="K3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>25</v>
+      <c r="N4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>2.0</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <f>COUNTIF(Table_Items[PICKABLE],"=TRUE")</f>
         <v>2</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="8" t="s">
+      <c r="F6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="N6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="P6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="9" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>2.0</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <f>COUNT(Table_Characters[N])-1</f>
         <v>3</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>-1.0</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>25</v>
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="H8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>23</v>
+      <c r="J8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>25</v>
+      <c r="J9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>25</v>
+      <c r="J10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>25</v>
+      <c r="H11" s="17"/>
+      <c r="I11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="8" t="s">
+      <c r="H12" s="18"/>
+      <c r="I12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="M12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="P12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="9" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="B13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="12">
         <v>0.0</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <f>COUNT(Table_Characters[N])-1</f>
         <v>3</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>25</v>
+      <c r="H13" s="17"/>
+      <c r="I13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="D14" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="25" t="s">
-        <v>25</v>
+      <c r="H14" s="23"/>
+      <c r="I14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -3538,7 +3479,7 @@
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="I21" s="26"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -4518,7 +4459,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D14">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:Q14">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:P14">
       <formula1>"R,R E,W,W E,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4554,211 +4495,211 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="70" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="51">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="45">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="59">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="51">
+        <v>1.0</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="45">
+        <v>2.0</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="51">
+        <v>3.0</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="45">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="59">
+        <v>5.0</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="51">
+        <v>1.0</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="45">
+        <v>2.0</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="51">
+        <v>3.0</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="45">
+        <v>4.0</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="59">
+        <v>5.0</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="B24" s="92" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="51">
+        <v>1.0</v>
+      </c>
+      <c r="B25" s="93" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="73">
+        <v>2.0</v>
+      </c>
+      <c r="B26" s="94" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="70" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="48">
+    <row r="29">
+      <c r="A29" s="45">
         <v>0.0</v>
       </c>
-      <c r="B2" s="75" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="54">
+      <c r="B29" s="72" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="59">
         <v>1.0</v>
       </c>
-      <c r="B3" s="74" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="48">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="62">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="94" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="54">
-        <v>1.0</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="48">
-        <v>2.0</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="54">
-        <v>3.0</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="48">
-        <v>4.0</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="62">
-        <v>5.0</v>
-      </c>
-      <c r="B13" s="94" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="B16" s="75" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="54">
-        <v>1.0</v>
-      </c>
-      <c r="B17" s="74" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="48">
-        <v>2.0</v>
-      </c>
-      <c r="B18" s="75" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="54">
-        <v>3.0</v>
-      </c>
-      <c r="B19" s="74" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="48">
-        <v>4.0</v>
-      </c>
-      <c r="B20" s="75" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="62">
-        <v>5.0</v>
-      </c>
-      <c r="B21" s="94" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="73" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="B24" s="95" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="54">
-        <v>1.0</v>
-      </c>
-      <c r="B25" s="96" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="76">
-        <v>2.0</v>
-      </c>
-      <c r="B26" s="97" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="73" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="48">
-        <v>0.0</v>
-      </c>
-      <c r="B29" s="75" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="62">
-        <v>1.0</v>
-      </c>
-      <c r="B30" s="94" t="s">
-        <v>329</v>
+      <c r="B30" s="91" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4795,7 +4736,7 @@
     <col customWidth="1" min="2" max="2" width="31.71"/>
     <col customWidth="1" min="3" max="3" width="30.29"/>
     <col customWidth="1" min="4" max="5" width="28.86"/>
-    <col customWidth="1" min="6" max="6" width="32.43"/>
+    <col customWidth="1" min="6" max="6" width="40.0"/>
     <col customWidth="1" min="7" max="7" width="43.0"/>
     <col customWidth="1" min="8" max="8" width="15.29"/>
     <col customWidth="1" min="10" max="10" width="18.57"/>
@@ -4803,157 +4744,154 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="G1" s="73" t="s">
-        <v>369</v>
+      <c r="B1" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48">
+      <c r="A2" s="45">
         <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="G2" s="99"/>
+      <c r="B2" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
     </row>
     <row r="3">
-      <c r="A3" s="54">
+      <c r="A3" s="51">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>370</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>260</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="96" t="s">
-        <v>241</v>
+      <c r="B3" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3" s="93" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="76">
+      <c r="A4" s="73">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="77" t="s">
-        <v>371</v>
-      </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="G4" s="101"/>
+      <c r="B4" s="74" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
     </row>
     <row r="6">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="73" t="s">
-        <v>372</v>
+      <c r="B6" s="70" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="102">
+      <c r="A7" s="99">
         <f>ROW()-ROW(Table_EventsCombi[N])</f>
         <v>0</v>
       </c>
-      <c r="B7" s="103" t="str">
+      <c r="B7" s="100" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ArrayFormula(FLATTEN(Table_Events[EVENT_ID],""(NOT)""&amp;Table_Events[EVENT_ID]))"),"EVENT_NONE")</f>
         <v>EVENT_NONE</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="104">
+      <c r="A8" s="101">
         <f>ROW()-ROW(Table_EventsCombi[N])</f>
         <v>1</v>
       </c>
-      <c r="B8" s="105" t="str">
+      <c r="B8" s="102" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EVENT_FOUNTAIN_FULL")</f>
         <v>EVENT_FOUNTAIN_FULL</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="102">
+      <c r="A9" s="99">
         <f>ROW()-ROW(Table_EventsCombi[N])</f>
         <v>2</v>
       </c>
-      <c r="B9" s="103" t="str">
+      <c r="B9" s="100" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EVENT_LAST")</f>
         <v>EVENT_LAST</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="104">
+      <c r="A10" s="101">
         <f>ROW()-ROW(Table_EventsCombi[N])</f>
         <v>3</v>
       </c>
-      <c r="B10" s="105" t="str">
+      <c r="B10" s="102" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(NOT)EVENT_NONE")</f>
         <v>(NOT)EVENT_NONE</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="102">
+      <c r="A11" s="99">
         <f>ROW()-ROW(Table_EventsCombi[N])</f>
         <v>4</v>
       </c>
-      <c r="B11" s="103" t="str">
+      <c r="B11" s="100" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(NOT)EVENT_FOUNTAIN_FULL")</f>
         <v>(NOT)EVENT_FOUNTAIN_FULL</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="106">
+      <c r="A12" s="103">
         <f>ROW()-ROW(Table_EventsCombi[N])</f>
         <v>5</v>
       </c>
-      <c r="B12" s="107" t="str">
+      <c r="B12" s="104" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(NOT)EVENT_LAST")</f>
         <v>(NOT)EVENT_LAST</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:E4 G2:G4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:F4">
       <formula1>#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C4">
       <formula1>"TALK,ITEM_TAKE,ITEM_USE,WALK,EVENT,ALWAYS"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="2">
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4978,89 +4916,89 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="108" t="s">
-        <v>373</v>
-      </c>
-      <c r="C1" s="109" t="s">
-        <v>374</v>
-      </c>
-      <c r="D1" s="110" t="s">
-        <v>375</v>
-      </c>
-      <c r="F1" s="109" t="s">
-        <v>376</v>
-      </c>
-      <c r="G1" s="110" t="s">
-        <v>375</v>
+      <c r="A1" s="105" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="106" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="107" t="s">
+        <v>366</v>
+      </c>
+      <c r="F1" s="106" t="s">
+        <v>367</v>
+      </c>
+      <c r="G1" s="107" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="111">
+      <c r="A2" s="108">
         <v>3.0</v>
       </c>
-      <c r="C2" s="112" t="str">
+      <c r="C2" s="109" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(Table_PickableSprites[WORK],Table_PickableSprites[WORK]&lt;&gt;"""")"),"SPRITE_POTION_RED")</f>
         <v>SPRITE_POTION_RED</v>
       </c>
-      <c r="D2" s="113" t="str">
+      <c r="D2" s="110" t="str">
         <f t="array" ref="D2:D7">IF(Table_Items[SpritePickable]&lt;&gt;"SPRITE_NONE",Table_Items[SpritePickable],"")</f>
         <v/>
       </c>
-      <c r="F2" s="112" t="str">
+      <c r="F2" s="109" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(Table_PickableNames[WORK],Table_PickableNames[WORK]&lt;&gt;"""")"),"NAME_ITEM_POTION")</f>
         <v>NAME_ITEM_POTION</v>
       </c>
-      <c r="G2" s="113" t="str">
+      <c r="G2" s="110" t="str">
         <f t="array" ref="G2:G7">IF(Table_Items[SpritePickable]&lt;&gt;"SPRITE_NONE",Table_Items[Name],"")</f>
         <v/>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="114" t="str">
+      <c r="C3" s="111" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SPRITE_POTION_BLUE")</f>
         <v>SPRITE_POTION_BLUE</v>
       </c>
-      <c r="D3" s="115" t="s">
-        <v>257</v>
-      </c>
-      <c r="F3" s="114" t="str">
+      <c r="D3" s="112" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="111" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NAME_ITEM_BLUE_POTION")</f>
         <v>NAME_ITEM_BLUE_POTION</v>
       </c>
-      <c r="G3" s="115" t="s">
-        <v>256</v>
+      <c r="G3" s="112" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="113" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" s="113" t="s">
-        <v>258</v>
+      <c r="D4" s="110" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" s="110" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="115" t="s">
-        <v>21</v>
+      <c r="D5" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="112" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
-      <c r="D6" s="113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="113" t="s">
-        <v>21</v>
+      <c r="D6" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="110" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="D7" s="115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="115" t="s">
-        <v>21</v>
+      <c r="D7" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="112" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5088,364 +5026,364 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>378</v>
+      <c r="B1" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <f t="shared" ref="A2:A32" si="1">ROW()-ROW($G$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="116" t="str">
+      <c r="B2" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A2,0)</f>
         <v>ITEM_POTION</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>379</v>
+      <c r="C2" s="25" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="116" t="str">
+      <c r="B3" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A3,0)</f>
         <v>ITEM_POTION_BLUE</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>379</v>
+      <c r="C3" s="25" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="116" t="str">
+      <c r="B4" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A4,0)</f>
         <v>ITEM_FOUNTAIN</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>379</v>
+      <c r="C4" s="25" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="116" t="str">
+      <c r="B5" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A5,0)</f>
         <v>ITEM_NPC_MILITO</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>379</v>
+      <c r="C5" s="25" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="116" t="str">
+      <c r="B6" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A6,0)</f>
         <v>ITEM_LAST</v>
       </c>
-      <c r="C6" s="116"/>
+      <c r="C6" s="113"/>
     </row>
     <row r="7">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="116" t="str">
+      <c r="B7" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A7,0)</f>
         <v/>
       </c>
-      <c r="C7" s="116"/>
+      <c r="C7" s="113"/>
     </row>
     <row r="8">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="116" t="str">
+      <c r="B8" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A8,0)</f>
         <v/>
       </c>
-      <c r="C8" s="116"/>
+      <c r="C8" s="113"/>
     </row>
     <row r="9">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="116" t="str">
+      <c r="B9" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A9,0)</f>
         <v/>
       </c>
-      <c r="C9" s="116"/>
+      <c r="C9" s="113"/>
     </row>
     <row r="10">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="116" t="str">
+      <c r="B10" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A10,0)</f>
         <v/>
       </c>
-      <c r="C10" s="116"/>
+      <c r="C10" s="113"/>
     </row>
     <row r="11">
-      <c r="A11" s="26">
+      <c r="A11" s="25">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="116" t="str">
+      <c r="B11" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A11,0)</f>
         <v/>
       </c>
-      <c r="C11" s="116"/>
+      <c r="C11" s="113"/>
     </row>
     <row r="12">
-      <c r="A12" s="26">
+      <c r="A12" s="25">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="116" t="str">
+      <c r="B12" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A12,0)</f>
         <v/>
       </c>
-      <c r="C12" s="116"/>
+      <c r="C12" s="113"/>
     </row>
     <row r="13">
-      <c r="A13" s="26">
+      <c r="A13" s="25">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="116" t="str">
+      <c r="B13" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A13,0)</f>
         <v/>
       </c>
-      <c r="C13" s="116"/>
+      <c r="C13" s="113"/>
     </row>
     <row r="14">
-      <c r="A14" s="26">
+      <c r="A14" s="25">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="116" t="str">
+      <c r="B14" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A14,0)</f>
         <v/>
       </c>
-      <c r="C14" s="116"/>
+      <c r="C14" s="113"/>
     </row>
     <row r="15">
-      <c r="A15" s="26">
+      <c r="A15" s="25">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="116" t="str">
+      <c r="B15" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A15,0)</f>
         <v/>
       </c>
-      <c r="C15" s="116"/>
+      <c r="C15" s="113"/>
     </row>
     <row r="16">
-      <c r="A16" s="26">
+      <c r="A16" s="25">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="116" t="str">
+      <c r="B16" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A16,0)</f>
         <v/>
       </c>
-      <c r="C16" s="116"/>
+      <c r="C16" s="113"/>
     </row>
     <row r="17">
-      <c r="A17" s="26">
+      <c r="A17" s="25">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="116" t="str">
+      <c r="B17" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A17,0)</f>
         <v/>
       </c>
-      <c r="C17" s="116"/>
+      <c r="C17" s="113"/>
     </row>
     <row r="18">
-      <c r="A18" s="26">
+      <c r="A18" s="25">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="116" t="str">
+      <c r="B18" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A18,0)</f>
         <v/>
       </c>
-      <c r="C18" s="116"/>
+      <c r="C18" s="113"/>
     </row>
     <row r="19">
-      <c r="A19" s="26">
+      <c r="A19" s="25">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="116" t="str">
+      <c r="B19" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A19,0)</f>
         <v/>
       </c>
-      <c r="C19" s="116"/>
+      <c r="C19" s="113"/>
     </row>
     <row r="20">
-      <c r="A20" s="26">
+      <c r="A20" s="25">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="116" t="str">
+      <c r="B20" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A20,0)</f>
         <v/>
       </c>
-      <c r="C20" s="116"/>
+      <c r="C20" s="113"/>
     </row>
     <row r="21">
-      <c r="A21" s="26">
+      <c r="A21" s="25">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="116" t="str">
+      <c r="B21" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A21,0)</f>
         <v/>
       </c>
-      <c r="C21" s="116"/>
+      <c r="C21" s="113"/>
     </row>
     <row r="22">
-      <c r="A22" s="26">
+      <c r="A22" s="25">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="116" t="str">
+      <c r="B22" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A22,0)</f>
         <v/>
       </c>
-      <c r="C22" s="116"/>
+      <c r="C22" s="113"/>
     </row>
     <row r="23">
-      <c r="A23" s="26">
+      <c r="A23" s="25">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="116" t="str">
+      <c r="B23" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A23,0)</f>
         <v/>
       </c>
-      <c r="C23" s="116"/>
+      <c r="C23" s="113"/>
     </row>
     <row r="24">
-      <c r="A24" s="26">
+      <c r="A24" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="116" t="str">
+      <c r="B24" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A24,0)</f>
         <v/>
       </c>
-      <c r="C24" s="116"/>
+      <c r="C24" s="113"/>
     </row>
     <row r="25">
-      <c r="A25" s="26">
+      <c r="A25" s="25">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="116" t="str">
+      <c r="B25" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A25,0)</f>
         <v/>
       </c>
-      <c r="C25" s="116"/>
+      <c r="C25" s="113"/>
     </row>
     <row r="26">
-      <c r="A26" s="26">
+      <c r="A26" s="25">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="116" t="str">
+      <c r="B26" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A26,0)</f>
         <v/>
       </c>
-      <c r="C26" s="116"/>
+      <c r="C26" s="113"/>
     </row>
     <row r="27">
-      <c r="A27" s="26">
+      <c r="A27" s="25">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="116" t="str">
+      <c r="B27" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A27,0)</f>
         <v/>
       </c>
-      <c r="C27" s="116"/>
+      <c r="C27" s="113"/>
     </row>
     <row r="28">
-      <c r="A28" s="26">
+      <c r="A28" s="25">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="116" t="str">
+      <c r="B28" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A28,0)</f>
         <v/>
       </c>
-      <c r="C28" s="116"/>
+      <c r="C28" s="113"/>
     </row>
     <row r="29">
-      <c r="A29" s="26">
+      <c r="A29" s="25">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="116" t="str">
+      <c r="B29" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A29,0)</f>
         <v/>
       </c>
-      <c r="C29" s="116"/>
+      <c r="C29" s="113"/>
     </row>
     <row r="30">
-      <c r="A30" s="26">
+      <c r="A30" s="25">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="116" t="str">
+      <c r="B30" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A30,0)</f>
         <v/>
       </c>
-      <c r="C30" s="116"/>
+      <c r="C30" s="113"/>
     </row>
     <row r="31">
-      <c r="A31" s="26">
+      <c r="A31" s="25">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="116" t="str">
+      <c r="B31" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A31,0)</f>
         <v/>
       </c>
-      <c r="C31" s="116"/>
+      <c r="C31" s="113"/>
     </row>
     <row r="32">
-      <c r="A32" s="26">
+      <c r="A32" s="25">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="116" t="str">
+      <c r="B32" s="113" t="str">
         <f>OFFSET(ITEMS!$B$3,A32,0)</f>
         <v/>
       </c>
-      <c r="C32" s="116"/>
+      <c r="C32" s="113"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -5470,224 +5408,252 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.57"/>
+    <col customWidth="1" min="1" max="1" width="39.29"/>
     <col customWidth="1" min="2" max="2" width="9.43"/>
     <col customWidth="1" min="3" max="3" width="11.71"/>
     <col customWidth="1" min="4" max="4" width="15.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="114" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="115">
+        <v>1.0</v>
+      </c>
+      <c r="C2" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="115">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="116">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="114" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="115">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="116">
+        <v>3.0</v>
+      </c>
+      <c r="C6" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="114" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B7" s="116">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="114" t="s">
         <v>381</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="B8" s="117">
+        <v>5.0</v>
+      </c>
+      <c r="C8" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="51" t="s">
         <v>382</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="B9" s="118">
+        <v>4.0</v>
+      </c>
+      <c r="C9" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="45" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="117" t="s">
+      <c r="B10" s="118">
+        <v>4.0</v>
+      </c>
+      <c r="C10" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="51" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="118">
+      <c r="B11" s="115">
         <v>1.0</v>
       </c>
-      <c r="C2" s="49" t="b">
+      <c r="C11" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="114" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" s="118">
+        <v>4.0</v>
+      </c>
+      <c r="C12" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="75" t="b">
+      <c r="D12" s="72" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="54" t="s">
-        <v>385</v>
-      </c>
-      <c r="B3" s="118">
+    <row r="13">
+      <c r="A13" s="114" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="115">
         <v>1.0</v>
       </c>
-      <c r="C3" s="55" t="b">
+      <c r="C13" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="114" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" s="119">
+        <v>2.0</v>
+      </c>
+      <c r="C14" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="51" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" s="116">
+        <v>3.0</v>
+      </c>
+      <c r="C15" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="B4" s="119">
+      <c r="D15" s="71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="B16" s="116">
         <v>3.0</v>
       </c>
-      <c r="C4" s="49" t="b">
+      <c r="C16" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="75" t="b">
+      <c r="D16" s="72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="117" t="s">
-        <v>387</v>
-      </c>
-      <c r="B5" s="118">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="48" t="s">
-        <v>388</v>
-      </c>
-      <c r="B6" s="119">
-        <v>3.0</v>
-      </c>
-      <c r="C6" s="49" t="b">
+    <row r="17">
+      <c r="A17" s="59" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" s="120">
+        <v>5.0</v>
+      </c>
+      <c r="C17" s="60" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="75" t="b">
+      <c r="D17" s="91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="117" t="s">
-        <v>389</v>
-      </c>
-      <c r="B7" s="119">
-        <v>3.0</v>
-      </c>
-      <c r="C7" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="117" t="s">
-        <v>390</v>
-      </c>
-      <c r="B8" s="120">
-        <v>5.0</v>
-      </c>
-      <c r="C8" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="54" t="s">
-        <v>391</v>
-      </c>
-      <c r="B9" s="121">
-        <v>4.0</v>
-      </c>
-      <c r="C9" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="48" t="s">
-        <v>392</v>
-      </c>
-      <c r="B10" s="121">
-        <v>4.0</v>
-      </c>
-      <c r="C10" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="54" t="s">
-        <v>393</v>
-      </c>
-      <c r="B11" s="118">
-        <v>1.0</v>
-      </c>
-      <c r="C11" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="117" t="s">
-        <v>394</v>
-      </c>
-      <c r="B12" s="121">
-        <v>4.0</v>
-      </c>
-      <c r="C12" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="117" t="s">
-        <v>395</v>
-      </c>
-      <c r="B13" s="118">
-        <v>1.0</v>
-      </c>
-      <c r="C13" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="117" t="s">
-        <v>396</v>
-      </c>
-      <c r="B14" s="122">
-        <v>2.0</v>
-      </c>
-      <c r="C14" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="62" t="s">
-        <v>319</v>
-      </c>
-      <c r="B15" s="123">
-        <v>5.0</v>
-      </c>
-      <c r="C15" s="63" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="94" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B15">
+  <conditionalFormatting sqref="B2:B17">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="formula" val="1"/>
@@ -5699,13 +5665,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A15">
+  <conditionalFormatting sqref="A2:A17">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>$C2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B2:B15">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B2:B17">
       <formula1>AND(ISNUMBER(B2),(NOT(OR(NOT(ISERROR(DATEVALUE(B2))), AND(ISNUMBER(B2), LEFT(CELL("format", B2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -5748,20 +5714,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="27" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
@@ -5784,62 +5750,56 @@
       <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="28">
-        <f t="shared" ref="A2:A38" si="1">ROW()-ROW($A$2)</f>
+        <f t="shared" ref="A2:A36" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>25</v>
+      <c r="L2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -5847,45 +5807,42 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>25</v>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -5893,45 +5850,42 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>25</v>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -5939,47 +5893,44 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>25</v>
+      <c r="F5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -5987,47 +5938,44 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>25</v>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -6035,47 +5983,44 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>66</v>
+      <c r="F7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -6083,45 +6028,42 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>66</v>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -6129,47 +6071,44 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>25</v>
+      <c r="F9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -6177,47 +6116,42 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>25</v>
+      <c r="F10" s="18"/>
+      <c r="G10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>66</v>
+        <v>23</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -6225,45 +6159,42 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>25</v>
+      <c r="F11" s="17"/>
+      <c r="G11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -6271,45 +6202,42 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>25</v>
+      <c r="F12" s="18"/>
+      <c r="G12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -6317,44 +6245,41 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>25</v>
+      <c r="F13" s="17"/>
+      <c r="G13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="N13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6363,45 +6288,42 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>25</v>
+      <c r="F14" s="18"/>
+      <c r="G14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -6409,45 +6331,42 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>25</v>
+      <c r="F15" s="17"/>
+      <c r="G15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -6455,45 +6374,42 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>25</v>
+      <c r="F16" s="18"/>
+      <c r="G16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -6501,45 +6417,42 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>25</v>
+      <c r="F17" s="17"/>
+      <c r="G17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -6547,45 +6460,42 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>25</v>
+      <c r="F18" s="18"/>
+      <c r="G18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -6593,45 +6503,42 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>25</v>
+      <c r="F19" s="17"/>
+      <c r="G19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -6639,45 +6546,42 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>66</v>
+      <c r="F20" s="18"/>
+      <c r="G20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -6685,45 +6589,42 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>66</v>
+      <c r="F21" s="17"/>
+      <c r="G21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -6731,91 +6632,95 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="E22" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
     </row>
     <row r="23">
       <c r="A23" s="29">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>66</v>
+      <c r="F23" s="17"/>
+      <c r="G23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -6823,46 +6728,44 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="35" t="s">
         <v>152</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>153</v>
       </c>
       <c r="F24" s="31"/>
-      <c r="G24" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>25</v>
+      <c r="G24" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="I24" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="32" t="s">
-        <v>66</v>
+        <v>24</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="L24" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="M24" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="N24" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="O24" s="33" t="s">
-        <v>24</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="34"/>
       <c r="P24" s="34"/>
       <c r="Q24" s="34"/>
       <c r="R24" s="34"/>
@@ -6872,107 +6775,90 @@
       <c r="V24" s="34"/>
       <c r="W24" s="34"/>
       <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
     </row>
     <row r="25">
       <c r="A25" s="29">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="M25" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="28">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>25</v>
+      <c r="F26" s="18"/>
+      <c r="G26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6981,45 +6867,42 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>25</v>
+      <c r="F27" s="17"/>
+      <c r="G27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -7027,45 +6910,42 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>25</v>
+      <c r="F28" s="18"/>
+      <c r="G28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -7073,45 +6953,42 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>25</v>
+      <c r="F29" s="17"/>
+      <c r="G29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -7119,45 +6996,42 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>25</v>
+      <c r="F30" s="18"/>
+      <c r="G30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="N30" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -7165,45 +7039,42 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>25</v>
+      <c r="F31" s="17"/>
+      <c r="G31" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
@@ -7211,44 +7082,41 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>66</v>
+      <c r="F32" s="18"/>
+      <c r="G32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="O32" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7257,45 +7125,42 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>25</v>
+      <c r="F33" s="17"/>
+      <c r="G33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
@@ -7303,45 +7168,42 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M34" s="8" t="s">
+      <c r="F34" s="18"/>
+      <c r="G34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="7" t="s">
         <v>24</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
@@ -7349,191 +7211,93 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M35" s="13" t="s">
-        <v>25</v>
+      <c r="F35" s="17"/>
+      <c r="G35" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="28">
+      <c r="A36" s="38">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O36" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="29">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N37" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="41">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J38" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="N38" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" s="25" t="s">
-        <v>25</v>
+      <c r="F36" s="23"/>
+      <c r="G36" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A38">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A36">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:O38">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:N36">
       <formula1>"W,X,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7574,316 +7338,316 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="K1" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="L1" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="M1" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="N1" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="L1" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="M1" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="N1" s="47" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="48">
+      <c r="A2" s="45">
         <f>ROW()-ROW(Table_Action_Conditions[N])</f>
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="E2" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="M2" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="N2" s="53" t="b">
+      <c r="K2" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="N2" s="50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="54">
+      <c r="A3" s="51">
         <f>ROW()-ROW(Table_Action_Conditions[N])</f>
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="57" t="s">
+      <c r="C3" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="F3" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="I3" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="K3" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="L3" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="M3" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="N3" s="59" t="b">
+      <c r="G3" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="M3" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="N3" s="56" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48">
+      <c r="A4" s="45">
         <f>ROW()-ROW(Table_Action_Conditions[N])</f>
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" s="51" t="s">
+      <c r="B4" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="H4" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="I4" s="51" t="s">
+      <c r="C4" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="J4" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="K4" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="M4" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="N4" s="53" t="b">
+      <c r="F4" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="N4" s="50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="54">
+      <c r="A5" s="51">
         <f>ROW()-ROW(Table_Action_Conditions[N])</f>
         <v>3</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="57" t="s">
+      <c r="B5" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>227</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="J5" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="K5" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="L5" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="M5" s="58" t="s">
-        <v>241</v>
-      </c>
-      <c r="N5" s="59" t="b">
+      <c r="G5" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="K5" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="M5" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="N5" s="56" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48">
+      <c r="A6" s="45">
         <f>ROW()-ROW(Table_Action_Conditions[N])</f>
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" s="51" t="s">
+      <c r="B6" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="H6" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="J6" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="K6" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="L6" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="M6" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="N6" s="53" t="b">
+      <c r="J6" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="N6" s="50" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="62">
+      <c r="A7" s="59">
         <f>ROW()-ROW(Table_Action_Conditions[N])</f>
         <v>5</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>246</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>223</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>224</v>
-      </c>
-      <c r="F7" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="G7" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="H7" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="I7" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="J7" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="K7" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="L7" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="M7" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="N7" s="67" t="b">
+      <c r="B7" s="60" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>221</v>
+      </c>
+      <c r="M7" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="N7" s="64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7938,191 +7702,191 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>250</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>253</v>
+      <c r="B1" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="68">
+      <c r="A2" s="65">
         <f t="shared" ref="A2:A7" si="1">ROW()-ROW($A$2)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="E2" s="71" t="b">
+      <c r="B2" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="71" t="b">
+      <c r="F2" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="69" t="s">
-        <v>255</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>221</v>
+      <c r="G2" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="69" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="68">
+      <c r="A3" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" s="71" t="b">
+      <c r="B3" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="68" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="71" t="b">
+      <c r="F3" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="69" t="s">
-        <v>257</v>
-      </c>
-      <c r="H3" s="72" t="s">
-        <v>230</v>
+      <c r="G3" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="68">
+      <c r="A4" s="65">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>258</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="E4" s="71" t="b">
+      <c r="B4" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="68" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="71" t="b">
+      <c r="F4" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="69" t="s">
-        <v>259</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>234</v>
+      <c r="G4" s="66" t="s">
+        <v>250</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="68">
+      <c r="A5" s="65">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="68" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>261</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>262</v>
-      </c>
-      <c r="E5" s="71" t="b">
+      <c r="B5" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="71" t="b">
+      <c r="F5" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="69" t="s">
-        <v>255</v>
-      </c>
-      <c r="H5" s="72" t="s">
-        <v>263</v>
+      <c r="G5" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="68">
+      <c r="A6" s="65">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>265</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>266</v>
-      </c>
-      <c r="E6" s="71" t="b">
+      <c r="B6" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="71" t="b">
+      <c r="F6" s="68" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="69" t="s">
-        <v>255</v>
-      </c>
-      <c r="H6" s="72" t="s">
-        <v>221</v>
+      <c r="G6" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="68">
+      <c r="A7" s="65">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>267</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>269</v>
-      </c>
-      <c r="E7" s="71" t="b">
+      <c r="B7" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="71" t="b">
+      <c r="F7" s="68" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="69" t="s">
-        <v>255</v>
-      </c>
-      <c r="H7" s="72" t="s">
-        <v>221</v>
+      <c r="G7" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -8161,92 +7925,92 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>270</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>271</v>
+      <c r="B1" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48">
+      <c r="A2" s="45">
         <f>ROW()-ROW(Table_sprites[N])</f>
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>255</v>
+      <c r="B2" s="46" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="54">
+      <c r="A3" s="51">
         <f>ROW()-ROW(Table_sprites[N])</f>
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>272</v>
+      <c r="B3" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48">
+      <c r="A4" s="45">
         <f>ROW()-ROW(Table_sprites[N])</f>
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>273</v>
+      <c r="B4" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="54">
+      <c r="A5" s="51">
         <f>ROW()-ROW(Table_sprites[N])</f>
         <v>3</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>275</v>
+      <c r="B5" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48">
+      <c r="A6" s="45">
         <f>ROW()-ROW(Table_sprites[N])</f>
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="75" t="s">
-        <v>277</v>
+      <c r="B6" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="54">
+      <c r="A7" s="51">
         <f>ROW()-ROW(Table_sprites[N])</f>
         <v>5</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>278</v>
+      <c r="B7" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="76">
+      <c r="A8" s="73">
         <f>ROW()-ROW(Table_sprites[N])</f>
         <v>6</v>
       </c>
-      <c r="B8" s="77" t="s">
-        <v>269</v>
+      <c r="B8" s="74" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -8281,278 +8045,278 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>280</v>
+      <c r="B1" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48">
+      <c r="A2" s="45">
         <f>ROW()-ROW(Table_Dialogs[N])</f>
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>281</v>
+      <c r="B2" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="54">
+      <c r="A3" s="51">
         <f>ROW()-ROW(Table_Dialogs[N])</f>
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>283</v>
+      <c r="B3" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48">
+      <c r="A4" s="45">
         <f>ROW()-ROW(Table_Dialogs[N])</f>
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>284</v>
+      <c r="B4" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="62">
+      <c r="A5" s="59">
         <f>ROW()-ROW(Table_Dialogs[N])</f>
         <v>3</v>
       </c>
-      <c r="B5" s="63" t="s">
-        <v>285</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>281</v>
+      <c r="B5" s="60" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>289</v>
+      <c r="B7" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="48">
+      <c r="A8" s="45">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>0</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="81" t="s">
-        <v>229</v>
+      <c r="B8" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="78" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="54">
+      <c r="A9" s="51">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>1</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>283</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>229</v>
+      <c r="B9" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="48">
+      <c r="A10" s="45">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>2</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>290</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" s="81" t="s">
-        <v>291</v>
+      <c r="B10" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="78" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="54">
+      <c r="A11" s="51">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>3</v>
       </c>
-      <c r="B11" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" s="82" t="s">
-        <v>293</v>
+      <c r="B11" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="79" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="48">
+      <c r="A12" s="45">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>4</v>
       </c>
-      <c r="B12" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="81" t="s">
-        <v>295</v>
+      <c r="B12" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="54">
+      <c r="A13" s="51">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>5</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>222</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="F13" s="82" t="s">
-        <v>298</v>
+      <c r="B13" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="79" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="76">
+      <c r="A14" s="73">
         <f>ROW()-ROW(Table_Dialog_Options[N])</f>
         <v>6</v>
       </c>
-      <c r="B14" s="77" t="s">
-        <v>299</v>
-      </c>
-      <c r="C14" s="83" t="s">
-        <v>222</v>
-      </c>
-      <c r="D14" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="84" t="s">
-        <v>228</v>
-      </c>
-      <c r="F14" s="85" t="s">
-        <v>229</v>
+      <c r="B14" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="82" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
     </row>
     <row r="17">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
     </row>
     <row r="18">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
     </row>
     <row r="19">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
     </row>
     <row r="20">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
     </row>
     <row r="21">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -8598,148 +8362,148 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88" t="s">
-        <v>300</v>
-      </c>
-      <c r="C1" s="87" t="s">
-        <v>301</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>302</v>
+      <c r="B1" s="85" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="84" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="68">
+      <c r="A2" s="65">
         <f>ROW()-ROW(Table_Name[NAME_ID])</f>
         <v>0</v>
       </c>
-      <c r="B2" s="68" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="B2" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
     </row>
     <row r="3">
-      <c r="A3" s="68">
+      <c r="A3" s="65">
         <f>ROW()-ROW(Table_Name[NAME_ID])</f>
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>304</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>304</v>
+      <c r="B3" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="68">
+      <c r="A4" s="65">
         <f>ROW()-ROW(Table_Name[NAME_ID])</f>
         <v>2</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>307</v>
+      <c r="B4" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="68">
+      <c r="A5" s="65">
         <f>ROW()-ROW(Table_Name[NAME_ID])</f>
         <v>3</v>
       </c>
-      <c r="B5" s="68" t="s">
-        <v>308</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>309</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>310</v>
+      <c r="B5" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="68">
+      <c r="A6" s="65">
         <f>ROW()-ROW(Table_Name[NAME_ID])</f>
         <v>4</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>312</v>
+      <c r="B6" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="68">
+      <c r="A7" s="65">
         <f>ROW()-ROW(Table_Name[NAME_ID])</f>
         <v>5</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>313</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>314</v>
+      <c r="B7" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="68">
+      <c r="A8" s="65">
         <f>ROW()-ROW(Table_Name[NAME_ID])</f>
         <v>6</v>
       </c>
-      <c r="B8" s="68" t="s">
-        <v>261</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>315</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>316</v>
+      <c r="B8" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="68">
+      <c r="A9" s="65">
         <f>ROW()-ROW(Table_Name[NAME_ID])</f>
         <v>7</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>317</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>318</v>
+      <c r="B9" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="68">
+      <c r="A10" s="65">
         <f>ROW()-ROW(Table_Name[NAME_ID])</f>
         <v>8</v>
       </c>
-      <c r="B10" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>320</v>
+      <c r="B10" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -8771,189 +8535,189 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="G1" s="90" t="s">
-        <v>326</v>
+      <c r="B1" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="G1" s="87" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48">
+      <c r="A2" s="45">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="49">
+      <c r="B2" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="46">
         <v>0.0</v>
       </c>
-      <c r="E2" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="G2" s="75"/>
+      <c r="E2" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" s="72"/>
     </row>
     <row r="3">
-      <c r="A3" s="54">
+      <c r="A3" s="51">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>328</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" s="55">
+      <c r="B3" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="52">
         <v>0.0</v>
       </c>
-      <c r="E3" s="58" t="s">
-        <v>329</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="G3" s="74" t="s">
-        <v>331</v>
+      <c r="E3" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="48">
+      <c r="A4" s="45">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="D4" s="49">
+      <c r="B4" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="46">
         <v>0.0</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>329</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="G4" s="75" t="s">
-        <v>334</v>
+      <c r="E4" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="54">
+      <c r="A5" s="51">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>3</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>335</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" s="55">
+      <c r="B5" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="52">
         <v>0.0</v>
       </c>
-      <c r="E5" s="58" t="s">
-        <v>329</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>336</v>
-      </c>
-      <c r="G5" s="74" t="s">
-        <v>337</v>
+      <c r="E5" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="48">
+      <c r="A6" s="45">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="D6" s="49">
+      <c r="B6" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="46">
         <v>0.0</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="F6" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="G6" s="75" t="s">
-        <v>339</v>
+      <c r="G6" s="72" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="54">
+      <c r="A7" s="51">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>5</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="55">
+      <c r="B7" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="52">
         <v>0.0</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>329</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>340</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>341</v>
+      <c r="E7" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>331</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="76">
+      <c r="A8" s="73">
         <f>ROW()-ROW(Table_Phrases[N])</f>
         <v>6</v>
       </c>
-      <c r="B8" s="77" t="s">
-        <v>298</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>254</v>
-      </c>
-      <c r="D8" s="77">
+      <c r="B8" s="74" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="74">
         <v>0.0</v>
       </c>
-      <c r="E8" s="91" t="s">
-        <v>329</v>
-      </c>
-      <c r="F8" s="77" t="s">
-        <v>342</v>
-      </c>
-      <c r="G8" s="92" t="s">
-        <v>343</v>
+      <c r="E8" s="88" t="s">
+        <v>320</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" s="89" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -8996,37 +8760,37 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>344</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>345</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>349</v>
+      <c r="B1" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="2" ht="186.0" customHeight="1">
-      <c r="A2" s="68">
+      <c r="A2" s="65">
         <f t="shared" ref="A2:A4" si="1">ROW()-ROW($A$2)-1</f>
         <v>-1</v>
       </c>
-      <c r="B2" s="68" t="s">
-        <v>350</v>
-      </c>
-      <c r="C2" s="93" t="str">
+      <c r="B2" s="65" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="90" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(
 TEXTJOIN(""|"",TRUE,
 UNIQUE(TRANSPOSE(
@@ -9039,39 +8803,40 @@
 )"),"SPRITE_NONE|SPRITE_POTION_RED|SPRITE_POTION_BLUE")</f>
         <v>SPRITE_NONE|SPRITE_POTION_RED|SPRITE_POTION_BLUE</v>
       </c>
-      <c r="D2" s="93" t="str">
+      <c r="D2" s="90" t="str">
         <f t="shared" ref="D2:D4" si="2">SUBSTITUTE(G2,", ","|")</f>
         <v>PHRASE_NONSENSE</v>
       </c>
-      <c r="E2" s="93" t="str">
+      <c r="E2" s="90" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(
 TEXTJOIN(""|"",TRUE,
 UNIQUE(TRANSPOSE(
 SPLIT(TEXTJOIN("", "",TRUE,
 VLOOKUP(TRANSPOSE(SPLIT(F2,"", "")),HSTACK(Table_Items[ITEM_ID],Table_Items[Name]),2,FALSE),
-Table_PickableNames[NAMES]
+Table_PickableNames[NAMES],
+Table_Characters_Name[CharName]
 ),"", "")
 ))
 )
-)"),"NAME_NONE|NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION")</f>
-        <v>NAME_NONE|NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION</v>
-      </c>
-      <c r="F2" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" s="72" t="s">
-        <v>328</v>
+)"),"NAME_NONE|NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION|NAME_CHAR_MAIN|NAME_CHAR_PARROT|NAME_CHAR_SNAKE")</f>
+        <v>NAME_NONE|NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION|NAME_CHAR_MAIN|NAME_CHAR_PARROT|NAME_CHAR_SNAKE</v>
+      </c>
+      <c r="F2" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="3" ht="98.25" customHeight="1">
-      <c r="A3" s="68">
+      <c r="A3" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>351</v>
-      </c>
-      <c r="C3" s="93" t="str">
+      <c r="B3" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="90" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(
 TEXTJOIN(""|"",TRUE,
 UNIQUE(TRANSPOSE(
@@ -9084,39 +8849,40 @@
 )"),"SPRITE_POTION_RED|SPRITE_POTION_BLUE|SPRITE_FOUNTAIN|SPRITE_FOUNTAIN_FULL|SPRITE_NPC_MILITO")</f>
         <v>SPRITE_POTION_RED|SPRITE_POTION_BLUE|SPRITE_FOUNTAIN|SPRITE_FOUNTAIN_FULL|SPRITE_NPC_MILITO</v>
       </c>
-      <c r="D3" s="93" t="str">
+      <c r="D3" s="90" t="str">
         <f t="shared" si="2"/>
         <v>PHRASE_NONSENSE|PHRASE_ASK_FOUNTAIN1_1|PHRASE_ASK_FOUNTAIN1_2|PHRASE_ASK_FOUNTAIN2_1|PHRASE_ASK_FOUNTAIN3_1|PHRASE_ASK_FOUNTAIN4_1</v>
       </c>
-      <c r="E3" s="93" t="str">
+      <c r="E3" s="90" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(
 TEXTJOIN(""|"",TRUE,
 UNIQUE(TRANSPOSE(
 SPLIT(TEXTJOIN("", "",TRUE,
 VLOOKUP(TRANSPOSE(SPLIT(F3,"", "")),HSTACK(Table_Items[ITEM_ID],Table_Items[Name]),2,FALSE),
-Table_PickableNames[NAMES]
+Table_PickableNames[NAMES],
+Table_Characters_Name[CharName]
 ),"", "")
 ))
 )
-)"),"NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION|NAME_ITEM_FOUNTAIN|NAME_NPC_MILITO")</f>
-        <v>NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION|NAME_ITEM_FOUNTAIN|NAME_NPC_MILITO</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>352</v>
-      </c>
-      <c r="G3" s="72" t="s">
-        <v>353</v>
+)"),"NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION|NAME_ITEM_FOUNTAIN|NAME_NPC_MILITO|NAME_CHAR_MAIN|NAME_CHAR_PARROT|NAME_CHAR_SNAKE")</f>
+        <v>NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION|NAME_ITEM_FOUNTAIN|NAME_NPC_MILITO|NAME_CHAR_MAIN|NAME_CHAR_PARROT|NAME_CHAR_SNAKE</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>343</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="68">
+      <c r="A4" s="65">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>354</v>
-      </c>
-      <c r="C4" s="93" t="str">
+      <c r="B4" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="90" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(
 TEXTJOIN(""|"",TRUE,
 UNIQUE(TRANSPOSE(
@@ -9129,28 +8895,29 @@
 )"),"SPRITE_LAST|SPRITE_POTION_RED|SPRITE_POTION_BLUE")</f>
         <v>SPRITE_LAST|SPRITE_POTION_RED|SPRITE_POTION_BLUE</v>
       </c>
-      <c r="D4" s="93" t="str">
+      <c r="D4" s="90" t="str">
         <f t="shared" si="2"/>
         <v>PHRASE_NONSENSE</v>
       </c>
-      <c r="E4" s="93" t="str">
+      <c r="E4" s="90" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("ARRAYFORMULA(
 TEXTJOIN(""|"",TRUE,
 UNIQUE(TRANSPOSE(
 SPLIT(TEXTJOIN("", "",TRUE,
 VLOOKUP(TRANSPOSE(SPLIT(F4,"", "")),HSTACK(Table_Items[ITEM_ID],Table_Items[Name]),2,FALSE),
-Table_PickableNames[NAMES]
+Table_PickableNames[NAMES],
+Table_Characters_Name[CharName]
 ),"", "")
 ))
 )
-)"),"NAME_NPC_LAST|NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION")</f>
-        <v>NAME_NPC_LAST|NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>267</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>328</v>
+)"),"NAME_NPC_LAST|NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION|NAME_CHAR_MAIN|NAME_CHAR_PARROT|NAME_CHAR_SNAKE")</f>
+        <v>NAME_NPC_LAST|NAME_ITEM_POTION|NAME_ITEM_BLUE_POTION|NAME_CHAR_MAIN|NAME_CHAR_PARROT|NAME_CHAR_SNAKE</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/VARMAP_Generator/VARMAP.xlsx
+++ b/VARMAP_Generator/VARMAP.xlsx
@@ -6,13 +6,13 @@
     <sheet state="visible" name="VARMAP" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="SERVICES" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="ACTION_CONDS" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="ITEMS" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="SPRITES" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="SPRITES" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="ITEMS" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="DIALOGS" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="NAMES" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="PHRASES" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="ROOMS" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="CHARACTERS" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="TYPES" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="EVENTS" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="CONSTANTS" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="_ITEM_AVAIL" sheetId="13" r:id="rId16"/>
@@ -22,7 +22,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId18" roundtripDataChecksum="RXxbI56OJ5UISGD6i8DWDI2KMxa52VBE/kVhRxXT/Ck="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId18" roundtripDataChecksum="zemEGP61/Qsn62AreRdmMzAc5WTt+jRs8AR9io3o91g="/>
     </ext>
   </extLst>
 </workbook>
@@ -41,12 +41,6 @@
       </text>
     </comment>
     <comment authorId="0" ref="E7">
-      <text>
-        <t xml:space="preserve">Calculated
-======</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E13">
       <text>
         <t xml:space="preserve">Calculated
 ======</t>
@@ -95,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="397">
   <si>
     <t>N</t>
   </si>
@@ -256,9 +250,6 @@
     <t>GameItem.ITEM_NONE</t>
   </si>
   <si>
-    <t>PLAYER_TRANSACTION</t>
-  </si>
-  <si>
     <t>LAST_VARMAP_VAL</t>
   </si>
   <si>
@@ -463,13 +454,13 @@
     <t>Updates actual player waypoint when crossing or stopping on it</t>
   </si>
   <si>
-    <t>GAME_ELEMENT_CLICK</t>
-  </si>
-  <si>
-    <t>GAME_ELEMENT_CLICK_DELEGATE</t>
-  </si>
-  <si>
-    <t>LevelMasterClass.GameElementClickService</t>
+    <t>GAME_ELEMENT_OVER</t>
+  </si>
+  <si>
+    <t>GAME_ELEMENT_OVER_DELEGATE</t>
+  </si>
+  <si>
+    <t>LevelMasterClass.GameElementOverService</t>
   </si>
   <si>
     <t>Any of Game Elements (Player or Item or Door) will call with essential info</t>
@@ -547,6 +538,30 @@
     <t>Activates/Deactivates an event</t>
   </si>
   <si>
+    <t>IS_ITEM_AVAILABLE</t>
+  </si>
+  <si>
+    <t>IS_ITEM_AVAILABLE_DELEGATE</t>
+  </si>
+  <si>
+    <t>LevelMasterClass.IsItemAvailableService</t>
+  </si>
+  <si>
+    <t>Gets if an item is available to interact with</t>
+  </si>
+  <si>
+    <t>INTERACT_PLAYER</t>
+  </si>
+  <si>
+    <t>INTERACT_PLAYER_DELEGATE</t>
+  </si>
+  <si>
+    <t>PlayerMasterClass.InteractPlayerService</t>
+  </si>
+  <si>
+    <t>Makes player interact with usage data</t>
+  </si>
+  <si>
     <t>USE_ITEM</t>
   </si>
   <si>
@@ -571,30 +586,6 @@
     <t>Tells if item is taken from scene</t>
   </si>
   <si>
-    <t>INTERACT_PLAYER</t>
-  </si>
-  <si>
-    <t>INTERACT_PLAYER_DELEGATE</t>
-  </si>
-  <si>
-    <t>PlayerMasterClass.InteractPlayerService</t>
-  </si>
-  <si>
-    <t>Interacts player with an item</t>
-  </si>
-  <si>
-    <t>GET_SCENARIO_ITEM_LIST</t>
-  </si>
-  <si>
-    <t>GET_SCENARIO_ITEM_LIST_DELEGATE</t>
-  </si>
-  <si>
-    <t>LevelMasterClass.GetScenarioItemListService</t>
-  </si>
-  <si>
-    <t>Gets scenario item list</t>
-  </si>
-  <si>
     <t>ENABLE_ITEM_MENU</t>
   </si>
   <si>
@@ -811,21 +802,63 @@
     <t>COND_LAST</t>
   </si>
   <si>
+    <t>SPRITE_ID</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>SPRITE_NONE</t>
+  </si>
+  <si>
+    <t>SPRITE_POTION_RED</t>
+  </si>
+  <si>
+    <t>Sprites/potion_64</t>
+  </si>
+  <si>
+    <t>SPRITE_POTION_BLUE</t>
+  </si>
+  <si>
+    <t>Sprites/potionblue_64</t>
+  </si>
+  <si>
+    <t>SPRITE_FOUNTAIN</t>
+  </si>
+  <si>
+    <t>Sprites/spr_fountain_256</t>
+  </si>
+  <si>
+    <t>SPRITE_FOUNTAIN_FULL</t>
+  </si>
+  <si>
+    <t>Sprites/spr_fountain_full_256</t>
+  </si>
+  <si>
+    <t>SPRITE_NPC_MILITO</t>
+  </si>
+  <si>
+    <t>Sprites/spr_milito_1</t>
+  </si>
+  <si>
+    <t>SPRITE_LAST</t>
+  </si>
+  <si>
     <t>ITEM_ID</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>FamilyType</t>
+  </si>
+  <si>
     <t>Sprites</t>
   </si>
   <si>
     <t>PICKABLE</t>
   </si>
   <si>
-    <t>NPC</t>
-  </si>
-  <si>
     <t>SpritePickable</t>
   </si>
   <si>
@@ -835,21 +868,39 @@
     <t>NAME_NONE</t>
   </si>
   <si>
-    <t>SPRITE_NONE</t>
+    <t>ITEM_FAMILY_TYPE_NONE</t>
+  </si>
+  <si>
+    <t>ITEM_PLAYER_MAIN</t>
+  </si>
+  <si>
+    <t>NAME_CHAR_MAIN</t>
+  </si>
+  <si>
+    <t>ITEM_FAMILY_TYPE_PLAYER</t>
+  </si>
+  <si>
+    <t>ITEM_PLAYER_PARROT</t>
+  </si>
+  <si>
+    <t>NAME_CHAR_PARROT</t>
+  </si>
+  <si>
+    <t>ITEM_PLAYER_SNAKE</t>
+  </si>
+  <si>
+    <t>NAME_CHAR_SNAKE</t>
   </si>
   <si>
     <t>NAME_ITEM_POTION</t>
   </si>
   <si>
-    <t>SPRITE_POTION_RED</t>
+    <t>ITEM_FAMILY_TYPE_OBJECT</t>
   </si>
   <si>
     <t>NAME_ITEM_BLUE_POTION</t>
   </si>
   <si>
-    <t>SPRITE_POTION_BLUE</t>
-  </si>
-  <si>
     <t>ITEM_FOUNTAIN</t>
   </si>
   <si>
@@ -868,7 +919,7 @@
     <t>NAME_NPC_MILITO</t>
   </si>
   <si>
-    <t>SPRITE_NPC_MILITO</t>
+    <t>ITEM_FAMILY_TYPE_NPC</t>
   </si>
   <si>
     <t>ITEM_LAST</t>
@@ -877,39 +928,12 @@
     <t>NAME_NPC_LAST</t>
   </si>
   <si>
-    <t>SPRITE_LAST</t>
-  </si>
-  <si>
-    <t>SPRITE_ID</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>Sprites/potion_64</t>
-  </si>
-  <si>
-    <t>Sprites/potionblue_64</t>
-  </si>
-  <si>
-    <t>SPRITE_FOUNTAIN</t>
-  </si>
-  <si>
-    <t>Sprites/spr_fountain_256</t>
-  </si>
-  <si>
-    <t>SPRITE_FOUNTAIN_FULL</t>
-  </si>
-  <si>
-    <t>Sprites/spr_fountain_full_256</t>
-  </si>
-  <si>
-    <t>Sprites/spr_milito_1</t>
-  </si>
-  <si>
     <t>DIALOG_ID</t>
   </si>
   <si>
+    <t>Talkers</t>
+  </si>
+  <si>
     <t>Options</t>
   </si>
   <si>
@@ -979,24 +1003,15 @@
     <t>Name_Spanish</t>
   </si>
   <si>
-    <t>NAME_CHAR_MAIN</t>
-  </si>
-  <si>
     <t>Blount</t>
   </si>
   <si>
-    <t>NAME_CHAR_PARROT</t>
-  </si>
-  <si>
     <t>Parrot</t>
   </si>
   <si>
     <t>Loro</t>
   </si>
   <si>
-    <t>NAME_CHAR_SNAKE</t>
-  </si>
-  <si>
     <t>Snake</t>
   </si>
   <si>
@@ -1036,7 +1051,7 @@
     <t>PHRASE_ID</t>
   </si>
   <si>
-    <t>Sender</t>
+    <t>TalkerIndex</t>
   </si>
   <si>
     <t>Sound</t>
@@ -1126,7 +1141,7 @@
     <t>ROOM_FIRST</t>
   </si>
   <si>
-    <t>ITEM_POTION, ITEM_POTION_BLUE, ITEM_FOUNTAIN, ITEM_NPC_MILITO</t>
+    <t>ITEM_PLAYER_MAIN, ITEM_PLAYER_PARROT, ITEM_POTION, ITEM_POTION_BLUE, ITEM_FOUNTAIN, ITEM_NPC_MILITO</t>
   </si>
   <si>
     <t>PHRASE_NONSENSE, PHRASE_ASK_FOUNTAIN1_1, PHRASE_ASK_FOUNTAIN1_2, PHRASE_ASK_FOUNTAIN2_1, PHRASE_ASK_FOUNTAIN3_1, PHRASE_ASK_FOUNTAIN4_1</t>
@@ -1135,7 +1150,7 @@
     <t>ROOM_LAST</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>CHARACTER_TYPE_ID</t>
   </si>
   <si>
     <t>CHARACTER_SNAKE</t>
@@ -1159,12 +1174,15 @@
     <t>INTERACTION_TALK</t>
   </si>
   <si>
-    <t>CharName</t>
-  </si>
-  <si>
     <t>DIALOG_ANIMATION_ID</t>
   </si>
   <si>
+    <t>ITEM_FAMILY_TYPE_ID</t>
+  </si>
+  <si>
+    <t>ITEM_FAMILY_TYPE_DOOR</t>
+  </si>
+  <si>
     <t>EVENT_ID</t>
   </si>
   <si>
@@ -1187,9 +1205,6 @@
   </si>
   <si>
     <t>EVENT_COMBI_ID</t>
-  </si>
-  <si>
-    <t>NUM_PLAYERS</t>
   </si>
   <si>
     <t>SPRITES</t>
@@ -1312,7 +1327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border/>
     <border>
       <left style="thin">
@@ -1459,6 +1474,48 @@
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
@@ -1498,48 +1555,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF6F8F9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF6F8F9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -1550,34 +1565,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF284E3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
       </bottom>
     </border>
     <border>
@@ -1682,7 +1669,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="132">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1788,6 +1775,18 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1797,11 +1796,23 @@
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1860,76 +1871,88 @@
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1945,82 +1968,85 @@
     <xf borderId="3" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2034,12 +2060,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -2097,7 +2117,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="21">
+  <tableStyles count="20">
     <tableStyle count="3" pivot="0" name="VARMAP-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
@@ -2113,12 +2133,12 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="ITEMS-style">
+    <tableStyle count="3" pivot="0" name="SPRITES-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="SPRITES-style">
+    <tableStyle count="3" pivot="0" name="ITEMS-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
@@ -2148,27 +2168,27 @@
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="CHARACTERS-style">
+    <tableStyle count="3" pivot="0" name="TYPES-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="CHARACTERS-style 2">
+    <tableStyle count="3" pivot="0" name="TYPES-style 2">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="CHARACTERS-style 3">
+    <tableStyle count="3" pivot="0" name="TYPES-style 3">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="CHARACTERS-style 4">
+    <tableStyle count="3" pivot="0" name="TYPES-style 4">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableSty